--- a/Source/BCIO-source-hierarchy.xlsx
+++ b/Source/BCIO-source-hierarchy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O142"/>
+  <dimension ref="A1:O143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,44 +445,44 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
           <t>Sub-ontology</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
         <is>
           <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Examples</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OBI:0000245</t>
+          <t>BCIO:015098</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>organisation</t>
+          <t>gender identity</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -493,25 +493,25 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>An entity that can bear roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Population</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:010139</t>
+          <t>BCIO:010111</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>organisation source</t>
+          <t>female gender</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -521,27 +521,32 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>An organisation that is the bearer of a behaviour change intervention source role, such as voluntary, public or commercial organisations delivering a behaviour change intervention.</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A gender identity as being female.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>female, woman</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:010126</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>amount of experience</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>BCIO:010112</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>male gender</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -549,29 +554,29 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>A knowledge or skill that is the duration of experience in related domain held by person source.</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>full-day, 6 years</t>
+          <t>A gender identity as being male.</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>male, man</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:010107</t>
+          <t>BCIO:010120</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>total number of people able to deliver intervention</t>
+          <t>expertise of person source</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -582,10 +587,10 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>A count data item that is the total number of providers that are available and able to deliver the intervention.</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+          <t>A disposition that is an expert skill or knowledge held by the source delivering the behaviour change intervention.</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -594,15 +599,15 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:010106</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>number of people delivering intervention to each participant</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>BCIO:010121</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>knowledge or skill</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -610,123 +615,123 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>A count data item that is the number of providers that an individual participant in the intervention encounters.</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>An expertise of person source that is knowledge or skills held in order to deliver the behaviour change intervention.</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>trained (if unclear whether pre-existing or acquired)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:010123</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>expertise discipline</t>
-        </is>
-      </c>
+          <t>BCIO:010125</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>acquired knowledge or skill</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>An attribute that is a field of knowledge or practice.</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
+          <t>A knowledge or skill that is additional knowledge or skills supplied to the source to allow them to deliver the behaviour change intervention, including educational level and qualifications.</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:010124</t>
+          <t>BCIO:010122</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>discipline of pre-existing knowledge or skill</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>pre-existing knowledge or skill</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>The expertise discipline in which the person source has acquired their pre-existing knowledge and skills.</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
+          <t>A knowledge or skill that is already possessed by the source which allows them to deliver the behaviour change intervention, including educational level and qualifications.</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Bachelor’s degree, certification, accredited, qualified</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:010093</t>
+          <t>BCIO:010127</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>discipline of current programme of study or training</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>affiliation to a formal group or organisation</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>An expertise discipline of the programme of study currently undertaken by the bearer of a student or trainee role.</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>psychology, medicine, hairdressing</t>
+          <t>A pre-existing knowledge or skill that is recognised through affiliation to a formal group or organisation.</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>member of British Psychological Society</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:010108</t>
+          <t>BCIO:010003</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>socio demographic attribute of person source</t>
+          <t>personal role of source</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -737,10 +742,10 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>A social or demographic characteristic of a human being who is the bearer of a person source role.</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+          <t>A role that inheres in a person source.</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -749,13 +754,13 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:010110</t>
+          <t>BCIO:010094</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>gender of person source</t>
+          <t>relatedness between person source and the target population</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -765,31 +770,26 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>gender</t>
+          <t>A personal role of source that is realised in some relationship to the characteristics of the intervention participants.</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:010113</t>
+          <t>BCIO:010102</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>other gender</t>
+          <t>colleague</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -798,142 +798,127 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>A gender of person source that reports not belonging to the cultural gender role distinctions of either male or female.</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>non-binary, transexual</t>
+          <t>A relatedness between person source and the target population that is a person with whom the participant works in a profession or business.</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:010116</t>
+          <t>BCIO:010105</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>language proficiency of person source</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>embedded in participants’ community</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is an individual’s ability to speak or perform in the intervention language.</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>fluent, native</t>
+          <t>A relatedness between person source and the target population that is a source who is known and working to deliver intervention in own community.</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:010118</t>
+          <t>BCIO:010100</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>target behaviour of person source</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>carer</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is their amount or experience of the intervention’s target behaviour.</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>source is highly physically active</t>
+          <t>A relatedness between person source and the target population that is an individual who cares, unpaid, for a friend or family member who, due to illness or disability, requires support in their daily life activities.</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>carer</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:010115</t>
+          <t>BCIO:010103</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>religious group membership of person source</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>employer</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is a religious group to which an individual identifies as belonging, where a religious group is a group of people characterised by the practice of a common religion.</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Muslim, Christian, Hindu, Sikh, Buddhist, Judaism</t>
+          <t>A relatedness between person source and the target population that is a person which hires the services of the participant.</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:010109</t>
+          <t>BCIO:010101</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>age of person source</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>friend</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+          <t>A relatedness between person source and the target population that is a person whom the participant knows, likes and trusts, typically exclusive of sexual or family relations.</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -942,46 +927,41 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:010114</t>
+          <t>BCIO:010104</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>ethnic group membership of person source</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>peer</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is the ethnic group to which an individual identifies as belonging, where an ethic group is a population whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>black, white, Indian, Chinese, Somalian</t>
+          <t>A relatedness between person source and the target population that is descried as matched to intervention recipients on the basis of ‘peerness’ – age, social status, gender, shared experience, shared health status etc.</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:010117</t>
+          <t>BCIO:010004</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>health status of person source</t>
+          <t>occupational role of source</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -991,617 +971,627 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that represents their mental or physical condition.</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>diabetes, cancer, depression, obesity, overweight</t>
+          <t>A personal role of source that is realised by doing a specified type of work or working in a specified way.</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Interventionist, facilitator, study staff</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:010119</t>
+          <t>BCIO:010005</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>psychological influence on intervention delivery of person source</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>manager</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is their existing psychological attributes related to or potentially affecting the target behaviour.</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>An occupational role of source that manages, plans and coordinates the overall activities of enterprises, governments and other organisations.</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Chief Executive Officers; Administrative Managers;  Commercial Managers</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:015098</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>gender identity</t>
-        </is>
-      </c>
+          <t>BCIO:010068</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>services and sales worker</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Population</t>
+          <t>An occupational role that provides personal or protective services related to travel, house-keeping, catering, personal care, protection against fire and unlawful acts, or sells goods in retail or markets.</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:010111</t>
+          <t>BCIO:010076</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>female gender</t>
-        </is>
-      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>protective services worker</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>A gender identity as being female.</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>female, woman</t>
+          <t>A services and sales worker that protects individuals and property against fire and other hazards, maintain law and order and enforce laws and regulations.</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Firefighter, Police officer, Prison guard, Security guard, Offender manager</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:010112</t>
+          <t>BCIO:010069</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>male gender</t>
-        </is>
-      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>personal services worker</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>A gender identity as being male.</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>male, man</t>
+          <t>A services and sales worker that provides personal services related to travel, housekeeping, catering and hospitality, hairdressing and beauty treatment, animal care grooming and training, companionship and other services of a personal nature.</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Travel Attendant, Conductor, Guide, Cook, Waiter, Bartender, Hairdresser, Beautician, Housekeeping Supervisor, Astrologer, Fortune-teller, Valet, Undertaker, Embalmer, Pet Groomer, Animal Care Worker</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:010003</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>personal role of source</t>
-        </is>
-      </c>
+          <t>BCIO:010071</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>personal care worker</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>A role that inheres in a person source.</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A services and sales worker that provides care, supervision and assistance for children, patients and elderly, convalescent or disabled persons in institutional and residential settings.</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Personal carer</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:010004</t>
+          <t>BCIO:010075</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>occupational role of source</t>
-        </is>
-      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>home-based personal care worker</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>A personal role of source that is realised by doing a specified type of work or working in a specified way.</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>Interventionist, facilitator, study staff</t>
+          <t>A personal care worker that provide routine personal care and assistance with activities of daily living to persons who are in need of such care due to effects of ageing, illness, injury, or other physical or mental conditions, in private homes and other independent residential settings.</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Home birth assistant, Home care aide, Nursing aide (home), Personal care provider</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:010081</t>
+          <t>BCIO:010073</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>elementary occupation</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>teachers’ aide</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>An occupational role that involves the performance of simple and routine tasks which may require the use of hand-held tools and considerable physical effort.</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>Cleaner, Labourer, Food Preparation Assistant, Street and Related Services Worker, Street Vendor (excluding Food), Refuse Worker</t>
+          <t>A personal care worker that performs non-teaching duties to assist teaching staff, and provides care and supervision for children in schools and pre-schools.</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Pre-school assistant, Teacher’s assistant</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:010006</t>
+          <t>BCIO:010074</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>professional</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>health care assistant</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>An occupational role that works in knowledge building activities, applies scientific or artistic concepts and theories or teaches about the foregoing in a systematic manner.</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A personal care worker that provides direct personal care and assistance with activities of daily living to patients and residents in a variety of health care settings, working  in implementation of established care plans and practices, and under the direct supervision of medical, nursing or other health professionals or associate professionals.</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Nursing aide (clinic or hospital), Patient care assistant, Psychiatric aid</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:010008</t>
+          <t>BCIO:010072</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>health professional</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>child care worker</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>A professional that improves or develops concepts, theories and operational method, and applied scientific knowledge relating to medicine, nursing, dentistry, veterinary medicine, pharmacy, and promotion of health.</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Health professional; Arts therapist, Chiropractor, Dance and movement therapist, Occupational therapist, Osteopath, Podiatrist, Recreational therapist, Health staff, Clinic staff</t>
+          <t>A personal care worker that provides care and supervision for children in non-domestic settings.</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Babysitter, Child care worker, Creche ayah, Family day care worker, Nanny, Out of school hours care worker</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:010018</t>
+          <t>BCIO:010070</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>dentist</t>
-        </is>
-      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>sales worker</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>A health professional that diagnoses treats and prevents diseases, injuries and abnormalities of the teeth, mouth, jaws and associated tissues by applying the principles and procedures of modern dentistry.</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Dental practitioner, Dental surgeon, Dentist, Endodontist, Oral and maxillofacial surgeon, Oral pathologist, Orthodontist, Paedodontist, Periodontist, Prosthodontist, Stomatologist</t>
+          <t>A services and sales worker that demonstrates goods in wholesale or retail shops, at stalls and markets, door to door, via telephone or customer contact centres. They may record and accept payment for goods and services purchased, and may operate small retail outlets.</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Street Salesperson, Market Salesperson, Shop Salesperson, Cashier, Ticket Clerk, Model, Sales Demonstrator, Door-to-door Salesperson, Contact Centre Salesperson, Service Station Attendant, Food Service Counter Attendant</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:010023</t>
+          <t>BCIO:010083</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>researcher</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>audiologist and speech therapist</t>
-        </is>
-      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>A health professional  that evaluates, manages and treats physical disorders affecting human hearing, speech, communication and swallowing.</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>Audiologist, Language therapist, Speech pathologist, Speech therapist</t>
+          <t>An occupational role that is a researcher but unclear what discipline.</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>researcher, research assistant, investigator</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:010015</t>
+          <t>BCIO:010077</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>skilled agricultural, forestry and fishery worker</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>traditional and complementary medicine professional</t>
-        </is>
-      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>A health professional that examines patients, prevents and treats illness, disease, injury and other physical and mental impairments and maintains general health in humans. They do this by applying knowledge, skills and practices acquired through extensive study of the theories, beliefs and experiences originating in specific cultures.</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Acupuncturist, Ayurvedic practitioner,  Chinese herbal medicine practitioner, Homeopath, Naturopath, Unani practitioner</t>
+          <t>An occupational role that grows and harvests plants or animals to provide food, shelter and income for themselves and their households.</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Market gardener, Crop grower, Animal Producer, Mixed Crop and Animal Producer, Forestry worker, Fishery worker, Hunter. Subsistence Crop Farmer, Subsistence Livestock Farmer</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:010021</t>
+          <t>BCIO:010067</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>clerical support worker</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>physiotherapist</t>
-        </is>
-      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>A health professional  that assesses, plans and implements rehabilitative programmes that improve or restore human motor functions, maximize movement ability, relieve pain syndromes, and treat or prevent physical challenges associated with injuries, diseases and other impairments.</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Geriatric physical therapist, Manipulative therapist, Orthopaedic physical therapist, Paediatric physical therapist, Physical therapist, Physiotherapist</t>
+          <t>An occupational role that records, organizes, stores, computes and retrieves information, and performs a number of clerical duties in connection with money-handling operations, travel arrangements, requests for information, and appointments.</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>General and Keyboard Clerk, customers Services Clerk, Numerical and Material Recording Clerk</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:010022</t>
+          <t>BCIO:010078</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>craft and related trades worker</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>dietician and nutritionist</t>
-        </is>
-      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>A health professional  that assesses, plans and implements programmes to enhance the impact of food and nutrition on human health.</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Clinical dietician, Food service dietician, Nutritionist, Public health nutritionist, Sports nutritionist</t>
+          <t>An occupational role that applies specific technical and practical knowledge and skills to construct and maintain buildings, machinery, equipment or tools, carries out printing work, and produces or processes foodstuffs, textiles and wooden, metal and other articles, including handicraft goods.</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Building Trade Worker, Metal Workers, Machinery Worker, Handicraft Worker, Printing Worker, Electrical Equipment Installers and Repairer, Electronics and Telecommunications Installer and Repairer, Food Processing Worker, Woodworker, Tobacco Product Maker</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:010024</t>
+          <t>BCIO:010082</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>armed forces occupation</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>optometrist and ophthalmic optician</t>
-        </is>
-      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>A health professional  that provides diagnosis, management and treatment services for disorders of the eyes and visual system.</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>Ophthalmic optician , Optometrist, Orthoptist</t>
+          <t>An occupational role that includes all jobs held by members of the armed forces.</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Admiral, Air commodore, Air marshal, Airman, Brigadier (army), Bombardier, Captain (air force), Captain (army), Captain (navy), Colonel (army), Corporal,  Field marshal, Flight lieutenant (air force), Flying officer (military), General (army), Gunner, Group captain, (air force), Lieutenant (army), Major (army), Midshipman, Naval officer (military) , Navy commander, Officer cadet (armed forces), Paratrooper, Rifleman, Sergeant (army), Second lieutenant (army), Seaman, Squadron leader, Sublieutenant (navy), Wing commander</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:010009</t>
+          <t>BCIO:010080</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>assembler</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>medical doctor</t>
-        </is>
-      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>A health professional that studies, diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans through the application of modern medicine. They plan, supervise and evaluate the implementation of care and treatment plans by other health care providers, and conduct medical education and research activities.</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>District medical doctor-therapist, family medical practitioner, general practitioner, medical doctor (general), medical officer (general), physician (general), primary health care physician, resident medical officer specializing in general practice</t>
+          <t>An occupational role that assembles products from component parts according to strict specifications and procedures.</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:010011</t>
+          <t>BCIO:010079</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>plant and machine operator</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>specialist medical practitioner</t>
-        </is>
-      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans, using specialized testing, diagnostic, medical, surgical, physical and psychiatric techniques through application of the principles and procedures of modern medicine. They specialize in certain disease categories, types of patient or methods of treatment and may conduct medical education and research in their chosen areas of specialization.</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>Anaesthetist, Cardiologist, Emergency medicine specialist, Gynaecologist, Obstetrician, Ophthalmologist, Paediatrician, Pathologist, Preventive medicine specialist, Psychiatrist, Radiation oncologist, Radiologist, Resident medical officer in specialist training, Specialist medical practitioner (public health), Specialist physician (internal medicine), Specialist physician (nuclear medicine), Surgeon</t>
+          <t>An occupational role that operates and monitors industrial and agricultural machinery and equipment on the spot or by remote control, or drives and operates trains, motor vehicles and mobile machinery and equipment.</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Stationary Plant and Machine Operator, Driver, Mobile Plant Operator</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:010010</t>
+          <t>BCIO:010081</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>elementary occupation</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>generalist medical practitioner</t>
-        </is>
-      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments and maintains general health in humans through application of modern medicine. They do not limit their practice to certain disease categories or methods of treatment, and may assume responsibility for the provision of continuing and comprehensive medical care to individuals, families and communities.</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>Primary care physician, family doctor, GP</t>
+          <t>An occupational role that involves the performance of simple and routine tasks which may require the use of hand-held tools and considerable physical effort.</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Cleaner, Labourer, Food Preparation Assistant, Street and Related Services Worker, Street Vendor (excluding Food), Refuse Worker</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:010012</t>
+          <t>BCIO:010006</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>professional</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>nursing and midwifery professional</t>
-        </is>
-      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>A health professional that provides treatment and care services for people who are physically or mentally ill, disabled or infirm, and those with potential risks to health including before, during and after childbirth. They assume responsibility for the planning, management and evaluation of the care of patients, including the supervision of other health care workers, working autonomously or in teams with medical doctors and others in the practical application of preventive and curative measures.</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
+          <t>An occupational role that works in knowledge building activities, applies scientific or artistic concepts and theories or teaches about the foregoing in a systematic manner.</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1610,40 +1600,40 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:010016</t>
+          <t>BCIO:010008</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>paramedical practitioner</t>
-        </is>
-      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>health professional</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>A health professional that provides advisory, diagnostic, curative and preventive medical services more limited in scope and complexity than those carried out by medical doctors. They work autonomously or with limited supervision of medical doctors, and apply advanced clinical procedures for treating and preventing diseases, injuries and other physical or mental impairments common to specific communities.</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>Advanced care paramedic, Clinical officer (paramedical), Feldscher, Primary care paramedic, Surgical technician</t>
+          <t>A professional that improves or develops concepts, theories and operational method, and applied scientific knowledge relating to medicine, nursing, dentistry, veterinary medicine, pharmacy, and promotion of health.</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Health professional; Arts therapist, Chiropractor, Dance and movement therapist, Occupational therapist, Osteopath, Podiatrist, Recreational therapist, Health staff, Clinic staff</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:010019</t>
+          <t>BCIO:010009</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1652,90 +1642,90 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>pharmacist</t>
+          <t>medical doctor</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>A health professional that stores, preserves, compounds and dispenses medicinal products and counsel on the proper use and adverse effects of drugs and medicines following prescriptions issued by medical doctors and other health professionals.</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>Dispensing chemist, Hospital pharmacist, Industrial pharmacist, Retail pharmacist</t>
+          <t>A health professional that studies, diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans through the application of modern medicine. They plan, supervise and evaluate the implementation of care and treatment plans by other health care providers, and conduct medical education and research activities.</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>District medical doctor-therapist, family medical practitioner, general practitioner, medical doctor (general), medical officer (general), physician (general), primary health care physician, resident medical officer specializing in general practice</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:010017</t>
+          <t>BCIO:010011</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>veterinarian</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>specialist medical practitioner</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>A health professional that diagnoses, prevents and treats diseases, injuries and dysfunctions of animals.</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>Animal pathologist, Veterinarian, Veterinary epidemiologist, Veterinary intern, Veterinary surgeon</t>
+          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans, using specialized testing, diagnostic, medical, surgical, physical and psychiatric techniques through application of the principles and procedures of modern medicine. They specialize in certain disease categories, types of patient or methods of treatment and may conduct medical education and research in their chosen areas of specialization.</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Anaesthetist, Cardiologist, Emergency medicine specialist, Gynaecologist, Obstetrician, Ophthalmologist, Paediatrician, Pathologist, Preventive medicine specialist, Psychiatrist, Radiation oncologist, Radiologist, Resident medical officer in specialist training, Specialist medical practitioner (public health), Specialist physician (internal medicine), Specialist physician (nuclear medicine), Surgeon</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:010014</t>
+          <t>BCIO:010010</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>midwifery professional</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>generalist medical practitioner</t>
+        </is>
+      </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>A health professional that plans, manages, provides and evaluates midwifery care services before, during and after pregnancy and childbirth. They provide delivery care for reducing health risks to women and newborn children, working autonomously or in teams with other health care providers.</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>Midwife</t>
+          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments and maintains general health in humans through application of modern medicine. They do not limit their practice to certain disease categories or methods of treatment, and may assume responsibility for the provision of continuing and comprehensive medical care to individuals, families and communities.</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Primary care physician, family doctor, GP</t>
         </is>
       </c>
     </row>
@@ -1761,12 +1751,12 @@
           <t>A health professional that provides treatment, support and care services for people who are in need of nursing care due to the effects of ageing, injury, illness or other physical or mental impairment, or potential risks to health.</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
         <is>
           <t>Clinical nurse consultant, District nurse, Nurse anaesthetist, Nurse educator, Nurse practitioner, Operating theatre nurse, Professional nurse, Public health nurse, Specialist nurse, Nursing Counsellor, Study Nurse</t>
         </is>
@@ -1775,7 +1765,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:010020</t>
+          <t>BCIO:010014</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -1784,64 +1774,64 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>environmental and occupational health and hygiene professional</t>
+          <t>midwifery professional</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>A health professional that assesses, plans and implements programmes to recognize, monitor and control environmental factors that can potentially affect human health, to ensure safe and healthy working conditions and to prevent disease or injury caused by chemical, physical, radiological and biological agents or ergonomic factors.</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>Environmental health officer, Occupational health and safety adviser, Occupational hygienist, Radiation protection expert</t>
+          <t>A health professional that plans, manages, provides and evaluates midwifery care services before, during and after pregnancy and childbirth. They provide delivery care for reducing health risks to women and newborn children, working autonomously or in teams with other health care providers.</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Midwife</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:010025</t>
+          <t>BCIO:010018</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>teaching professional</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>dentist</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>A professional that teaches the theory and practice of one or more disciplines at different educational levels.</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>Education Methods Specialist, Other Language Teacher, Information Technology Teacher, Private Tutor, School Counsellor, Student Advisor</t>
+          <t>A health professional that diagnoses treats and prevents diseases, injuries and abnormalities of the teeth, mouth, jaws and associated tissues by applying the principles and procedures of modern dentistry.</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Dental practitioner, Dental surgeon, Dentist, Endodontist, Oral and maxillofacial surgeon, Oral pathologist, Orthodontist, Paedodontist, Periodontist, Prosthodontist, Stomatologist</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:010031</t>
+          <t>BCIO:010023</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -1850,31 +1840,31 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>special needs teacher</t>
+          <t>audiologist and speech therapist</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches children, young persons or adults with physical or intellectual special needs.</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>Learning disabilities special education teacher, Learning support teacher, Remedial teacher, Teacher of gifted children, Teacher of the hearing impaired, Teacher of the sight impaired</t>
+          <t>A health professional  that evaluates, manages and treats physical disorders affecting human hearing, speech, communication and swallowing.</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Audiologist, Language therapist, Speech pathologist, Speech therapist</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:010032</t>
+          <t>BCIO:010022</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -1883,31 +1873,31 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>music teacher</t>
+          <t>dietician and nutritionist</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches students in the practice, theory and performance of music in private or small group tuition or within mainstream educational institutions.</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>Guitar teacher (private tuition), Piano teacher (private tuition), Singing teacher (private tuition), Violin teacher (private tuition)</t>
+          <t>A health professional  that assesses, plans and implements programmes to enhance the impact of food and nutrition on human health.</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Clinical dietician, Food service dietician, Nutritionist, Public health nutritionist, Sports nutritionist</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:010030</t>
+          <t>BCIO:010016</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -1916,31 +1906,31 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>early childhood educator</t>
+          <t>paramedical practitioner</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>A teaching professional that promotes the social, physical, and intellectual development of children below primary school age through the provision of educational and play activities.</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>Early childhood educator, Pre-school teacher</t>
+          <t>A health professional that provides advisory, diagnostic, curative and preventive medical services more limited in scope and complexity than those carried out by medical doctors. They work autonomously or with limited supervision of medical doctors, and apply advanced clinical procedures for treating and preventing diseases, injuries and other physical or mental impairments common to specific communities.</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Advanced care paramedic, Clinical officer (paramedical), Feldscher, Primary care paramedic, Surgical technician</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:010026</t>
+          <t>BCIO:010020</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -1949,31 +1939,31 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>university and higher education teacher</t>
+          <t>environmental and occupational health and hygiene professional</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>A teaching professional that prepares and delivers lectures and conduct tutorials in one or more subjects within a prescribed course of study at a university or other higher educational institution. They conduct research, and prepare scholarly papers and books.</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Higher education lecturer, Professor, University lecturer, University tutor</t>
+          <t>A health professional that assesses, plans and implements programmes to recognize, monitor and control environmental factors that can potentially affect human health, to ensure safe and healthy working conditions and to prevent disease or injury caused by chemical, physical, radiological and biological agents or ergonomic factors.</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Environmental health officer, Occupational health and safety adviser, Occupational hygienist, Radiation protection expert</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:010033</t>
+          <t>BCIO:010024</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1982,31 +1972,31 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>arts teacher</t>
+          <t>optometrist and ophthalmic optician</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>A teaching professional  that teaches students in the practice, theory and performance of dance, drama, visual and other arts (excluding music) in private or small group tuition or within mainstream educational institutions.</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Dance teacher (private tuition), Drama teacher (private tuition), Painting teacher (private tuition), Sculpture teacher (private tuition)</t>
+          <t>A health professional  that provides diagnosis, management and treatment services for disorders of the eyes and visual system.</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Ophthalmic optician , Optometrist, Orthoptist</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:010028</t>
+          <t>BCIO:010015</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -2015,31 +2005,31 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>secondary education teacher</t>
+          <t>traditional and complementary medicine professional</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches one or more subjects at secondary education level.</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Secondary school teacher, High school teacher</t>
+          <t>A health professional that examines patients, prevents and treats illness, disease, injury and other physical and mental impairments and maintains general health in humans. They do this by applying knowledge, skills and practices acquired through extensive study of the theories, beliefs and experiences originating in specific cultures.</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Acupuncturist, Ayurvedic practitioner,  Chinese herbal medicine practitioner, Homeopath, Naturopath, Unani practitioner</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:010027</t>
+          <t>BCIO:010012</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -2048,31 +2038,26 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>vocational education teacher</t>
+          <t>nursing and midwifery professional</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches or instructs vocational or occupational subjects in adult and further education institutions and to senior students in secondary schools and colleges.</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Automotive technology instructor, Cosmetology instructor, Vocational education teacher</t>
+          <t>A health professional that provides treatment and care services for people who are physically or mentally ill, disabled or infirm, and those with potential risks to health including before, during and after childbirth. They assume responsibility for the planning, management and evaluation of the care of patients, including the supervision of other health care workers, working autonomously or in teams with medical doctors and others in the practical application of preventive and curative measures.</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:010029</t>
+          <t>BCIO:010019</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -2081,54 +2066,64 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>primary school teacher</t>
+          <t>pharmacist</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches teach a range of subjects at the primary education level.</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A health professional that stores, preserves, compounds and dispenses medicinal products and counsel on the proper use and adverse effects of drugs and medicines following prescriptions issued by medical doctors and other health professionals.</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Dispensing chemist, Hospital pharmacist, Industrial pharmacist, Retail pharmacist</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:010034</t>
+          <t>BCIO:010021</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>legal, social and cultural professional</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>physiotherapist</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>A professional that conducts research, improves or develops concepts, theories and operational methods, or applies knowledge relating to the law, social or cultural studies.</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A health professional  that assesses, plans and implements rehabilitative programmes that improve or restore human motor functions, maximize movement ability, relieve pain syndromes, and treat or prevent physical challenges associated with injuries, diseases and other impairments.</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Geriatric physical therapist, Manipulative therapist, Orthopaedic physical therapist, Paediatric physical therapist, Physical therapist, Physiotherapist</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:010041</t>
+          <t>BCIO:010017</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -2137,97 +2132,92 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>author and journalist</t>
+          <t>veterinarian</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that conceives and creates literary works, and interprets and communicates news and public affairs through the media.</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Author, Writer, Journalist, Translator, News anchor</t>
+          <t>A health professional that diagnoses, prevents and treats diseases, injuries and dysfunctions of animals.</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Animal pathologist, Veterinarian, Veterinary epidemiologist, Veterinary intern, Veterinary surgeon</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:010035</t>
+          <t>BCIO:010007</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>legal professional</t>
-        </is>
-      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>science and engineering professional</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that conducts research on legal problems, advises clients on legal aspects of problems, pleads cases or conducts prosecutions in courts of law, presides over judicial proceedings in courts of law and draft laws and regulations.</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>Lawyer, Judge, Coroner</t>
+          <t>A professional that conducts research, improves or develops concepts, theories and operational methods or applies scientific knowledge.</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Science Professional, Mathematician, Actuary, Statistician, Life Science Professional, Engineering Professional, Electrotechnology Engineer, Architect, Planner, Surveyor, Designer</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:010036</t>
+          <t>BCIO:010044</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>librarian, archivist and curator</t>
-        </is>
-      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>technician and associate professional</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that develops and maintains collections of archives, libraries, museums, art galleries and similar establishments.</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Librarian, Archivist,  Curator</t>
+          <t>A professional that performs technical and related tasks connected with research and the application of scientific or artistic concepts and operational methods, and government or business regulations.</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:010043</t>
+          <t>BCIO:010060</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -2236,31 +2226,31 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>creative and performing artist</t>
+          <t>religious associate professional</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that communicates ideas, impressions and facts in a wide range of media to achieve particular effects, interprets a composition such as a musical score or a script to perform or direct the performance, and hosts the presentation of such performance and other media events.</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>Visual artist, Musician, Singer, Composer, Dancer, Choreographer, Director, Producer, Actor, Announcer on radio, television and other media</t>
+          <t>A technician and associate professional that provides support to ministers of religion or to a religious community, undertake religious works, preach and propagate the teachings of a particular religion and endeavour to improve well-being through the power of faith and spiritual advice.</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Faith healer, Lay preacher, Monk, Nun</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:010040</t>
+          <t>BCIO:010065</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
@@ -2269,31 +2259,31 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>religious professional</t>
+          <t>artistic, cultural and culinary associate professional</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that functions  as a perpetuator of sacred traditions, practices and beliefs. They conduct religious services, celebrate or administer the rites of a religious faith or denomination, provide spiritual and moral guidance and perform other functions associated with the practice of a religion.</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>Bonze, Imam, Minister of religion, Poojari, Priest, Rabbi</t>
+          <t>A technician and associate professional that combines creative skills and technical and cultural knowledge in creative media or food.</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Photographer, Interior designers and decorator, Gallery, museum and library technician, Chef</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:010042</t>
+          <t>BCIO:010061</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -2302,64 +2292,64 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>linguist</t>
+          <t>sport and fitness worker</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that translates or interprets from one language into another.</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>Interpretator; other linguist</t>
+          <t>A technician and associate professional that prepares for and competes in sporting events for financial gain, trains amateur and professional sportsmen and women to enhance performance, promotes participation and standards in sport, organises and officiates sporting events, or provides instruction, training and supervision for various forms of exercise and other recreational activities.</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>physical activity professional, exercise physiologist, exercise therapist, exercise specialist</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:010037</t>
+          <t>BCIO:010064</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>social professional</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>fitness and recreation instructor and programme leader</t>
+        </is>
+      </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that conducts research, improves or develops concepts, theories and operational methods or applies knowledge relating to psychology, sociology, philosophy, politics, economics, sociology, anthropology, history and other social sciences, or provides social services to meet the needs of individuals and families in a community.</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>Economist, Sociologist, Anthropologist, Philosopher, Historian, Political Scientist</t>
+          <t>A sport and fitness worker that leads, guides and instructs groups and individuals in recreational, fitness or outdoor adventure activities.</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Aerobics instructor, Fitness instructor, Horse riding instructor, Outdoor adventure guide, Personal trainer, Sailing instructor, Underwater diving instructor</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:010038</t>
+          <t>BCIO:010063</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -2369,30 +2359,30 @@
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>psychologist</t>
+          <t>sports coach, instructor and official</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>A social professional that studies the mental processes and behaviour of human beings as individuals or in groups, and applies this knowledge to promote personal, social, educational or occupational adjustment and development.</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>Clinical psychologist, Counselling psychologist, Educational psychologist, Forensic psychologist, Health psychologist, Neuropsychologist, Organizational psychologist, Psychotherapist, Sport and exercise psychologist</t>
+          <t>A sport and fitness worker that works with amateur and professional sportspersons to enhance performance and encourage greater participation in sport, and organizes and officiates in sporting events according to established rules.</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Referee, Ski instructor, Sports coach, Sports official, Swimming instructor</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:010039</t>
+          <t>BCIO:010062</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -2402,58 +2392,63 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>social work and counselling professional</t>
+          <t>athlete and sports player</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>A social professional that provides advice and guidance to individuals, families, groups, communities and organizations in response to social and personal difficulties. They assist clients to develop skills and access resources and support services needed to respond to issues arising from unemployment, poverty, disability, addiction, criminal and delinquent behaviour, marital and other problems.</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>Counsellor, Addictions counsellor, Bereavement counsellor, Child and youth counsellor, District social welfare officer, Family counsellor, Marriage counsellor, Parole officer, Probation officer, Sexual assault counsellor, Social worker, Women’s welfare organizer</t>
+          <t>A sport and fitness worker that participates in competitive sporting events. They train and compete, either individually or as part of a team, in their chosen sport.</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Athlete, Bicycle racer, Boxer, Chess player , Footballer, Golfer, Hockey player, Jockey, Poker player, Racing driver, Skier, Tennis player, Wrestler</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:010044</t>
+          <t>BCIO:010057</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>technician and associate professional</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>business and administration associate professional</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>A professional that performs technical and related tasks connected with research and the application of scientific or artistic concepts and operational methods, and government or business regulations.</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A technician and associate professional that performs mostly technical tasks connected with the practical application of knowledge relating to financial accounting and transaction matters, mathematical calculations, human resource development, selling and buying financial instruments, specialized secretarial tasks and enforcing or applying government rules.</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Financial and Mathematical associate professional, Sales and purchasing agent, Broker, Business Services Agent, Administrative and Specialized Secretary, Government regulatory associate professional, Medical secretary</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:010066</t>
+          <t>BCIO:010059</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -2462,31 +2457,31 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>information and communications technician</t>
+          <t>social work associate professional</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>A technician and associate professional that provides support for the day to day running of computer systems, communication systems and networks, broadcast images and sound, telecommunication signals on land, sea or in aircraft.</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>Information and Communications Technology Operations and User Support Technician, Telecommunications and Broadcasting Technician</t>
+          <t>A technician and associate professional that implements social assistance programmes and community services and assist clients to deal with personal and social problems.</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Community development worker, Community services worker, Crisis intervention worker, Disability services worker, Family services worker, Life skills instructor, Mental health support worker, Welfare support worker, Women’s shelter supervisor, Youth services worker</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:010060</t>
+          <t>BCIO:010058</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -2495,31 +2490,31 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>religious associate professional</t>
+          <t>legal and related associate professional</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>A technician and associate professional that provides support to ministers of religion or to a religious community, undertake religious works, preach and propagate the teachings of a particular religion and endeavour to improve well-being through the power of faith and spiritual advice.</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>Faith healer, Lay preacher, Monk, Nun</t>
+          <t>A technician and associate professional that performs support functions in courts of law or in law offices, provide services related to such legal matters as insurance contracts, the transferring of property and the granting of loans and other financial transactions, or conduct investigations for clients.</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Bailiff, Judge’s clerk, Conveyancing clerk, Court clerk, Justice of the peace, Law clerk, Legal assistant, Paralegal, Private detective, Title searcher</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:010061</t>
+          <t>BCIO:010066</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
@@ -2528,64 +2523,64 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>sport and fitness worker</t>
+          <t>information and communications technician</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>A technician and associate professional that prepares for and competes in sporting events for financial gain, trains amateur and professional sportsmen and women to enhance performance, promotes participation and standards in sport, organises and officiates sporting events, or provides instruction, training and supervision for various forms of exercise and other recreational activities.</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>physical activity professional, exercise physiologist, exercise therapist, exercise specialist</t>
+          <t>A technician and associate professional that provides support for the day to day running of computer systems, communication systems and networks, broadcast images and sound, telecommunication signals on land, sea or in aircraft.</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Information and Communications Technology Operations and User Support Technician, Telecommunications and Broadcasting Technician</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:010063</t>
+          <t>BCIO:010045</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>sports coach, instructor and official</t>
-        </is>
-      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>health associate professional</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>A sport and fitness worker that works with amateur and professional sportspersons to enhance performance and encourage greater participation in sport, and organizes and officiates in sporting events according to established rules.</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>Referee, Ski instructor, Sports coach, Sports official, Swimming instructor</t>
+          <t>A technician and associate professional that performs technical and practical tasks to support diagnosis and treatment of illness, disease, injuries and impairments in humans or animals, and supports the implementation of health care usually established by medical, veterinary, nursing and other health professionals.</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Veterinary Technician </t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:010062</t>
+          <t>BCIO:010053</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
@@ -2595,30 +2590,30 @@
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>athlete and sports player</t>
+          <t>physiotherapy technician and assistant</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>A sport and fitness worker that participates in competitive sporting events. They train and compete, either individually or as part of a team, in their chosen sport.</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>Athlete, Bicycle racer, Boxer, Chess player , Footballer, Golfer, Hockey player, Jockey, Poker player, Racing driver, Skier, Tennis player, Wrestler</t>
+          <t>A health associate professional that provides physical therapeutic treatments to patients in circumstances where functional movement is threatened by injury, disease or impairment. Therapies are usually provided according to rehabilitative plans established by a physiotherapist or other health professional.</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Acupressure therapist, Electrotherapist, Hydrotherapist, Massage therapist, Physical rehabilitation technician, Physiotherapy technician, Shiatsu therapist</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:010064</t>
+          <t>BCIO:010052</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -2628,96 +2623,96 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>fitness and recreation instructor and programme leader</t>
+          <t>community health worker</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>A sport and fitness worker that leads, guides and instructs groups and individuals in recreational, fitness or outdoor adventure activities.</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>Aerobics instructor, Fitness instructor, Horse riding instructor, Outdoor adventure guide, Personal trainer, Sailing instructor, Underwater diving instructor</t>
+          <t>A health associate professional that provides health education, referral and follow-up, case management, basic preventive health care and home visiting services to specific communities. They provide support and assistance to individuals and families in navigating the health and social services system.</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Community health aide, Community health promoter, Community health worker, Village health worker, outreach worker, health worker</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:010065</t>
+          <t>BCIO:010046</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>artistic, cultural and culinary associate professional</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>medical and pharmaceutical technician</t>
+        </is>
+      </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>A technician and associate professional that combines creative skills and technical and cultural knowledge in creative media or food.</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>Photographer, Interior designers and decorator, Gallery, museum and library technician, Chef</t>
+          <t>A health associate professional that performs technical tasks to assist in diagnosis and treatment of illness, disease, injuries and impairments.</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Medical imaging and therapeutic equipment technician, Medical and Pathology laboratory technician, Pharmaceutical technician, Medical and dental prosthetic technician</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:010045</t>
+          <t>BCIO:010050</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>health associate professional</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>traditional and complementary medicine associate professional</t>
+        </is>
+      </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>A technician and associate professional that performs technical and practical tasks to support diagnosis and treatment of illness, disease, injuries and impairments in humans or animals, and supports the implementation of health care usually established by medical, veterinary, nursing and other health professionals.</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Veterinary Technician </t>
+          <t>A health associate professional that prevents and treats human physical and mental illnesses, disorders and injuries using herbal and other therapies based on theories, beliefs and experiences originating in specific cultures. They administer treatments using traditional techniques and medicaments, either acting independently or according to therapeutic care plans established by a traditional medicine or other health professional.</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Acupuncture technician, Ayurvedic technician, Bonesetter, Herbalist , Homeopathy technician, Scraping and cupping therapist, Village healer, Witch doctor</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:010056</t>
+          <t>BCIO:010047</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
@@ -2727,30 +2722,30 @@
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>ambulance worker</t>
+          <t>nursing and midwifery associate professional</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>A health associate professional that provides emergency health care to patients who are injured, sick, infirm or otherwise physically or mentally impaired prior to and during transport to medical facilities.</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>Ambulance officer, Ambulance paramedic, Emergency medical technician, Emergency paramedic</t>
+          <t>A health associate professional that provides basic nursing and personal care for people who are physically or mentally ill, disabled or infirm, and for others in need of care due to potential risks to health including before, during and after childbirth. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing, midwifery and other health professionals.</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Practice assistant, Quit Smoking Counsellor, Health educator, Dispensing Optician, Information Technician</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:010047</t>
+          <t>BCIO:010049</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
@@ -2758,32 +2753,32 @@
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>nursing and midwifery associate professional</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>midwifery associate professional</t>
+        </is>
+      </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>A health associate professional that provides basic nursing and personal care for people who are physically or mentally ill, disabled or infirm, and for others in need of care due to potential risks to health including before, during and after childbirth. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing, midwifery and other health professionals.</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>Practice assistant, Quit Smoking Counsellor, Health educator, Dispensing Optician, Information Technician</t>
+          <t>A nursing and midwifery associate professional that provides basic health care and advice before, during and after pregnancy and childbirth. They implement care, treatment and referral plans usually established by medical, midwifery and other health professionals.</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Assistant midwife, Traditional midwife</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:010049</t>
+          <t>BCIO:010048</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -2794,29 +2789,29 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>midwifery associate professional</t>
+          <t>nursing associate professional</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>A nursing and midwifery associate professional that provides basic health care and advice before, during and after pregnancy and childbirth. They implement care, treatment and referral plans usually established by medical, midwifery and other health professionals.</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>Assistant midwife, Traditional midwife</t>
+          <t>A nursing and midwifery associate professional that provides basic nursing and personal care for people in need of such care due to effects of ageing, illness, injury, or other physical or mental impairment. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing and other health professionals.</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Assistant nurse, Associate professional nurse, Enrolled nurse, Practical nurse</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:010048</t>
+          <t>BCIO:010055</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
@@ -2824,32 +2819,33 @@
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>nursing associate professional</t>
-        </is>
-      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>environmental and occupational health inspector and associate</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>A nursing and midwifery associate professional that provides basic nursing and personal care for people in need of such care due to effects of ageing, illness, injury, or other physical or mental impairment. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing and other health professionals.</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>Assistant nurse, Associate professional nurse, Enrolled nurse, Practical nurse</t>
+          <t>A health associate professional that investigates the implementation of rules and regulations relating to environmental factors that may affect human health, safety in the 
+workplace, and safety of processes for the production of goods and services. They may implement and evaluate programmes to restore or improve safety and sanitary conditions under the supervision of a health professional.</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Food sanitation and safety inspector, Health inspector, Occupational health and safety inspector, Pollution inspector, Product safety inspector, Sanitarian, Sanitary inspector</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:010052</t>
+          <t>BCIO:010056</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
@@ -2859,30 +2855,30 @@
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>community health worker</t>
+          <t>ambulance worker</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>A health associate professional that provides health education, referral and follow-up, case management, basic preventive health care and home visiting services to specific communities. They provide support and assistance to individuals and families in navigating the health and social services system.</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>Community health aide, Community health promoter, Community health worker, Village health worker, outreach worker, health worker</t>
+          <t>A health associate professional that provides emergency health care to patients who are injured, sick, infirm or otherwise physically or mentally impaired prior to and during transport to medical facilities.</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Ambulance officer, Ambulance paramedic, Emergency medical technician, Emergency paramedic</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:010055</t>
+          <t>BCIO:010054</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
@@ -2892,31 +2888,30 @@
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>environmental and occupational health inspector and associate</t>
+          <t>medical assistant</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>A health associate professional that investigates the implementation of rules and regulations relating to environmental factors that may affect human health, safety in the 
-workplace, and safety of processes for the production of goods and services. They may implement and evaluate programmes to restore or improve safety and sanitary conditions under the supervision of a health professional.</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>Food sanitation and safety inspector, Health inspector, Occupational health and safety inspector, Pollution inspector, Product safety inspector, Sanitarian, Sanitary inspector</t>
+          <t>A health associate professional that performs basic clinical and administrative tasks to support patient care under the direct supervision of a medical practitioner or other health professional.</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Clinical assistant, Medical assistant, Ophthalmic assistant</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:010053</t>
+          <t>BCIO:010051</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
@@ -2926,162 +2921,157 @@
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>physiotherapy technician and assistant</t>
+          <t>dental assistant and therapist</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>A health associate professional that provides physical therapeutic treatments to patients in circumstances where functional movement is threatened by injury, disease or impairment. Therapies are usually provided according to rehabilitative plans established by a physiotherapist or other health professional.</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>Acupressure therapist, Electrotherapist, Hydrotherapist, Massage therapist, Physical rehabilitation technician, Physiotherapy technician, Shiatsu therapist</t>
+          <t>A health associate professional that provides basic dental care services for the prevention and treatment of diseases and disorders of the teeth and mouth, according to care plans and procedures established by a dentist or other oral health professional.</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Dental assistant, Dental hygienist , Dental therapist</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:010054</t>
+          <t>BCIO:010025</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>teaching professional</t>
+        </is>
+      </c>
       <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>medical assistant</t>
-        </is>
-      </c>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>A health associate professional that performs basic clinical and administrative tasks to support patient care under the direct supervision of a medical practitioner or other health professional.</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>Clinical assistant, Medical assistant, Ophthalmic assistant</t>
+          <t>A professional that teaches the theory and practice of one or more disciplines at different educational levels.</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Education Methods Specialist, Other Language Teacher, Information Technology Teacher, Private Tutor, School Counsellor, Student Advisor</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:010051</t>
+          <t>BCIO:010031</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>dental assistant and therapist</t>
-        </is>
-      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>special needs teacher</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>A health associate professional that provides basic dental care services for the prevention and treatment of diseases and disorders of the teeth and mouth, according to care plans and procedures established by a dentist or other oral health professional.</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>Dental assistant, Dental hygienist , Dental therapist</t>
+          <t>A teaching professional that teaches children, young persons or adults with physical or intellectual special needs.</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Learning disabilities special education teacher, Learning support teacher, Remedial teacher, Teacher of gifted children, Teacher of the hearing impaired, Teacher of the sight impaired</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:010046</t>
+          <t>BCIO:010028</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>medical and pharmaceutical technician</t>
-        </is>
-      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>secondary education teacher</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>A health associate professional that performs technical tasks to assist in diagnosis and treatment of illness, disease, injuries and impairments.</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>Medical imaging and therapeutic equipment technician, Medical and Pathology laboratory technician, Pharmaceutical technician, Medical and dental prosthetic technician</t>
+          <t>A teaching professional that teaches one or more subjects at secondary education level.</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Secondary school teacher, High school teacher</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:010050</t>
+          <t>BCIO:010029</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>traditional and complementary medicine associate professional</t>
-        </is>
-      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>primary school teacher</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>A health associate professional that prevents and treats human physical and mental illnesses, disorders and injuries using herbal and other therapies based on theories, beliefs and experiences originating in specific cultures. They administer treatments using traditional techniques and medicaments, either acting independently or according to therapeutic care plans established by a traditional medicine or other health professional.</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>Acupuncture technician, Ayurvedic technician, Bonesetter, Herbalist , Homeopathy technician, Scraping and cupping therapist, Village healer, Witch doctor</t>
+          <t>A teaching professional that teaches teach a range of subjects at the primary education level.</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BCIO:010058</t>
+          <t>BCIO:010030</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
@@ -3090,31 +3080,31 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>legal and related associate professional</t>
+          <t>early childhood educator</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>A technician and associate professional that performs support functions in courts of law or in law offices, provide services related to such legal matters as insurance contracts, the transferring of property and the granting of loans and other financial transactions, or conduct investigations for clients.</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>Bailiff, Judge’s clerk, Conveyancing clerk, Court clerk, Justice of the peace, Law clerk, Legal assistant, Paralegal, Private detective, Title searcher</t>
+          <t>A teaching professional that promotes the social, physical, and intellectual development of children below primary school age through the provision of educational and play activities.</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Early childhood educator, Pre-school teacher</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BCIO:010057</t>
+          <t>BCIO:010032</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -3123,31 +3113,31 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>business and administration associate professional</t>
+          <t>music teacher</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>A technician and associate professional that performs mostly technical tasks connected with the practical application of knowledge relating to financial accounting and transaction matters, mathematical calculations, human resource development, selling and buying financial instruments, specialized secretarial tasks and enforcing or applying government rules.</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>Financial and Mathematical associate professional, Sales and purchasing agent, Broker, Business Services Agent, Administrative and Specialized Secretary, Government regulatory associate professional, Medical secretary</t>
+          <t>A teaching professional that teaches students in the practice, theory and performance of music in private or small group tuition or within mainstream educational institutions.</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Guitar teacher (private tuition), Piano teacher (private tuition), Singing teacher (private tuition), Violin teacher (private tuition)</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BCIO:010059</t>
+          <t>BCIO:010027</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
@@ -3156,623 +3146,598 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>social work associate professional</t>
+          <t>vocational education teacher</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>A technician and associate professional that implements social assistance programmes and community services and assist clients to deal with personal and social problems.</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>Community development worker, Community services worker, Crisis intervention worker, Disability services worker, Family services worker, Life skills instructor, Mental health support worker, Welfare support worker, Women’s shelter supervisor, Youth services worker</t>
+          <t>A teaching professional that teaches or instructs vocational or occupational subjects in adult and further education institutions and to senior students in secondary schools and colleges.</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Automotive technology instructor, Cosmetology instructor, Vocational education teacher</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:010007</t>
+          <t>BCIO:010026</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>science and engineering professional</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>university and higher education teacher</t>
+        </is>
+      </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>A professional that conducts research, improves or develops concepts, theories and operational methods or applies scientific knowledge.</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>Science Professional, Mathematician, Actuary, Statistician, Life Science Professional, Engineering Professional, Electrotechnology Engineer, Architect, Planner, Surveyor, Designer</t>
+          <t>A teaching professional that prepares and delivers lectures and conduct tutorials in one or more subjects within a prescribed course of study at a university or other higher educational institution. They conduct research, and prepare scholarly papers and books.</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Higher education lecturer, Professor, University lecturer, University tutor</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BCIO:010083</t>
+          <t>BCIO:010033</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>researcher</t>
-        </is>
-      </c>
+      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>arts teacher</t>
+        </is>
+      </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>An occupational role that is a researcher but unclear what discipline.</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>researcher, research assistant, investigator</t>
+          <t>A teaching professional  that teaches students in the practice, theory and performance of dance, drama, visual and other arts (excluding music) in private or small group tuition or within mainstream educational institutions.</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Dance teacher (private tuition), Drama teacher (private tuition), Painting teacher (private tuition), Sculpture teacher (private tuition)</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:010078</t>
+          <t>BCIO:010034</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>craft and related trades worker</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>legal, social and cultural professional</t>
+        </is>
+      </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>An occupational role that applies specific technical and practical knowledge and skills to construct and maintain buildings, machinery, equipment or tools, carries out printing work, and produces or processes foodstuffs, textiles and wooden, metal and other articles, including handicraft goods.</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>Building Trade Worker, Metal Workers, Machinery Worker, Handicraft Worker, Printing Worker, Electrical Equipment Installers and Repairer, Electronics and Telecommunications Installer and Repairer, Food Processing Worker, Woodworker, Tobacco Product Maker</t>
+          <t>A professional that conducts research, improves or develops concepts, theories and operational methods, or applies knowledge relating to the law, social or cultural studies.</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:010005</t>
+          <t>BCIO:010041</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>manager</t>
-        </is>
-      </c>
+      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>author and journalist</t>
+        </is>
+      </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>An occupational role of source that manages, plans and coordinates the overall activities of enterprises, governments and other organisations.</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>Chief Executive Officers; Administrative Managers;  Commercial Managers</t>
+          <t>A legal, social and cultural professional that conceives and creates literary works, and interprets and communicates news and public affairs through the media.</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Author, Writer, Journalist, Translator, News anchor</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:010067</t>
+          <t>BCIO:010035</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>clerical support worker</t>
-        </is>
-      </c>
+      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>legal professional</t>
+        </is>
+      </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>An occupational role that records, organizes, stores, computes and retrieves information, and performs a number of clerical duties in connection with money-handling operations, travel arrangements, requests for information, and appointments.</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>General and Keyboard Clerk, customers Services Clerk, Numerical and Material Recording Clerk</t>
+          <t>A legal, social and cultural professional that conducts research on legal problems, advises clients on legal aspects of problems, pleads cases or conducts prosecutions in courts of law, presides over judicial proceedings in courts of law and draft laws and regulations.</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Lawyer, Judge, Coroner</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:010080</t>
+          <t>BCIO:010037</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>assembler</t>
-        </is>
-      </c>
+      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>social professional</t>
+        </is>
+      </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>An occupational role that assembles products from component parts according to strict specifications and procedures.</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A legal, social and cultural professional that conducts research, improves or develops concepts, theories and operational methods or applies knowledge relating to psychology, sociology, philosophy, politics, economics, sociology, anthropology, history and other social sciences, or provides social services to meet the needs of individuals and families in a community.</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Economist, Sociologist, Anthropologist, Philosopher, Historian, Political Scientist</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BCIO:010077</t>
+          <t>BCIO:010038</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>skilled agricultural, forestry and fishery worker</t>
-        </is>
-      </c>
+      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>psychologist</t>
+        </is>
+      </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>An occupational role that grows and harvests plants or animals to provide food, shelter and income for themselves and their households.</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>Market gardener, Crop grower, Animal Producer, Mixed Crop and Animal Producer, Forestry worker, Fishery worker, Hunter. Subsistence Crop Farmer, Subsistence Livestock Farmer</t>
+          <t>A social professional that studies the mental processes and behaviour of human beings as individuals or in groups, and applies this knowledge to promote personal, social, educational or occupational adjustment and development.</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Clinical psychologist, Counselling psychologist, Educational psychologist, Forensic psychologist, Health psychologist, Neuropsychologist, Organizational psychologist, Psychotherapist, Sport and exercise psychologist</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BCIO:010082</t>
+          <t>BCIO:010039</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>armed forces occupation</t>
-        </is>
-      </c>
+      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>social work and counselling professional</t>
+        </is>
+      </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>An occupational role that includes all jobs held by members of the armed forces.</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>Admiral, Air commodore, Air marshal, Airman, Brigadier (army), Bombardier, Captain (air force), Captain (army), Captain (navy), Colonel (army), Corporal,  Field marshal, Flight lieutenant (air force), Flying officer (military), General (army), Gunner, Group captain, (air force), Lieutenant (army), Major (army), Midshipman, Naval officer (military) , Navy commander, Officer cadet (armed forces), Paratrooper, Rifleman, Sergeant (army), Second lieutenant (army), Seaman, Squadron leader, Sublieutenant (navy), Wing commander</t>
+          <t>A social professional that provides advice and guidance to individuals, families, groups, communities and organizations in response to social and personal difficulties. They assist clients to develop skills and access resources and support services needed to respond to issues arising from unemployment, poverty, disability, addiction, criminal and delinquent behaviour, marital and other problems.</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Counsellor, Addictions counsellor, Bereavement counsellor, Child and youth counsellor, District social welfare officer, Family counsellor, Marriage counsellor, Parole officer, Probation officer, Sexual assault counsellor, Social worker, Women’s welfare organizer</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BCIO:010079</t>
+          <t>BCIO:010040</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>plant and machine operator</t>
-        </is>
-      </c>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>religious professional</t>
+        </is>
+      </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>An occupational role that operates and monitors industrial and agricultural machinery and equipment on the spot or by remote control, or drives and operates trains, motor vehicles and mobile machinery and equipment.</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>Stationary Plant and Machine Operator, Driver, Mobile Plant Operator</t>
+          <t>A legal, social and cultural professional that functions  as a perpetuator of sacred traditions, practices and beliefs. They conduct religious services, celebrate or administer the rites of a religious faith or denomination, provide spiritual and moral guidance and perform other functions associated with the practice of a religion.</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Bonze, Imam, Minister of religion, Poojari, Priest, Rabbi</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BCIO:010068</t>
+          <t>BCIO:010042</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>services and sales worker</t>
-        </is>
-      </c>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>linguist</t>
+        </is>
+      </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>An occupational role that provides personal or protective services related to travel, house-keeping, catering, personal care, protection against fire and unlawful acts, or sells goods in retail or markets.</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A legal, social and cultural professional that translates or interprets from one language into another.</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Interpretator; other linguist</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:010070</t>
+          <t>BCIO:010036</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>sales worker</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>librarian, archivist and curator</t>
+        </is>
+      </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>A services and sales worker that demonstrates goods in wholesale or retail shops, at stalls and markets, door to door, via telephone or customer contact centres. They may record and accept payment for goods and services purchased, and may operate small retail outlets.</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>Street Salesperson, Market Salesperson, Shop Salesperson, Cashier, Ticket Clerk, Model, Sales Demonstrator, Door-to-door Salesperson, Contact Centre Salesperson, Service Station Attendant, Food Service Counter Attendant</t>
+          <t>A legal, social and cultural professional that develops and maintains collections of archives, libraries, museums, art galleries and similar establishments.</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Librarian, Archivist,  Curator</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCIO:010076</t>
+          <t>BCIO:010043</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>protective services worker</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>creative and performing artist</t>
+        </is>
+      </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>A services and sales worker that protects individuals and property against fire and other hazards, maintain law and order and enforce laws and regulations.</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>Firefighter, Police officer, Prison guard, Security guard, Offender manager</t>
+          <t>A legal, social and cultural professional that communicates ideas, impressions and facts in a wide range of media to achieve particular effects, interprets a composition such as a musical score or a script to perform or direct the performance, and hosts the presentation of such performance and other media events.</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>Visual artist, Musician, Singer, Composer, Dancer, Choreographer, Director, Producer, Actor, Announcer on radio, television and other media</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BCIO:010069</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr"/>
+          <t>BCIO:010000</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>behaviour change intervention source</t>
+        </is>
+      </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>personal services worker</t>
-        </is>
-      </c>
+      <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>A services and sales worker that provides personal services related to travel, housekeeping, catering and hospitality, hairdressing and beauty treatment, animal care grooming and training, companionship and other services of a personal nature.</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>Travel Attendant, Conductor, Guide, Cook, Waiter, Bartender, Hairdresser, Beautician, Housekeeping Supervisor, Astrologer, Fortune-teller, Valet, Undertaker, Embalmer, Pet Groomer, Animal Care Worker</t>
+          <t>A role played by a person, population or organisation that provides a BCI.</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BCIO:010071</t>
+          <t>BCIO:010133</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>source role related to intervention</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>personal care worker</t>
-        </is>
-      </c>
+      <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>A services and sales worker that provides care, supervision and assistance for children, patients and elderly, convalescent or disabled persons in institutional and residential settings.</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>Personal carer</t>
+          <t>A BCI source whose occupational or voluntary role is focused on delivery of the behaviour change intervention.</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BCIO:010074</t>
+          <t>BCIO:010138</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>organisational source role</t>
+        </is>
+      </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>health care assistant</t>
-        </is>
-      </c>
+      <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>A personal care worker that provides direct personal care and assistance with activities of daily living to patients and residents in a variety of health care settings, working  in implementation of established care plans and practices, and under the direct supervision of medical, nursing or other health professionals or associate professionals.</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>Nursing aide (clinic or hospital), Patient care assistant, Psychiatric aid</t>
+          <t>A BCI source role that is borne by an organisation.</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BCIO:010075</t>
+          <t>BCIO:010134</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>source involved in development of intervention</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>home-based personal care worker</t>
-        </is>
-      </c>
+      <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>A personal care worker that provide routine personal care and assistance with activities of daily living to persons who are in need of such care due to effects of ageing, illness, injury, or other physical or mental conditions, in private homes and other independent residential settings.</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>Home birth assistant, Home care aide, Nursing aide (home), Personal care provider</t>
+          <t>A BCI source that is involved in the development of intervention content.</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BCIO:010073</t>
+          <t>BCIO:010135</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>source involved in co-production of intervention</t>
+        </is>
+      </c>
       <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>teachers’ aide</t>
-        </is>
-      </c>
+      <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>A personal care worker that performs non-teaching duties to assist teaching staff, and provides care and supervision for children in schools and pre-schools.</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>Pre-school assistant, Teacher’s assistant</t>
+          <t>A source involved in development of intervention that has developed the intervention content in collaboration with key stakeholders such as patients or community members.</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BCIO:010072</t>
+          <t>BCIO:010001</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr"/>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>person source role</t>
+        </is>
+      </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>child care worker</t>
-        </is>
-      </c>
+      <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>A personal care worker that provides care and supervision for children in non-domestic settings.</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>Babysitter, Child care worker, Creche ayah, Family day care worker, Nanny, Out of school hours care worker</t>
+          <t>A behaviour change intervention source role that inheres in a person.</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BCIO:010094</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>relatedness between person source and the target population</t>
-        </is>
-      </c>
+          <t>BCIO:010084</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>student or trainee role</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
@@ -3780,10 +3745,10 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>A personal role of source that is realised in some relationship to the characteristics of the intervention participants.</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
+          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3792,26 +3757,26 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BCIO:010105</t>
+          <t>BCIO:010087</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>embedded in participants’ community</t>
-        </is>
-      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>vocational training student or trainee</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a source who is known and working to deliver intervention in own community.</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
+          <t>A student or trainee that is currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3820,42 +3785,47 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BCIO:010103</t>
+          <t>BCIO:010088</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>employer</t>
-        </is>
-      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>higher education student or trainee</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a person which hires the services of the participant.</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A student or trainee that is currently learning on an advanced educational programme in a university, college or professional school.</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>completing a university bachelor's or master's course of study, medical school or other professional school.</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BCIO:010104</t>
+          <t>BCIO:010092</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
-          <t>peer</t>
+          <t>doctoral student or trainee</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -3864,26 +3834,31 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is descried as matched to intervention recipients on the basis of ‘peerness’ – age, social status, gender, shared experience, shared health status etc.</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A higher education student or trainee that is currently studying for a doctoral degree.</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>PhD student</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BCIO:010102</t>
+          <t>BCIO:010090</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
         <is>
-          <t>colleague</t>
+          <t>graduate student or trainee</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -3892,26 +3867,31 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a person with whom the participant works in a profession or business.</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A higher education student or trainee that has completed an undergraduate degree.</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>graduate student</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BCIO:010101</t>
+          <t>BCIO:010089</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
-          <t>friend</t>
+          <t>undergraduate student or trainee</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -3920,26 +3900,31 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a person whom the participant knows, likes and trusts, typically exclusive of sexual or family relations.</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A higher education student or trainee that is currently studying for an undergraduate degree.</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>undergraduate student</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BCIO:010100</t>
+          <t>BCIO:010091</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
-          <t>carer</t>
+          <t>masters student or trainee</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -3948,32 +3933,32 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is an individual who cares, unpaid, for a friend or family member who, due to illness or disability, requires support in their daily life activities.</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>carer</t>
+          <t>A higher education student or trainee that is currently studying for a Masters degree.</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>MSc student, Masters student</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BCIO:010000</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>behaviour change intervention source</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr"/>
+          <t>BCIO:010085</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>informal education student or trainee</t>
+        </is>
+      </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
@@ -3981,10 +3966,10 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>A role played by a person, population or organisation that provides a BCI.</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
+          <t>A student or trainee that is currently learning in a non-institutional setting.</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3993,13 +3978,13 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:010138</t>
+          <t>BCIO:010086</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr">
         <is>
-          <t>organisational source role</t>
+          <t>school student or trainee</t>
         </is>
       </c>
       <c r="D112" t="inlineStr"/>
@@ -4009,10 +3994,10 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>A BCI source role that is borne by an organisation.</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
+          <t>A student or trainee that is currently learning at a primary or secondary education level in an institutional, organised setting.</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4021,15 +4006,15 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BCIO:010133</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>source role related to intervention</t>
-        </is>
-      </c>
+          <t>BCIO:010107</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>total number of people able to deliver intervention</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
@@ -4037,10 +4022,10 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>A BCI source whose occupational or voluntary role is focused on delivery of the behaviour change intervention.</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
+          <t>A count data item that is the total number of providers that are available and able to deliver the intervention.</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4049,15 +4034,15 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:010001</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>person source role</t>
-        </is>
-      </c>
+          <t>BCIO:010106</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>number of people delivering intervention to each participant</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
@@ -4065,10 +4050,10 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>A behaviour change intervention source role that inheres in a person.</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
+          <t>A count data item that is the number of providers that an individual participant in the intervention encounters.</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4077,15 +4062,15 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:010134</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>source involved in development of intervention</t>
-        </is>
-      </c>
+          <t>BCIO:010126</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>amount of experience</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
@@ -4093,38 +4078,43 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>A BCI source that is involved in the development of intervention content.</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A knowledge or skill that is the duration of experience in related domain held by person source.</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>full-day, 6 years</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BCIO:010135</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr"/>
+          <t>MF:0000016</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
       <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>source involved in co-production of intervention</t>
-        </is>
-      </c>
+      <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>A source involved in development of intervention that has developed the intervention content in collaboration with key stakeholders such as patients or community members.</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
+          <t>An extended organism that is a member of the species Homo sapiens.</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4133,15 +4123,15 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:010084</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>student or trainee role</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr"/>
+          <t>BCIO:010002</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>person source</t>
+        </is>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -4149,10 +4139,10 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
+          <t>A person who is the bearer of a behaviour change intervention source role.</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4161,13 +4151,13 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:010085</t>
+          <t>BCIO:010095</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr">
         <is>
-          <t>informal education student or trainee</t>
+          <t>family member</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
@@ -4177,10 +4167,10 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning in a non-institutional setting.</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
+          <t>A person who is a member of a group of persons united by blood, or by marriage or other legal arrangement, or by self-identity as belonging to the same family.</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4189,47 +4179,47 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BCIO:010088</t>
+          <t>BCIO:010098</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>higher education student or trainee</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>sibling relationship</t>
+        </is>
+      </c>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning on an advanced educational programme in a university, college or professional school.</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N119" t="inlineStr">
-        <is>
-          <t>completing a university bachelor's or master's course of study, medical school or other professional school.</t>
+          <t>A family member that is a family relationship between two persons with at least one shared parent.</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>brother, sister, step-brother, step-sister</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BCIO:010091</t>
+          <t>BCIO:010096</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
-          <t>masters student or trainee</t>
+          <t>parent or guardian</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
@@ -4238,31 +4228,31 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that is currently studying for a Masters degree.</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N120" t="inlineStr">
-        <is>
-          <t>MSc student, Masters student</t>
+          <t>A family member that is a mother, father or legal carer of a child.</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>mother, father, step-mother, step-father, guardian</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BCIO:010092</t>
+          <t>BCIO:010099</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
         <is>
-          <t>doctoral student or trainee</t>
+          <t>child relationship</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
@@ -4271,31 +4261,31 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that is currently studying for a doctoral degree.</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N121" t="inlineStr">
-        <is>
-          <t>PhD student</t>
+          <t>A family member that is an offspring relationship from a person to their parent.</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>daughter, son, step-daughter, step-son</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BCIO:010090</t>
+          <t>BCIO:010097</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr">
         <is>
-          <t>graduate student or trainee</t>
+          <t>spouse or partner</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
@@ -4304,65 +4294,65 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that has completed an undergraduate degree.</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N122" t="inlineStr">
-        <is>
-          <t>graduate student</t>
+          <t>A family member that is an individual who is married or in a committed relationship with another individual.</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>boyfriend, girlfriend, partner, fiance, wife, husband</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:010089</t>
+          <t>BCIO:050842</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>undergraduate student or trainee</t>
-        </is>
-      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>role model for a person</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that is currently studying for an undergraduate degree.</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
+          <t>A &lt;person&gt; that influences a recipient by being perceived to be similar or admired.</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>undergraduate student</t>
+          <t>This class lies at the intersection between a person and their environment and is defined from the perspective of the person.</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BCIO:010086</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>school student or trainee</t>
-        </is>
-      </c>
+          <t>BCIO:010108</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>socio demographic attribute of person source</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
@@ -4370,10 +4360,10 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning at a primary or secondary education level in an institutional, organised setting.</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
+          <t>A social or demographic characteristic of a human being who is the bearer of a person source role.</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4382,13 +4372,13 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BCIO:010087</t>
+          <t>BCIO:010110</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr">
         <is>
-          <t>vocational training student or trainee</t>
+          <t>gender of person source</t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
@@ -4398,53 +4388,63 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
-        </is>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A socio-demographic attribute of person source that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>gender</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BCIO:010120</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>expertise of person source</t>
-        </is>
-      </c>
+          <t>BCIO:010113</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr"/>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>other gender</t>
+        </is>
+      </c>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>A disposition that is an expert skill or knowledge held by the source delivering the behaviour change intervention.</t>
-        </is>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A gender of person source that reports not belonging to the cultural gender role distinctions of either male or female.</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>non-binary, transexual</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BCIO:010121</t>
+          <t>BCIO:010117</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr">
         <is>
-          <t>knowledge or skill</t>
+          <t>health status of person source</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
@@ -4454,109 +4454,104 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>An expertise of person source that is knowledge or skills held in order to deliver the behaviour change intervention.</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N127" t="inlineStr">
-        <is>
-          <t>trained (if unclear whether pre-existing or acquired)</t>
+          <t>A socio-demographic attribute of person source that represents their mental or physical condition.</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>diabetes, cancer, depression, obesity, overweight</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BCIO:010122</t>
+          <t>BCIO:010115</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
-      <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>pre-existing knowledge or skill</t>
-        </is>
-      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>religious group membership of person source</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>A knowledge or skill that is already possessed by the source which allows them to deliver the behaviour change intervention, including educational level and qualifications.</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N128" t="inlineStr">
-        <is>
-          <t>Bachelor’s degree, certification, accredited, qualified</t>
+          <t>A socio-demographic attribute of person source that is a religious group to which an individual identifies as belonging, where a religious group is a group of people characterised by the practice of a common religion.</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>Muslim, Christian, Hindu, Sikh, Buddhist, Judaism</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BCIO:010127</t>
+          <t>BCIO:010109</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
-      <c r="C129" t="inlineStr"/>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>age of person source</t>
+        </is>
+      </c>
       <c r="D129" t="inlineStr"/>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>affiliation to a formal group or organisation</t>
-        </is>
-      </c>
+      <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>A pre-existing knowledge or skill that is recognised through affiliation to a formal group or organisation.</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N129" t="inlineStr">
-        <is>
-          <t>member of British Psychological Society</t>
+          <t>A socio-demographic attribute of person source that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BCIO:010125</t>
+          <t>BCIO:010119</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
-      <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>acquired knowledge or skill</t>
-        </is>
-      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>psychological influence on intervention delivery of person source</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>A knowledge or skill that is additional knowledge or skills supplied to the source to allow them to deliver the behaviour change intervention, including educational level and qualifications.</t>
-        </is>
-      </c>
-      <c r="J130" t="inlineStr">
+          <t>A socio-demographic attribute of person source that is their existing psychological attributes related to or potentially affecting the target behaviour.</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4565,15 +4560,15 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BCIO:010129</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>volunteering of person source</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr"/>
+          <t>BCIO:010118</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>target behaviour of person source</t>
+        </is>
+      </c>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
@@ -4581,32 +4576,32 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>A process in which a person source delivers the intervention on a voluntary basis without formal compensation.</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N131" t="inlineStr">
-        <is>
-          <t>voluntary basis, volunteering</t>
+          <t>A socio-demographic attribute of person source that is their amount or experience of the intervention’s target behaviour.</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>source is highly physically active</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BCIO:010128</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>supervision of person source</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr"/>
+          <t>BCIO:010116</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>language proficiency of person source</t>
+        </is>
+      </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
@@ -4614,32 +4609,32 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>A process in which a person source is formally provided, by an individual with appropriate expertise, with corrective and skill-enhancing feedback, regarding the person source’s performance in delivering the intervention.</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N132" t="inlineStr">
-        <is>
-          <t>supervised</t>
+          <t>A socio-demographic attribute of person source that is an individual’s ability to speak or perform in the intervention language.</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>fluent, native</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BCIO:010130</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>payment of person source</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr"/>
+          <t>BCIO:010114</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>ethnic group membership of person source</t>
+        </is>
+      </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
@@ -4647,27 +4642,32 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>A process in which a person source is paid or compensated for delivering the intervention.</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A socio-demographic attribute of person source that is the ethnic group to which an individual identifies as belonging, where an ethic group is a population whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>black, white, Indian, Chinese, Somalian</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BCIO:010132</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr"/>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>non-monetary payment</t>
-        </is>
-      </c>
+          <t>BCIO:010123</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>expertise discipline</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
@@ -4675,30 +4675,35 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>A payment of person source that is non-monetary compensation given to the source for delivering the intervention.</t>
-        </is>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>An attribute that is a field of knowledge or practice.</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
         </is>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>course credit</t>
+          <t>The division of expertise into different disciplines or fields is complex and depends on historical, social and structural factors.</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BCIO:010131</t>
+          <t>BCIO:010093</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr">
         <is>
-          <t>monetary payment</t>
+          <t>discipline of current programme of study or training</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
@@ -4708,32 +4713,32 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>A payment of person source that is money, vouchers or valued objects given to the source for delivering the intervention.</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N135" t="inlineStr">
-        <is>
-          <t>paid in cash, vouchers</t>
+          <t>An expertise discipline of the programme of study currently undertaken by the bearer of a student or trainee role.</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>psychology, medicine, hairdressing</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>MF:0000016</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr"/>
+          <t>BCIO:010124</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>discipline of pre-existing knowledge or skill</t>
+        </is>
+      </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr"/>
@@ -4741,27 +4746,32 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>An extended organism that is a member of the species Homo sapiens.</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>The expertise discipline in which the person source has acquired their pre-existing knowledge and skills.</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BCIO:010002</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr"/>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>person source</t>
-        </is>
-      </c>
+          <t>BCIO:010130</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>payment of person source</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
@@ -4769,10 +4779,10 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>A person who is the bearer of a behaviour change intervention source role.</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
+          <t>A process in which a person source is paid or compensated for delivering the intervention.</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4781,13 +4791,13 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BCIO:010095</t>
+          <t>BCIO:010132</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="inlineStr">
         <is>
-          <t>family member</t>
+          <t>non-monetary payment</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
@@ -4797,144 +4807,172 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>A person who is a member of a group of persons united by blood, or by marriage or other legal arrangement, or by self-identity as belonging to the same family.</t>
-        </is>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A payment of person source that is non-monetary compensation given to the source for delivering the intervention.</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>course credit</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BCIO:010097</t>
+          <t>BCIO:010131</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
-      <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>spouse or partner</t>
-        </is>
-      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>monetary payment</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>A family member that is an individual who is married or in a committed relationship with another individual.</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N139" t="inlineStr">
-        <is>
-          <t>boyfriend, girlfriend, partner, fiance, wife, husband</t>
+          <t>A payment of person source that is money, vouchers or valued objects given to the source for delivering the intervention.</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>paid in cash, vouchers</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BCIO:010099</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr"/>
+          <t>BCIO:010129</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>volunteering of person source</t>
+        </is>
+      </c>
       <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>child relationship</t>
-        </is>
-      </c>
+      <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>A family member that is an offspring relationship from a person to their parent.</t>
-        </is>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N140" t="inlineStr">
-        <is>
-          <t>daughter, son, step-daughter, step-son</t>
+          <t>A process in which a person source delivers the intervention on a voluntary basis without formal compensation.</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>voluntary basis, volunteering</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BCIO:010098</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr"/>
+          <t>BCIO:010128</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>supervision of person source</t>
+        </is>
+      </c>
       <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>sibling relationship</t>
-        </is>
-      </c>
+      <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>A family member that is a family relationship between two persons with at least one shared parent.</t>
-        </is>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N141" t="inlineStr">
-        <is>
-          <t>brother, sister, step-brother, step-sister</t>
+          <t>A process in which a person source is formally provided, by an individual with appropriate expertise, with corrective and skill-enhancing feedback, regarding the person source’s performance in delivering the intervention.</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>supervised</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BCIO:010096</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr"/>
+          <t>OBI:0000245</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>organization</t>
+        </is>
+      </c>
       <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>parent or guardian</t>
-        </is>
-      </c>
+      <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>A family member that is a mother, father or legal carer of a child.</t>
-        </is>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N142" t="inlineStr">
-        <is>
-          <t>mother, father, step-mother, step-father, guardian</t>
+          <t>An entity that can bear roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>BCIO:010139</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>organisation source</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>An organisation that is the bearer of a behaviour change intervention source role, such as voluntary, public or commercial organisations delivering a behaviour change intervention.</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>

--- a/Source/BCIO-source-hierarchy.xlsx
+++ b/Source/BCIO-source-hierarchy.xlsx
@@ -445,44 +445,44 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Sub-ontology</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
           <t>Cross reference</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Sub-ontology</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Examples</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BCIO:015098</t>
+          <t>BCIO:010123</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>gender identity</t>
+          <t>expertise discipline</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -493,25 +493,35 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
+          <t>An attribute that is a field of knowledge or practice.</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Population</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>The division of expertise into different disciplines or fields is complex and depends on historical, social and structural factors.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:010111</t>
+          <t>BCIO:010124</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>female gender</t>
+          <t>discipline of pre-existing knowledge or skill</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -521,7 +531,7 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>A gender identity as being female.</t>
+          <t>The expertise discipline in which the person source has acquired their pre-existing knowledge and skills.</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -531,20 +541,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>female, woman</t>
+          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:010112</t>
+          <t>BCIO:010093</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>male gender</t>
+          <t>discipline of current programme of study or training</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -554,7 +564,7 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>A gender identity as being male.</t>
+          <t>An expertise discipline of the programme of study currently undertaken by the bearer of a student or trainee role.</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -564,19 +574,19 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>male, man</t>
+          <t>psychology, medicine, hairdressing</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:010120</t>
+          <t>BCIO:010108</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>expertise of person source</t>
+          <t>socio demographic attribute of person source</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -587,7 +597,7 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>A disposition that is an expert skill or knowledge held by the source delivering the behaviour change intervention.</t>
+          <t>A social or demographic characteristic of a human being who is the bearer of a person source role.</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -599,13 +609,13 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:010121</t>
+          <t>BCIO:010114</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>knowledge or skill</t>
+          <t>ethnic group membership of person source</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -615,7 +625,7 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>An expertise of person source that is knowledge or skills held in order to deliver the behaviour change intervention.</t>
+          <t>A socio-demographic attribute of person source that is the ethnic group to which an individual identifies as belonging, where an ethic group is a population whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -625,58 +635,63 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>trained (if unclear whether pre-existing or acquired)</t>
+          <t>black, white, Indian, Chinese, Somalian</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:010125</t>
+          <t>BCIO:010116</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>acquired knowledge or skill</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>language proficiency of person source</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>A knowledge or skill that is additional knowledge or skills supplied to the source to allow them to deliver the behaviour change intervention, including educational level and qualifications.</t>
+          <t>A socio-demographic attribute of person source that is an individual’s ability to speak or perform in the intervention language.</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>fluent, native</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:010122</t>
+          <t>BCIO:010115</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>pre-existing knowledge or skill</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>religious group membership of person source</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>A knowledge or skill that is already possessed by the source which allows them to deliver the behaviour change intervention, including educational level and qualifications.</t>
+          <t>A socio-demographic attribute of person source that is a religious group to which an individual identifies as belonging, where a religious group is a group of people characterised by the practice of a common religion.</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -686,30 +701,30 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Bachelor’s degree, certification, accredited, qualified</t>
+          <t>Muslim, Christian, Hindu, Sikh, Buddhist, Judaism</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:010127</t>
+          <t>BCIO:010110</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>gender of person source</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>affiliation to a formal group or organisation</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>A pre-existing knowledge or skill that is recognised through affiliation to a formal group or organisation.</t>
+          <t>A socio-demographic attribute of person source that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -719,48 +734,53 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>member of British Psychological Society</t>
+          <t>gender</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:010003</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>personal role of source</t>
-        </is>
-      </c>
+          <t>BCIO:010113</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>other gender</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>A role that inheres in a person source.</t>
+          <t>A gender of person source that reports not belonging to the cultural gender role distinctions of either male or female.</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>non-binary, transexual</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:010094</t>
+          <t>BCIO:010119</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>relatedness between person source and the target population</t>
+          <t>psychological influence on intervention delivery of person source</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -770,7 +790,7 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>A personal role of source that is realised in some relationship to the characteristics of the intervention participants.</t>
+          <t>A socio-demographic attribute of person source that is their existing psychological attributes related to or potentially affecting the target behaviour.</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -782,51 +802,56 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:010102</t>
+          <t>BCIO:010117</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>colleague</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>health status of person source</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a person with whom the participant works in a profession or business.</t>
+          <t>A socio-demographic attribute of person source that represents their mental or physical condition.</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>diabetes, cancer, depression, obesity, overweight</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:010105</t>
+          <t>BCIO:010109</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>embedded in participants’ community</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>age of person source</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a source who is known and working to deliver intervention in own community.</t>
+          <t>A socio-demographic attribute of person source that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -838,23 +863,23 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:010100</t>
+          <t>BCIO:010118</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>carer</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>target behaviour of person source</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is an individual who cares, unpaid, for a friend or family member who, due to illness or disability, requires support in their daily life activities.</t>
+          <t>A socio-demographic attribute of person source that is their amount or experience of the intervention’s target behaviour.</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -864,30 +889,30 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>carer</t>
+          <t>source is highly physically active</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:010103</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
+          <t>MF:0000016</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>employer</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a person which hires the services of the participant.</t>
+          <t>An extended organism that is a member of the species Homo sapiens.</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -899,51 +924,56 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:010101</t>
+          <t>BCIO:050842</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>friend</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>role model for a person</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a person whom the participant knows, likes and trusts, typically exclusive of sexual or family relations.</t>
+          <t>A &lt;person&gt; that influences a recipient by being perceived to be similar or admired.</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>This class lies at the intersection between a person and their environment and is defined from the perspective of the person.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:010104</t>
+          <t>BCIO:010002</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>peer</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>person source</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is descried as matched to intervention recipients on the basis of ‘peerness’ – age, social status, gender, shared experience, shared health status etc.</t>
+          <t>A person who is the bearer of a behaviour change intervention source role.</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -955,13 +985,13 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:010004</t>
+          <t>BCIO:010095</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>occupational role of source</t>
+          <t>family member</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -971,31 +1001,26 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>A personal role of source that is realised by doing a specified type of work or working in a specified way.</t>
+          <t>A person who is a member of a group of persons united by blood, or by marriage or other legal arrangement, or by self-identity as belonging to the same family.</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Interventionist, facilitator, study staff</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:010005</t>
+          <t>BCIO:010096</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>manager</t>
+          <t>parent or guardian</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -1004,7 +1029,7 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>An occupational role of source that manages, plans and coordinates the overall activities of enterprises, governments and other organisations.</t>
+          <t>A family member that is a mother, father or legal carer of a child.</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1014,21 +1039,21 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Chief Executive Officers; Administrative Managers;  Commercial Managers</t>
+          <t>mother, father, step-mother, step-father, guardian</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:010068</t>
+          <t>BCIO:010098</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>services and sales worker</t>
+          <t>sibling relationship</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -1037,35 +1062,40 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>An occupational role that provides personal or protective services related to travel, house-keeping, catering, personal care, protection against fire and unlawful acts, or sells goods in retail or markets.</t>
+          <t>A family member that is a family relationship between two persons with at least one shared parent.</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>brother, sister, step-brother, step-sister</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:010076</t>
+          <t>BCIO:010099</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>protective services worker</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>child relationship</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>A services and sales worker that protects individuals and property against fire and other hazards, maintain law and order and enforce laws and regulations.</t>
+          <t>A family member that is an offspring relationship from a person to their parent.</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1075,30 +1105,30 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Firefighter, Police officer, Prison guard, Security guard, Offender manager</t>
+          <t>daughter, son, step-daughter, step-son</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:010069</t>
+          <t>BCIO:010097</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>personal services worker</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>spouse or partner</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>A services and sales worker that provides personal services related to travel, housekeeping, catering and hospitality, hairdressing and beauty treatment, animal care grooming and training, companionship and other services of a personal nature.</t>
+          <t>A family member that is an individual who is married or in a committed relationship with another individual.</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1108,30 +1138,30 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Travel Attendant, Conductor, Guide, Cook, Waiter, Bartender, Hairdresser, Beautician, Housekeeping Supervisor, Astrologer, Fortune-teller, Valet, Undertaker, Embalmer, Pet Groomer, Animal Care Worker</t>
+          <t>boyfriend, girlfriend, partner, fiance, wife, husband</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:010071</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
+          <t>BCIO:010129</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>volunteering of person source</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>personal care worker</t>
-        </is>
-      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>A services and sales worker that provides care, supervision and assistance for children, patients and elderly, convalescent or disabled persons in institutional and residential settings.</t>
+          <t>A process in which a person source delivers the intervention on a voluntary basis without formal compensation.</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1141,30 +1171,30 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Personal carer</t>
+          <t>voluntary basis, volunteering</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:010075</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
+          <t>BCIO:010128</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>supervision of person source</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>home-based personal care worker</t>
-        </is>
-      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>A personal care worker that provide routine personal care and assistance with activities of daily living to persons who are in need of such care due to effects of ageing, illness, injury, or other physical or mental conditions, in private homes and other independent residential settings.</t>
+          <t>A process in which a person source is formally provided, by an individual with appropriate expertise, with corrective and skill-enhancing feedback, regarding the person source’s performance in delivering the intervention.</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1174,63 +1204,58 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Home birth assistant, Home care aide, Nursing aide (home), Personal care provider</t>
+          <t>supervised</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:010073</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
+          <t>BCIO:010130</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>payment of person source</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>teachers’ aide</t>
-        </is>
-      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>A personal care worker that performs non-teaching duties to assist teaching staff, and provides care and supervision for children in schools and pre-schools.</t>
+          <t>A process in which a person source is paid or compensated for delivering the intervention.</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>Pre-school assistant, Teacher’s assistant</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:010074</t>
+          <t>BCIO:010131</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>monetary payment</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>health care assistant</t>
-        </is>
-      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>A personal care worker that provides direct personal care and assistance with activities of daily living to patients and residents in a variety of health care settings, working  in implementation of established care plans and practices, and under the direct supervision of medical, nursing or other health professionals or associate professionals.</t>
+          <t>A payment of person source that is money, vouchers or valued objects given to the source for delivering the intervention.</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1240,30 +1265,30 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Nursing aide (clinic or hospital), Patient care assistant, Psychiatric aid</t>
+          <t>paid in cash, vouchers</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:010072</t>
+          <t>BCIO:010132</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>non-monetary payment</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>child care worker</t>
-        </is>
-      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>A personal care worker that provides care and supervision for children in non-domestic settings.</t>
+          <t>A payment of person source that is non-monetary compensation given to the source for delivering the intervention.</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1273,63 +1298,58 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Babysitter, Child care worker, Creche ayah, Family day care worker, Nanny, Out of school hours care worker</t>
+          <t>course credit</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:010070</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
+          <t>BCIO:010106</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>number of people delivering intervention to each participant</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>sales worker</t>
-        </is>
-      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>A services and sales worker that demonstrates goods in wholesale or retail shops, at stalls and markets, door to door, via telephone or customer contact centres. They may record and accept payment for goods and services purchased, and may operate small retail outlets.</t>
+          <t>A count data item that is the number of providers that an individual participant in the intervention encounters.</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Street Salesperson, Market Salesperson, Shop Salesperson, Cashier, Ticket Clerk, Model, Sales Demonstrator, Door-to-door Salesperson, Contact Centre Salesperson, Service Station Attendant, Food Service Counter Attendant</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:010083</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
+          <t>BCIO:010126</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>amount of experience</t>
+        </is>
+      </c>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>researcher</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>An occupational role that is a researcher but unclear what discipline.</t>
+          <t>A knowledge or skill that is the duration of experience in related domain held by person source.</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -1339,181 +1359,166 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>researcher, research assistant, investigator</t>
+          <t>full-day, 6 years</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:010077</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
+          <t>BCIO:010107</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>total number of people able to deliver intervention</t>
+        </is>
+      </c>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>skilled agricultural, forestry and fishery worker</t>
-        </is>
-      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>An occupational role that grows and harvests plants or animals to provide food, shelter and income for themselves and their households.</t>
+          <t>A count data item that is the total number of providers that are available and able to deliver the intervention.</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>Market gardener, Crop grower, Animal Producer, Mixed Crop and Animal Producer, Forestry worker, Fishery worker, Hunter. Subsistence Crop Farmer, Subsistence Livestock Farmer</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:010067</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
+          <t>OBI:0000245</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>organization</t>
+        </is>
+      </c>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>clerical support worker</t>
-        </is>
-      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>An occupational role that records, organizes, stores, computes and retrieves information, and performs a number of clerical duties in connection with money-handling operations, travel arrangements, requests for information, and appointments.</t>
+          <t>An entity that can bear roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>General and Keyboard Clerk, customers Services Clerk, Numerical and Material Recording Clerk</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:010078</t>
+          <t>BCIO:010139</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>craft and related trades worker</t>
-        </is>
-      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>organisation source</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>An occupational role that applies specific technical and practical knowledge and skills to construct and maintain buildings, machinery, equipment or tools, carries out printing work, and produces or processes foodstuffs, textiles and wooden, metal and other articles, including handicraft goods.</t>
+          <t>An organisation that is the bearer of a behaviour change intervention source role, such as voluntary, public or commercial organisations delivering a behaviour change intervention.</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>Building Trade Worker, Metal Workers, Machinery Worker, Handicraft Worker, Printing Worker, Electrical Equipment Installers and Repairer, Electronics and Telecommunications Installer and Repairer, Food Processing Worker, Woodworker, Tobacco Product Maker</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:010082</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
+          <t>BCIO:010120</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>expertise of person source</t>
+        </is>
+      </c>
       <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>armed forces occupation</t>
-        </is>
-      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>An occupational role that includes all jobs held by members of the armed forces.</t>
+          <t>A disposition that is an expert skill or knowledge held by the source delivering the behaviour change intervention.</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>Admiral, Air commodore, Air marshal, Airman, Brigadier (army), Bombardier, Captain (air force), Captain (army), Captain (navy), Colonel (army), Corporal,  Field marshal, Flight lieutenant (air force), Flying officer (military), General (army), Gunner, Group captain, (air force), Lieutenant (army), Major (army), Midshipman, Naval officer (military) , Navy commander, Officer cadet (armed forces), Paratrooper, Rifleman, Sergeant (army), Second lieutenant (army), Seaman, Squadron leader, Sublieutenant (navy), Wing commander</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:010080</t>
+          <t>BCIO:010121</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>assembler</t>
-        </is>
-      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>knowledge or skill</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>An occupational role that assembles products from component parts according to strict specifications and procedures.</t>
+          <t>An expertise of person source that is knowledge or skills held in order to deliver the behaviour change intervention.</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>trained (if unclear whether pre-existing or acquired)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:010079</t>
+          <t>BCIO:010125</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>plant and machine operator</t>
+          <t>acquired knowledge or skill</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -1522,31 +1527,26 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>An occupational role that operates and monitors industrial and agricultural machinery and equipment on the spot or by remote control, or drives and operates trains, motor vehicles and mobile machinery and equipment.</t>
+          <t>A knowledge or skill that is additional knowledge or skills supplied to the source to allow them to deliver the behaviour change intervention, including educational level and qualifications.</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>Stationary Plant and Machine Operator, Driver, Mobile Plant Operator</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:010081</t>
+          <t>BCIO:010122</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>elementary occupation</t>
+          <t>pre-existing knowledge or skill</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -1555,7 +1555,7 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>An occupational role that involves the performance of simple and routine tasks which may require the use of hand-held tools and considerable physical effort.</t>
+          <t>A knowledge or skill that is already possessed by the source which allows them to deliver the behaviour change intervention, including educational level and qualifications.</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -1565,322 +1565,287 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Cleaner, Labourer, Food Preparation Assistant, Street and Related Services Worker, Street Vendor (excluding Food), Refuse Worker</t>
+          <t>Bachelor’s degree, certification, accredited, qualified</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:010006</t>
+          <t>BCIO:010127</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>professional</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>affiliation to a formal group or organisation</t>
+        </is>
+      </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>An occupational role that works in knowledge building activities, applies scientific or artistic concepts and theories or teaches about the foregoing in a systematic manner.</t>
+          <t>A pre-existing knowledge or skill that is recognised through affiliation to a formal group or organisation.</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>member of British Psychological Society</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:010008</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
+          <t>BCIO:010000</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>behaviour change intervention source</t>
+        </is>
+      </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>health professional</t>
-        </is>
-      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>A professional that improves or develops concepts, theories and operational method, and applied scientific knowledge relating to medicine, nursing, dentistry, veterinary medicine, pharmacy, and promotion of health.</t>
+          <t>A role played by a person, population or organisation that provides a BCI.</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>Health professional; Arts therapist, Chiropractor, Dance and movement therapist, Occupational therapist, Osteopath, Podiatrist, Recreational therapist, Health staff, Clinic staff</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:010009</t>
+          <t>BCIO:010134</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>source involved in development of intervention</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>medical doctor</t>
-        </is>
-      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>A health professional that studies, diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans through the application of modern medicine. They plan, supervise and evaluate the implementation of care and treatment plans by other health care providers, and conduct medical education and research activities.</t>
+          <t>A BCI source that is involved in the development of intervention content.</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>District medical doctor-therapist, family medical practitioner, general practitioner, medical doctor (general), medical officer (general), physician (general), primary health care physician, resident medical officer specializing in general practice</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:010011</t>
+          <t>BCIO:010135</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>source involved in co-production of intervention</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>specialist medical practitioner</t>
-        </is>
-      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans, using specialized testing, diagnostic, medical, surgical, physical and psychiatric techniques through application of the principles and procedures of modern medicine. They specialize in certain disease categories, types of patient or methods of treatment and may conduct medical education and research in their chosen areas of specialization.</t>
+          <t>A source involved in development of intervention that has developed the intervention content in collaboration with key stakeholders such as patients or community members.</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>Anaesthetist, Cardiologist, Emergency medicine specialist, Gynaecologist, Obstetrician, Ophthalmologist, Paediatrician, Pathologist, Preventive medicine specialist, Psychiatrist, Radiation oncologist, Radiologist, Resident medical officer in specialist training, Specialist medical practitioner (public health), Specialist physician (internal medicine), Specialist physician (nuclear medicine), Surgeon</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:010010</t>
+          <t>BCIO:010001</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>person source role</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>generalist medical practitioner</t>
-        </is>
-      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments and maintains general health in humans through application of modern medicine. They do not limit their practice to certain disease categories or methods of treatment, and may assume responsibility for the provision of continuing and comprehensive medical care to individuals, families and communities.</t>
+          <t>A behaviour change intervention source role that inheres in a person.</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>Primary care physician, family doctor, GP</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:010013</t>
+          <t>BCIO:010138</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>organisational source role</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>nursing professional</t>
-        </is>
-      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>A health professional that provides treatment, support and care services for people who are in need of nursing care due to the effects of ageing, injury, illness or other physical or mental impairment, or potential risks to health.</t>
+          <t>A BCI source role that is borne by an organisation.</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>Clinical nurse consultant, District nurse, Nurse anaesthetist, Nurse educator, Nurse practitioner, Operating theatre nurse, Professional nurse, Public health nurse, Specialist nurse, Nursing Counsellor, Study Nurse</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:010014</t>
+          <t>BCIO:010133</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>source role related to intervention</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>midwifery professional</t>
-        </is>
-      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>A health professional that plans, manages, provides and evaluates midwifery care services before, during and after pregnancy and childbirth. They provide delivery care for reducing health risks to women and newborn children, working autonomously or in teams with other health care providers.</t>
+          <t>A BCI source whose occupational or voluntary role is focused on delivery of the behaviour change intervention.</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>Midwife</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:010018</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr"/>
+          <t>BCIO:010084</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>student or trainee role</t>
+        </is>
+      </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>dentist</t>
-        </is>
-      </c>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>A health professional that diagnoses treats and prevents diseases, injuries and abnormalities of the teeth, mouth, jaws and associated tissues by applying the principles and procedures of modern dentistry.</t>
+          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>Dental practitioner, Dental surgeon, Dentist, Endodontist, Oral and maxillofacial surgeon, Oral pathologist, Orthodontist, Paedodontist, Periodontist, Prosthodontist, Stomatologist</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:010023</t>
+          <t>BCIO:010086</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>school student or trainee</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>audiologist and speech therapist</t>
-        </is>
-      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>A health professional  that evaluates, manages and treats physical disorders affecting human hearing, speech, communication and swallowing.</t>
+          <t>A student or trainee that is currently learning at a primary or secondary education level in an institutional, organised setting.</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>Audiologist, Language therapist, Speech pathologist, Speech therapist</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:010022</t>
+          <t>BCIO:010088</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>higher education student or trainee</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>dietician and nutritionist</t>
-        </is>
-      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>A health professional  that assesses, plans and implements programmes to enhance the impact of food and nutrition on human health.</t>
+          <t>A student or trainee that is currently learning on an advanced educational programme in a university, college or professional school.</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -1890,30 +1855,30 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Clinical dietician, Food service dietician, Nutritionist, Public health nutritionist, Sports nutritionist</t>
+          <t>completing a university bachelor's or master's course of study, medical school or other professional school.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:010016</t>
+          <t>BCIO:010089</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>undergraduate student or trainee</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>paramedical practitioner</t>
-        </is>
-      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>A health professional that provides advisory, diagnostic, curative and preventive medical services more limited in scope and complexity than those carried out by medical doctors. They work autonomously or with limited supervision of medical doctors, and apply advanced clinical procedures for treating and preventing diseases, injuries and other physical or mental impairments common to specific communities.</t>
+          <t>A higher education student or trainee that is currently studying for an undergraduate degree.</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -1923,30 +1888,30 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Advanced care paramedic, Clinical officer (paramedical), Feldscher, Primary care paramedic, Surgical technician</t>
+          <t>undergraduate student</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:010020</t>
+          <t>BCIO:010090</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>graduate student or trainee</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>environmental and occupational health and hygiene professional</t>
-        </is>
-      </c>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>A health professional that assesses, plans and implements programmes to recognize, monitor and control environmental factors that can potentially affect human health, to ensure safe and healthy working conditions and to prevent disease or injury caused by chemical, physical, radiological and biological agents or ergonomic factors.</t>
+          <t>A higher education student or trainee that has completed an undergraduate degree.</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -1956,30 +1921,30 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Environmental health officer, Occupational health and safety adviser, Occupational hygienist, Radiation protection expert</t>
+          <t>graduate student</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:010024</t>
+          <t>BCIO:010091</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>masters student or trainee</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>optometrist and ophthalmic optician</t>
-        </is>
-      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>A health professional  that provides diagnosis, management and treatment services for disorders of the eyes and visual system.</t>
+          <t>A higher education student or trainee that is currently studying for a Masters degree.</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -1989,30 +1954,30 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Ophthalmic optician , Optometrist, Orthoptist</t>
+          <t>MSc student, Masters student</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:010015</t>
+          <t>BCIO:010092</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>doctoral student or trainee</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>traditional and complementary medicine professional</t>
-        </is>
-      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>A health professional that examines patients, prevents and treats illness, disease, injury and other physical and mental impairments and maintains general health in humans. They do this by applying knowledge, skills and practices acquired through extensive study of the theories, beliefs and experiences originating in specific cultures.</t>
+          <t>A higher education student or trainee that is currently studying for a doctoral degree.</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -2022,30 +1987,30 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Acupuncturist, Ayurvedic practitioner,  Chinese herbal medicine practitioner, Homeopath, Naturopath, Unani practitioner</t>
+          <t>PhD student</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:010012</t>
+          <t>BCIO:010087</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>vocational training student or trainee</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>nursing and midwifery professional</t>
-        </is>
-      </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>A health professional that provides treatment and care services for people who are physically or mentally ill, disabled or infirm, and those with potential risks to health including before, during and after childbirth. They assume responsibility for the planning, management and evaluation of the care of patients, including the supervision of other health care workers, working autonomously or in teams with medical doctors and others in the practical application of preventive and curative measures.</t>
+          <t>A student or trainee that is currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -2057,89 +2022,79 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:010019</t>
+          <t>BCIO:010085</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>informal education student or trainee</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>pharmacist</t>
-        </is>
-      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>A health professional that stores, preserves, compounds and dispenses medicinal products and counsel on the proper use and adverse effects of drugs and medicines following prescriptions issued by medical doctors and other health professionals.</t>
+          <t>A student or trainee that is currently learning in a non-institutional setting.</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>Dispensing chemist, Hospital pharmacist, Industrial pharmacist, Retail pharmacist</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:010021</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr"/>
+          <t>BCIO:010003</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>personal role of source</t>
+        </is>
+      </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>physiotherapist</t>
-        </is>
-      </c>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>A health professional  that assesses, plans and implements rehabilitative programmes that improve or restore human motor functions, maximize movement ability, relieve pain syndromes, and treat or prevent physical challenges associated with injuries, diseases and other impairments.</t>
+          <t>A role that inheres in a person source.</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>Geriatric physical therapist, Manipulative therapist, Orthopaedic physical therapist, Paediatric physical therapist, Physical therapist, Physiotherapist</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:010017</t>
+          <t>BCIO:010004</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>occupational role of source</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>veterinarian</t>
-        </is>
-      </c>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>A health professional that diagnoses, prevents and treats diseases, injuries and dysfunctions of animals.</t>
+          <t>A personal role of source that is realised by doing a specified type of work or working in a specified way.</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -2149,30 +2104,30 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Animal pathologist, Veterinarian, Veterinary epidemiologist, Veterinary intern, Veterinary surgeon</t>
+          <t>Interventionist, facilitator, study staff</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:010007</t>
+          <t>BCIO:010005</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>science and engineering professional</t>
-        </is>
-      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>manager</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>A professional that conducts research, improves or develops concepts, theories and operational methods or applies scientific knowledge.</t>
+          <t>An occupational role of source that manages, plans and coordinates the overall activities of enterprises, governments and other organisations.</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -2182,30 +2137,30 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Science Professional, Mathematician, Actuary, Statistician, Life Science Professional, Engineering Professional, Electrotechnology Engineer, Architect, Planner, Surveyor, Designer</t>
+          <t>Chief Executive Officers; Administrative Managers;  Commercial Managers</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:010044</t>
+          <t>BCIO:010006</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>technician and associate professional</t>
-        </is>
-      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>professional</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>A professional that performs technical and related tasks connected with research and the application of scientific or artistic concepts and operational methods, and government or business regulations.</t>
+          <t>An occupational role that works in knowledge building activities, applies scientific or artistic concepts and theories or teaches about the foregoing in a systematic manner.</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -2217,23 +2172,23 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:010060</t>
+          <t>BCIO:010008</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>religious associate professional</t>
-        </is>
-      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>health professional</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>A technician and associate professional that provides support to ministers of religion or to a religious community, undertake religious works, preach and propagate the teachings of a particular religion and endeavour to improve well-being through the power of faith and spiritual advice.</t>
+          <t>A professional that improves or develops concepts, theories and operational method, and applied scientific knowledge relating to medicine, nursing, dentistry, veterinary medicine, pharmacy, and promotion of health.</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -2243,14 +2198,14 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Faith healer, Lay preacher, Monk, Nun</t>
+          <t>Health professional; Arts therapist, Chiropractor, Dance and movement therapist, Occupational therapist, Osteopath, Podiatrist, Recreational therapist, Health staff, Clinic staff</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:010065</t>
+          <t>BCIO:010009</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
@@ -2259,14 +2214,14 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>artistic, cultural and culinary associate professional</t>
+          <t>medical doctor</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>A technician and associate professional that combines creative skills and technical and cultural knowledge in creative media or food.</t>
+          <t>A health professional that studies, diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans through the application of modern medicine. They plan, supervise and evaluate the implementation of care and treatment plans by other health care providers, and conduct medical education and research activities.</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -2276,30 +2231,30 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Photographer, Interior designers and decorator, Gallery, museum and library technician, Chef</t>
+          <t>District medical doctor-therapist, family medical practitioner, general practitioner, medical doctor (general), medical officer (general), physician (general), primary health care physician, resident medical officer specializing in general practice</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:010061</t>
+          <t>BCIO:010010</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>sport and fitness worker</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>generalist medical practitioner</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>A technician and associate professional that prepares for and competes in sporting events for financial gain, trains amateur and professional sportsmen and women to enhance performance, promotes participation and standards in sport, organises and officiates sporting events, or provides instruction, training and supervision for various forms of exercise and other recreational activities.</t>
+          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments and maintains general health in humans through application of modern medicine. They do not limit their practice to certain disease categories or methods of treatment, and may assume responsibility for the provision of continuing and comprehensive medical care to individuals, families and communities.</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -2309,14 +2264,14 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>physical activity professional, exercise physiologist, exercise therapist, exercise specialist</t>
+          <t>Primary care physician, family doctor, GP</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:010064</t>
+          <t>BCIO:010011</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -2326,13 +2281,13 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>fitness and recreation instructor and programme leader</t>
+          <t>specialist medical practitioner</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>A sport and fitness worker that leads, guides and instructs groups and individuals in recreational, fitness or outdoor adventure activities.</t>
+          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans, using specialized testing, diagnostic, medical, surgical, physical and psychiatric techniques through application of the principles and procedures of modern medicine. They specialize in certain disease categories, types of patient or methods of treatment and may conduct medical education and research in their chosen areas of specialization.</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -2342,30 +2297,30 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Aerobics instructor, Fitness instructor, Horse riding instructor, Outdoor adventure guide, Personal trainer, Sailing instructor, Underwater diving instructor</t>
+          <t>Anaesthetist, Cardiologist, Emergency medicine specialist, Gynaecologist, Obstetrician, Ophthalmologist, Paediatrician, Pathologist, Preventive medicine specialist, Psychiatrist, Radiation oncologist, Radiologist, Resident medical officer in specialist training, Specialist medical practitioner (public health), Specialist physician (internal medicine), Specialist physician (nuclear medicine), Surgeon</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:010063</t>
+          <t>BCIO:010020</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>sports coach, instructor and official</t>
-        </is>
-      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>environmental and occupational health and hygiene professional</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>A sport and fitness worker that works with amateur and professional sportspersons to enhance performance and encourage greater participation in sport, and organizes and officiates in sporting events according to established rules.</t>
+          <t>A health professional that assesses, plans and implements programmes to recognize, monitor and control environmental factors that can potentially affect human health, to ensure safe and healthy working conditions and to prevent disease or injury caused by chemical, physical, radiological and biological agents or ergonomic factors.</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -2375,47 +2330,42 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Referee, Ski instructor, Sports coach, Sports official, Swimming instructor</t>
+          <t>Environmental health officer, Occupational health and safety adviser, Occupational hygienist, Radiation protection expert</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:010062</t>
+          <t>BCIO:010012</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>athlete and sports player</t>
-        </is>
-      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>nursing and midwifery professional</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>A sport and fitness worker that participates in competitive sporting events. They train and compete, either individually or as part of a team, in their chosen sport.</t>
+          <t>A health professional that provides treatment and care services for people who are physically or mentally ill, disabled or infirm, and those with potential risks to health including before, during and after childbirth. They assume responsibility for the planning, management and evaluation of the care of patients, including the supervision of other health care workers, working autonomously or in teams with medical doctors and others in the practical application of preventive and curative measures.</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Athlete, Bicycle racer, Boxer, Chess player , Footballer, Golfer, Hockey player, Jockey, Poker player, Racing driver, Skier, Tennis player, Wrestler</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:010057</t>
+          <t>BCIO:010022</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
@@ -2424,14 +2374,14 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>business and administration associate professional</t>
+          <t>dietician and nutritionist</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>A technician and associate professional that performs mostly technical tasks connected with the practical application of knowledge relating to financial accounting and transaction matters, mathematical calculations, human resource development, selling and buying financial instruments, specialized secretarial tasks and enforcing or applying government rules.</t>
+          <t>A health professional  that assesses, plans and implements programmes to enhance the impact of food and nutrition on human health.</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -2441,14 +2391,14 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Financial and Mathematical associate professional, Sales and purchasing agent, Broker, Business Services Agent, Administrative and Specialized Secretary, Government regulatory associate professional, Medical secretary</t>
+          <t>Clinical dietician, Food service dietician, Nutritionist, Public health nutritionist, Sports nutritionist</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:010059</t>
+          <t>BCIO:010015</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -2457,14 +2407,14 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>social work associate professional</t>
+          <t>traditional and complementary medicine professional</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>A technician and associate professional that implements social assistance programmes and community services and assist clients to deal with personal and social problems.</t>
+          <t>A health professional that examines patients, prevents and treats illness, disease, injury and other physical and mental impairments and maintains general health in humans. They do this by applying knowledge, skills and practices acquired through extensive study of the theories, beliefs and experiences originating in specific cultures.</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -2474,14 +2424,14 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Community development worker, Community services worker, Crisis intervention worker, Disability services worker, Family services worker, Life skills instructor, Mental health support worker, Welfare support worker, Women’s shelter supervisor, Youth services worker</t>
+          <t>Acupuncturist, Ayurvedic practitioner,  Chinese herbal medicine practitioner, Homeopath, Naturopath, Unani practitioner</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:010058</t>
+          <t>BCIO:010018</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -2490,14 +2440,14 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>legal and related associate professional</t>
+          <t>dentist</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>A technician and associate professional that performs support functions in courts of law or in law offices, provide services related to such legal matters as insurance contracts, the transferring of property and the granting of loans and other financial transactions, or conduct investigations for clients.</t>
+          <t>A health professional that diagnoses treats and prevents diseases, injuries and abnormalities of the teeth, mouth, jaws and associated tissues by applying the principles and procedures of modern dentistry.</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -2507,14 +2457,14 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Bailiff, Judge’s clerk, Conveyancing clerk, Court clerk, Justice of the peace, Law clerk, Legal assistant, Paralegal, Private detective, Title searcher</t>
+          <t>Dental practitioner, Dental surgeon, Dentist, Endodontist, Oral and maxillofacial surgeon, Oral pathologist, Orthodontist, Paedodontist, Periodontist, Prosthodontist, Stomatologist</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:010066</t>
+          <t>BCIO:010024</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
@@ -2523,14 +2473,14 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>information and communications technician</t>
+          <t>optometrist and ophthalmic optician</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>A technician and associate professional that provides support for the day to day running of computer systems, communication systems and networks, broadcast images and sound, telecommunication signals on land, sea or in aircraft.</t>
+          <t>A health professional  that provides diagnosis, management and treatment services for disorders of the eyes and visual system.</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -2540,14 +2490,14 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Information and Communications Technology Operations and User Support Technician, Telecommunications and Broadcasting Technician</t>
+          <t>Ophthalmic optician , Optometrist, Orthoptist</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:010045</t>
+          <t>BCIO:010021</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
@@ -2556,14 +2506,14 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>health associate professional</t>
+          <t>physiotherapist</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>A technician and associate professional that performs technical and practical tasks to support diagnosis and treatment of illness, disease, injuries and impairments in humans or animals, and supports the implementation of health care usually established by medical, veterinary, nursing and other health professionals.</t>
+          <t>A health professional  that assesses, plans and implements rehabilitative programmes that improve or restore human motor functions, maximize movement ability, relieve pain syndromes, and treat or prevent physical challenges associated with injuries, diseases and other impairments.</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -2573,30 +2523,30 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Veterinary Technician </t>
+          <t>Geriatric physical therapist, Manipulative therapist, Orthopaedic physical therapist, Paediatric physical therapist, Physical therapist, Physiotherapist</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:010053</t>
+          <t>BCIO:010014</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>physiotherapy technician and assistant</t>
-        </is>
-      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>midwifery professional</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>A health associate professional that provides physical therapeutic treatments to patients in circumstances where functional movement is threatened by injury, disease or impairment. Therapies are usually provided according to rehabilitative plans established by a physiotherapist or other health professional.</t>
+          <t>A health professional that plans, manages, provides and evaluates midwifery care services before, during and after pregnancy and childbirth. They provide delivery care for reducing health risks to women and newborn children, working autonomously or in teams with other health care providers.</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -2606,30 +2556,30 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Acupressure therapist, Electrotherapist, Hydrotherapist, Massage therapist, Physical rehabilitation technician, Physiotherapy technician, Shiatsu therapist</t>
+          <t>Midwife</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:010052</t>
+          <t>BCIO:010023</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>community health worker</t>
-        </is>
-      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>audiologist and speech therapist</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>A health associate professional that provides health education, referral and follow-up, case management, basic preventive health care and home visiting services to specific communities. They provide support and assistance to individuals and families in navigating the health and social services system.</t>
+          <t>A health professional  that evaluates, manages and treats physical disorders affecting human hearing, speech, communication and swallowing.</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -2639,30 +2589,30 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Community health aide, Community health promoter, Community health worker, Village health worker, outreach worker, health worker</t>
+          <t>Audiologist, Language therapist, Speech pathologist, Speech therapist</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:010046</t>
+          <t>BCIO:010013</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>medical and pharmaceutical technician</t>
-        </is>
-      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>nursing professional</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>A health associate professional that performs technical tasks to assist in diagnosis and treatment of illness, disease, injuries and impairments.</t>
+          <t>A health professional that provides treatment, support and care services for people who are in need of nursing care due to the effects of ageing, injury, illness or other physical or mental impairment, or potential risks to health.</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -2672,30 +2622,30 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Medical imaging and therapeutic equipment technician, Medical and Pathology laboratory technician, Pharmaceutical technician, Medical and dental prosthetic technician</t>
+          <t>Clinical nurse consultant, District nurse, Nurse anaesthetist, Nurse educator, Nurse practitioner, Operating theatre nurse, Professional nurse, Public health nurse, Specialist nurse, Nursing Counsellor, Study Nurse</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:010050</t>
+          <t>BCIO:010019</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>traditional and complementary medicine associate professional</t>
-        </is>
-      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>pharmacist</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>A health associate professional that prevents and treats human physical and mental illnesses, disorders and injuries using herbal and other therapies based on theories, beliefs and experiences originating in specific cultures. They administer treatments using traditional techniques and medicaments, either acting independently or according to therapeutic care plans established by a traditional medicine or other health professional.</t>
+          <t>A health professional that stores, preserves, compounds and dispenses medicinal products and counsel on the proper use and adverse effects of drugs and medicines following prescriptions issued by medical doctors and other health professionals.</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -2705,30 +2655,30 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Acupuncture technician, Ayurvedic technician, Bonesetter, Herbalist , Homeopathy technician, Scraping and cupping therapist, Village healer, Witch doctor</t>
+          <t>Dispensing chemist, Hospital pharmacist, Industrial pharmacist, Retail pharmacist</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:010047</t>
+          <t>BCIO:010017</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>nursing and midwifery associate professional</t>
-        </is>
-      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>veterinarian</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>A health associate professional that provides basic nursing and personal care for people who are physically or mentally ill, disabled or infirm, and for others in need of care due to potential risks to health including before, during and after childbirth. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing, midwifery and other health professionals.</t>
+          <t>A health professional that diagnoses, prevents and treats diseases, injuries and dysfunctions of animals.</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -2738,30 +2688,30 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Practice assistant, Quit Smoking Counsellor, Health educator, Dispensing Optician, Information Technician</t>
+          <t>Animal pathologist, Veterinarian, Veterinary epidemiologist, Veterinary intern, Veterinary surgeon</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:010049</t>
+          <t>BCIO:010016</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>paramedical practitioner</t>
+        </is>
+      </c>
       <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>midwifery associate professional</t>
-        </is>
-      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>A nursing and midwifery associate professional that provides basic health care and advice before, during and after pregnancy and childbirth. They implement care, treatment and referral plans usually established by medical, midwifery and other health professionals.</t>
+          <t>A health professional that provides advisory, diagnostic, curative and preventive medical services more limited in scope and complexity than those carried out by medical doctors. They work autonomously or with limited supervision of medical doctors, and apply advanced clinical procedures for treating and preventing diseases, injuries and other physical or mental impairments common to specific communities.</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -2771,64 +2721,58 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Assistant midwife, Traditional midwife</t>
+          <t>Advanced care paramedic, Clinical officer (paramedical), Feldscher, Primary care paramedic, Surgical technician</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:010048</t>
+          <t>BCIO:010034</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>legal, social and cultural professional</t>
+        </is>
+      </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>nursing associate professional</t>
-        </is>
-      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>A nursing and midwifery associate professional that provides basic nursing and personal care for people in need of such care due to effects of ageing, illness, injury, or other physical or mental impairment. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing and other health professionals.</t>
+          <t>A professional that conducts research, improves or develops concepts, theories and operational methods, or applies knowledge relating to the law, social or cultural studies.</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>Assistant nurse, Associate professional nurse, Enrolled nurse, Practical nurse</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:010055</t>
+          <t>BCIO:010043</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>environmental and occupational health inspector and associate</t>
-        </is>
-      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>creative and performing artist</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>A health associate professional that investigates the implementation of rules and regulations relating to environmental factors that may affect human health, safety in the 
-workplace, and safety of processes for the production of goods and services. They may implement and evaluate programmes to restore or improve safety and sanitary conditions under the supervision of a health professional.</t>
+          <t>A legal, social and cultural professional that communicates ideas, impressions and facts in a wide range of media to achieve particular effects, interprets a composition such as a musical score or a script to perform or direct the performance, and hosts the presentation of such performance and other media events.</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -2838,30 +2782,30 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Food sanitation and safety inspector, Health inspector, Occupational health and safety inspector, Pollution inspector, Product safety inspector, Sanitarian, Sanitary inspector</t>
+          <t>Visual artist, Musician, Singer, Composer, Dancer, Choreographer, Director, Producer, Actor, Announcer on radio, television and other media</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:010056</t>
+          <t>BCIO:010037</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>ambulance worker</t>
-        </is>
-      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>social professional</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>A health associate professional that provides emergency health care to patients who are injured, sick, infirm or otherwise physically or mentally impaired prior to and during transport to medical facilities.</t>
+          <t>A legal, social and cultural professional that conducts research, improves or develops concepts, theories and operational methods or applies knowledge relating to psychology, sociology, philosophy, politics, economics, sociology, anthropology, history and other social sciences, or provides social services to meet the needs of individuals and families in a community.</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -2871,14 +2815,14 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Ambulance officer, Ambulance paramedic, Emergency medical technician, Emergency paramedic</t>
+          <t>Economist, Sociologist, Anthropologist, Philosopher, Historian, Political Scientist</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:010054</t>
+          <t>BCIO:010039</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
@@ -2888,13 +2832,13 @@
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>medical assistant</t>
+          <t>social work and counselling professional</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>A health associate professional that performs basic clinical and administrative tasks to support patient care under the direct supervision of a medical practitioner or other health professional.</t>
+          <t>A social professional that provides advice and guidance to individuals, families, groups, communities and organizations in response to social and personal difficulties. They assist clients to develop skills and access resources and support services needed to respond to issues arising from unemployment, poverty, disability, addiction, criminal and delinquent behaviour, marital and other problems.</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -2904,14 +2848,14 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Clinical assistant, Medical assistant, Ophthalmic assistant</t>
+          <t>Counsellor, Addictions counsellor, Bereavement counsellor, Child and youth counsellor, District social welfare officer, Family counsellor, Marriage counsellor, Parole officer, Probation officer, Sexual assault counsellor, Social worker, Women’s welfare organizer</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:010051</t>
+          <t>BCIO:010038</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
@@ -2921,13 +2865,13 @@
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>dental assistant and therapist</t>
+          <t>psychologist</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>A health associate professional that provides basic dental care services for the prevention and treatment of diseases and disorders of the teeth and mouth, according to care plans and procedures established by a dentist or other oral health professional.</t>
+          <t>A social professional that studies the mental processes and behaviour of human beings as individuals or in groups, and applies this knowledge to promote personal, social, educational or occupational adjustment and development.</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -2937,30 +2881,30 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Dental assistant, Dental hygienist , Dental therapist</t>
+          <t>Clinical psychologist, Counselling psychologist, Educational psychologist, Forensic psychologist, Health psychologist, Neuropsychologist, Organizational psychologist, Psychotherapist, Sport and exercise psychologist</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:010025</t>
+          <t>BCIO:010040</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>teaching professional</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>religious professional</t>
+        </is>
+      </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>A professional that teaches the theory and practice of one or more disciplines at different educational levels.</t>
+          <t>A legal, social and cultural professional that functions  as a perpetuator of sacred traditions, practices and beliefs. They conduct religious services, celebrate or administer the rites of a religious faith or denomination, provide spiritual and moral guidance and perform other functions associated with the practice of a religion.</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -2970,14 +2914,14 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Education Methods Specialist, Other Language Teacher, Information Technology Teacher, Private Tutor, School Counsellor, Student Advisor</t>
+          <t>Bonze, Imam, Minister of religion, Poojari, Priest, Rabbi</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:010031</t>
+          <t>BCIO:010036</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
@@ -2986,14 +2930,14 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>special needs teacher</t>
+          <t>librarian, archivist and curator</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches children, young persons or adults with physical or intellectual special needs.</t>
+          <t>A legal, social and cultural professional that develops and maintains collections of archives, libraries, museums, art galleries and similar establishments.</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -3003,14 +2947,14 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Learning disabilities special education teacher, Learning support teacher, Remedial teacher, Teacher of gifted children, Teacher of the hearing impaired, Teacher of the sight impaired</t>
+          <t>Librarian, Archivist,  Curator</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:010028</t>
+          <t>BCIO:010042</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
@@ -3019,14 +2963,14 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>secondary education teacher</t>
+          <t>linguist</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches one or more subjects at secondary education level.</t>
+          <t>A legal, social and cultural professional that translates or interprets from one language into another.</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -3036,14 +2980,14 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Secondary school teacher, High school teacher</t>
+          <t>Interpretator; other linguist</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:010029</t>
+          <t>BCIO:010035</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
@@ -3052,26 +2996,31 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>primary school teacher</t>
+          <t>legal professional</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches teach a range of subjects at the primary education level.</t>
+          <t>A legal, social and cultural professional that conducts research on legal problems, advises clients on legal aspects of problems, pleads cases or conducts prosecutions in courts of law, presides over judicial proceedings in courts of law and draft laws and regulations.</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Lawyer, Judge, Coroner</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BCIO:010030</t>
+          <t>BCIO:010041</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
@@ -3080,14 +3029,14 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>early childhood educator</t>
+          <t>author and journalist</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>A teaching professional that promotes the social, physical, and intellectual development of children below primary school age through the provision of educational and play activities.</t>
+          <t>A legal, social and cultural professional that conceives and creates literary works, and interprets and communicates news and public affairs through the media.</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -3097,30 +3046,30 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Early childhood educator, Pre-school teacher</t>
+          <t>Author, Writer, Journalist, Translator, News anchor</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BCIO:010032</t>
+          <t>BCIO:010007</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>music teacher</t>
-        </is>
-      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>science and engineering professional</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches students in the practice, theory and performance of music in private or small group tuition or within mainstream educational institutions.</t>
+          <t>A professional that conducts research, improves or develops concepts, theories and operational methods or applies scientific knowledge.</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -3130,47 +3079,42 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Guitar teacher (private tuition), Piano teacher (private tuition), Singing teacher (private tuition), Violin teacher (private tuition)</t>
+          <t>Science Professional, Mathematician, Actuary, Statistician, Life Science Professional, Engineering Professional, Electrotechnology Engineer, Architect, Planner, Surveyor, Designer</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BCIO:010027</t>
+          <t>BCIO:010044</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>vocational education teacher</t>
-        </is>
-      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>technician and associate professional</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches or instructs vocational or occupational subjects in adult and further education institutions and to senior students in secondary schools and colleges.</t>
+          <t>A professional that performs technical and related tasks connected with research and the application of scientific or artistic concepts and operational methods, and government or business regulations.</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>Automotive technology instructor, Cosmetology instructor, Vocational education teacher</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:010026</t>
+          <t>BCIO:010057</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
@@ -3179,14 +3123,14 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
-          <t>university and higher education teacher</t>
+          <t>business and administration associate professional</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>A teaching professional that prepares and delivers lectures and conduct tutorials in one or more subjects within a prescribed course of study at a university or other higher educational institution. They conduct research, and prepare scholarly papers and books.</t>
+          <t>A technician and associate professional that performs mostly technical tasks connected with the practical application of knowledge relating to financial accounting and transaction matters, mathematical calculations, human resource development, selling and buying financial instruments, specialized secretarial tasks and enforcing or applying government rules.</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -3196,14 +3140,14 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Higher education lecturer, Professor, University lecturer, University tutor</t>
+          <t>Financial and Mathematical associate professional, Sales and purchasing agent, Broker, Business Services Agent, Administrative and Specialized Secretary, Government regulatory associate professional, Medical secretary</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BCIO:010033</t>
+          <t>BCIO:010066</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
@@ -3212,14 +3156,14 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>arts teacher</t>
+          <t>information and communications technician</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>A teaching professional  that teaches students in the practice, theory and performance of dance, drama, visual and other arts (excluding music) in private or small group tuition or within mainstream educational institutions.</t>
+          <t>A technician and associate professional that provides support for the day to day running of computer systems, communication systems and networks, broadcast images and sound, telecommunication signals on land, sea or in aircraft.</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -3229,42 +3173,47 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Dance teacher (private tuition), Drama teacher (private tuition), Painting teacher (private tuition), Sculpture teacher (private tuition)</t>
+          <t>Information and Communications Technology Operations and User Support Technician, Telecommunications and Broadcasting Technician</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:010034</t>
+          <t>BCIO:010065</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>legal, social and cultural professional</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>artistic, cultural and culinary associate professional</t>
+        </is>
+      </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>A professional that conducts research, improves or develops concepts, theories and operational methods, or applies knowledge relating to the law, social or cultural studies.</t>
+          <t>A technician and associate professional that combines creative skills and technical and cultural knowledge in creative media or food.</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Photographer, Interior designers and decorator, Gallery, museum and library technician, Chef</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:010041</t>
+          <t>BCIO:010045</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -3273,14 +3222,14 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
         <is>
-          <t>author and journalist</t>
+          <t>health associate professional</t>
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that conceives and creates literary works, and interprets and communicates news and public affairs through the media.</t>
+          <t>A technician and associate professional that performs technical and practical tasks to support diagnosis and treatment of illness, disease, injuries and impairments in humans or animals, and supports the implementation of health care usually established by medical, veterinary, nursing and other health professionals.</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -3290,30 +3239,30 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Author, Writer, Journalist, Translator, News anchor</t>
+          <t xml:space="preserve">Veterinary Technician </t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:010035</t>
+          <t>BCIO:010052</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>legal professional</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>community health worker</t>
+        </is>
+      </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that conducts research on legal problems, advises clients on legal aspects of problems, pleads cases or conducts prosecutions in courts of law, presides over judicial proceedings in courts of law and draft laws and regulations.</t>
+          <t>A health associate professional that provides health education, referral and follow-up, case management, basic preventive health care and home visiting services to specific communities. They provide support and assistance to individuals and families in navigating the health and social services system.</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -3323,30 +3272,30 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Lawyer, Judge, Coroner</t>
+          <t>Community health aide, Community health promoter, Community health worker, Village health worker, outreach worker, health worker</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:010037</t>
+          <t>BCIO:010054</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>social professional</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>medical assistant</t>
+        </is>
+      </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that conducts research, improves or develops concepts, theories and operational methods or applies knowledge relating to psychology, sociology, philosophy, politics, economics, sociology, anthropology, history and other social sciences, or provides social services to meet the needs of individuals and families in a community.</t>
+          <t>A health associate professional that performs basic clinical and administrative tasks to support patient care under the direct supervision of a medical practitioner or other health professional.</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -3356,14 +3305,14 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Economist, Sociologist, Anthropologist, Philosopher, Historian, Political Scientist</t>
+          <t>Clinical assistant, Medical assistant, Ophthalmic assistant</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BCIO:010038</t>
+          <t>BCIO:010055</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
@@ -3373,13 +3322,14 @@
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>psychologist</t>
+          <t>environmental and occupational health inspector and associate</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>A social professional that studies the mental processes and behaviour of human beings as individuals or in groups, and applies this knowledge to promote personal, social, educational or occupational adjustment and development.</t>
+          <t>A health associate professional that investigates the implementation of rules and regulations relating to environmental factors that may affect human health, safety in the 
+workplace, and safety of processes for the production of goods and services. They may implement and evaluate programmes to restore or improve safety and sanitary conditions under the supervision of a health professional.</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -3389,14 +3339,14 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Clinical psychologist, Counselling psychologist, Educational psychologist, Forensic psychologist, Health psychologist, Neuropsychologist, Organizational psychologist, Psychotherapist, Sport and exercise psychologist</t>
+          <t>Food sanitation and safety inspector, Health inspector, Occupational health and safety inspector, Pollution inspector, Product safety inspector, Sanitarian, Sanitary inspector</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BCIO:010039</t>
+          <t>BCIO:010051</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
@@ -3406,13 +3356,13 @@
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>social work and counselling professional</t>
+          <t>dental assistant and therapist</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>A social professional that provides advice and guidance to individuals, families, groups, communities and organizations in response to social and personal difficulties. They assist clients to develop skills and access resources and support services needed to respond to issues arising from unemployment, poverty, disability, addiction, criminal and delinquent behaviour, marital and other problems.</t>
+          <t>A health associate professional that provides basic dental care services for the prevention and treatment of diseases and disorders of the teeth and mouth, according to care plans and procedures established by a dentist or other oral health professional.</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -3422,30 +3372,30 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Counsellor, Addictions counsellor, Bereavement counsellor, Child and youth counsellor, District social welfare officer, Family counsellor, Marriage counsellor, Parole officer, Probation officer, Sexual assault counsellor, Social worker, Women’s welfare organizer</t>
+          <t>Dental assistant, Dental hygienist , Dental therapist</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BCIO:010040</t>
+          <t>BCIO:010050</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>religious professional</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>traditional and complementary medicine associate professional</t>
+        </is>
+      </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that functions  as a perpetuator of sacred traditions, practices and beliefs. They conduct religious services, celebrate or administer the rites of a religious faith or denomination, provide spiritual and moral guidance and perform other functions associated with the practice of a religion.</t>
+          <t>A health associate professional that prevents and treats human physical and mental illnesses, disorders and injuries using herbal and other therapies based on theories, beliefs and experiences originating in specific cultures. They administer treatments using traditional techniques and medicaments, either acting independently or according to therapeutic care plans established by a traditional medicine or other health professional.</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -3455,30 +3405,30 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Bonze, Imam, Minister of religion, Poojari, Priest, Rabbi</t>
+          <t>Acupuncture technician, Ayurvedic technician, Bonesetter, Herbalist , Homeopathy technician, Scraping and cupping therapist, Village healer, Witch doctor</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BCIO:010042</t>
+          <t>BCIO:010047</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>linguist</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>nursing and midwifery associate professional</t>
+        </is>
+      </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that translates or interprets from one language into another.</t>
+          <t>A health associate professional that provides basic nursing and personal care for people who are physically or mentally ill, disabled or infirm, and for others in need of care due to potential risks to health including before, during and after childbirth. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing, midwifery and other health professionals.</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -3488,30 +3438,30 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Interpretator; other linguist</t>
+          <t>Practice assistant, Quit Smoking Counsellor, Health educator, Dispensing Optician, Information Technician</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:010036</t>
+          <t>BCIO:010049</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>librarian, archivist and curator</t>
-        </is>
-      </c>
+      <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>midwifery associate professional</t>
+        </is>
+      </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that develops and maintains collections of archives, libraries, museums, art galleries and similar establishments.</t>
+          <t>A nursing and midwifery associate professional that provides basic health care and advice before, during and after pregnancy and childbirth. They implement care, treatment and referral plans usually established by medical, midwifery and other health professionals.</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -3521,30 +3471,30 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Librarian, Archivist,  Curator</t>
+          <t>Assistant midwife, Traditional midwife</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCIO:010043</t>
+          <t>BCIO:010048</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>creative and performing artist</t>
-        </is>
-      </c>
+      <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>nursing associate professional</t>
+        </is>
+      </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that communicates ideas, impressions and facts in a wide range of media to achieve particular effects, interprets a composition such as a musical score or a script to perform or direct the performance, and hosts the presentation of such performance and other media events.</t>
+          <t>A nursing and midwifery associate professional that provides basic nursing and personal care for people in need of such care due to effects of ageing, illness, injury, or other physical or mental impairment. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing and other health professionals.</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -3554,254 +3504,294 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Visual artist, Musician, Singer, Composer, Dancer, Choreographer, Director, Producer, Actor, Announcer on radio, television and other media</t>
+          <t>Assistant nurse, Associate professional nurse, Enrolled nurse, Practical nurse</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BCIO:010000</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>behaviour change intervention source</t>
-        </is>
-      </c>
+          <t>BCIO:010056</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>ambulance worker</t>
+        </is>
+      </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>A role played by a person, population or organisation that provides a BCI.</t>
+          <t>A health associate professional that provides emergency health care to patients who are injured, sick, infirm or otherwise physically or mentally impaired prior to and during transport to medical facilities.</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>Ambulance officer, Ambulance paramedic, Emergency medical technician, Emergency paramedic</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BCIO:010133</t>
+          <t>BCIO:010046</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>source role related to intervention</t>
-        </is>
-      </c>
+      <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>medical and pharmaceutical technician</t>
+        </is>
+      </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>A BCI source whose occupational or voluntary role is focused on delivery of the behaviour change intervention.</t>
+          <t>A health associate professional that performs technical tasks to assist in diagnosis and treatment of illness, disease, injuries and impairments.</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Medical imaging and therapeutic equipment technician, Medical and Pathology laboratory technician, Pharmaceutical technician, Medical and dental prosthetic technician</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BCIO:010138</t>
+          <t>BCIO:010053</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>organisational source role</t>
-        </is>
-      </c>
+      <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>physiotherapy technician and assistant</t>
+        </is>
+      </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>A BCI source role that is borne by an organisation.</t>
+          <t>A health associate professional that provides physical therapeutic treatments to patients in circumstances where functional movement is threatened by injury, disease or impairment. Therapies are usually provided according to rehabilitative plans established by a physiotherapist or other health professional.</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Acupressure therapist, Electrotherapist, Hydrotherapist, Massage therapist, Physical rehabilitation technician, Physiotherapy technician, Shiatsu therapist</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BCIO:010134</t>
+          <t>BCIO:010061</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>source involved in development of intervention</t>
-        </is>
-      </c>
+      <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>sport and fitness worker</t>
+        </is>
+      </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>A BCI source that is involved in the development of intervention content.</t>
+          <t>A technician and associate professional that prepares for and competes in sporting events for financial gain, trains amateur and professional sportsmen and women to enhance performance, promotes participation and standards in sport, organises and officiates sporting events, or provides instruction, training and supervision for various forms of exercise and other recreational activities.</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>physical activity professional, exercise physiologist, exercise therapist, exercise specialist</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BCIO:010135</t>
+          <t>BCIO:010062</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>source involved in co-production of intervention</t>
-        </is>
-      </c>
+      <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>athlete and sports player</t>
+        </is>
+      </c>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>A source involved in development of intervention that has developed the intervention content in collaboration with key stakeholders such as patients or community members.</t>
+          <t>A sport and fitness worker that participates in competitive sporting events. They train and compete, either individually or as part of a team, in their chosen sport.</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>Athlete, Bicycle racer, Boxer, Chess player , Footballer, Golfer, Hockey player, Jockey, Poker player, Racing driver, Skier, Tennis player, Wrestler</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BCIO:010001</t>
+          <t>BCIO:010063</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>person source role</t>
-        </is>
-      </c>
+      <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>sports coach, instructor and official</t>
+        </is>
+      </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>A behaviour change intervention source role that inheres in a person.</t>
+          <t>A sport and fitness worker that works with amateur and professional sportspersons to enhance performance and encourage greater participation in sport, and organizes and officiates in sporting events according to established rules.</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>Referee, Ski instructor, Sports coach, Sports official, Swimming instructor</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BCIO:010084</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>student or trainee role</t>
-        </is>
-      </c>
+          <t>BCIO:010064</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>fitness and recreation instructor and programme leader</t>
+        </is>
+      </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
+          <t>A sport and fitness worker that leads, guides and instructs groups and individuals in recreational, fitness or outdoor adventure activities.</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Aerobics instructor, Fitness instructor, Horse riding instructor, Outdoor adventure guide, Personal trainer, Sailing instructor, Underwater diving instructor</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BCIO:010087</t>
+          <t>BCIO:010060</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>vocational training student or trainee</t>
-        </is>
-      </c>
+      <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>religious associate professional</t>
+        </is>
+      </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
+          <t>A technician and associate professional that provides support to ministers of religion or to a religious community, undertake religious works, preach and propagate the teachings of a particular religion and endeavour to improve well-being through the power of faith and spiritual advice.</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Faith healer, Lay preacher, Monk, Nun</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BCIO:010088</t>
+          <t>BCIO:010059</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>higher education student or trainee</t>
-        </is>
-      </c>
+      <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>social work associate professional</t>
+        </is>
+      </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning on an advanced educational programme in a university, college or professional school.</t>
+          <t>A technician and associate professional that implements social assistance programmes and community services and assist clients to deal with personal and social problems.</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -3811,30 +3801,30 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>completing a university bachelor's or master's course of study, medical school or other professional school.</t>
+          <t>Community development worker, Community services worker, Crisis intervention worker, Disability services worker, Family services worker, Life skills instructor, Mental health support worker, Welfare support worker, Women’s shelter supervisor, Youth services worker</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BCIO:010092</t>
+          <t>BCIO:010058</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>doctoral student or trainee</t>
-        </is>
-      </c>
+      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>legal and related associate professional</t>
+        </is>
+      </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that is currently studying for a doctoral degree.</t>
+          <t>A technician and associate professional that performs support functions in courts of law or in law offices, provide services related to such legal matters as insurance contracts, the transferring of property and the granting of loans and other financial transactions, or conduct investigations for clients.</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -3844,30 +3834,30 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>PhD student</t>
+          <t>Bailiff, Judge’s clerk, Conveyancing clerk, Court clerk, Justice of the peace, Law clerk, Legal assistant, Paralegal, Private detective, Title searcher</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BCIO:010090</t>
+          <t>BCIO:010025</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>graduate student or trainee</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>teaching professional</t>
+        </is>
+      </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that has completed an undergraduate degree.</t>
+          <t>A professional that teaches the theory and practice of one or more disciplines at different educational levels.</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -3877,30 +3867,30 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>graduate student</t>
+          <t>Education Methods Specialist, Other Language Teacher, Information Technology Teacher, Private Tutor, School Counsellor, Student Advisor</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BCIO:010089</t>
+          <t>BCIO:010031</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>undergraduate student or trainee</t>
-        </is>
-      </c>
+      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>special needs teacher</t>
+        </is>
+      </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that is currently studying for an undergraduate degree.</t>
+          <t>A teaching professional that teaches children, young persons or adults with physical or intellectual special needs.</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -3910,30 +3900,30 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>undergraduate student</t>
+          <t>Learning disabilities special education teacher, Learning support teacher, Remedial teacher, Teacher of gifted children, Teacher of the hearing impaired, Teacher of the sight impaired</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BCIO:010091</t>
+          <t>BCIO:010028</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>masters student or trainee</t>
-        </is>
-      </c>
+      <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>secondary education teacher</t>
+        </is>
+      </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that is currently studying for a Masters degree.</t>
+          <t>A teaching professional that teaches one or more subjects at secondary education level.</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -3943,203 +3933,223 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>MSc student, Masters student</t>
+          <t>Secondary school teacher, High school teacher</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BCIO:010085</t>
+          <t>BCIO:010032</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>informal education student or trainee</t>
-        </is>
-      </c>
+      <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>music teacher</t>
+        </is>
+      </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning in a non-institutional setting.</t>
+          <t>A teaching professional that teaches students in the practice, theory and performance of music in private or small group tuition or within mainstream educational institutions.</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>Guitar teacher (private tuition), Piano teacher (private tuition), Singing teacher (private tuition), Violin teacher (private tuition)</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:010086</t>
+          <t>BCIO:010033</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>school student or trainee</t>
-        </is>
-      </c>
+      <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>arts teacher</t>
+        </is>
+      </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning at a primary or secondary education level in an institutional, organised setting.</t>
+          <t>A teaching professional  that teaches students in the practice, theory and performance of dance, drama, visual and other arts (excluding music) in private or small group tuition or within mainstream educational institutions.</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>Dance teacher (private tuition), Drama teacher (private tuition), Painting teacher (private tuition), Sculpture teacher (private tuition)</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BCIO:010107</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>total number of people able to deliver intervention</t>
-        </is>
-      </c>
+          <t>BCIO:010026</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>university and higher education teacher</t>
+        </is>
+      </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>A count data item that is the total number of providers that are available and able to deliver the intervention.</t>
+          <t>A teaching professional that prepares and delivers lectures and conduct tutorials in one or more subjects within a prescribed course of study at a university or other higher educational institution. They conduct research, and prepare scholarly papers and books.</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>Higher education lecturer, Professor, University lecturer, University tutor</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:010106</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>number of people delivering intervention to each participant</t>
-        </is>
-      </c>
+          <t>BCIO:010030</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>early childhood educator</t>
+        </is>
+      </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>A count data item that is the number of providers that an individual participant in the intervention encounters.</t>
+          <t>A teaching professional that promotes the social, physical, and intellectual development of children below primary school age through the provision of educational and play activities.</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>Early childhood educator, Pre-school teacher</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:010126</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>amount of experience</t>
-        </is>
-      </c>
+          <t>BCIO:010029</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>primary school teacher</t>
+        </is>
+      </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>A knowledge or skill that is the duration of experience in related domain held by person source.</t>
+          <t>A teaching professional that teaches teach a range of subjects at the primary education level.</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>full-day, 6 years</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>MF:0000016</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
+          <t>BCIO:010027</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>vocational education teacher</t>
+        </is>
+      </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>An extended organism that is a member of the species Homo sapiens.</t>
+          <t>A teaching professional that teaches or instructs vocational or occupational subjects in adult and further education institutions and to senior students in secondary schools and colleges.</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>Automotive technology instructor, Cosmetology instructor, Vocational education teacher</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:010002</t>
+          <t>BCIO:010068</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>person source</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>services and sales worker</t>
+        </is>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>A person who is the bearer of a behaviour change intervention source role.</t>
+          <t>An occupational role that provides personal or protective services related to travel, house-keeping, catering, personal care, protection against fire and unlawful acts, or sells goods in retail or markets.</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -4151,51 +4161,56 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:010095</t>
+          <t>BCIO:010071</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>family member</t>
-        </is>
-      </c>
+      <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>personal care worker</t>
+        </is>
+      </c>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>A person who is a member of a group of persons united by blood, or by marriage or other legal arrangement, or by self-identity as belonging to the same family.</t>
+          <t>A services and sales worker that provides care, supervision and assistance for children, patients and elderly, convalescent or disabled persons in institutional and residential settings.</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>Personal carer</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BCIO:010098</t>
+          <t>BCIO:010074</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>sibling relationship</t>
-        </is>
-      </c>
+      <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>health care assistant</t>
+        </is>
+      </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>A family member that is a family relationship between two persons with at least one shared parent.</t>
+          <t>A personal care worker that provides direct personal care and assistance with activities of daily living to patients and residents in a variety of health care settings, working  in implementation of established care plans and practices, and under the direct supervision of medical, nursing or other health professionals or associate professionals.</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -4205,30 +4220,30 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>brother, sister, step-brother, step-sister</t>
+          <t>Nursing aide (clinic or hospital), Patient care assistant, Psychiatric aid</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BCIO:010096</t>
+          <t>BCIO:010073</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>parent or guardian</t>
-        </is>
-      </c>
+      <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>teachers’ aide</t>
+        </is>
+      </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>A family member that is a mother, father or legal carer of a child.</t>
+          <t>A personal care worker that performs non-teaching duties to assist teaching staff, and provides care and supervision for children in schools and pre-schools.</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -4238,30 +4253,30 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>mother, father, step-mother, step-father, guardian</t>
+          <t>Pre-school assistant, Teacher’s assistant</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BCIO:010099</t>
+          <t>BCIO:010075</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>child relationship</t>
-        </is>
-      </c>
+      <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>home-based personal care worker</t>
+        </is>
+      </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>A family member that is an offspring relationship from a person to their parent.</t>
+          <t>A personal care worker that provide routine personal care and assistance with activities of daily living to persons who are in need of such care due to effects of ageing, illness, injury, or other physical or mental conditions, in private homes and other independent residential settings.</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -4271,30 +4286,30 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>daughter, son, step-daughter, step-son</t>
+          <t>Home birth assistant, Home care aide, Nursing aide (home), Personal care provider</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BCIO:010097</t>
+          <t>BCIO:010072</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>spouse or partner</t>
-        </is>
-      </c>
+      <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>child care worker</t>
+        </is>
+      </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>A family member that is an individual who is married or in a committed relationship with another individual.</t>
+          <t>A personal care worker that provides care and supervision for children in non-domestic settings.</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -4304,30 +4319,30 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>boyfriend, girlfriend, partner, fiance, wife, husband</t>
+          <t>Babysitter, Child care worker, Creche ayah, Family day care worker, Nanny, Out of school hours care worker</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:050842</t>
+          <t>BCIO:010076</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>role model for a person</t>
-        </is>
-      </c>
+      <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr"/>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>protective services worker</t>
+        </is>
+      </c>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>A &lt;person&gt; that influences a recipient by being perceived to be similar or admired.</t>
+          <t>A services and sales worker that protects individuals and property against fire and other hazards, maintain law and order and enforce laws and regulations.</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -4335,60 +4350,65 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="N123" t="inlineStr">
-        <is>
-          <t>This class lies at the intersection between a person and their environment and is defined from the perspective of the person.</t>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>Firefighter, Police officer, Prison guard, Security guard, Offender manager</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BCIO:010108</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>socio demographic attribute of person source</t>
-        </is>
-      </c>
+          <t>BCIO:010069</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>personal services worker</t>
+        </is>
+      </c>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>A social or demographic characteristic of a human being who is the bearer of a person source role.</t>
+          <t>A services and sales worker that provides personal services related to travel, housekeeping, catering and hospitality, hairdressing and beauty treatment, animal care grooming and training, companionship and other services of a personal nature.</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>Travel Attendant, Conductor, Guide, Cook, Waiter, Bartender, Hairdresser, Beautician, Housekeeping Supervisor, Astrologer, Fortune-teller, Valet, Undertaker, Embalmer, Pet Groomer, Animal Care Worker</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BCIO:010110</t>
+          <t>BCIO:010070</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>gender of person source</t>
-        </is>
-      </c>
+      <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr"/>
-      <c r="E125" t="inlineStr"/>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>sales worker</t>
+        </is>
+      </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
+          <t>A services and sales worker that demonstrates goods in wholesale or retail shops, at stalls and markets, door to door, via telephone or customer contact centres. They may record and accept payment for goods and services purchased, and may operate small retail outlets.</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -4398,21 +4418,21 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>Street Salesperson, Market Salesperson, Shop Salesperson, Cashier, Ticket Clerk, Model, Sales Demonstrator, Door-to-door Salesperson, Contact Centre Salesperson, Service Station Attendant, Food Service Counter Attendant</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BCIO:010113</t>
+          <t>BCIO:010082</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr">
         <is>
-          <t>other gender</t>
+          <t>armed forces occupation</t>
         </is>
       </c>
       <c r="E126" t="inlineStr"/>
@@ -4421,7 +4441,7 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>A gender of person source that reports not belonging to the cultural gender role distinctions of either male or female.</t>
+          <t>An occupational role that includes all jobs held by members of the armed forces.</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -4431,30 +4451,30 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>non-binary, transexual</t>
+          <t>Admiral, Air commodore, Air marshal, Airman, Brigadier (army), Bombardier, Captain (air force), Captain (army), Captain (navy), Colonel (army), Corporal,  Field marshal, Flight lieutenant (air force), Flying officer (military), General (army), Gunner, Group captain, (air force), Lieutenant (army), Major (army), Midshipman, Naval officer (military) , Navy commander, Officer cadet (armed forces), Paratrooper, Rifleman, Sergeant (army), Second lieutenant (army), Seaman, Squadron leader, Sublieutenant (navy), Wing commander</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BCIO:010117</t>
+          <t>BCIO:010078</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>health status of person source</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr"/>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>craft and related trades worker</t>
+        </is>
+      </c>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that represents their mental or physical condition.</t>
+          <t>An occupational role that applies specific technical and practical knowledge and skills to construct and maintain buildings, machinery, equipment or tools, carries out printing work, and produces or processes foodstuffs, textiles and wooden, metal and other articles, including handicraft goods.</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -4464,119 +4484,124 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>diabetes, cancer, depression, obesity, overweight</t>
+          <t>Building Trade Worker, Metal Workers, Machinery Worker, Handicraft Worker, Printing Worker, Electrical Equipment Installers and Repairer, Electronics and Telecommunications Installer and Repairer, Food Processing Worker, Woodworker, Tobacco Product Maker</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BCIO:010115</t>
+          <t>BCIO:010080</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>religious group membership of person source</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>assembler</t>
+        </is>
+      </c>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is a religious group to which an individual identifies as belonging, where a religious group is a group of people characterised by the practice of a common religion.</t>
+          <t>An occupational role that assembles products from component parts according to strict specifications and procedures.</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>Muslim, Christian, Hindu, Sikh, Buddhist, Judaism</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BCIO:010109</t>
+          <t>BCIO:010077</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>age of person source</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>skilled agricultural, forestry and fishery worker</t>
+        </is>
+      </c>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
+          <t>An occupational role that grows and harvests plants or animals to provide food, shelter and income for themselves and their households.</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>Market gardener, Crop grower, Animal Producer, Mixed Crop and Animal Producer, Forestry worker, Fishery worker, Hunter. Subsistence Crop Farmer, Subsistence Livestock Farmer</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BCIO:010119</t>
+          <t>BCIO:010083</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>psychological influence on intervention delivery of person source</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr"/>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>researcher</t>
+        </is>
+      </c>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is their existing psychological attributes related to or potentially affecting the target behaviour.</t>
+          <t>An occupational role that is a researcher but unclear what discipline.</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>researcher, research assistant, investigator</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BCIO:010118</t>
+          <t>BCIO:010081</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>target behaviour of person source</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>elementary occupation</t>
+        </is>
+      </c>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is their amount or experience of the intervention’s target behaviour.</t>
+          <t>An occupational role that involves the performance of simple and routine tasks which may require the use of hand-held tools and considerable physical effort.</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -4586,30 +4611,30 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>source is highly physically active</t>
+          <t>Cleaner, Labourer, Food Preparation Assistant, Street and Related Services Worker, Street Vendor (excluding Food), Refuse Worker</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BCIO:010116</t>
+          <t>BCIO:010067</t>
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>language proficiency of person source</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>clerical support worker</t>
+        </is>
+      </c>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is an individual’s ability to speak or perform in the intervention language.</t>
+          <t>An occupational role that records, organizes, stores, computes and retrieves information, and performs a number of clerical duties in connection with money-handling operations, travel arrangements, requests for information, and appointments.</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -4619,30 +4644,30 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>fluent, native</t>
+          <t>General and Keyboard Clerk, customers Services Clerk, Numerical and Material Recording Clerk</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BCIO:010114</t>
+          <t>BCIO:010079</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>ethnic group membership of person source</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr"/>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>plant and machine operator</t>
+        </is>
+      </c>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is the ethnic group to which an individual identifies as belonging, where an ethic group is a population whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
+          <t>An occupational role that operates and monitors industrial and agricultural machinery and equipment on the spot or by remote control, or drives and operates trains, motor vehicles and mobile machinery and equipment.</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -4652,22 +4677,22 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>black, white, Indian, Chinese, Somalian</t>
+          <t>Stationary Plant and Machine Operator, Driver, Mobile Plant Operator</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BCIO:010123</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>expertise discipline</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr"/>
+          <t>BCIO:010094</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>relatedness between person source and the target population</t>
+        </is>
+      </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
@@ -4675,227 +4700,197 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>An attribute that is a field of knowledge or practice.</t>
+          <t>A personal role of source that is realised in some relationship to the characteristics of the intervention participants.</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
-        </is>
-      </c>
-      <c r="N134" t="inlineStr">
-        <is>
-          <t>The division of expertise into different disciplines or fields is complex and depends on historical, social and structural factors.</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BCIO:010093</t>
+          <t>BCIO:010101</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>discipline of current programme of study or training</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>friend</t>
+        </is>
+      </c>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>An expertise discipline of the programme of study currently undertaken by the bearer of a student or trainee role.</t>
+          <t>A relatedness between person source and the target population that is a person whom the participant knows, likes and trusts, typically exclusive of sexual or family relations.</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>psychology, medicine, hairdressing</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BCIO:010124</t>
+          <t>BCIO:010103</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>discipline of pre-existing knowledge or skill</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr"/>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>employer</t>
+        </is>
+      </c>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>The expertise discipline in which the person source has acquired their pre-existing knowledge and skills.</t>
+          <t>A relatedness between person source and the target population that is a person which hires the services of the participant.</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BCIO:010130</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>payment of person source</t>
-        </is>
-      </c>
+          <t>BCIO:010100</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>carer</t>
+        </is>
+      </c>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>A process in which a person source is paid or compensated for delivering the intervention.</t>
+          <t>A relatedness between person source and the target population that is an individual who cares, unpaid, for a friend or family member who, due to illness or disability, requires support in their daily life activities.</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>carer</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BCIO:010132</t>
+          <t>BCIO:010102</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>non-monetary payment</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr"/>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>colleague</t>
+        </is>
+      </c>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>A payment of person source that is non-monetary compensation given to the source for delivering the intervention.</t>
+          <t>A relatedness between person source and the target population that is a person with whom the participant works in a profession or business.</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>course credit</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BCIO:010131</t>
+          <t>BCIO:010105</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>monetary payment</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr"/>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>embedded in participants’ community</t>
+        </is>
+      </c>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>A payment of person source that is money, vouchers or valued objects given to the source for delivering the intervention.</t>
+          <t>A relatedness between person source and the target population that is a source who is known and working to deliver intervention in own community.</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>paid in cash, vouchers</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BCIO:010129</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>volunteering of person source</t>
-        </is>
-      </c>
+          <t>BCIO:010104</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>peer</t>
+        </is>
+      </c>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>A process in which a person source delivers the intervention on a voluntary basis without formal compensation.</t>
+          <t>A relatedness between person source and the target population that is descried as matched to intervention recipients on the basis of ‘peerness’ – age, social status, gender, shared experience, shared health status etc.</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>voluntary basis, volunteering</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BCIO:010128</t>
+          <t>BCIO:015098</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>supervision of person source</t>
+          <t>gender identity</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -4906,32 +4901,27 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>A process in which a person source is formally provided, by an individual with appropriate expertise, with corrective and skill-enhancing feedback, regarding the person source’s performance in delivering the intervention.</t>
+          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>supervised</t>
+          <t>Population</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>OBI:0000245</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>organization</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr"/>
+          <t>BCIO:010111</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>female gender</t>
+        </is>
+      </c>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
@@ -4939,25 +4929,30 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>An entity that can bear roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
+          <t>A gender identity as being female.</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>female, woman</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BCIO:010139</t>
+          <t>BCIO:010112</t>
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr">
         <is>
-          <t>organisation source</t>
+          <t>male gender</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
@@ -4967,12 +4962,17 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>An organisation that is the bearer of a behaviour change intervention source role, such as voluntary, public or commercial organisations delivering a behaviour change intervention.</t>
+          <t>A gender identity as being male.</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>male, man</t>
         </is>
       </c>
     </row>

--- a/Source/BCIO-source-hierarchy.xlsx
+++ b/Source/BCIO-source-hierarchy.xlsx
@@ -445,32 +445,32 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Sub-ontology</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
           <t>Informal definition</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Sub-ontology</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
         <is>
           <t>Examples</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
         </is>
       </c>
     </row>
@@ -496,19 +496,19 @@
           <t>An attribute that is a field of knowledge or practice.</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>The division of expertise into different disciplines or fields is complex and depends on historical, social and structural factors.</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>The division of expertise into different disciplines or fields is complex and depends on historical, social and structural factors.</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
         </is>
@@ -572,7 +572,7 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>psychology, medicine, hairdressing</t>
         </is>
@@ -633,7 +633,7 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>black, white, Indian, Chinese, Somalian</t>
         </is>
@@ -642,13 +642,13 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:010116</t>
+          <t>BCIO:010119</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>language proficiency of person source</t>
+          <t>psychological influence on intervention delivery of person source</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -658,30 +658,25 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is an individual’s ability to speak or perform in the intervention language.</t>
+          <t>A socio-demographic attribute of person source that is their existing psychological attributes related to or potentially affecting the target behaviour.</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>fluent, native</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:010115</t>
+          <t>BCIO:010117</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>religious group membership of person source</t>
+          <t>health status of person source</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -691,7 +686,7 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is a religious group to which an individual identifies as belonging, where a religious group is a group of people characterised by the practice of a common religion.</t>
+          <t>A socio-demographic attribute of person source that represents their mental or physical condition.</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -699,22 +694,22 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Muslim, Christian, Hindu, Sikh, Buddhist, Judaism</t>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>diabetes, cancer, depression, obesity, overweight</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:010110</t>
+          <t>BCIO:010109</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>gender of person source</t>
+          <t>age of person source</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -724,40 +719,35 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
+          <t>A socio-demographic attribute of person source that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>gender</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:010113</t>
+          <t>BCIO:010116</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>other gender</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>language proficiency of person source</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>A gender of person source that reports not belonging to the cultural gender role distinctions of either male or female.</t>
+          <t>A socio-demographic attribute of person source that is an individual’s ability to speak or perform in the intervention language.</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -765,22 +755,22 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>non-binary, transexual</t>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>fluent, native</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:010119</t>
+          <t>BCIO:010115</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>psychological influence on intervention delivery of person source</t>
+          <t>religious group membership of person source</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -790,25 +780,30 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is their existing psychological attributes related to or potentially affecting the target behaviour.</t>
+          <t>A socio-demographic attribute of person source that is a religious group to which an individual identifies as belonging, where a religious group is a group of people characterised by the practice of a common religion.</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Muslim, Christian, Hindu, Sikh, Buddhist, Judaism</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:010117</t>
+          <t>BCIO:010110</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>health status of person source</t>
+          <t>gender of person source</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -818,7 +813,7 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that represents their mental or physical condition.</t>
+          <t>A socio-demographic attribute of person source that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -826,37 +821,42 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>diabetes, cancer, depression, obesity, overweight</t>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>gender</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:010109</t>
+          <t>BCIO:010113</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>age of person source</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>other gender</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
+          <t>A gender of person source that reports not belonging to the cultural gender role distinctions of either male or female.</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>non-binary, transexual</t>
         </is>
       </c>
     </row>
@@ -887,7 +887,7 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>source is highly physically active</t>
         </is>
@@ -896,12 +896,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MF:0000016</t>
+          <t>OBI:0000245</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>organization</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -912,7 +912,7 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>An extended organism that is a member of the species Homo sapiens.</t>
+          <t>An entity that can bear roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -924,13 +924,13 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:050842</t>
+          <t>BCIO:010139</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>role model for a person</t>
+          <t>organisation source</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -940,32 +940,27 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>A &lt;person&gt; that influences a recipient by being perceived to be similar or admired.</t>
+          <t>An organisation that is the bearer of a behaviour change intervention source role, such as voluntary, public or commercial organisations delivering a behaviour change intervention.</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>This class lies at the intersection between a person and their environment and is defined from the perspective of the person.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:010002</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>person source</t>
-        </is>
-      </c>
+          <t>BCIO:015098</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>gender identity</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
@@ -973,25 +968,25 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>A person who is the bearer of a behaviour change intervention source role.</t>
+          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Source</t>
+          <t>Population</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:010095</t>
+          <t>BCIO:010111</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>family member</t>
+          <t>female gender</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1001,35 +996,40 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>A person who is a member of a group of persons united by blood, or by marriage or other legal arrangement, or by self-identity as belonging to the same family.</t>
+          <t>A gender identity as being female.</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>female, woman</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:010096</t>
+          <t>BCIO:010112</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>parent or guardian</t>
-        </is>
-      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>male gender</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>A family member that is a mother, father or legal carer of a child.</t>
+          <t>A gender identity as being male.</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1037,131 +1037,116 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>mother, father, step-mother, step-father, guardian</t>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>male, man</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:010098</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
+          <t>MF:0000016</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>sibling relationship</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>A family member that is a family relationship between two persons with at least one shared parent.</t>
+          <t>An extended organism that is a member of the species Homo sapiens.</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>brother, sister, step-brother, step-sister</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:010099</t>
+          <t>BCIO:010002</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>child relationship</t>
-        </is>
-      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>person source</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>A family member that is an offspring relationship from a person to their parent.</t>
+          <t>A person who is the bearer of a behaviour change intervention source role.</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>daughter, son, step-daughter, step-son</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:010097</t>
+          <t>BCIO:010095</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>spouse or partner</t>
-        </is>
-      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>family member</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>A family member that is an individual who is married or in a committed relationship with another individual.</t>
+          <t>A person who is a member of a group of persons united by blood, or by marriage or other legal arrangement, or by self-identity as belonging to the same family.</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>boyfriend, girlfriend, partner, fiance, wife, husband</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:010129</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>volunteering of person source</t>
-        </is>
-      </c>
+          <t>BCIO:010098</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>sibling relationship</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>A process in which a person source delivers the intervention on a voluntary basis without formal compensation.</t>
+          <t>A family member that is a family relationship between two persons with at least one shared parent.</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1169,32 +1154,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>voluntary basis, volunteering</t>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>brother, sister, step-brother, step-sister</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:010128</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>supervision of person source</t>
-        </is>
-      </c>
+          <t>BCIO:010099</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>child relationship</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>A process in which a person source is formally provided, by an individual with appropriate expertise, with corrective and skill-enhancing feedback, regarding the person source’s performance in delivering the intervention.</t>
+          <t>A family member that is an offspring relationship from a person to their parent.</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1202,60 +1187,65 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>supervised</t>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>daughter, son, step-daughter, step-son</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:010130</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>payment of person source</t>
-        </is>
-      </c>
+          <t>BCIO:010097</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>spouse or partner</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>A process in which a person source is paid or compensated for delivering the intervention.</t>
+          <t>A family member that is an individual who is married or in a committed relationship with another individual.</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>boyfriend, girlfriend, partner, fiance, wife, husband</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:010131</t>
+          <t>BCIO:010096</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>monetary payment</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>parent or guardian</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>A payment of person source that is money, vouchers or valued objects given to the source for delivering the intervention.</t>
+          <t>A family member that is a mother, father or legal carer of a child.</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1263,22 +1253,22 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>paid in cash, vouchers</t>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>mother, father, step-mother, step-father, guardian</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:010132</t>
+          <t>BCIO:050842</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>non-monetary payment</t>
+          <t>role model for a person</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -1288,29 +1278,29 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>A payment of person source that is non-monetary compensation given to the source for delivering the intervention.</t>
+          <t>A &lt;person&gt; that influences a recipient by being perceived to be similar or admired.</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>This class lies at the intersection between a person and their environment and is defined from the perspective of the person.</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>course credit</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:010106</t>
+          <t>BCIO:010000</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>number of people delivering intervention to each participant</t>
+          <t>behaviour change intervention source</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1321,7 +1311,7 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>A count data item that is the number of providers that an individual participant in the intervention encounters.</t>
+          <t>A role played by a person, population or organisation that provides a BCI.</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -1333,15 +1323,15 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:010126</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>amount of experience</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
+          <t>BCIO:010138</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>organisational source role</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
@@ -1349,32 +1339,27 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>A knowledge or skill that is the duration of experience in related domain held by person source.</t>
+          <t>A BCI source role that is borne by an organisation.</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>full-day, 6 years</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:010107</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>total number of people able to deliver intervention</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
+          <t>BCIO:010133</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>source role related to intervention</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
@@ -1382,7 +1367,7 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>A count data item that is the total number of providers that are available and able to deliver the intervention.</t>
+          <t>A BCI source whose occupational or voluntary role is focused on delivery of the behaviour change intervention.</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -1394,15 +1379,15 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>OBI:0000245</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>organization</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
+          <t>BCIO:010001</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>person source role</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
@@ -1410,7 +1395,7 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>An entity that can bear roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
+          <t>A behaviour change intervention source role that inheres in a person.</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -1422,13 +1407,13 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:010139</t>
+          <t>BCIO:010134</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>organisation source</t>
+          <t>source involved in development of intervention</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -1438,7 +1423,7 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>An organisation that is the bearer of a behaviour change intervention source role, such as voluntary, public or commercial organisations delivering a behaviour change intervention.</t>
+          <t>A BCI source that is involved in the development of intervention content.</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -1450,23 +1435,23 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:010120</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>expertise of person source</t>
-        </is>
-      </c>
+          <t>BCIO:010135</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>source involved in co-production of intervention</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>A disposition that is an expert skill or knowledge held by the source delivering the behaviour change intervention.</t>
+          <t>A source involved in development of intervention that has developed the intervention content in collaboration with key stakeholders such as patients or community members.</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -1478,15 +1463,15 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:010121</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>knowledge or skill</t>
-        </is>
-      </c>
+          <t>BCIO:010084</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>student or trainee role</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
@@ -1494,40 +1479,35 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>An expertise of person source that is knowledge or skills held in order to deliver the behaviour change intervention.</t>
+          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>trained (if unclear whether pre-existing or acquired)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:010125</t>
+          <t>BCIO:010087</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>acquired knowledge or skill</t>
-        </is>
-      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>vocational training student or trainee</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>A knowledge or skill that is additional knowledge or skills supplied to the source to allow them to deliver the behaviour change intervention, including educational level and qualifications.</t>
+          <t>A student or trainee that is currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -1539,23 +1519,23 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:010122</t>
+          <t>BCIO:010088</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>pre-existing knowledge or skill</t>
-        </is>
-      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>higher education student or trainee</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>A knowledge or skill that is already possessed by the source which allows them to deliver the behaviour change intervention, including educational level and qualifications.</t>
+          <t>A student or trainee that is currently learning on an advanced educational programme in a university, college or professional school.</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -1563,32 +1543,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>Bachelor’s degree, certification, accredited, qualified</t>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>completing a university bachelor's or master's course of study, medical school or other professional school.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:010127</t>
+          <t>BCIO:010089</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>affiliation to a formal group or organisation</t>
-        </is>
-      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>undergraduate student or trainee</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>A pre-existing knowledge or skill that is recognised through affiliation to a formal group or organisation.</t>
+          <t>A higher education student or trainee that is currently studying for an undergraduate degree.</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -1596,79 +1576,89 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>member of British Psychological Society</t>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>undergraduate student</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:010000</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>behaviour change intervention source</t>
-        </is>
-      </c>
+          <t>BCIO:010090</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>graduate student or trainee</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>A role played by a person, population or organisation that provides a BCI.</t>
+          <t>A higher education student or trainee that has completed an undergraduate degree.</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>graduate student</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:010134</t>
+          <t>BCIO:010092</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>source involved in development of intervention</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>doctoral student or trainee</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>A BCI source that is involved in the development of intervention content.</t>
+          <t>A higher education student or trainee that is currently studying for a doctoral degree.</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>PhD student</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:010135</t>
+          <t>BCIO:010091</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>source involved in co-production of intervention</t>
+          <t>masters student or trainee</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -1677,25 +1667,30 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>A source involved in development of intervention that has developed the intervention content in collaboration with key stakeholders such as patients or community members.</t>
+          <t>A higher education student or trainee that is currently studying for a Masters degree.</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>MSc student, Masters student</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:010001</t>
+          <t>BCIO:010086</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>person source role</t>
+          <t>school student or trainee</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -1705,7 +1700,7 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>A behaviour change intervention source role that inheres in a person.</t>
+          <t>A student or trainee that is currently learning at a primary or secondary education level in an institutional, organised setting.</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -1717,13 +1712,13 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:010138</t>
+          <t>BCIO:010085</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
-          <t>organisational source role</t>
+          <t>informal education student or trainee</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -1733,7 +1728,7 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>A BCI source role that is borne by an organisation.</t>
+          <t>A student or trainee that is currently learning in a non-institutional setting.</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -1745,15 +1740,15 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:010133</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>source role related to intervention</t>
-        </is>
-      </c>
+          <t>BCIO:010003</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>personal role of source</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
@@ -1761,7 +1756,7 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>A BCI source whose occupational or voluntary role is focused on delivery of the behaviour change intervention.</t>
+          <t>A role that inheres in a person source.</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -1773,15 +1768,15 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:010084</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>student or trainee role</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
+          <t>BCIO:010004</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>occupational role of source</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
@@ -1789,63 +1784,73 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
+          <t>A personal role of source that is realised by doing a specified type of work or working in a specified way.</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Interventionist, facilitator, study staff</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:010086</t>
+          <t>BCIO:010082</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>school student or trainee</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>armed forces occupation</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning at a primary or secondary education level in an institutional, organised setting.</t>
+          <t>An occupational role that includes all jobs held by members of the armed forces.</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Admiral, Air commodore, Air marshal, Airman, Brigadier (army), Bombardier, Captain (air force), Captain (army), Captain (navy), Colonel (army), Corporal,  Field marshal, Flight lieutenant (air force), Flying officer (military), General (army), Gunner, Group captain, (air force), Lieutenant (army), Major (army), Midshipman, Naval officer (military) , Navy commander, Officer cadet (armed forces), Paratrooper, Rifleman, Sergeant (army), Second lieutenant (army), Seaman, Squadron leader, Sublieutenant (navy), Wing commander</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:010088</t>
+          <t>BCIO:010081</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>higher education student or trainee</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>elementary occupation</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning on an advanced educational programme in a university, college or professional school.</t>
+          <t>An occupational role that involves the performance of simple and routine tasks which may require the use of hand-held tools and considerable physical effort.</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -1853,23 +1858,23 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>completing a university bachelor's or master's course of study, medical school or other professional school.</t>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Cleaner, Labourer, Food Preparation Assistant, Street and Related Services Worker, Street Vendor (excluding Food), Refuse Worker</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:010089</t>
+          <t>BCIO:010067</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>undergraduate student or trainee</t>
+          <t>clerical support worker</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -1878,7 +1883,7 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that is currently studying for an undergraduate degree.</t>
+          <t>An occupational role that records, organizes, stores, computes and retrieves information, and performs a number of clerical duties in connection with money-handling operations, travel arrangements, requests for information, and appointments.</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -1886,23 +1891,23 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>undergraduate student</t>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>General and Keyboard Clerk, customers Services Clerk, Numerical and Material Recording Clerk</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:010090</t>
+          <t>BCIO:010079</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>graduate student or trainee</t>
+          <t>plant and machine operator</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -1911,7 +1916,7 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that has completed an undergraduate degree.</t>
+          <t>An occupational role that operates and monitors industrial and agricultural machinery and equipment on the spot or by remote control, or drives and operates trains, motor vehicles and mobile machinery and equipment.</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -1919,23 +1924,23 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>graduate student</t>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Stationary Plant and Machine Operator, Driver, Mobile Plant Operator</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:010091</t>
+          <t>BCIO:010006</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>masters student or trainee</t>
+          <t>professional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -1944,40 +1949,35 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that is currently studying for a Masters degree.</t>
+          <t>An occupational role that works in knowledge building activities, applies scientific or artistic concepts and theories or teaches about the foregoing in a systematic manner.</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>MSc student, Masters student</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:010092</t>
+          <t>BCIO:010008</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>doctoral student or trainee</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>health professional</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that is currently studying for a doctoral degree.</t>
+          <t>A professional that improves or develops concepts, theories and operational method, and applied scientific knowledge relating to medicine, nursing, dentistry, veterinary medicine, pharmacy, and promotion of health.</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -1985,116 +1985,131 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>PhD student</t>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Health professional; Arts therapist, Chiropractor, Dance and movement therapist, Occupational therapist, Osteopath, Podiatrist, Recreational therapist, Health staff, Clinic staff</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:010087</t>
+          <t>BCIO:010013</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>vocational training student or trainee</t>
-        </is>
-      </c>
+      <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>nursing professional</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
+          <t>A health professional that provides treatment, support and care services for people who are in need of nursing care due to the effects of ageing, injury, illness or other physical or mental impairment, or potential risks to health.</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Clinical nurse consultant, District nurse, Nurse anaesthetist, Nurse educator, Nurse practitioner, Operating theatre nurse, Professional nurse, Public health nurse, Specialist nurse, Nursing Counsellor, Study Nurse</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:010085</t>
+          <t>BCIO:010014</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>informal education student or trainee</t>
-        </is>
-      </c>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>midwifery professional</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning in a non-institutional setting.</t>
+          <t>A health professional that plans, manages, provides and evaluates midwifery care services before, during and after pregnancy and childbirth. They provide delivery care for reducing health risks to women and newborn children, working autonomously or in teams with other health care providers.</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Midwife</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:010003</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>personal role of source</t>
-        </is>
-      </c>
+          <t>BCIO:010015</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>traditional and complementary medicine professional</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>A role that inheres in a person source.</t>
+          <t>A health professional that examines patients, prevents and treats illness, disease, injury and other physical and mental impairments and maintains general health in humans. They do this by applying knowledge, skills and practices acquired through extensive study of the theories, beliefs and experiences originating in specific cultures.</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Acupuncturist, Ayurvedic practitioner,  Chinese herbal medicine practitioner, Homeopath, Naturopath, Unani practitioner</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:010004</t>
+          <t>BCIO:010017</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>occupational role of source</t>
-        </is>
-      </c>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>veterinarian</t>
+        </is>
+      </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>A personal role of source that is realised by doing a specified type of work or working in a specified way.</t>
+          <t>A health professional that diagnoses, prevents and treats diseases, injuries and dysfunctions of animals.</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -2102,32 +2117,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>Interventionist, facilitator, study staff</t>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Animal pathologist, Veterinarian, Veterinary epidemiologist, Veterinary intern, Veterinary surgeon</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:010005</t>
+          <t>BCIO:010021</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>manager</t>
-        </is>
-      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>physiotherapist</t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>An occupational role of source that manages, plans and coordinates the overall activities of enterprises, governments and other organisations.</t>
+          <t>A health professional  that assesses, plans and implements rehabilitative programmes that improve or restore human motor functions, maximize movement ability, relieve pain syndromes, and treat or prevent physical challenges associated with injuries, diseases and other impairments.</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -2135,60 +2150,65 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>Chief Executive Officers; Administrative Managers;  Commercial Managers</t>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Geriatric physical therapist, Manipulative therapist, Orthopaedic physical therapist, Paediatric physical therapist, Physical therapist, Physiotherapist</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:010006</t>
+          <t>BCIO:010022</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>professional</t>
-        </is>
-      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>dietician and nutritionist</t>
+        </is>
+      </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>An occupational role that works in knowledge building activities, applies scientific or artistic concepts and theories or teaches about the foregoing in a systematic manner.</t>
+          <t>A health professional  that assesses, plans and implements programmes to enhance the impact of food and nutrition on human health.</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Clinical dietician, Food service dietician, Nutritionist, Public health nutritionist, Sports nutritionist</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:010008</t>
+          <t>BCIO:010019</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>health professional</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>pharmacist</t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>A professional that improves or develops concepts, theories and operational method, and applied scientific knowledge relating to medicine, nursing, dentistry, veterinary medicine, pharmacy, and promotion of health.</t>
+          <t>A health professional that stores, preserves, compounds and dispenses medicinal products and counsel on the proper use and adverse effects of drugs and medicines following prescriptions issued by medical doctors and other health professionals.</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -2196,16 +2216,16 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>Health professional; Arts therapist, Chiropractor, Dance and movement therapist, Occupational therapist, Osteopath, Podiatrist, Recreational therapist, Health staff, Clinic staff</t>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Dispensing chemist, Hospital pharmacist, Industrial pharmacist, Retail pharmacist</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:010009</t>
+          <t>BCIO:010023</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
@@ -2214,14 +2234,14 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>medical doctor</t>
+          <t>audiologist and speech therapist</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>A health professional that studies, diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans through the application of modern medicine. They plan, supervise and evaluate the implementation of care and treatment plans by other health care providers, and conduct medical education and research activities.</t>
+          <t>A health professional  that evaluates, manages and treats physical disorders affecting human hearing, speech, communication and swallowing.</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -2229,32 +2249,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>District medical doctor-therapist, family medical practitioner, general practitioner, medical doctor (general), medical officer (general), physician (general), primary health care physician, resident medical officer specializing in general practice</t>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Audiologist, Language therapist, Speech pathologist, Speech therapist</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:010010</t>
+          <t>BCIO:010009</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>generalist medical practitioner</t>
-        </is>
-      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>medical doctor</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments and maintains general health in humans through application of modern medicine. They do not limit their practice to certain disease categories or methods of treatment, and may assume responsibility for the provision of continuing and comprehensive medical care to individuals, families and communities.</t>
+          <t>A health professional that studies, diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans through the application of modern medicine. They plan, supervise and evaluate the implementation of care and treatment plans by other health care providers, and conduct medical education and research activities.</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -2262,16 +2282,16 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Primary care physician, family doctor, GP</t>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>District medical doctor-therapist, family medical practitioner, general practitioner, medical doctor (general), medical officer (general), physician (general), primary health care physician, resident medical officer specializing in general practice</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:010011</t>
+          <t>BCIO:010010</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -2281,13 +2301,13 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>specialist medical practitioner</t>
+          <t>generalist medical practitioner</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans, using specialized testing, diagnostic, medical, surgical, physical and psychiatric techniques through application of the principles and procedures of modern medicine. They specialize in certain disease categories, types of patient or methods of treatment and may conduct medical education and research in their chosen areas of specialization.</t>
+          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments and maintains general health in humans through application of modern medicine. They do not limit their practice to certain disease categories or methods of treatment, and may assume responsibility for the provision of continuing and comprehensive medical care to individuals, families and communities.</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -2295,32 +2315,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Anaesthetist, Cardiologist, Emergency medicine specialist, Gynaecologist, Obstetrician, Ophthalmologist, Paediatrician, Pathologist, Preventive medicine specialist, Psychiatrist, Radiation oncologist, Radiologist, Resident medical officer in specialist training, Specialist medical practitioner (public health), Specialist physician (internal medicine), Specialist physician (nuclear medicine), Surgeon</t>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Primary care physician, family doctor, GP</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:010020</t>
+          <t>BCIO:010011</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>environmental and occupational health and hygiene professional</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>specialist medical practitioner</t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>A health professional that assesses, plans and implements programmes to recognize, monitor and control environmental factors that can potentially affect human health, to ensure safe and healthy working conditions and to prevent disease or injury caused by chemical, physical, radiological and biological agents or ergonomic factors.</t>
+          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans, using specialized testing, diagnostic, medical, surgical, physical and psychiatric techniques through application of the principles and procedures of modern medicine. They specialize in certain disease categories, types of patient or methods of treatment and may conduct medical education and research in their chosen areas of specialization.</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -2328,9 +2348,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Environmental health officer, Occupational health and safety adviser, Occupational hygienist, Radiation protection expert</t>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Anaesthetist, Cardiologist, Emergency medicine specialist, Gynaecologist, Obstetrician, Ophthalmologist, Paediatrician, Pathologist, Preventive medicine specialist, Psychiatrist, Radiation oncologist, Radiologist, Resident medical officer in specialist training, Specialist medical practitioner (public health), Specialist physician (internal medicine), Specialist physician (nuclear medicine), Surgeon</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2385,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:010022</t>
+          <t>BCIO:010020</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
@@ -2374,14 +2394,14 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>dietician and nutritionist</t>
+          <t>environmental and occupational health and hygiene professional</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>A health professional  that assesses, plans and implements programmes to enhance the impact of food and nutrition on human health.</t>
+          <t>A health professional that assesses, plans and implements programmes to recognize, monitor and control environmental factors that can potentially affect human health, to ensure safe and healthy working conditions and to prevent disease or injury caused by chemical, physical, radiological and biological agents or ergonomic factors.</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -2389,16 +2409,16 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Clinical dietician, Food service dietician, Nutritionist, Public health nutritionist, Sports nutritionist</t>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Environmental health officer, Occupational health and safety adviser, Occupational hygienist, Radiation protection expert</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:010015</t>
+          <t>BCIO:010016</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -2407,14 +2427,14 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>traditional and complementary medicine professional</t>
+          <t>paramedical practitioner</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>A health professional that examines patients, prevents and treats illness, disease, injury and other physical and mental impairments and maintains general health in humans. They do this by applying knowledge, skills and practices acquired through extensive study of the theories, beliefs and experiences originating in specific cultures.</t>
+          <t>A health professional that provides advisory, diagnostic, curative and preventive medical services more limited in scope and complexity than those carried out by medical doctors. They work autonomously or with limited supervision of medical doctors, and apply advanced clinical procedures for treating and preventing diseases, injuries and other physical or mental impairments common to specific communities.</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -2422,9 +2442,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Acupuncturist, Ayurvedic practitioner,  Chinese herbal medicine practitioner, Homeopath, Naturopath, Unani practitioner</t>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Advanced care paramedic, Clinical officer (paramedical), Feldscher, Primary care paramedic, Surgical technician</t>
         </is>
       </c>
     </row>
@@ -2455,7 +2475,7 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="O65" t="inlineStr">
         <is>
           <t>Dental practitioner, Dental surgeon, Dentist, Endodontist, Oral and maxillofacial surgeon, Oral pathologist, Orthodontist, Paedodontist, Periodontist, Prosthodontist, Stomatologist</t>
         </is>
@@ -2488,7 +2508,7 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="O66" t="inlineStr">
         <is>
           <t>Ophthalmic optician , Optometrist, Orthoptist</t>
         </is>
@@ -2497,23 +2517,23 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:010021</t>
+          <t>BCIO:010025</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>physiotherapist</t>
-        </is>
-      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>teaching professional</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>A health professional  that assesses, plans and implements rehabilitative programmes that improve or restore human motor functions, maximize movement ability, relieve pain syndromes, and treat or prevent physical challenges associated with injuries, diseases and other impairments.</t>
+          <t>A professional that teaches the theory and practice of one or more disciplines at different educational levels.</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -2521,16 +2541,16 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>Geriatric physical therapist, Manipulative therapist, Orthopaedic physical therapist, Paediatric physical therapist, Physical therapist, Physiotherapist</t>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Education Methods Specialist, Other Language Teacher, Information Technology Teacher, Private Tutor, School Counsellor, Student Advisor</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:010014</t>
+          <t>BCIO:010027</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
@@ -2539,14 +2559,14 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>midwifery professional</t>
+          <t>vocational education teacher</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>A health professional that plans, manages, provides and evaluates midwifery care services before, during and after pregnancy and childbirth. They provide delivery care for reducing health risks to women and newborn children, working autonomously or in teams with other health care providers.</t>
+          <t>A teaching professional that teaches or instructs vocational or occupational subjects in adult and further education institutions and to senior students in secondary schools and colleges.</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -2554,16 +2574,16 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>Midwife</t>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Automotive technology instructor, Cosmetology instructor, Vocational education teacher</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:010023</t>
+          <t>BCIO:010031</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -2572,14 +2592,14 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>audiologist and speech therapist</t>
+          <t>special needs teacher</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>A health professional  that evaluates, manages and treats physical disorders affecting human hearing, speech, communication and swallowing.</t>
+          <t>A teaching professional that teaches children, young persons or adults with physical or intellectual special needs.</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -2587,16 +2607,16 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>Audiologist, Language therapist, Speech pathologist, Speech therapist</t>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Learning disabilities special education teacher, Learning support teacher, Remedial teacher, Teacher of gifted children, Teacher of the hearing impaired, Teacher of the sight impaired</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:010013</t>
+          <t>BCIO:010028</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
@@ -2605,14 +2625,14 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>nursing professional</t>
+          <t>secondary education teacher</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>A health professional that provides treatment, support and care services for people who are in need of nursing care due to the effects of ageing, injury, illness or other physical or mental impairment, or potential risks to health.</t>
+          <t>A teaching professional that teaches one or more subjects at secondary education level.</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -2620,16 +2640,16 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>Clinical nurse consultant, District nurse, Nurse anaesthetist, Nurse educator, Nurse practitioner, Operating theatre nurse, Professional nurse, Public health nurse, Specialist nurse, Nursing Counsellor, Study Nurse</t>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Secondary school teacher, High school teacher</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:010019</t>
+          <t>BCIO:010026</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
@@ -2638,14 +2658,14 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>pharmacist</t>
+          <t>university and higher education teacher</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>A health professional that stores, preserves, compounds and dispenses medicinal products and counsel on the proper use and adverse effects of drugs and medicines following prescriptions issued by medical doctors and other health professionals.</t>
+          <t>A teaching professional that prepares and delivers lectures and conduct tutorials in one or more subjects within a prescribed course of study at a university or other higher educational institution. They conduct research, and prepare scholarly papers and books.</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -2653,16 +2673,16 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>Dispensing chemist, Hospital pharmacist, Industrial pharmacist, Retail pharmacist</t>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Higher education lecturer, Professor, University lecturer, University tutor</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:010017</t>
+          <t>BCIO:010029</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
@@ -2671,31 +2691,26 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>veterinarian</t>
+          <t>primary school teacher</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>A health professional that diagnoses, prevents and treats diseases, injuries and dysfunctions of animals.</t>
+          <t>A teaching professional that teaches teach a range of subjects at the primary education level.</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>Animal pathologist, Veterinarian, Veterinary epidemiologist, Veterinary intern, Veterinary surgeon</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:010016</t>
+          <t>BCIO:010030</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
@@ -2704,14 +2719,14 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>paramedical practitioner</t>
+          <t>early childhood educator</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>A health professional that provides advisory, diagnostic, curative and preventive medical services more limited in scope and complexity than those carried out by medical doctors. They work autonomously or with limited supervision of medical doctors, and apply advanced clinical procedures for treating and preventing diseases, injuries and other physical or mental impairments common to specific communities.</t>
+          <t>A teaching professional that promotes the social, physical, and intellectual development of children below primary school age through the provision of educational and play activities.</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -2719,44 +2734,49 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>Advanced care paramedic, Clinical officer (paramedical), Feldscher, Primary care paramedic, Surgical technician</t>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Early childhood educator, Pre-school teacher</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:010034</t>
+          <t>BCIO:010032</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>legal, social and cultural professional</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>music teacher</t>
+        </is>
+      </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>A professional that conducts research, improves or develops concepts, theories and operational methods, or applies knowledge relating to the law, social or cultural studies.</t>
+          <t>A teaching professional that teaches students in the practice, theory and performance of music in private or small group tuition or within mainstream educational institutions.</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Guitar teacher (private tuition), Piano teacher (private tuition), Singing teacher (private tuition), Violin teacher (private tuition)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:010043</t>
+          <t>BCIO:010033</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
@@ -2765,14 +2785,14 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>creative and performing artist</t>
+          <t>arts teacher</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that communicates ideas, impressions and facts in a wide range of media to achieve particular effects, interprets a composition such as a musical score or a script to perform or direct the performance, and hosts the presentation of such performance and other media events.</t>
+          <t>A teaching professional  that teaches students in the practice, theory and performance of dance, drama, visual and other arts (excluding music) in private or small group tuition or within mainstream educational institutions.</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -2780,32 +2800,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>Visual artist, Musician, Singer, Composer, Dancer, Choreographer, Director, Producer, Actor, Announcer on radio, television and other media</t>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Dance teacher (private tuition), Drama teacher (private tuition), Painting teacher (private tuition), Sculpture teacher (private tuition)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:010037</t>
+          <t>BCIO:010007</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>social professional</t>
-        </is>
-      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>science and engineering professional</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that conducts research, improves or develops concepts, theories and operational methods or applies knowledge relating to psychology, sociology, philosophy, politics, economics, sociology, anthropology, history and other social sciences, or provides social services to meet the needs of individuals and families in a community.</t>
+          <t>A professional that conducts research, improves or develops concepts, theories and operational methods or applies scientific knowledge.</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -2813,65 +2833,60 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>Economist, Sociologist, Anthropologist, Philosopher, Historian, Political Scientist</t>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Science Professional, Mathematician, Actuary, Statistician, Life Science Professional, Engineering Professional, Electrotechnology Engineer, Architect, Planner, Surveyor, Designer</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:010039</t>
+          <t>BCIO:010044</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>technician and associate professional</t>
+        </is>
+      </c>
       <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>social work and counselling professional</t>
-        </is>
-      </c>
+      <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>A social professional that provides advice and guidance to individuals, families, groups, communities and organizations in response to social and personal difficulties. They assist clients to develop skills and access resources and support services needed to respond to issues arising from unemployment, poverty, disability, addiction, criminal and delinquent behaviour, marital and other problems.</t>
+          <t>A professional that performs technical and related tasks connected with research and the application of scientific or artistic concepts and operational methods, and government or business regulations.</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Counsellor, Addictions counsellor, Bereavement counsellor, Child and youth counsellor, District social welfare officer, Family counsellor, Marriage counsellor, Parole officer, Probation officer, Sexual assault counsellor, Social worker, Women’s welfare organizer</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:010038</t>
+          <t>BCIO:010045</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>psychologist</t>
-        </is>
-      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>health associate professional</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>A social professional that studies the mental processes and behaviour of human beings as individuals or in groups, and applies this knowledge to promote personal, social, educational or occupational adjustment and development.</t>
+          <t>A technician and associate professional that performs technical and practical tasks to support diagnosis and treatment of illness, disease, injuries and impairments in humans or animals, and supports the implementation of health care usually established by medical, veterinary, nursing and other health professionals.</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -2879,32 +2894,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Clinical psychologist, Counselling psychologist, Educational psychologist, Forensic psychologist, Health psychologist, Neuropsychologist, Organizational psychologist, Psychotherapist, Sport and exercise psychologist</t>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Veterinary Technician </t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:010040</t>
+          <t>BCIO:010053</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>religious professional</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>physiotherapy technician and assistant</t>
+        </is>
+      </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that functions  as a perpetuator of sacred traditions, practices and beliefs. They conduct religious services, celebrate or administer the rites of a religious faith or denomination, provide spiritual and moral guidance and perform other functions associated with the practice of a religion.</t>
+          <t>A health associate professional that provides physical therapeutic treatments to patients in circumstances where functional movement is threatened by injury, disease or impairment. Therapies are usually provided according to rehabilitative plans established by a physiotherapist or other health professional.</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -2912,32 +2927,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Bonze, Imam, Minister of religion, Poojari, Priest, Rabbi</t>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Acupressure therapist, Electrotherapist, Hydrotherapist, Massage therapist, Physical rehabilitation technician, Physiotherapy technician, Shiatsu therapist</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:010036</t>
+          <t>BCIO:010046</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>librarian, archivist and curator</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>medical and pharmaceutical technician</t>
+        </is>
+      </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that develops and maintains collections of archives, libraries, museums, art galleries and similar establishments.</t>
+          <t>A health associate professional that performs technical tasks to assist in diagnosis and treatment of illness, disease, injuries and impairments.</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -2945,32 +2960,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>Librarian, Archivist,  Curator</t>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Medical imaging and therapeutic equipment technician, Medical and Pathology laboratory technician, Pharmaceutical technician, Medical and dental prosthetic technician</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:010042</t>
+          <t>BCIO:010056</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>linguist</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>ambulance worker</t>
+        </is>
+      </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that translates or interprets from one language into another.</t>
+          <t>A health associate professional that provides emergency health care to patients who are injured, sick, infirm or otherwise physically or mentally impaired prior to and during transport to medical facilities.</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -2978,32 +2993,33 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>Interpretator; other linguist</t>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Ambulance officer, Ambulance paramedic, Emergency medical technician, Emergency paramedic</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:010035</t>
+          <t>BCIO:010055</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>legal professional</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>environmental and occupational health inspector and associate</t>
+        </is>
+      </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that conducts research on legal problems, advises clients on legal aspects of problems, pleads cases or conducts prosecutions in courts of law, presides over judicial proceedings in courts of law and draft laws and regulations.</t>
+          <t>A health associate professional that investigates the implementation of rules and regulations relating to environmental factors that may affect human health, safety in the 
+workplace, and safety of processes for the production of goods and services. They may implement and evaluate programmes to restore or improve safety and sanitary conditions under the supervision of a health professional.</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -3011,32 +3027,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>Lawyer, Judge, Coroner</t>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Food sanitation and safety inspector, Health inspector, Occupational health and safety inspector, Pollution inspector, Product safety inspector, Sanitarian, Sanitary inspector</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BCIO:010041</t>
+          <t>BCIO:010050</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>author and journalist</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>traditional and complementary medicine associate professional</t>
+        </is>
+      </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that conceives and creates literary works, and interprets and communicates news and public affairs through the media.</t>
+          <t>A health associate professional that prevents and treats human physical and mental illnesses, disorders and injuries using herbal and other therapies based on theories, beliefs and experiences originating in specific cultures. They administer treatments using traditional techniques and medicaments, either acting independently or according to therapeutic care plans established by a traditional medicine or other health professional.</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -3044,32 +3060,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>Author, Writer, Journalist, Translator, News anchor</t>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Acupuncture technician, Ayurvedic technician, Bonesetter, Herbalist , Homeopathy technician, Scraping and cupping therapist, Village healer, Witch doctor</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BCIO:010007</t>
+          <t>BCIO:010052</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>science and engineering professional</t>
-        </is>
-      </c>
+      <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>community health worker</t>
+        </is>
+      </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>A professional that conducts research, improves or develops concepts, theories and operational methods or applies scientific knowledge.</t>
+          <t>A health associate professional that provides health education, referral and follow-up, case management, basic preventive health care and home visiting services to specific communities. They provide support and assistance to individuals and families in navigating the health and social services system.</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -3077,60 +3093,65 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>Science Professional, Mathematician, Actuary, Statistician, Life Science Professional, Engineering Professional, Electrotechnology Engineer, Architect, Planner, Surveyor, Designer</t>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Community health aide, Community health promoter, Community health worker, Village health worker, outreach worker, health worker</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BCIO:010044</t>
+          <t>BCIO:010051</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>technician and associate professional</t>
-        </is>
-      </c>
+      <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>dental assistant and therapist</t>
+        </is>
+      </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>A professional that performs technical and related tasks connected with research and the application of scientific or artistic concepts and operational methods, and government or business regulations.</t>
+          <t>A health associate professional that provides basic dental care services for the prevention and treatment of diseases and disorders of the teeth and mouth, according to care plans and procedures established by a dentist or other oral health professional.</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>Dental assistant, Dental hygienist , Dental therapist</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:010057</t>
+          <t>BCIO:010054</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>business and administration associate professional</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>medical assistant</t>
+        </is>
+      </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>A technician and associate professional that performs mostly technical tasks connected with the practical application of knowledge relating to financial accounting and transaction matters, mathematical calculations, human resource development, selling and buying financial instruments, specialized secretarial tasks and enforcing or applying government rules.</t>
+          <t>A health associate professional that performs basic clinical and administrative tasks to support patient care under the direct supervision of a medical practitioner or other health professional.</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -3138,32 +3159,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>Financial and Mathematical associate professional, Sales and purchasing agent, Broker, Business Services Agent, Administrative and Specialized Secretary, Government regulatory associate professional, Medical secretary</t>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Clinical assistant, Medical assistant, Ophthalmic assistant</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BCIO:010066</t>
+          <t>BCIO:010047</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>information and communications technician</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>nursing and midwifery associate professional</t>
+        </is>
+      </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>A technician and associate professional that provides support for the day to day running of computer systems, communication systems and networks, broadcast images and sound, telecommunication signals on land, sea or in aircraft.</t>
+          <t>A health associate professional that provides basic nursing and personal care for people who are physically or mentally ill, disabled or infirm, and for others in need of care due to potential risks to health including before, during and after childbirth. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing, midwifery and other health professionals.</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -3171,32 +3192,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>Information and Communications Technology Operations and User Support Technician, Telecommunications and Broadcasting Technician</t>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>Practice assistant, Quit Smoking Counsellor, Health educator, Dispensing Optician, Information Technician</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:010065</t>
+          <t>BCIO:010049</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>artistic, cultural and culinary associate professional</t>
-        </is>
-      </c>
+      <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>midwifery associate professional</t>
+        </is>
+      </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>A technician and associate professional that combines creative skills and technical and cultural knowledge in creative media or food.</t>
+          <t>A nursing and midwifery associate professional that provides basic health care and advice before, during and after pregnancy and childbirth. They implement care, treatment and referral plans usually established by medical, midwifery and other health professionals.</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -3204,32 +3225,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>Photographer, Interior designers and decorator, Gallery, museum and library technician, Chef</t>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>Assistant midwife, Traditional midwife</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:010045</t>
+          <t>BCIO:010048</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>health associate professional</t>
-        </is>
-      </c>
+      <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>nursing associate professional</t>
+        </is>
+      </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>A technician and associate professional that performs technical and practical tasks to support diagnosis and treatment of illness, disease, injuries and impairments in humans or animals, and supports the implementation of health care usually established by medical, veterinary, nursing and other health professionals.</t>
+          <t>A nursing and midwifery associate professional that provides basic nursing and personal care for people in need of such care due to effects of ageing, illness, injury, or other physical or mental impairment. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing and other health professionals.</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -3237,32 +3258,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Veterinary Technician </t>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>Assistant nurse, Associate professional nurse, Enrolled nurse, Practical nurse</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:010052</t>
+          <t>BCIO:010060</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>community health worker</t>
-        </is>
-      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>religious associate professional</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>A health associate professional that provides health education, referral and follow-up, case management, basic preventive health care and home visiting services to specific communities. They provide support and assistance to individuals and families in navigating the health and social services system.</t>
+          <t>A technician and associate professional that provides support to ministers of religion or to a religious community, undertake religious works, preach and propagate the teachings of a particular religion and endeavour to improve well-being through the power of faith and spiritual advice.</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -3270,32 +3291,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>Community health aide, Community health promoter, Community health worker, Village health worker, outreach worker, health worker</t>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Faith healer, Lay preacher, Monk, Nun</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:010054</t>
+          <t>BCIO:010061</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>medical assistant</t>
-        </is>
-      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>sport and fitness worker</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>A health associate professional that performs basic clinical and administrative tasks to support patient care under the direct supervision of a medical practitioner or other health professional.</t>
+          <t>A technician and associate professional that prepares for and competes in sporting events for financial gain, trains amateur and professional sportsmen and women to enhance performance, promotes participation and standards in sport, organises and officiates sporting events, or provides instruction, training and supervision for various forms of exercise and other recreational activities.</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -3303,16 +3324,16 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>Clinical assistant, Medical assistant, Ophthalmic assistant</t>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>physical activity professional, exercise physiologist, exercise therapist, exercise specialist</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BCIO:010055</t>
+          <t>BCIO:010062</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
@@ -3322,14 +3343,13 @@
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>environmental and occupational health inspector and associate</t>
+          <t>athlete and sports player</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>A health associate professional that investigates the implementation of rules and regulations relating to environmental factors that may affect human health, safety in the 
-workplace, and safety of processes for the production of goods and services. They may implement and evaluate programmes to restore or improve safety and sanitary conditions under the supervision of a health professional.</t>
+          <t>A sport and fitness worker that participates in competitive sporting events. They train and compete, either individually or as part of a team, in their chosen sport.</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -3337,16 +3357,16 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>Food sanitation and safety inspector, Health inspector, Occupational health and safety inspector, Pollution inspector, Product safety inspector, Sanitarian, Sanitary inspector</t>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>Athlete, Bicycle racer, Boxer, Chess player , Footballer, Golfer, Hockey player, Jockey, Poker player, Racing driver, Skier, Tennis player, Wrestler</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BCIO:010051</t>
+          <t>BCIO:010064</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
@@ -3356,13 +3376,13 @@
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>dental assistant and therapist</t>
+          <t>fitness and recreation instructor and programme leader</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>A health associate professional that provides basic dental care services for the prevention and treatment of diseases and disorders of the teeth and mouth, according to care plans and procedures established by a dentist or other oral health professional.</t>
+          <t>A sport and fitness worker that leads, guides and instructs groups and individuals in recreational, fitness or outdoor adventure activities.</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -3370,16 +3390,16 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>Dental assistant, Dental hygienist , Dental therapist</t>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Aerobics instructor, Fitness instructor, Horse riding instructor, Outdoor adventure guide, Personal trainer, Sailing instructor, Underwater diving instructor</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BCIO:010050</t>
+          <t>BCIO:010063</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -3389,13 +3409,13 @@
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>traditional and complementary medicine associate professional</t>
+          <t>sports coach, instructor and official</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>A health associate professional that prevents and treats human physical and mental illnesses, disorders and injuries using herbal and other therapies based on theories, beliefs and experiences originating in specific cultures. They administer treatments using traditional techniques and medicaments, either acting independently or according to therapeutic care plans established by a traditional medicine or other health professional.</t>
+          <t>A sport and fitness worker that works with amateur and professional sportspersons to enhance performance and encourage greater participation in sport, and organizes and officiates in sporting events according to established rules.</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -3403,32 +3423,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>Acupuncture technician, Ayurvedic technician, Bonesetter, Herbalist , Homeopathy technician, Scraping and cupping therapist, Village healer, Witch doctor</t>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>Referee, Ski instructor, Sports coach, Sports official, Swimming instructor</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BCIO:010047</t>
+          <t>BCIO:010057</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>nursing and midwifery associate professional</t>
-        </is>
-      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>business and administration associate professional</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>A health associate professional that provides basic nursing and personal care for people who are physically or mentally ill, disabled or infirm, and for others in need of care due to potential risks to health including before, during and after childbirth. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing, midwifery and other health professionals.</t>
+          <t>A technician and associate professional that performs mostly technical tasks connected with the practical application of knowledge relating to financial accounting and transaction matters, mathematical calculations, human resource development, selling and buying financial instruments, specialized secretarial tasks and enforcing or applying government rules.</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -3436,32 +3456,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>Practice assistant, Quit Smoking Counsellor, Health educator, Dispensing Optician, Information Technician</t>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>Financial and Mathematical associate professional, Sales and purchasing agent, Broker, Business Services Agent, Administrative and Specialized Secretary, Government regulatory associate professional, Medical secretary</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:010049</t>
+          <t>BCIO:010058</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>legal and related associate professional</t>
+        </is>
+      </c>
       <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>midwifery associate professional</t>
-        </is>
-      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>A nursing and midwifery associate professional that provides basic health care and advice before, during and after pregnancy and childbirth. They implement care, treatment and referral plans usually established by medical, midwifery and other health professionals.</t>
+          <t>A technician and associate professional that performs support functions in courts of law or in law offices, provide services related to such legal matters as insurance contracts, the transferring of property and the granting of loans and other financial transactions, or conduct investigations for clients.</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -3469,32 +3489,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>Assistant midwife, Traditional midwife</t>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>Bailiff, Judge’s clerk, Conveyancing clerk, Court clerk, Justice of the peace, Law clerk, Legal assistant, Paralegal, Private detective, Title searcher</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCIO:010048</t>
+          <t>BCIO:010065</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>artistic, cultural and culinary associate professional</t>
+        </is>
+      </c>
       <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>nursing associate professional</t>
-        </is>
-      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>A nursing and midwifery associate professional that provides basic nursing and personal care for people in need of such care due to effects of ageing, illness, injury, or other physical or mental impairment. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing and other health professionals.</t>
+          <t>A technician and associate professional that combines creative skills and technical and cultural knowledge in creative media or food.</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -3502,32 +3522,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>Assistant nurse, Associate professional nurse, Enrolled nurse, Practical nurse</t>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>Photographer, Interior designers and decorator, Gallery, museum and library technician, Chef</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BCIO:010056</t>
+          <t>BCIO:010059</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>ambulance worker</t>
-        </is>
-      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>social work associate professional</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>A health associate professional that provides emergency health care to patients who are injured, sick, infirm or otherwise physically or mentally impaired prior to and during transport to medical facilities.</t>
+          <t>A technician and associate professional that implements social assistance programmes and community services and assist clients to deal with personal and social problems.</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -3535,32 +3555,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>Ambulance officer, Ambulance paramedic, Emergency medical technician, Emergency paramedic</t>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>Community development worker, Community services worker, Crisis intervention worker, Disability services worker, Family services worker, Life skills instructor, Mental health support worker, Welfare support worker, Women’s shelter supervisor, Youth services worker</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BCIO:010046</t>
+          <t>BCIO:010066</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>medical and pharmaceutical technician</t>
-        </is>
-      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>information and communications technician</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>A health associate professional that performs technical tasks to assist in diagnosis and treatment of illness, disease, injuries and impairments.</t>
+          <t>A technician and associate professional that provides support for the day to day running of computer systems, communication systems and networks, broadcast images and sound, telecommunication signals on land, sea or in aircraft.</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -3568,49 +3588,44 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>Medical imaging and therapeutic equipment technician, Medical and Pathology laboratory technician, Pharmaceutical technician, Medical and dental prosthetic technician</t>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>Information and Communications Technology Operations and User Support Technician, Telecommunications and Broadcasting Technician</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BCIO:010053</t>
+          <t>BCIO:010034</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>legal, social and cultural professional</t>
+        </is>
+      </c>
       <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>physiotherapy technician and assistant</t>
-        </is>
-      </c>
+      <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>A health associate professional that provides physical therapeutic treatments to patients in circumstances where functional movement is threatened by injury, disease or impairment. Therapies are usually provided according to rehabilitative plans established by a physiotherapist or other health professional.</t>
+          <t>A professional that conducts research, improves or develops concepts, theories and operational methods, or applies knowledge relating to the law, social or cultural studies.</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>Acupressure therapist, Electrotherapist, Hydrotherapist, Massage therapist, Physical rehabilitation technician, Physiotherapy technician, Shiatsu therapist</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BCIO:010061</t>
+          <t>BCIO:010036</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
@@ -3619,14 +3634,14 @@
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr">
         <is>
-          <t>sport and fitness worker</t>
+          <t>librarian, archivist and curator</t>
         </is>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>A technician and associate professional that prepares for and competes in sporting events for financial gain, trains amateur and professional sportsmen and women to enhance performance, promotes participation and standards in sport, organises and officiates sporting events, or provides instruction, training and supervision for various forms of exercise and other recreational activities.</t>
+          <t>A legal, social and cultural professional that develops and maintains collections of archives, libraries, museums, art galleries and similar establishments.</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -3634,32 +3649,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>physical activity professional, exercise physiologist, exercise therapist, exercise specialist</t>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>Librarian, Archivist,  Curator</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BCIO:010062</t>
+          <t>BCIO:010040</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>athlete and sports player</t>
-        </is>
-      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>religious professional</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>A sport and fitness worker that participates in competitive sporting events. They train and compete, either individually or as part of a team, in their chosen sport.</t>
+          <t>A legal, social and cultural professional that functions  as a perpetuator of sacred traditions, practices and beliefs. They conduct religious services, celebrate or administer the rites of a religious faith or denomination, provide spiritual and moral guidance and perform other functions associated with the practice of a religion.</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -3667,32 +3682,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>Athlete, Bicycle racer, Boxer, Chess player , Footballer, Golfer, Hockey player, Jockey, Poker player, Racing driver, Skier, Tennis player, Wrestler</t>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>Bonze, Imam, Minister of religion, Poojari, Priest, Rabbi</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BCIO:010063</t>
+          <t>BCIO:010041</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>sports coach, instructor and official</t>
-        </is>
-      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>author and journalist</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>A sport and fitness worker that works with amateur and professional sportspersons to enhance performance and encourage greater participation in sport, and organizes and officiates in sporting events according to established rules.</t>
+          <t>A legal, social and cultural professional that conceives and creates literary works, and interprets and communicates news and public affairs through the media.</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -3700,32 +3715,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>Referee, Ski instructor, Sports coach, Sports official, Swimming instructor</t>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>Author, Writer, Journalist, Translator, News anchor</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BCIO:010064</t>
+          <t>BCIO:010042</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>fitness and recreation instructor and programme leader</t>
-        </is>
-      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>linguist</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>A sport and fitness worker that leads, guides and instructs groups and individuals in recreational, fitness or outdoor adventure activities.</t>
+          <t>A legal, social and cultural professional that translates or interprets from one language into another.</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -3733,16 +3748,16 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>Aerobics instructor, Fitness instructor, Horse riding instructor, Outdoor adventure guide, Personal trainer, Sailing instructor, Underwater diving instructor</t>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>Interpretator; other linguist</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BCIO:010060</t>
+          <t>BCIO:010037</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
@@ -3751,14 +3766,14 @@
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr">
         <is>
-          <t>religious associate professional</t>
+          <t>social professional</t>
         </is>
       </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>A technician and associate professional that provides support to ministers of religion or to a religious community, undertake religious works, preach and propagate the teachings of a particular religion and endeavour to improve well-being through the power of faith and spiritual advice.</t>
+          <t>A legal, social and cultural professional that conducts research, improves or develops concepts, theories and operational methods or applies knowledge relating to psychology, sociology, philosophy, politics, economics, sociology, anthropology, history and other social sciences, or provides social services to meet the needs of individuals and families in a community.</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -3766,32 +3781,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>Faith healer, Lay preacher, Monk, Nun</t>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>Economist, Sociologist, Anthropologist, Philosopher, Historian, Political Scientist</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BCIO:010059</t>
+          <t>BCIO:010038</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>social work associate professional</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>psychologist</t>
+        </is>
+      </c>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>A technician and associate professional that implements social assistance programmes and community services and assist clients to deal with personal and social problems.</t>
+          <t>A social professional that studies the mental processes and behaviour of human beings as individuals or in groups, and applies this knowledge to promote personal, social, educational or occupational adjustment and development.</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -3799,32 +3814,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>Community development worker, Community services worker, Crisis intervention worker, Disability services worker, Family services worker, Life skills instructor, Mental health support worker, Welfare support worker, Women’s shelter supervisor, Youth services worker</t>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>Clinical psychologist, Counselling psychologist, Educational psychologist, Forensic psychologist, Health psychologist, Neuropsychologist, Organizational psychologist, Psychotherapist, Sport and exercise psychologist</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BCIO:010058</t>
+          <t>BCIO:010039</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>legal and related associate professional</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>social work and counselling professional</t>
+        </is>
+      </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>A technician and associate professional that performs support functions in courts of law or in law offices, provide services related to such legal matters as insurance contracts, the transferring of property and the granting of loans and other financial transactions, or conduct investigations for clients.</t>
+          <t>A social professional that provides advice and guidance to individuals, families, groups, communities and organizations in response to social and personal difficulties. They assist clients to develop skills and access resources and support services needed to respond to issues arising from unemployment, poverty, disability, addiction, criminal and delinquent behaviour, marital and other problems.</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -3832,32 +3847,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>Bailiff, Judge’s clerk, Conveyancing clerk, Court clerk, Justice of the peace, Law clerk, Legal assistant, Paralegal, Private detective, Title searcher</t>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>Counsellor, Addictions counsellor, Bereavement counsellor, Child and youth counsellor, District social welfare officer, Family counsellor, Marriage counsellor, Parole officer, Probation officer, Sexual assault counsellor, Social worker, Women’s welfare organizer</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BCIO:010025</t>
+          <t>BCIO:010035</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>teaching professional</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>legal professional</t>
+        </is>
+      </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>A professional that teaches the theory and practice of one or more disciplines at different educational levels.</t>
+          <t>A legal, social and cultural professional that conducts research on legal problems, advises clients on legal aspects of problems, pleads cases or conducts prosecutions in courts of law, presides over judicial proceedings in courts of law and draft laws and regulations.</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -3865,16 +3880,16 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>Education Methods Specialist, Other Language Teacher, Information Technology Teacher, Private Tutor, School Counsellor, Student Advisor</t>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>Lawyer, Judge, Coroner</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BCIO:010031</t>
+          <t>BCIO:010043</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
@@ -3883,14 +3898,14 @@
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr">
         <is>
-          <t>special needs teacher</t>
+          <t>creative and performing artist</t>
         </is>
       </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches children, young persons or adults with physical or intellectual special needs.</t>
+          <t>A legal, social and cultural professional that communicates ideas, impressions and facts in a wide range of media to achieve particular effects, interprets a composition such as a musical score or a script to perform or direct the performance, and hosts the presentation of such performance and other media events.</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -3898,32 +3913,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>Learning disabilities special education teacher, Learning support teacher, Remedial teacher, Teacher of gifted children, Teacher of the hearing impaired, Teacher of the sight impaired</t>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>Visual artist, Musician, Singer, Composer, Dancer, Choreographer, Director, Producer, Actor, Announcer on radio, television and other media</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BCIO:010028</t>
+          <t>BCIO:010078</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>craft and related trades worker</t>
+        </is>
+      </c>
       <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>secondary education teacher</t>
-        </is>
-      </c>
+      <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches one or more subjects at secondary education level.</t>
+          <t>An occupational role that applies specific technical and practical knowledge and skills to construct and maintain buildings, machinery, equipment or tools, carries out printing work, and produces or processes foodstuffs, textiles and wooden, metal and other articles, including handicraft goods.</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -3931,32 +3946,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>Secondary school teacher, High school teacher</t>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>Building Trade Worker, Metal Workers, Machinery Worker, Handicraft Worker, Printing Worker, Electrical Equipment Installers and Repairer, Electronics and Telecommunications Installer and Repairer, Food Processing Worker, Woodworker, Tobacco Product Maker</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BCIO:010032</t>
+          <t>BCIO:010005</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>manager</t>
+        </is>
+      </c>
       <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>music teacher</t>
-        </is>
-      </c>
+      <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches students in the practice, theory and performance of music in private or small group tuition or within mainstream educational institutions.</t>
+          <t>An occupational role of source that manages, plans and coordinates the overall activities of enterprises, governments and other organisations.</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -3964,32 +3979,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>Guitar teacher (private tuition), Piano teacher (private tuition), Singing teacher (private tuition), Violin teacher (private tuition)</t>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>Chief Executive Officers; Administrative Managers;  Commercial Managers</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:010033</t>
+          <t>BCIO:010077</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>skilled agricultural, forestry and fishery worker</t>
+        </is>
+      </c>
       <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>arts teacher</t>
-        </is>
-      </c>
+      <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>A teaching professional  that teaches students in the practice, theory and performance of dance, drama, visual and other arts (excluding music) in private or small group tuition or within mainstream educational institutions.</t>
+          <t>An occupational role that grows and harvests plants or animals to provide food, shelter and income for themselves and their households.</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -3997,110 +4012,105 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>Dance teacher (private tuition), Drama teacher (private tuition), Painting teacher (private tuition), Sculpture teacher (private tuition)</t>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>Market gardener, Crop grower, Animal Producer, Mixed Crop and Animal Producer, Forestry worker, Fishery worker, Hunter. Subsistence Crop Farmer, Subsistence Livestock Farmer</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BCIO:010026</t>
+          <t>BCIO:010080</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>assembler</t>
+        </is>
+      </c>
       <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>university and higher education teacher</t>
-        </is>
-      </c>
+      <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>A teaching professional that prepares and delivers lectures and conduct tutorials in one or more subjects within a prescribed course of study at a university or other higher educational institution. They conduct research, and prepare scholarly papers and books.</t>
+          <t>An occupational role that assembles products from component parts according to strict specifications and procedures.</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>Higher education lecturer, Professor, University lecturer, University tutor</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:010030</t>
+          <t>BCIO:010068</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>services and sales worker</t>
+        </is>
+      </c>
       <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>early childhood educator</t>
-        </is>
-      </c>
+      <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>A teaching professional that promotes the social, physical, and intellectual development of children below primary school age through the provision of educational and play activities.</t>
+          <t>An occupational role that provides personal or protective services related to travel, house-keeping, catering, personal care, protection against fire and unlawful acts, or sells goods in retail or markets.</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>Early childhood educator, Pre-school teacher</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:010029</t>
+          <t>BCIO:010071</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>primary school teacher</t>
-        </is>
-      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>personal care worker</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches teach a range of subjects at the primary education level.</t>
+          <t>A services and sales worker that provides care, supervision and assistance for children, patients and elderly, convalescent or disabled persons in institutional and residential settings.</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>Personal carer</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BCIO:010027</t>
+          <t>BCIO:010074</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
@@ -4109,14 +4119,14 @@
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr">
         <is>
-          <t>vocational education teacher</t>
+          <t>health care assistant</t>
         </is>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches or instructs vocational or occupational subjects in adult and further education institutions and to senior students in secondary schools and colleges.</t>
+          <t>A personal care worker that provides direct personal care and assistance with activities of daily living to patients and residents in a variety of health care settings, working  in implementation of established care plans and practices, and under the direct supervision of medical, nursing or other health professionals or associate professionals.</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -4124,60 +4134,65 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>Automotive technology instructor, Cosmetology instructor, Vocational education teacher</t>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>Nursing aide (clinic or hospital), Patient care assistant, Psychiatric aid</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:010068</t>
+          <t>BCIO:010075</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>services and sales worker</t>
-        </is>
-      </c>
+      <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>home-based personal care worker</t>
+        </is>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>An occupational role that provides personal or protective services related to travel, house-keeping, catering, personal care, protection against fire and unlawful acts, or sells goods in retail or markets.</t>
+          <t>A personal care worker that provide routine personal care and assistance with activities of daily living to persons who are in need of such care due to effects of ageing, illness, injury, or other physical or mental conditions, in private homes and other independent residential settings.</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>Home birth assistant, Home care aide, Nursing aide (home), Personal care provider</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:010071</t>
+          <t>BCIO:010073</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>personal care worker</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>teachers’ aide</t>
+        </is>
+      </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>A services and sales worker that provides care, supervision and assistance for children, patients and elderly, convalescent or disabled persons in institutional and residential settings.</t>
+          <t>A personal care worker that performs non-teaching duties to assist teaching staff, and provides care and supervision for children in schools and pre-schools.</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -4185,16 +4200,16 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>Personal carer</t>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>Pre-school assistant, Teacher’s assistant</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BCIO:010074</t>
+          <t>BCIO:010072</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
@@ -4203,14 +4218,14 @@
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr">
         <is>
-          <t>health care assistant</t>
+          <t>child care worker</t>
         </is>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>A personal care worker that provides direct personal care and assistance with activities of daily living to patients and residents in a variety of health care settings, working  in implementation of established care plans and practices, and under the direct supervision of medical, nursing or other health professionals or associate professionals.</t>
+          <t>A personal care worker that provides care and supervision for children in non-domestic settings.</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -4218,32 +4233,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>Nursing aide (clinic or hospital), Patient care assistant, Psychiatric aid</t>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>Babysitter, Child care worker, Creche ayah, Family day care worker, Nanny, Out of school hours care worker</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BCIO:010073</t>
+          <t>BCIO:010069</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>teachers’ aide</t>
-        </is>
-      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>personal services worker</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>A personal care worker that performs non-teaching duties to assist teaching staff, and provides care and supervision for children in schools and pre-schools.</t>
+          <t>A services and sales worker that provides personal services related to travel, housekeeping, catering and hospitality, hairdressing and beauty treatment, animal care grooming and training, companionship and other services of a personal nature.</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -4251,32 +4266,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>Pre-school assistant, Teacher’s assistant</t>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>Travel Attendant, Conductor, Guide, Cook, Waiter, Bartender, Hairdresser, Beautician, Housekeeping Supervisor, Astrologer, Fortune-teller, Valet, Undertaker, Embalmer, Pet Groomer, Animal Care Worker</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BCIO:010075</t>
+          <t>BCIO:010076</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>home-based personal care worker</t>
-        </is>
-      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>protective services worker</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>A personal care worker that provide routine personal care and assistance with activities of daily living to persons who are in need of such care due to effects of ageing, illness, injury, or other physical or mental conditions, in private homes and other independent residential settings.</t>
+          <t>A services and sales worker that protects individuals and property against fire and other hazards, maintain law and order and enforce laws and regulations.</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -4284,32 +4299,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>Home birth assistant, Home care aide, Nursing aide (home), Personal care provider</t>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>Firefighter, Police officer, Prison guard, Security guard, Offender manager</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BCIO:010072</t>
+          <t>BCIO:010070</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>child care worker</t>
-        </is>
-      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>sales worker</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>A personal care worker that provides care and supervision for children in non-domestic settings.</t>
+          <t>A services and sales worker that demonstrates goods in wholesale or retail shops, at stalls and markets, door to door, via telephone or customer contact centres. They may record and accept payment for goods and services purchased, and may operate small retail outlets.</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -4317,32 +4332,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>Babysitter, Child care worker, Creche ayah, Family day care worker, Nanny, Out of school hours care worker</t>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>Street Salesperson, Market Salesperson, Shop Salesperson, Cashier, Ticket Clerk, Model, Sales Demonstrator, Door-to-door Salesperson, Contact Centre Salesperson, Service Station Attendant, Food Service Counter Attendant</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:010076</t>
+          <t>BCIO:010083</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>protective services worker</t>
-        </is>
-      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>researcher</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>A services and sales worker that protects individuals and property against fire and other hazards, maintain law and order and enforce laws and regulations.</t>
+          <t>An occupational role that is a researcher but unclear what discipline.</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -4350,89 +4365,79 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>Firefighter, Police officer, Prison guard, Security guard, Offender manager</t>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>researcher, research assistant, investigator</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BCIO:010069</t>
+          <t>BCIO:010094</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr"/>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>relatedness between person source and the target population</t>
+        </is>
+      </c>
       <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>personal services worker</t>
-        </is>
-      </c>
+      <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>A services and sales worker that provides personal services related to travel, housekeeping, catering and hospitality, hairdressing and beauty treatment, animal care grooming and training, companionship and other services of a personal nature.</t>
+          <t>A personal role of source that is realised in some relationship to the characteristics of the intervention participants.</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>Travel Attendant, Conductor, Guide, Cook, Waiter, Bartender, Hairdresser, Beautician, Housekeeping Supervisor, Astrologer, Fortune-teller, Valet, Undertaker, Embalmer, Pet Groomer, Animal Care Worker</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BCIO:010070</t>
+          <t>BCIO:010104</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr"/>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>sales worker</t>
-        </is>
-      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>peer</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>A services and sales worker that demonstrates goods in wholesale or retail shops, at stalls and markets, door to door, via telephone or customer contact centres. They may record and accept payment for goods and services purchased, and may operate small retail outlets.</t>
+          <t>A relatedness between person source and the target population that is descried as matched to intervention recipients on the basis of ‘peerness’ – age, social status, gender, shared experience, shared health status etc.</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>Street Salesperson, Market Salesperson, Shop Salesperson, Cashier, Ticket Clerk, Model, Sales Demonstrator, Door-to-door Salesperson, Contact Centre Salesperson, Service Station Attendant, Food Service Counter Attendant</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BCIO:010082</t>
+          <t>BCIO:010103</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr">
         <is>
-          <t>armed forces occupation</t>
+          <t>employer</t>
         </is>
       </c>
       <c r="E126" t="inlineStr"/>
@@ -4441,31 +4446,26 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>An occupational role that includes all jobs held by members of the armed forces.</t>
+          <t>A relatedness between person source and the target population that is a person which hires the services of the participant.</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>Admiral, Air commodore, Air marshal, Airman, Brigadier (army), Bombardier, Captain (air force), Captain (army), Captain (navy), Colonel (army), Corporal,  Field marshal, Flight lieutenant (air force), Flying officer (military), General (army), Gunner, Group captain, (air force), Lieutenant (army), Major (army), Midshipman, Naval officer (military) , Navy commander, Officer cadet (armed forces), Paratrooper, Rifleman, Sergeant (army), Second lieutenant (army), Seaman, Squadron leader, Sublieutenant (navy), Wing commander</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BCIO:010078</t>
+          <t>BCIO:010102</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr">
         <is>
-          <t>craft and related trades worker</t>
+          <t>colleague</t>
         </is>
       </c>
       <c r="E127" t="inlineStr"/>
@@ -4474,31 +4474,26 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>An occupational role that applies specific technical and practical knowledge and skills to construct and maintain buildings, machinery, equipment or tools, carries out printing work, and produces or processes foodstuffs, textiles and wooden, metal and other articles, including handicraft goods.</t>
+          <t>A relatedness between person source and the target population that is a person with whom the participant works in a profession or business.</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>Building Trade Worker, Metal Workers, Machinery Worker, Handicraft Worker, Printing Worker, Electrical Equipment Installers and Repairer, Electronics and Telecommunications Installer and Repairer, Food Processing Worker, Woodworker, Tobacco Product Maker</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BCIO:010080</t>
+          <t>BCIO:010105</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr">
         <is>
-          <t>assembler</t>
+          <t>embedded in participants’ community</t>
         </is>
       </c>
       <c r="E128" t="inlineStr"/>
@@ -4507,7 +4502,7 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>An occupational role that assembles products from component parts according to strict specifications and procedures.</t>
+          <t>A relatedness between person source and the target population that is a source who is known and working to deliver intervention in own community.</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -4519,14 +4514,14 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BCIO:010077</t>
+          <t>BCIO:010101</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr">
         <is>
-          <t>skilled agricultural, forestry and fishery worker</t>
+          <t>friend</t>
         </is>
       </c>
       <c r="E129" t="inlineStr"/>
@@ -4535,31 +4530,26 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>An occupational role that grows and harvests plants or animals to provide food, shelter and income for themselves and their households.</t>
+          <t>A relatedness between person source and the target population that is a person whom the participant knows, likes and trusts, typically exclusive of sexual or family relations.</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>Market gardener, Crop grower, Animal Producer, Mixed Crop and Animal Producer, Forestry worker, Fishery worker, Hunter. Subsistence Crop Farmer, Subsistence Livestock Farmer</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BCIO:010083</t>
+          <t>BCIO:010100</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr">
         <is>
-          <t>researcher</t>
+          <t>carer</t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
@@ -4568,7 +4558,7 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>An occupational role that is a researcher but unclear what discipline.</t>
+          <t>A relatedness between person source and the target population that is an individual who cares, unpaid, for a friend or family member who, due to illness or disability, requires support in their daily life activities.</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -4576,32 +4566,32 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>researcher, research assistant, investigator</t>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>carer</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BCIO:010081</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr"/>
+          <t>BCIO:010126</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>amount of experience</t>
+        </is>
+      </c>
       <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>elementary occupation</t>
-        </is>
-      </c>
+      <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>An occupational role that involves the performance of simple and routine tasks which may require the use of hand-held tools and considerable physical effort.</t>
+          <t>A knowledge or skill that is the duration of experience in related domain held by person source.</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -4609,90 +4599,80 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>Cleaner, Labourer, Food Preparation Assistant, Street and Related Services Worker, Street Vendor (excluding Food), Refuse Worker</t>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>full-day, 6 years</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BCIO:010067</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr"/>
+          <t>BCIO:010106</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>number of people delivering intervention to each participant</t>
+        </is>
+      </c>
       <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>clerical support worker</t>
-        </is>
-      </c>
+      <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>An occupational role that records, organizes, stores, computes and retrieves information, and performs a number of clerical duties in connection with money-handling operations, travel arrangements, requests for information, and appointments.</t>
+          <t>A count data item that is the number of providers that an individual participant in the intervention encounters.</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>General and Keyboard Clerk, customers Services Clerk, Numerical and Material Recording Clerk</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BCIO:010079</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr"/>
+          <t>BCIO:010107</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>total number of people able to deliver intervention</t>
+        </is>
+      </c>
       <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>plant and machine operator</t>
-        </is>
-      </c>
+      <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>An occupational role that operates and monitors industrial and agricultural machinery and equipment on the spot or by remote control, or drives and operates trains, motor vehicles and mobile machinery and equipment.</t>
+          <t>A count data item that is the total number of providers that are available and able to deliver the intervention.</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>Stationary Plant and Machine Operator, Driver, Mobile Plant Operator</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BCIO:010094</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr"/>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>relatedness between person source and the target population</t>
-        </is>
-      </c>
+          <t>BCIO:010128</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>supervision of person source</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
@@ -4700,63 +4680,73 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>A personal role of source that is realised in some relationship to the characteristics of the intervention participants.</t>
+          <t>A process in which a person source is formally provided, by an individual with appropriate expertise, with corrective and skill-enhancing feedback, regarding the person source’s performance in delivering the intervention.</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>supervised</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BCIO:010101</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr"/>
+          <t>BCIO:010129</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>volunteering of person source</t>
+        </is>
+      </c>
       <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>friend</t>
-        </is>
-      </c>
+      <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a person whom the participant knows, likes and trusts, typically exclusive of sexual or family relations.</t>
+          <t>A process in which a person source delivers the intervention on a voluntary basis without formal compensation.</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>voluntary basis, volunteering</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BCIO:010103</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr"/>
+          <t>BCIO:010130</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>payment of person source</t>
+        </is>
+      </c>
       <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>employer</t>
-        </is>
-      </c>
+      <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a person which hires the services of the participant.</t>
+          <t>A process in which a person source is paid or compensated for delivering the intervention.</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -4768,23 +4758,23 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BCIO:010100</t>
+          <t>BCIO:010132</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
-      <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>carer</t>
-        </is>
-      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>non-monetary payment</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is an individual who cares, unpaid, for a friend or family member who, due to illness or disability, requires support in their daily life activities.</t>
+          <t>A payment of person source that is non-monetary compensation given to the source for delivering the intervention.</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -4792,60 +4782,65 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>carer</t>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>course credit</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BCIO:010102</t>
+          <t>BCIO:010131</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
-      <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>colleague</t>
-        </is>
-      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>monetary payment</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a person with whom the participant works in a profession or business.</t>
+          <t>A payment of person source that is money, vouchers or valued objects given to the source for delivering the intervention.</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>paid in cash, vouchers</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BCIO:010105</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr"/>
+          <t>BCIO:010120</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>expertise of person source</t>
+        </is>
+      </c>
       <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>embedded in participants’ community</t>
-        </is>
-      </c>
+      <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a source who is known and working to deliver intervention in own community.</t>
+          <t>A disposition that is an expert skill or knowledge held by the source delivering the behaviour change intervention.</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -4857,79 +4852,89 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BCIO:010104</t>
+          <t>BCIO:010121</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
-      <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>peer</t>
-        </is>
-      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>knowledge or skill</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is descried as matched to intervention recipients on the basis of ‘peerness’ – age, social status, gender, shared experience, shared health status etc.</t>
+          <t>An expertise of person source that is knowledge or skills held in order to deliver the behaviour change intervention.</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>trained (if unclear whether pre-existing or acquired)</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BCIO:015098</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>gender identity</t>
-        </is>
-      </c>
+          <t>BCIO:010122</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr"/>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>pre-existing knowledge or skill</t>
+        </is>
+      </c>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
+          <t>A knowledge or skill that is already possessed by the source which allows them to deliver the behaviour change intervention, including educational level and qualifications.</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Population</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>Bachelor’s degree, certification, accredited, qualified</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BCIO:010111</t>
+          <t>BCIO:010127</t>
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>female gender</t>
-        </is>
-      </c>
+      <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr"/>
-      <c r="E142" t="inlineStr"/>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>affiliation to a formal group or organisation</t>
+        </is>
+      </c>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>A gender identity as being female.</t>
+          <t>A pre-existing knowledge or skill that is recognised through affiliation to a formal group or organisation.</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -4937,42 +4942,37 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>female, woman</t>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>member of British Psychological Society</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BCIO:010112</t>
+          <t>BCIO:010125</t>
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>male gender</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>acquired knowledge or skill</t>
+        </is>
+      </c>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>A gender identity as being male.</t>
+          <t>A knowledge or skill that is additional knowledge or skills supplied to the source to allow them to deliver the behaviour change intervention, including educational level and qualifications.</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>Source</t>
-        </is>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>male, man</t>
         </is>
       </c>
     </row>

--- a/Source/BCIO-source-hierarchy.xlsx
+++ b/Source/BCIO-source-hierarchy.xlsx
@@ -445,44 +445,44 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
+          <t>Sub-ontology</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
           <t>Comment</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Sub-ontology</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Examples</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BCIO:010123</t>
+          <t>BCIO:010108</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>expertise discipline</t>
+          <t>socio demographic attribute of person source</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -493,35 +493,25 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>An attribute that is a field of knowledge or practice.</t>
+          <t>A social or demographic characteristic of a human being who is the bearer of a person source role.</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>The division of expertise into different disciplines or fields is complex and depends on historical, social and structural factors.</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:010124</t>
+          <t>BCIO:010110</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>discipline of pre-existing knowledge or skill</t>
+          <t>gender of person source</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -531,65 +521,65 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>The expertise discipline in which the person source has acquired their pre-existing knowledge and skills.</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
+          <t>A socio-demographic attribute of person source that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>gender</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:010093</t>
+          <t>BCIO:010113</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>discipline of current programme of study or training</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>other gender</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>An expertise discipline of the programme of study currently undertaken by the bearer of a student or trainee role.</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>psychology, medicine, hairdressing</t>
+          <t>A gender of person source that reports not belonging to the cultural gender role distinctions of either male or female.</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>non-binary, transexual</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:010108</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>socio demographic attribute of person source</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>BCIO:010118</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>target behaviour of person source</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
@@ -597,25 +587,30 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>A social or demographic characteristic of a human being who is the bearer of a person source role.</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A socio-demographic attribute of person source that is their amount or experience of the intervention’s target behaviour.</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>source is highly physically active</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:010114</t>
+          <t>BCIO:010116</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ethnic group membership of person source</t>
+          <t>language proficiency of person source</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -625,17 +620,17 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is the ethnic group to which an individual identifies as belonging, where an ethic group is a population whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>black, white, Indian, Chinese, Somalian</t>
+          <t>A socio-demographic attribute of person source that is an individual’s ability to speak or perform in the intervention language.</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>fluent, native</t>
         </is>
       </c>
     </row>
@@ -661,7 +656,7 @@
           <t>A socio-demographic attribute of person source that is their existing psychological attributes related to or potentially affecting the target behaviour.</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -670,13 +665,13 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:010117</t>
+          <t>BCIO:010115</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>health status of person source</t>
+          <t>religious group membership of person source</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -686,30 +681,30 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that represents their mental or physical condition.</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>diabetes, cancer, depression, obesity, overweight</t>
+          <t>A socio-demographic attribute of person source that is a religious group to which an individual identifies as belonging, where a religious group is a group of people characterised by the practice of a common religion.</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Muslim, Christian, Hindu, Sikh, Buddhist, Judaism</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:010109</t>
+          <t>BCIO:010117</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>age of person source</t>
+          <t>health status of person source</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -719,25 +714,30 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A socio-demographic attribute of person source that represents their mental or physical condition.</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>diabetes, cancer, depression, obesity, overweight</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:010116</t>
+          <t>BCIO:010114</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>language proficiency of person source</t>
+          <t>ethnic group membership of person source</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -747,30 +747,30 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is an individual’s ability to speak or perform in the intervention language.</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>fluent, native</t>
+          <t>A socio-demographic attribute of person source that is the ethnic group to which an individual identifies as belonging, where an ethic group is a population whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>black, white, Indian, Chinese, Somalian</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:010115</t>
+          <t>BCIO:010109</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>religious group membership of person source</t>
+          <t>age of person source</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -780,32 +780,27 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is a religious group to which an individual identifies as belonging, where a religious group is a group of people characterised by the practice of a common religion.</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Muslim, Christian, Hindu, Sikh, Buddhist, Judaism</t>
+          <t>A socio-demographic attribute of person source that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:010110</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>gender of person source</t>
-        </is>
-      </c>
+          <t>BCIO:010123</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>expertise discipline</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
@@ -813,63 +808,68 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>gender</t>
+          <t>An attribute that is a field of knowledge or practice.</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>The division of expertise into different disciplines or fields is complex and depends on historical, social and structural factors.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:010113</t>
+          <t>BCIO:010093</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>other gender</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>discipline of current programme of study or training</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>A gender of person source that reports not belonging to the cultural gender role distinctions of either male or female.</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>non-binary, transexual</t>
+          <t>An expertise discipline of the programme of study currently undertaken by the bearer of a student or trainee role.</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>psychology, medicine, hairdressing</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:010118</t>
+          <t>BCIO:010124</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>target behaviour of person source</t>
+          <t>discipline of pre-existing knowledge or skill</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -879,29 +879,29 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is their amount or experience of the intervention’s target behaviour.</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>source is highly physically active</t>
+          <t>The expertise discipline in which the person source has acquired their pre-existing knowledge and skills.</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>OBI:0000245</t>
+          <t>BCIO:010120</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>organization</t>
+          <t>expertise of person source</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -912,10 +912,10 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>An entity that can bear roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
+          <t>A disposition that is an expert skill or knowledge held by the source delivering the behaviour change intervention.</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -924,13 +924,13 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:010139</t>
+          <t>BCIO:010121</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>organisation source</t>
+          <t>knowledge or skill</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -940,118 +940,123 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>An organisation that is the bearer of a behaviour change intervention source role, such as voluntary, public or commercial organisations delivering a behaviour change intervention.</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>An expertise of person source that is knowledge or skills held in order to deliver the behaviour change intervention.</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>trained (if unclear whether pre-existing or acquired)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:015098</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>gender identity</t>
-        </is>
-      </c>
+          <t>BCIO:010125</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>acquired knowledge or skill</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Population</t>
+          <t>A knowledge or skill that is additional knowledge or skills supplied to the source to allow them to deliver the behaviour change intervention, including educational level and qualifications.</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:010111</t>
+          <t>BCIO:010122</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>female gender</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>pre-existing knowledge or skill</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>A gender identity as being female.</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>female, woman</t>
+          <t>A knowledge or skill that is already possessed by the source which allows them to deliver the behaviour change intervention, including educational level and qualifications.</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Bachelor’s degree, certification, accredited, qualified</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:010112</t>
+          <t>BCIO:010127</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>male gender</t>
-        </is>
-      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>affiliation to a formal group or organisation</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>A gender identity as being male.</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>male, man</t>
+          <t>A pre-existing knowledge or skill that is recognised through affiliation to a formal group or organisation.</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>member of British Psychological Society</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MF:0000016</t>
+          <t>BCIO:010126</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>amount of experience</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1062,27 +1067,32 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>An extended organism that is a member of the species Homo sapiens.</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A knowledge or skill that is the duration of experience in related domain held by person source.</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>full-day, 6 years</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:010002</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>person source</t>
-        </is>
-      </c>
+          <t>BCIO:010107</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>total number of people able to deliver intervention</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
@@ -1090,10 +1100,10 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>A person who is the bearer of a behaviour change intervention source role.</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
+          <t>A count data item that is the total number of providers that are available and able to deliver the intervention.</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1102,15 +1112,15 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:010095</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>family member</t>
-        </is>
-      </c>
+          <t>BCIO:010106</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>number of people delivering intervention to each participant</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
@@ -1118,10 +1128,10 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>A person who is a member of a group of persons united by blood, or by marriage or other legal arrangement, or by self-identity as belonging to the same family.</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
+          <t>A count data item that is the number of providers that an individual participant in the intervention encounters.</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1130,163 +1140,138 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:010098</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
+          <t>BCIO:010000</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>behaviour change intervention source</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>sibling relationship</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>A family member that is a family relationship between two persons with at least one shared parent.</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>brother, sister, step-brother, step-sister</t>
+          <t>A role played by a person, population or organisation that provides a BCI.</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:010099</t>
+          <t>BCIO:010138</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>child relationship</t>
-        </is>
-      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>organisational source role</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>A family member that is an offspring relationship from a person to their parent.</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>daughter, son, step-daughter, step-son</t>
+          <t>A BCI source role that is borne by an organisation.</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:010097</t>
+          <t>BCIO:010001</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>spouse or partner</t>
-        </is>
-      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>person source role</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>A family member that is an individual who is married or in a committed relationship with another individual.</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>boyfriend, girlfriend, partner, fiance, wife, husband</t>
+          <t>A behaviour change intervention source role that inheres in a person.</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:010096</t>
+          <t>BCIO:010134</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>parent or guardian</t>
-        </is>
-      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>source involved in development of intervention</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>A family member that is a mother, father or legal carer of a child.</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>mother, father, step-mother, step-father, guardian</t>
+          <t>A BCI source that is involved in the development of intervention content.</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:050842</t>
+          <t>BCIO:010135</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>role model for a person</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>source involved in co-production of intervention</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>A &lt;person&gt; that influences a recipient by being perceived to be similar or admired.</t>
+          <t>A source involved in development of intervention that has developed the intervention content in collaboration with key stakeholders such as patients or community members.</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>This class lies at the intersection between a person and their environment and is defined from the perspective of the person.</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1295,15 +1280,15 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:010000</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>behaviour change intervention source</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
+          <t>BCIO:010133</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>source role related to intervention</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
@@ -1311,10 +1296,10 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>A role played by a person, population or organisation that provides a BCI.</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
+          <t>A BCI source whose occupational or voluntary role is focused on delivery of the behaviour change intervention.</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1323,15 +1308,15 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:010138</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>organisational source role</t>
-        </is>
-      </c>
+          <t>BCIO:010084</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>student or trainee role</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
@@ -1339,10 +1324,10 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>A BCI source role that is borne by an organisation.</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
+          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1351,13 +1336,13 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:010133</t>
+          <t>BCIO:010086</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>source role related to intervention</t>
+          <t>school student or trainee</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -1367,10 +1352,10 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>A BCI source whose occupational or voluntary role is focused on delivery of the behaviour change intervention.</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
+          <t>A student or trainee that is currently learning at a primary or secondary education level in an institutional, organised setting.</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1379,13 +1364,13 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:010001</t>
+          <t>BCIO:010087</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>person source role</t>
+          <t>vocational training student or trainee</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -1395,10 +1380,10 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>A behaviour change intervention source role that inheres in a person.</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
+          <t>A student or trainee that is currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1407,13 +1392,13 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:010134</t>
+          <t>BCIO:010088</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>source involved in development of intervention</t>
+          <t>higher education student or trainee</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -1423,26 +1408,31 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>A BCI source that is involved in the development of intervention content.</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A student or trainee that is currently learning on an advanced educational programme in a university, college or professional school.</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>completing a university bachelor's or master's course of study, medical school or other professional school.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:010135</t>
+          <t>BCIO:010089</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>source involved in co-production of intervention</t>
+          <t>undergraduate student or trainee</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -1451,214 +1441,214 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>A source involved in development of intervention that has developed the intervention content in collaboration with key stakeholders such as patients or community members.</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A higher education student or trainee that is currently studying for an undergraduate degree.</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>undergraduate student</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:010084</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>student or trainee role</t>
-        </is>
-      </c>
+          <t>BCIO:010090</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>graduate student or trainee</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A higher education student or trainee that has completed an undergraduate degree.</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>graduate student</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:010087</t>
+          <t>BCIO:010091</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>vocational training student or trainee</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>masters student or trainee</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A higher education student or trainee that is currently studying for a Masters degree.</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>MSc student, Masters student</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:010088</t>
+          <t>BCIO:010092</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>higher education student or trainee</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>doctoral student or trainee</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning on an advanced educational programme in a university, college or professional school.</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>completing a university bachelor's or master's course of study, medical school or other professional school.</t>
+          <t>A higher education student or trainee that is currently studying for a doctoral degree.</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>PhD student</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:010089</t>
+          <t>BCIO:010085</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>undergraduate student or trainee</t>
-        </is>
-      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>informal education student or trainee</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that is currently studying for an undergraduate degree.</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>undergraduate student</t>
+          <t>A student or trainee that is currently learning in a non-institutional setting.</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:010090</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
+          <t>BCIO:010003</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>personal role of source</t>
+        </is>
+      </c>
       <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>graduate student or trainee</t>
-        </is>
-      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that has completed an undergraduate degree.</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>graduate student</t>
+          <t>A role that inheres in a person source.</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:010092</t>
+          <t>BCIO:010094</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>doctoral student or trainee</t>
-        </is>
-      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>relatedness between person source and the target population</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that is currently studying for a doctoral degree.</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>PhD student</t>
+          <t>A personal role of source that is realised in some relationship to the characteristics of the intervention participants.</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:010091</t>
+          <t>BCIO:010104</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>masters student or trainee</t>
+          <t>peer</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -1667,43 +1657,38 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that is currently studying for a Masters degree.</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>MSc student, Masters student</t>
+          <t>A relatedness between person source and the target population that is descried as matched to intervention recipients on the basis of ‘peerness’ – age, social status, gender, shared experience, shared health status etc.</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:010086</t>
+          <t>BCIO:010103</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>school student or trainee</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>employer</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning at a primary or secondary education level in an institutional, organised setting.</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
+          <t>A relatedness between person source and the target population that is a person which hires the services of the participant.</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1712,26 +1697,26 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:010085</t>
+          <t>BCIO:010101</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>informal education student or trainee</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>friend</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning in a non-institutional setting.</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
+          <t>A relatedness between person source and the target population that is a person whom the participant knows, likes and trusts, typically exclusive of sexual or family relations.</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1740,75 +1725,75 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:010003</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>personal role of source</t>
-        </is>
-      </c>
+          <t>BCIO:010100</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>carer</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>A role that inheres in a person source.</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A relatedness between person source and the target population that is an individual who cares, unpaid, for a friend or family member who, due to illness or disability, requires support in their daily life activities.</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>carer</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:010004</t>
+          <t>BCIO:010105</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>occupational role of source</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>embedded in participants’ community</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>A personal role of source that is realised by doing a specified type of work or working in a specified way.</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>Interventionist, facilitator, study staff</t>
+          <t>A relatedness between person source and the target population that is a source who is known and working to deliver intervention in own community.</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:010082</t>
+          <t>BCIO:010102</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>armed forces occupation</t>
+          <t>colleague</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -1817,64 +1802,59 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>An occupational role that includes all jobs held by members of the armed forces.</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>Admiral, Air commodore, Air marshal, Airman, Brigadier (army), Bombardier, Captain (air force), Captain (army), Captain (navy), Colonel (army), Corporal,  Field marshal, Flight lieutenant (air force), Flying officer (military), General (army), Gunner, Group captain, (air force), Lieutenant (army), Major (army), Midshipman, Naval officer (military) , Navy commander, Officer cadet (armed forces), Paratrooper, Rifleman, Sergeant (army), Second lieutenant (army), Seaman, Squadron leader, Sublieutenant (navy), Wing commander</t>
+          <t>A relatedness between person source and the target population that is a person with whom the participant works in a profession or business.</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:010081</t>
+          <t>BCIO:010004</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>elementary occupation</t>
-        </is>
-      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>occupational role of source</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>An occupational role that involves the performance of simple and routine tasks which may require the use of hand-held tools and considerable physical effort.</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>Cleaner, Labourer, Food Preparation Assistant, Street and Related Services Worker, Street Vendor (excluding Food), Refuse Worker</t>
+          <t>A personal role of source that is realised by doing a specified type of work or working in a specified way.</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Interventionist, facilitator, study staff</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:010067</t>
+          <t>BCIO:010082</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>clerical support worker</t>
+          <t>armed forces occupation</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -1883,31 +1863,31 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>An occupational role that records, organizes, stores, computes and retrieves information, and performs a number of clerical duties in connection with money-handling operations, travel arrangements, requests for information, and appointments.</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>General and Keyboard Clerk, customers Services Clerk, Numerical and Material Recording Clerk</t>
+          <t>An occupational role that includes all jobs held by members of the armed forces.</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Admiral, Air commodore, Air marshal, Airman, Brigadier (army), Bombardier, Captain (air force), Captain (army), Captain (navy), Colonel (army), Corporal,  Field marshal, Flight lieutenant (air force), Flying officer (military), General (army), Gunner, Group captain, (air force), Lieutenant (army), Major (army), Midshipman, Naval officer (military) , Navy commander, Officer cadet (armed forces), Paratrooper, Rifleman, Sergeant (army), Second lieutenant (army), Seaman, Squadron leader, Sublieutenant (navy), Wing commander</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:010079</t>
+          <t>BCIO:010068</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>plant and machine operator</t>
+          <t>services and sales worker</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -1916,52 +1896,52 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>An occupational role that operates and monitors industrial and agricultural machinery and equipment on the spot or by remote control, or drives and operates trains, motor vehicles and mobile machinery and equipment.</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>Stationary Plant and Machine Operator, Driver, Mobile Plant Operator</t>
+          <t>An occupational role that provides personal or protective services related to travel, house-keeping, catering, personal care, protection against fire and unlawful acts, or sells goods in retail or markets.</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:010006</t>
+          <t>BCIO:010076</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>professional</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>protective services worker</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>An occupational role that works in knowledge building activities, applies scientific or artistic concepts and theories or teaches about the foregoing in a systematic manner.</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A services and sales worker that protects individuals and property against fire and other hazards, maintain law and order and enforce laws and regulations.</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Firefighter, Police officer, Prison guard, Security guard, Offender manager</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:010008</t>
+          <t>BCIO:010069</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -1969,7 +1949,7 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>health professional</t>
+          <t>personal services worker</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -1977,57 +1957,57 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>A professional that improves or develops concepts, theories and operational method, and applied scientific knowledge relating to medicine, nursing, dentistry, veterinary medicine, pharmacy, and promotion of health.</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>Health professional; Arts therapist, Chiropractor, Dance and movement therapist, Occupational therapist, Osteopath, Podiatrist, Recreational therapist, Health staff, Clinic staff</t>
+          <t>A services and sales worker that provides personal services related to travel, housekeeping, catering and hospitality, hairdressing and beauty treatment, animal care grooming and training, companionship and other services of a personal nature.</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Travel Attendant, Conductor, Guide, Cook, Waiter, Bartender, Hairdresser, Beautician, Housekeeping Supervisor, Astrologer, Fortune-teller, Valet, Undertaker, Embalmer, Pet Groomer, Animal Care Worker</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:010013</t>
+          <t>BCIO:010071</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>nursing professional</t>
-        </is>
-      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>personal care worker</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>A health professional that provides treatment, support and care services for people who are in need of nursing care due to the effects of ageing, injury, illness or other physical or mental impairment, or potential risks to health.</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>Clinical nurse consultant, District nurse, Nurse anaesthetist, Nurse educator, Nurse practitioner, Operating theatre nurse, Professional nurse, Public health nurse, Specialist nurse, Nursing Counsellor, Study Nurse</t>
+          <t>A services and sales worker that provides care, supervision and assistance for children, patients and elderly, convalescent or disabled persons in institutional and residential settings.</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Personal carer</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:010014</t>
+          <t>BCIO:010072</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -2036,31 +2016,31 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>midwifery professional</t>
+          <t>child care worker</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>A health professional that plans, manages, provides and evaluates midwifery care services before, during and after pregnancy and childbirth. They provide delivery care for reducing health risks to women and newborn children, working autonomously or in teams with other health care providers.</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>Midwife</t>
+          <t>A personal care worker that provides care and supervision for children in non-domestic settings.</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Babysitter, Child care worker, Creche ayah, Family day care worker, Nanny, Out of school hours care worker</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:010015</t>
+          <t>BCIO:010075</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -2069,31 +2049,31 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>traditional and complementary medicine professional</t>
+          <t>home-based personal care worker</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>A health professional that examines patients, prevents and treats illness, disease, injury and other physical and mental impairments and maintains general health in humans. They do this by applying knowledge, skills and practices acquired through extensive study of the theories, beliefs and experiences originating in specific cultures.</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>Acupuncturist, Ayurvedic practitioner,  Chinese herbal medicine practitioner, Homeopath, Naturopath, Unani practitioner</t>
+          <t>A personal care worker that provide routine personal care and assistance with activities of daily living to persons who are in need of such care due to effects of ageing, illness, injury, or other physical or mental conditions, in private homes and other independent residential settings.</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Home birth assistant, Home care aide, Nursing aide (home), Personal care provider</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:010017</t>
+          <t>BCIO:010074</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -2102,31 +2082,31 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>veterinarian</t>
+          <t>health care assistant</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>A health professional that diagnoses, prevents and treats diseases, injuries and dysfunctions of animals.</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>Animal pathologist, Veterinarian, Veterinary epidemiologist, Veterinary intern, Veterinary surgeon</t>
+          <t>A personal care worker that provides direct personal care and assistance with activities of daily living to patients and residents in a variety of health care settings, working  in implementation of established care plans and practices, and under the direct supervision of medical, nursing or other health professionals or associate professionals.</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Nursing aide (clinic or hospital), Patient care assistant, Psychiatric aid</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:010021</t>
+          <t>BCIO:010073</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -2135,257 +2115,252 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>physiotherapist</t>
+          <t>teachers’ aide</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>A health professional  that assesses, plans and implements rehabilitative programmes that improve or restore human motor functions, maximize movement ability, relieve pain syndromes, and treat or prevent physical challenges associated with injuries, diseases and other impairments.</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>Geriatric physical therapist, Manipulative therapist, Orthopaedic physical therapist, Paediatric physical therapist, Physical therapist, Physiotherapist</t>
+          <t>A personal care worker that performs non-teaching duties to assist teaching staff, and provides care and supervision for children in schools and pre-schools.</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Pre-school assistant, Teacher’s assistant</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:010022</t>
+          <t>BCIO:010070</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>dietician and nutritionist</t>
-        </is>
-      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>sales worker</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>A health professional  that assesses, plans and implements programmes to enhance the impact of food and nutrition on human health.</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>Clinical dietician, Food service dietician, Nutritionist, Public health nutritionist, Sports nutritionist</t>
+          <t>A services and sales worker that demonstrates goods in wholesale or retail shops, at stalls and markets, door to door, via telephone or customer contact centres. They may record and accept payment for goods and services purchased, and may operate small retail outlets.</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Street Salesperson, Market Salesperson, Shop Salesperson, Cashier, Ticket Clerk, Model, Sales Demonstrator, Door-to-door Salesperson, Contact Centre Salesperson, Service Station Attendant, Food Service Counter Attendant</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:010019</t>
+          <t>BCIO:010080</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>assembler</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>pharmacist</t>
-        </is>
-      </c>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>A health professional that stores, preserves, compounds and dispenses medicinal products and counsel on the proper use and adverse effects of drugs and medicines following prescriptions issued by medical doctors and other health professionals.</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>Dispensing chemist, Hospital pharmacist, Industrial pharmacist, Retail pharmacist</t>
+          <t>An occupational role that assembles products from component parts according to strict specifications and procedures.</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:010023</t>
+          <t>BCIO:010067</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>clerical support worker</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>audiologist and speech therapist</t>
-        </is>
-      </c>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>A health professional  that evaluates, manages and treats physical disorders affecting human hearing, speech, communication and swallowing.</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>Audiologist, Language therapist, Speech pathologist, Speech therapist</t>
+          <t>An occupational role that records, organizes, stores, computes and retrieves information, and performs a number of clerical duties in connection with money-handling operations, travel arrangements, requests for information, and appointments.</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>General and Keyboard Clerk, customers Services Clerk, Numerical and Material Recording Clerk</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:010009</t>
+          <t>BCIO:010083</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>researcher</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>medical doctor</t>
-        </is>
-      </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>A health professional that studies, diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans through the application of modern medicine. They plan, supervise and evaluate the implementation of care and treatment plans by other health care providers, and conduct medical education and research activities.</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>District medical doctor-therapist, family medical practitioner, general practitioner, medical doctor (general), medical officer (general), physician (general), primary health care physician, resident medical officer specializing in general practice</t>
+          <t>An occupational role that is a researcher but unclear what discipline.</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>researcher, research assistant, investigator</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:010010</t>
+          <t>BCIO:010078</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>craft and related trades worker</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>generalist medical practitioner</t>
-        </is>
-      </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments and maintains general health in humans through application of modern medicine. They do not limit their practice to certain disease categories or methods of treatment, and may assume responsibility for the provision of continuing and comprehensive medical care to individuals, families and communities.</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>Primary care physician, family doctor, GP</t>
+          <t>An occupational role that applies specific technical and practical knowledge and skills to construct and maintain buildings, machinery, equipment or tools, carries out printing work, and produces or processes foodstuffs, textiles and wooden, metal and other articles, including handicraft goods.</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Building Trade Worker, Metal Workers, Machinery Worker, Handicraft Worker, Printing Worker, Electrical Equipment Installers and Repairer, Electronics and Telecommunications Installer and Repairer, Food Processing Worker, Woodworker, Tobacco Product Maker</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:010011</t>
+          <t>BCIO:010006</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>professional</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>specialist medical practitioner</t>
-        </is>
-      </c>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans, using specialized testing, diagnostic, medical, surgical, physical and psychiatric techniques through application of the principles and procedures of modern medicine. They specialize in certain disease categories, types of patient or methods of treatment and may conduct medical education and research in their chosen areas of specialization.</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>Anaesthetist, Cardiologist, Emergency medicine specialist, Gynaecologist, Obstetrician, Ophthalmologist, Paediatrician, Pathologist, Preventive medicine specialist, Psychiatrist, Radiation oncologist, Radiologist, Resident medical officer in specialist training, Specialist medical practitioner (public health), Specialist physician (internal medicine), Specialist physician (nuclear medicine), Surgeon</t>
+          <t>An occupational role that works in knowledge building activities, applies scientific or artistic concepts and theories or teaches about the foregoing in a systematic manner.</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:010012</t>
+          <t>BCIO:010008</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>nursing and midwifery professional</t>
-        </is>
-      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>health professional</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>A health professional that provides treatment and care services for people who are physically or mentally ill, disabled or infirm, and those with potential risks to health including before, during and after childbirth. They assume responsibility for the planning, management and evaluation of the care of patients, including the supervision of other health care workers, working autonomously or in teams with medical doctors and others in the practical application of preventive and curative measures.</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A professional that improves or develops concepts, theories and operational method, and applied scientific knowledge relating to medicine, nursing, dentistry, veterinary medicine, pharmacy, and promotion of health.</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Health professional; Arts therapist, Chiropractor, Dance and movement therapist, Occupational therapist, Osteopath, Podiatrist, Recreational therapist, Health staff, Clinic staff</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:010020</t>
+          <t>BCIO:010016</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
@@ -2394,31 +2369,31 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>environmental and occupational health and hygiene professional</t>
+          <t>paramedical practitioner</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>A health professional that assesses, plans and implements programmes to recognize, monitor and control environmental factors that can potentially affect human health, to ensure safe and healthy working conditions and to prevent disease or injury caused by chemical, physical, radiological and biological agents or ergonomic factors.</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>Environmental health officer, Occupational health and safety adviser, Occupational hygienist, Radiation protection expert</t>
+          <t>A health professional that provides advisory, diagnostic, curative and preventive medical services more limited in scope and complexity than those carried out by medical doctors. They work autonomously or with limited supervision of medical doctors, and apply advanced clinical procedures for treating and preventing diseases, injuries and other physical or mental impairments common to specific communities.</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Advanced care paramedic, Clinical officer (paramedical), Feldscher, Primary care paramedic, Surgical technician</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:010016</t>
+          <t>BCIO:010020</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -2427,31 +2402,31 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>paramedical practitioner</t>
+          <t>environmental and occupational health and hygiene professional</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>A health professional that provides advisory, diagnostic, curative and preventive medical services more limited in scope and complexity than those carried out by medical doctors. They work autonomously or with limited supervision of medical doctors, and apply advanced clinical procedures for treating and preventing diseases, injuries and other physical or mental impairments common to specific communities.</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>Advanced care paramedic, Clinical officer (paramedical), Feldscher, Primary care paramedic, Surgical technician</t>
+          <t>A health professional that assesses, plans and implements programmes to recognize, monitor and control environmental factors that can potentially affect human health, to ensure safe and healthy working conditions and to prevent disease or injury caused by chemical, physical, radiological and biological agents or ergonomic factors.</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Environmental health officer, Occupational health and safety adviser, Occupational hygienist, Radiation protection expert</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:010018</t>
+          <t>BCIO:010021</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -2460,31 +2435,31 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>dentist</t>
+          <t>physiotherapist</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>A health professional that diagnoses treats and prevents diseases, injuries and abnormalities of the teeth, mouth, jaws and associated tissues by applying the principles and procedures of modern dentistry.</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>Dental practitioner, Dental surgeon, Dentist, Endodontist, Oral and maxillofacial surgeon, Oral pathologist, Orthodontist, Paedodontist, Periodontist, Prosthodontist, Stomatologist</t>
+          <t>A health professional  that assesses, plans and implements rehabilitative programmes that improve or restore human motor functions, maximize movement ability, relieve pain syndromes, and treat or prevent physical challenges associated with injuries, diseases and other impairments.</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Geriatric physical therapist, Manipulative therapist, Orthopaedic physical therapist, Paediatric physical therapist, Physical therapist, Physiotherapist</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:010024</t>
+          <t>BCIO:010022</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
@@ -2493,64 +2468,64 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>optometrist and ophthalmic optician</t>
+          <t>dietician and nutritionist</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>A health professional  that provides diagnosis, management and treatment services for disorders of the eyes and visual system.</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>Ophthalmic optician , Optometrist, Orthoptist</t>
+          <t>A health professional  that assesses, plans and implements programmes to enhance the impact of food and nutrition on human health.</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Clinical dietician, Food service dietician, Nutritionist, Public health nutritionist, Sports nutritionist</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:010025</t>
+          <t>BCIO:010018</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>teaching professional</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>dentist</t>
+        </is>
+      </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>A professional that teaches the theory and practice of one or more disciplines at different educational levels.</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>Education Methods Specialist, Other Language Teacher, Information Technology Teacher, Private Tutor, School Counsellor, Student Advisor</t>
+          <t>A health professional that diagnoses treats and prevents diseases, injuries and abnormalities of the teeth, mouth, jaws and associated tissues by applying the principles and procedures of modern dentistry.</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Dental practitioner, Dental surgeon, Dentist, Endodontist, Oral and maxillofacial surgeon, Oral pathologist, Orthodontist, Paedodontist, Periodontist, Prosthodontist, Stomatologist</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:010027</t>
+          <t>BCIO:010012</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
@@ -2559,31 +2534,26 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>vocational education teacher</t>
+          <t>nursing and midwifery professional</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches or instructs vocational or occupational subjects in adult and further education institutions and to senior students in secondary schools and colleges.</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>Automotive technology instructor, Cosmetology instructor, Vocational education teacher</t>
+          <t>A health professional that provides treatment and care services for people who are physically or mentally ill, disabled or infirm, and those with potential risks to health including before, during and after childbirth. They assume responsibility for the planning, management and evaluation of the care of patients, including the supervision of other health care workers, working autonomously or in teams with medical doctors and others in the practical application of preventive and curative measures.</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:010031</t>
+          <t>BCIO:010014</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -2592,31 +2562,31 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>special needs teacher</t>
+          <t>midwifery professional</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches children, young persons or adults with physical or intellectual special needs.</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>Learning disabilities special education teacher, Learning support teacher, Remedial teacher, Teacher of gifted children, Teacher of the hearing impaired, Teacher of the sight impaired</t>
+          <t>A health professional that plans, manages, provides and evaluates midwifery care services before, during and after pregnancy and childbirth. They provide delivery care for reducing health risks to women and newborn children, working autonomously or in teams with other health care providers.</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Midwife</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:010028</t>
+          <t>BCIO:010015</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
@@ -2625,31 +2595,31 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>secondary education teacher</t>
+          <t>traditional and complementary medicine professional</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches one or more subjects at secondary education level.</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>Secondary school teacher, High school teacher</t>
+          <t>A health professional that examines patients, prevents and treats illness, disease, injury and other physical and mental impairments and maintains general health in humans. They do this by applying knowledge, skills and practices acquired through extensive study of the theories, beliefs and experiences originating in specific cultures.</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Acupuncturist, Ayurvedic practitioner,  Chinese herbal medicine practitioner, Homeopath, Naturopath, Unani practitioner</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:010026</t>
+          <t>BCIO:010009</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
@@ -2658,92 +2628,97 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>university and higher education teacher</t>
+          <t>medical doctor</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>A teaching professional that prepares and delivers lectures and conduct tutorials in one or more subjects within a prescribed course of study at a university or other higher educational institution. They conduct research, and prepare scholarly papers and books.</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>Higher education lecturer, Professor, University lecturer, University tutor</t>
+          <t>A health professional that studies, diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans through the application of modern medicine. They plan, supervise and evaluate the implementation of care and treatment plans by other health care providers, and conduct medical education and research activities.</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>District medical doctor-therapist, family medical practitioner, general practitioner, medical doctor (general), medical officer (general), physician (general), primary health care physician, resident medical officer specializing in general practice</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:010029</t>
+          <t>BCIO:010010</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>primary school teacher</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>generalist medical practitioner</t>
+        </is>
+      </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches teach a range of subjects at the primary education level.</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments and maintains general health in humans through application of modern medicine. They do not limit their practice to certain disease categories or methods of treatment, and may assume responsibility for the provision of continuing and comprehensive medical care to individuals, families and communities.</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Primary care physician, family doctor, GP</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:010030</t>
+          <t>BCIO:010011</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>early childhood educator</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>specialist medical practitioner</t>
+        </is>
+      </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>A teaching professional that promotes the social, physical, and intellectual development of children below primary school age through the provision of educational and play activities.</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>Early childhood educator, Pre-school teacher</t>
+          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans, using specialized testing, diagnostic, medical, surgical, physical and psychiatric techniques through application of the principles and procedures of modern medicine. They specialize in certain disease categories, types of patient or methods of treatment and may conduct medical education and research in their chosen areas of specialization.</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Anaesthetist, Cardiologist, Emergency medicine specialist, Gynaecologist, Obstetrician, Ophthalmologist, Paediatrician, Pathologist, Preventive medicine specialist, Psychiatrist, Radiation oncologist, Radiologist, Resident medical officer in specialist training, Specialist medical practitioner (public health), Specialist physician (internal medicine), Specialist physician (nuclear medicine), Surgeon</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:010032</t>
+          <t>BCIO:010013</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -2752,31 +2727,31 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>music teacher</t>
+          <t>nursing professional</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches students in the practice, theory and performance of music in private or small group tuition or within mainstream educational institutions.</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>Guitar teacher (private tuition), Piano teacher (private tuition), Singing teacher (private tuition), Violin teacher (private tuition)</t>
+          <t>A health professional that provides treatment, support and care services for people who are in need of nursing care due to the effects of ageing, injury, illness or other physical or mental impairment, or potential risks to health.</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Clinical nurse consultant, District nurse, Nurse anaesthetist, Nurse educator, Nurse practitioner, Operating theatre nurse, Professional nurse, Public health nurse, Specialist nurse, Nursing Counsellor, Study Nurse</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:010033</t>
+          <t>BCIO:010017</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
@@ -2785,92 +2760,97 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>arts teacher</t>
+          <t>veterinarian</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>A teaching professional  that teaches students in the practice, theory and performance of dance, drama, visual and other arts (excluding music) in private or small group tuition or within mainstream educational institutions.</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>Dance teacher (private tuition), Drama teacher (private tuition), Painting teacher (private tuition), Sculpture teacher (private tuition)</t>
+          <t>A health professional that diagnoses, prevents and treats diseases, injuries and dysfunctions of animals.</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Animal pathologist, Veterinarian, Veterinary epidemiologist, Veterinary intern, Veterinary surgeon</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:010007</t>
+          <t>BCIO:010023</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>science and engineering professional</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>audiologist and speech therapist</t>
+        </is>
+      </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>A professional that conducts research, improves or develops concepts, theories and operational methods or applies scientific knowledge.</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>Science Professional, Mathematician, Actuary, Statistician, Life Science Professional, Engineering Professional, Electrotechnology Engineer, Architect, Planner, Surveyor, Designer</t>
+          <t>A health professional  that evaluates, manages and treats physical disorders affecting human hearing, speech, communication and swallowing.</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Audiologist, Language therapist, Speech pathologist, Speech therapist</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:010044</t>
+          <t>BCIO:010024</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>technician and associate professional</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>optometrist and ophthalmic optician</t>
+        </is>
+      </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>A professional that performs technical and related tasks connected with research and the application of scientific or artistic concepts and operational methods, and government or business regulations.</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A health professional  that provides diagnosis, management and treatment services for disorders of the eyes and visual system.</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Ophthalmic optician , Optometrist, Orthoptist</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:010045</t>
+          <t>BCIO:010019</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
@@ -2879,395 +2859,384 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>health associate professional</t>
+          <t>pharmacist</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>A technician and associate professional that performs technical and practical tasks to support diagnosis and treatment of illness, disease, injuries and impairments in humans or animals, and supports the implementation of health care usually established by medical, veterinary, nursing and other health professionals.</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Veterinary Technician </t>
+          <t>A health professional that stores, preserves, compounds and dispenses medicinal products and counsel on the proper use and adverse effects of drugs and medicines following prescriptions issued by medical doctors and other health professionals.</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Dispensing chemist, Hospital pharmacist, Industrial pharmacist, Retail pharmacist</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:010053</t>
+          <t>BCIO:010007</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>science and engineering professional</t>
+        </is>
+      </c>
       <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>physiotherapy technician and assistant</t>
-        </is>
-      </c>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>A health associate professional that provides physical therapeutic treatments to patients in circumstances where functional movement is threatened by injury, disease or impairment. Therapies are usually provided according to rehabilitative plans established by a physiotherapist or other health professional.</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>Acupressure therapist, Electrotherapist, Hydrotherapist, Massage therapist, Physical rehabilitation technician, Physiotherapy technician, Shiatsu therapist</t>
+          <t>A professional that conducts research, improves or develops concepts, theories and operational methods or applies scientific knowledge.</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Science Professional, Mathematician, Actuary, Statistician, Life Science Professional, Engineering Professional, Electrotechnology Engineer, Architect, Planner, Surveyor, Designer</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:010046</t>
+          <t>BCIO:010025</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>teaching professional</t>
+        </is>
+      </c>
       <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>medical and pharmaceutical technician</t>
-        </is>
-      </c>
+      <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>A health associate professional that performs technical tasks to assist in diagnosis and treatment of illness, disease, injuries and impairments.</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>Medical imaging and therapeutic equipment technician, Medical and Pathology laboratory technician, Pharmaceutical technician, Medical and dental prosthetic technician</t>
+          <t>A professional that teaches the theory and practice of one or more disciplines at different educational levels.</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Education Methods Specialist, Other Language Teacher, Information Technology Teacher, Private Tutor, School Counsellor, Student Advisor</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:010056</t>
+          <t>BCIO:010026</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>ambulance worker</t>
-        </is>
-      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>university and higher education teacher</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>A health associate professional that provides emergency health care to patients who are injured, sick, infirm or otherwise physically or mentally impaired prior to and during transport to medical facilities.</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>Ambulance officer, Ambulance paramedic, Emergency medical technician, Emergency paramedic</t>
+          <t>A teaching professional that prepares and delivers lectures and conduct tutorials in one or more subjects within a prescribed course of study at a university or other higher educational institution. They conduct research, and prepare scholarly papers and books.</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Higher education lecturer, Professor, University lecturer, University tutor</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:010055</t>
+          <t>BCIO:010029</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>environmental and occupational health inspector and associate</t>
-        </is>
-      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>primary school teacher</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>A health associate professional that investigates the implementation of rules and regulations relating to environmental factors that may affect human health, safety in the 
-workplace, and safety of processes for the production of goods and services. They may implement and evaluate programmes to restore or improve safety and sanitary conditions under the supervision of a health professional.</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>Food sanitation and safety inspector, Health inspector, Occupational health and safety inspector, Pollution inspector, Product safety inspector, Sanitarian, Sanitary inspector</t>
+          <t>A teaching professional that teaches teach a range of subjects at the primary education level.</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BCIO:010050</t>
+          <t>BCIO:010032</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>traditional and complementary medicine associate professional</t>
-        </is>
-      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>music teacher</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>A health associate professional that prevents and treats human physical and mental illnesses, disorders and injuries using herbal and other therapies based on theories, beliefs and experiences originating in specific cultures. They administer treatments using traditional techniques and medicaments, either acting independently or according to therapeutic care plans established by a traditional medicine or other health professional.</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>Acupuncture technician, Ayurvedic technician, Bonesetter, Herbalist , Homeopathy technician, Scraping and cupping therapist, Village healer, Witch doctor</t>
+          <t>A teaching professional that teaches students in the practice, theory and performance of music in private or small group tuition or within mainstream educational institutions.</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Guitar teacher (private tuition), Piano teacher (private tuition), Singing teacher (private tuition), Violin teacher (private tuition)</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BCIO:010052</t>
+          <t>BCIO:010028</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>community health worker</t>
-        </is>
-      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>secondary education teacher</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>A health associate professional that provides health education, referral and follow-up, case management, basic preventive health care and home visiting services to specific communities. They provide support and assistance to individuals and families in navigating the health and social services system.</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>Community health aide, Community health promoter, Community health worker, Village health worker, outreach worker, health worker</t>
+          <t>A teaching professional that teaches one or more subjects at secondary education level.</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Secondary school teacher, High school teacher</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BCIO:010051</t>
+          <t>BCIO:010030</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>dental assistant and therapist</t>
-        </is>
-      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>early childhood educator</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>A health associate professional that provides basic dental care services for the prevention and treatment of diseases and disorders of the teeth and mouth, according to care plans and procedures established by a dentist or other oral health professional.</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>Dental assistant, Dental hygienist , Dental therapist</t>
+          <t>A teaching professional that promotes the social, physical, and intellectual development of children below primary school age through the provision of educational and play activities.</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Early childhood educator, Pre-school teacher</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:010054</t>
+          <t>BCIO:010033</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>medical assistant</t>
-        </is>
-      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>arts teacher</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>A health associate professional that performs basic clinical and administrative tasks to support patient care under the direct supervision of a medical practitioner or other health professional.</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>Clinical assistant, Medical assistant, Ophthalmic assistant</t>
+          <t>A teaching professional  that teaches students in the practice, theory and performance of dance, drama, visual and other arts (excluding music) in private or small group tuition or within mainstream educational institutions.</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Dance teacher (private tuition), Drama teacher (private tuition), Painting teacher (private tuition), Sculpture teacher (private tuition)</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BCIO:010047</t>
+          <t>BCIO:010031</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>nursing and midwifery associate professional</t>
-        </is>
-      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>special needs teacher</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>A health associate professional that provides basic nursing and personal care for people who are physically or mentally ill, disabled or infirm, and for others in need of care due to potential risks to health including before, during and after childbirth. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing, midwifery and other health professionals.</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>Practice assistant, Quit Smoking Counsellor, Health educator, Dispensing Optician, Information Technician</t>
+          <t>A teaching professional that teaches children, young persons or adults with physical or intellectual special needs.</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Learning disabilities special education teacher, Learning support teacher, Remedial teacher, Teacher of gifted children, Teacher of the hearing impaired, Teacher of the sight impaired</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:010049</t>
+          <t>BCIO:010027</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>vocational education teacher</t>
+        </is>
+      </c>
       <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>midwifery associate professional</t>
-        </is>
-      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>A nursing and midwifery associate professional that provides basic health care and advice before, during and after pregnancy and childbirth. They implement care, treatment and referral plans usually established by medical, midwifery and other health professionals.</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>Assistant midwife, Traditional midwife</t>
+          <t>A teaching professional that teaches or instructs vocational or occupational subjects in adult and further education institutions and to senior students in secondary schools and colleges.</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Automotive technology instructor, Cosmetology instructor, Vocational education teacher</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:010048</t>
+          <t>BCIO:010044</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>technician and associate professional</t>
+        </is>
+      </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>nursing associate professional</t>
-        </is>
-      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>A nursing and midwifery associate professional that provides basic nursing and personal care for people in need of such care due to effects of ageing, illness, injury, or other physical or mental impairment. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing and other health professionals.</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>Assistant nurse, Associate professional nurse, Enrolled nurse, Practical nurse</t>
+          <t>A professional that performs technical and related tasks connected with research and the application of scientific or artistic concepts and operational methods, and government or business regulations.</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:010060</t>
+          <t>BCIO:010066</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
@@ -3276,31 +3245,31 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
         <is>
-          <t>religious associate professional</t>
+          <t>information and communications technician</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>A technician and associate professional that provides support to ministers of religion or to a religious community, undertake religious works, preach and propagate the teachings of a particular religion and endeavour to improve well-being through the power of faith and spiritual advice.</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>Faith healer, Lay preacher, Monk, Nun</t>
+          <t>A technician and associate professional that provides support for the day to day running of computer systems, communication systems and networks, broadcast images and sound, telecommunication signals on land, sea or in aircraft.</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Information and Communications Technology Operations and User Support Technician, Telecommunications and Broadcasting Technician</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:010061</t>
+          <t>BCIO:010057</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
@@ -3309,97 +3278,97 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
-          <t>sport and fitness worker</t>
+          <t>business and administration associate professional</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>A technician and associate professional that prepares for and competes in sporting events for financial gain, trains amateur and professional sportsmen and women to enhance performance, promotes participation and standards in sport, organises and officiates sporting events, or provides instruction, training and supervision for various forms of exercise and other recreational activities.</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>physical activity professional, exercise physiologist, exercise therapist, exercise specialist</t>
+          <t>A technician and associate professional that performs mostly technical tasks connected with the practical application of knowledge relating to financial accounting and transaction matters, mathematical calculations, human resource development, selling and buying financial instruments, specialized secretarial tasks and enforcing or applying government rules.</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Financial and Mathematical associate professional, Sales and purchasing agent, Broker, Business Services Agent, Administrative and Specialized Secretary, Government regulatory associate professional, Medical secretary</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BCIO:010062</t>
+          <t>BCIO:010065</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>athlete and sports player</t>
-        </is>
-      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>artistic, cultural and culinary associate professional</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>A sport and fitness worker that participates in competitive sporting events. They train and compete, either individually or as part of a team, in their chosen sport.</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>Athlete, Bicycle racer, Boxer, Chess player , Footballer, Golfer, Hockey player, Jockey, Poker player, Racing driver, Skier, Tennis player, Wrestler</t>
+          <t>A technician and associate professional that combines creative skills and technical and cultural knowledge in creative media or food.</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Photographer, Interior designers and decorator, Gallery, museum and library technician, Chef</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BCIO:010064</t>
+          <t>BCIO:010061</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>fitness and recreation instructor and programme leader</t>
-        </is>
-      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>sport and fitness worker</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>A sport and fitness worker that leads, guides and instructs groups and individuals in recreational, fitness or outdoor adventure activities.</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>Aerobics instructor, Fitness instructor, Horse riding instructor, Outdoor adventure guide, Personal trainer, Sailing instructor, Underwater diving instructor</t>
+          <t>A technician and associate professional that prepares for and competes in sporting events for financial gain, trains amateur and professional sportsmen and women to enhance performance, promotes participation and standards in sport, organises and officiates sporting events, or provides instruction, training and supervision for various forms of exercise and other recreational activities.</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>physical activity professional, exercise physiologist, exercise therapist, exercise specialist</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BCIO:010063</t>
+          <t>BCIO:010064</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -3409,96 +3378,96 @@
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>sports coach, instructor and official</t>
+          <t>fitness and recreation instructor and programme leader</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>A sport and fitness worker that works with amateur and professional sportspersons to enhance performance and encourage greater participation in sport, and organizes and officiates in sporting events according to established rules.</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>Referee, Ski instructor, Sports coach, Sports official, Swimming instructor</t>
+          <t>A sport and fitness worker that leads, guides and instructs groups and individuals in recreational, fitness or outdoor adventure activities.</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Aerobics instructor, Fitness instructor, Horse riding instructor, Outdoor adventure guide, Personal trainer, Sailing instructor, Underwater diving instructor</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BCIO:010057</t>
+          <t>BCIO:010063</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>business and administration associate professional</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>sports coach, instructor and official</t>
+        </is>
+      </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>A technician and associate professional that performs mostly technical tasks connected with the practical application of knowledge relating to financial accounting and transaction matters, mathematical calculations, human resource development, selling and buying financial instruments, specialized secretarial tasks and enforcing or applying government rules.</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>Financial and Mathematical associate professional, Sales and purchasing agent, Broker, Business Services Agent, Administrative and Specialized Secretary, Government regulatory associate professional, Medical secretary</t>
+          <t>A sport and fitness worker that works with amateur and professional sportspersons to enhance performance and encourage greater participation in sport, and organizes and officiates in sporting events according to established rules.</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Referee, Ski instructor, Sports coach, Sports official, Swimming instructor</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:010058</t>
+          <t>BCIO:010062</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>legal and related associate professional</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>athlete and sports player</t>
+        </is>
+      </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>A technician and associate professional that performs support functions in courts of law or in law offices, provide services related to such legal matters as insurance contracts, the transferring of property and the granting of loans and other financial transactions, or conduct investigations for clients.</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>Bailiff, Judge’s clerk, Conveyancing clerk, Court clerk, Justice of the peace, Law clerk, Legal assistant, Paralegal, Private detective, Title searcher</t>
+          <t>A sport and fitness worker that participates in competitive sporting events. They train and compete, either individually or as part of a team, in their chosen sport.</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Athlete, Bicycle racer, Boxer, Chess player , Footballer, Golfer, Hockey player, Jockey, Poker player, Racing driver, Skier, Tennis player, Wrestler</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCIO:010065</t>
+          <t>BCIO:010058</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
@@ -3507,31 +3476,31 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
-          <t>artistic, cultural and culinary associate professional</t>
+          <t>legal and related associate professional</t>
         </is>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>A technician and associate professional that combines creative skills and technical and cultural knowledge in creative media or food.</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>Photographer, Interior designers and decorator, Gallery, museum and library technician, Chef</t>
+          <t>A technician and associate professional that performs support functions in courts of law or in law offices, provide services related to such legal matters as insurance contracts, the transferring of property and the granting of loans and other financial transactions, or conduct investigations for clients.</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>Bailiff, Judge’s clerk, Conveyancing clerk, Court clerk, Justice of the peace, Law clerk, Legal assistant, Paralegal, Private detective, Title searcher</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BCIO:010059</t>
+          <t>BCIO:010060</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
@@ -3540,31 +3509,31 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
         <is>
-          <t>social work associate professional</t>
+          <t>religious associate professional</t>
         </is>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>A technician and associate professional that implements social assistance programmes and community services and assist clients to deal with personal and social problems.</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>Community development worker, Community services worker, Crisis intervention worker, Disability services worker, Family services worker, Life skills instructor, Mental health support worker, Welfare support worker, Women’s shelter supervisor, Youth services worker</t>
+          <t>A technician and associate professional that provides support to ministers of religion or to a religious community, undertake religious works, preach and propagate the teachings of a particular religion and endeavour to improve well-being through the power of faith and spiritual advice.</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>Faith healer, Lay preacher, Monk, Nun</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BCIO:010066</t>
+          <t>BCIO:010045</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
@@ -3573,224 +3542,230 @@
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
         <is>
-          <t>information and communications technician</t>
+          <t>health associate professional</t>
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>A technician and associate professional that provides support for the day to day running of computer systems, communication systems and networks, broadcast images and sound, telecommunication signals on land, sea or in aircraft.</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>Information and Communications Technology Operations and User Support Technician, Telecommunications and Broadcasting Technician</t>
+          <t>A technician and associate professional that performs technical and practical tasks to support diagnosis and treatment of illness, disease, injuries and impairments in humans or animals, and supports the implementation of health care usually established by medical, veterinary, nursing and other health professionals.</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Veterinary Technician </t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BCIO:010034</t>
+          <t>BCIO:010056</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>legal, social and cultural professional</t>
-        </is>
-      </c>
+      <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>ambulance worker</t>
+        </is>
+      </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>A professional that conducts research, improves or develops concepts, theories and operational methods, or applies knowledge relating to the law, social or cultural studies.</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A health associate professional that provides emergency health care to patients who are injured, sick, infirm or otherwise physically or mentally impaired prior to and during transport to medical facilities.</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Ambulance officer, Ambulance paramedic, Emergency medical technician, Emergency paramedic</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BCIO:010036</t>
+          <t>BCIO:010051</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>librarian, archivist and curator</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>dental assistant and therapist</t>
+        </is>
+      </c>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that develops and maintains collections of archives, libraries, museums, art galleries and similar establishments.</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>Librarian, Archivist,  Curator</t>
+          <t>A health associate professional that provides basic dental care services for the prevention and treatment of diseases and disorders of the teeth and mouth, according to care plans and procedures established by a dentist or other oral health professional.</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Dental assistant, Dental hygienist , Dental therapist</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BCIO:010040</t>
+          <t>BCIO:010052</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>religious professional</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>community health worker</t>
+        </is>
+      </c>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that functions  as a perpetuator of sacred traditions, practices and beliefs. They conduct religious services, celebrate or administer the rites of a religious faith or denomination, provide spiritual and moral guidance and perform other functions associated with the practice of a religion.</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>Bonze, Imam, Minister of religion, Poojari, Priest, Rabbi</t>
+          <t>A health associate professional that provides health education, referral and follow-up, case management, basic preventive health care and home visiting services to specific communities. They provide support and assistance to individuals and families in navigating the health and social services system.</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>Community health aide, Community health promoter, Community health worker, Village health worker, outreach worker, health worker</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BCIO:010041</t>
+          <t>BCIO:010050</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>author and journalist</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>traditional and complementary medicine associate professional</t>
+        </is>
+      </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that conceives and creates literary works, and interprets and communicates news and public affairs through the media.</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O103" t="inlineStr">
-        <is>
-          <t>Author, Writer, Journalist, Translator, News anchor</t>
+          <t>A health associate professional that prevents and treats human physical and mental illnesses, disorders and injuries using herbal and other therapies based on theories, beliefs and experiences originating in specific cultures. They administer treatments using traditional techniques and medicaments, either acting independently or according to therapeutic care plans established by a traditional medicine or other health professional.</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>Acupuncture technician, Ayurvedic technician, Bonesetter, Herbalist , Homeopathy technician, Scraping and cupping therapist, Village healer, Witch doctor</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BCIO:010042</t>
+          <t>BCIO:010046</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>linguist</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>medical and pharmaceutical technician</t>
+        </is>
+      </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that translates or interprets from one language into another.</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>Interpretator; other linguist</t>
+          <t>A health associate professional that performs technical tasks to assist in diagnosis and treatment of illness, disease, injuries and impairments.</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Medical imaging and therapeutic equipment technician, Medical and Pathology laboratory technician, Pharmaceutical technician, Medical and dental prosthetic technician</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BCIO:010037</t>
+          <t>BCIO:010055</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>social professional</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>environmental and occupational health inspector and associate</t>
+        </is>
+      </c>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that conducts research, improves or develops concepts, theories and operational methods or applies knowledge relating to psychology, sociology, philosophy, politics, economics, sociology, anthropology, history and other social sciences, or provides social services to meet the needs of individuals and families in a community.</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>Economist, Sociologist, Anthropologist, Philosopher, Historian, Political Scientist</t>
+          <t>A health associate professional that investigates the implementation of rules and regulations relating to environmental factors that may affect human health, safety in the 
+workplace, and safety of processes for the production of goods and services. They may implement and evaluate programmes to restore or improve safety and sanitary conditions under the supervision of a health professional.</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Food sanitation and safety inspector, Health inspector, Occupational health and safety inspector, Pollution inspector, Product safety inspector, Sanitarian, Sanitary inspector</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BCIO:010038</t>
+          <t>BCIO:010054</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
@@ -3800,30 +3775,30 @@
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr">
         <is>
-          <t>psychologist</t>
+          <t>medical assistant</t>
         </is>
       </c>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>A social professional that studies the mental processes and behaviour of human beings as individuals or in groups, and applies this knowledge to promote personal, social, educational or occupational adjustment and development.</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>Clinical psychologist, Counselling psychologist, Educational psychologist, Forensic psychologist, Health psychologist, Neuropsychologist, Organizational psychologist, Psychotherapist, Sport and exercise psychologist</t>
+          <t>A health associate professional that performs basic clinical and administrative tasks to support patient care under the direct supervision of a medical practitioner or other health professional.</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>Clinical assistant, Medical assistant, Ophthalmic assistant</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BCIO:010039</t>
+          <t>BCIO:010047</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
@@ -3833,284 +3808,289 @@
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
-          <t>social work and counselling professional</t>
+          <t>nursing and midwifery associate professional</t>
         </is>
       </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>A social professional that provides advice and guidance to individuals, families, groups, communities and organizations in response to social and personal difficulties. They assist clients to develop skills and access resources and support services needed to respond to issues arising from unemployment, poverty, disability, addiction, criminal and delinquent behaviour, marital and other problems.</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>Counsellor, Addictions counsellor, Bereavement counsellor, Child and youth counsellor, District social welfare officer, Family counsellor, Marriage counsellor, Parole officer, Probation officer, Sexual assault counsellor, Social worker, Women’s welfare organizer</t>
+          <t>A health associate professional that provides basic nursing and personal care for people who are physically or mentally ill, disabled or infirm, and for others in need of care due to potential risks to health including before, during and after childbirth. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing, midwifery and other health professionals.</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Practice assistant, Quit Smoking Counsellor, Health educator, Dispensing Optician, Information Technician</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BCIO:010035</t>
+          <t>BCIO:010048</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>legal professional</t>
-        </is>
-      </c>
+      <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>nursing associate professional</t>
+        </is>
+      </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that conducts research on legal problems, advises clients on legal aspects of problems, pleads cases or conducts prosecutions in courts of law, presides over judicial proceedings in courts of law and draft laws and regulations.</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O108" t="inlineStr">
-        <is>
-          <t>Lawyer, Judge, Coroner</t>
+          <t>A nursing and midwifery associate professional that provides basic nursing and personal care for people in need of such care due to effects of ageing, illness, injury, or other physical or mental impairment. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing and other health professionals.</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>Assistant nurse, Associate professional nurse, Enrolled nurse, Practical nurse</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BCIO:010043</t>
+          <t>BCIO:010049</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>creative and performing artist</t>
-        </is>
-      </c>
+      <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>midwifery associate professional</t>
+        </is>
+      </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that communicates ideas, impressions and facts in a wide range of media to achieve particular effects, interprets a composition such as a musical score or a script to perform or direct the performance, and hosts the presentation of such performance and other media events.</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>Visual artist, Musician, Singer, Composer, Dancer, Choreographer, Director, Producer, Actor, Announcer on radio, television and other media</t>
+          <t>A nursing and midwifery associate professional that provides basic health care and advice before, during and after pregnancy and childbirth. They implement care, treatment and referral plans usually established by medical, midwifery and other health professionals.</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>Assistant midwife, Traditional midwife</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BCIO:010078</t>
+          <t>BCIO:010053</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>craft and related trades worker</t>
-        </is>
-      </c>
+      <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>physiotherapy technician and assistant</t>
+        </is>
+      </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>An occupational role that applies specific technical and practical knowledge and skills to construct and maintain buildings, machinery, equipment or tools, carries out printing work, and produces or processes foodstuffs, textiles and wooden, metal and other articles, including handicraft goods.</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O110" t="inlineStr">
-        <is>
-          <t>Building Trade Worker, Metal Workers, Machinery Worker, Handicraft Worker, Printing Worker, Electrical Equipment Installers and Repairer, Electronics and Telecommunications Installer and Repairer, Food Processing Worker, Woodworker, Tobacco Product Maker</t>
+          <t>A health associate professional that provides physical therapeutic treatments to patients in circumstances where functional movement is threatened by injury, disease or impairment. Therapies are usually provided according to rehabilitative plans established by a physiotherapist or other health professional.</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>Acupressure therapist, Electrotherapist, Hydrotherapist, Massage therapist, Physical rehabilitation technician, Physiotherapy technician, Shiatsu therapist</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BCIO:010005</t>
+          <t>BCIO:010059</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>manager</t>
-        </is>
-      </c>
+      <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>social work associate professional</t>
+        </is>
+      </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>An occupational role of source that manages, plans and coordinates the overall activities of enterprises, governments and other organisations.</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>Chief Executive Officers; Administrative Managers;  Commercial Managers</t>
+          <t>A technician and associate professional that implements social assistance programmes and community services and assist clients to deal with personal and social problems.</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>Community development worker, Community services worker, Crisis intervention worker, Disability services worker, Family services worker, Life skills instructor, Mental health support worker, Welfare support worker, Women’s shelter supervisor, Youth services worker</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:010077</t>
+          <t>BCIO:010034</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>skilled agricultural, forestry and fishery worker</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>legal, social and cultural professional</t>
+        </is>
+      </c>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>An occupational role that grows and harvests plants or animals to provide food, shelter and income for themselves and their households.</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O112" t="inlineStr">
-        <is>
-          <t>Market gardener, Crop grower, Animal Producer, Mixed Crop and Animal Producer, Forestry worker, Fishery worker, Hunter. Subsistence Crop Farmer, Subsistence Livestock Farmer</t>
+          <t>A professional that conducts research, improves or develops concepts, theories and operational methods, or applies knowledge relating to the law, social or cultural studies.</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BCIO:010080</t>
+          <t>BCIO:010037</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>assembler</t>
-        </is>
-      </c>
+      <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>social professional</t>
+        </is>
+      </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>An occupational role that assembles products from component parts according to strict specifications and procedures.</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A legal, social and cultural professional that conducts research, improves or develops concepts, theories and operational methods or applies knowledge relating to psychology, sociology, philosophy, politics, economics, sociology, anthropology, history and other social sciences, or provides social services to meet the needs of individuals and families in a community.</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>Economist, Sociologist, Anthropologist, Philosopher, Historian, Political Scientist</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:010068</t>
+          <t>BCIO:010038</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>services and sales worker</t>
-        </is>
-      </c>
+      <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>psychologist</t>
+        </is>
+      </c>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>An occupational role that provides personal or protective services related to travel, house-keeping, catering, personal care, protection against fire and unlawful acts, or sells goods in retail or markets.</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A social professional that studies the mental processes and behaviour of human beings as individuals or in groups, and applies this knowledge to promote personal, social, educational or occupational adjustment and development.</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>Clinical psychologist, Counselling psychologist, Educational psychologist, Forensic psychologist, Health psychologist, Neuropsychologist, Organizational psychologist, Psychotherapist, Sport and exercise psychologist</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:010071</t>
+          <t>BCIO:010039</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>personal care worker</t>
-        </is>
-      </c>
+      <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>social work and counselling professional</t>
+        </is>
+      </c>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>A services and sales worker that provides care, supervision and assistance for children, patients and elderly, convalescent or disabled persons in institutional and residential settings.</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>Personal carer</t>
+          <t>A social professional that provides advice and guidance to individuals, families, groups, communities and organizations in response to social and personal difficulties. They assist clients to develop skills and access resources and support services needed to respond to issues arising from unemployment, poverty, disability, addiction, criminal and delinquent behaviour, marital and other problems.</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>Counsellor, Addictions counsellor, Bereavement counsellor, Child and youth counsellor, District social welfare officer, Family counsellor, Marriage counsellor, Parole officer, Probation officer, Sexual assault counsellor, Social worker, Women’s welfare organizer</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BCIO:010074</t>
+          <t>BCIO:010036</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
@@ -4119,31 +4099,31 @@
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr">
         <is>
-          <t>health care assistant</t>
+          <t>librarian, archivist and curator</t>
         </is>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>A personal care worker that provides direct personal care and assistance with activities of daily living to patients and residents in a variety of health care settings, working  in implementation of established care plans and practices, and under the direct supervision of medical, nursing or other health professionals or associate professionals.</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O116" t="inlineStr">
-        <is>
-          <t>Nursing aide (clinic or hospital), Patient care assistant, Psychiatric aid</t>
+          <t>A legal, social and cultural professional that develops and maintains collections of archives, libraries, museums, art galleries and similar establishments.</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>Librarian, Archivist,  Curator</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:010075</t>
+          <t>BCIO:010035</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
@@ -4152,31 +4132,31 @@
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr">
         <is>
-          <t>home-based personal care worker</t>
+          <t>legal professional</t>
         </is>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>A personal care worker that provide routine personal care and assistance with activities of daily living to persons who are in need of such care due to effects of ageing, illness, injury, or other physical or mental conditions, in private homes and other independent residential settings.</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O117" t="inlineStr">
-        <is>
-          <t>Home birth assistant, Home care aide, Nursing aide (home), Personal care provider</t>
+          <t>A legal, social and cultural professional that conducts research on legal problems, advises clients on legal aspects of problems, pleads cases or conducts prosecutions in courts of law, presides over judicial proceedings in courts of law and draft laws and regulations.</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>Lawyer, Judge, Coroner</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:010073</t>
+          <t>BCIO:010043</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
@@ -4185,31 +4165,31 @@
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr">
         <is>
-          <t>teachers’ aide</t>
+          <t>creative and performing artist</t>
         </is>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>A personal care worker that performs non-teaching duties to assist teaching staff, and provides care and supervision for children in schools and pre-schools.</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O118" t="inlineStr">
-        <is>
-          <t>Pre-school assistant, Teacher’s assistant</t>
+          <t>A legal, social and cultural professional that communicates ideas, impressions and facts in a wide range of media to achieve particular effects, interprets a composition such as a musical score or a script to perform or direct the performance, and hosts the presentation of such performance and other media events.</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>Visual artist, Musician, Singer, Composer, Dancer, Choreographer, Director, Producer, Actor, Announcer on radio, television and other media</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BCIO:010072</t>
+          <t>BCIO:010040</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
@@ -4218,137 +4198,137 @@
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr">
         <is>
-          <t>child care worker</t>
+          <t>religious professional</t>
         </is>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>A personal care worker that provides care and supervision for children in non-domestic settings.</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O119" t="inlineStr">
-        <is>
-          <t>Babysitter, Child care worker, Creche ayah, Family day care worker, Nanny, Out of school hours care worker</t>
+          <t>A legal, social and cultural professional that functions  as a perpetuator of sacred traditions, practices and beliefs. They conduct religious services, celebrate or administer the rites of a religious faith or denomination, provide spiritual and moral guidance and perform other functions associated with the practice of a religion.</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>Bonze, Imam, Minister of religion, Poojari, Priest, Rabbi</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BCIO:010069</t>
+          <t>BCIO:010042</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>personal services worker</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>linguist</t>
+        </is>
+      </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>A services and sales worker that provides personal services related to travel, housekeeping, catering and hospitality, hairdressing and beauty treatment, animal care grooming and training, companionship and other services of a personal nature.</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O120" t="inlineStr">
-        <is>
-          <t>Travel Attendant, Conductor, Guide, Cook, Waiter, Bartender, Hairdresser, Beautician, Housekeeping Supervisor, Astrologer, Fortune-teller, Valet, Undertaker, Embalmer, Pet Groomer, Animal Care Worker</t>
+          <t>A legal, social and cultural professional that translates or interprets from one language into another.</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>Interpretator; other linguist</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BCIO:010076</t>
+          <t>BCIO:010041</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>protective services worker</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>author and journalist</t>
+        </is>
+      </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>A services and sales worker that protects individuals and property against fire and other hazards, maintain law and order and enforce laws and regulations.</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O121" t="inlineStr">
-        <is>
-          <t>Firefighter, Police officer, Prison guard, Security guard, Offender manager</t>
+          <t>A legal, social and cultural professional that conceives and creates literary works, and interprets and communicates news and public affairs through the media.</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>Author, Writer, Journalist, Translator, News anchor</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BCIO:010070</t>
+          <t>BCIO:010079</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>sales worker</t>
-        </is>
-      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>plant and machine operator</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>A services and sales worker that demonstrates goods in wholesale or retail shops, at stalls and markets, door to door, via telephone or customer contact centres. They may record and accept payment for goods and services purchased, and may operate small retail outlets.</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O122" t="inlineStr">
-        <is>
-          <t>Street Salesperson, Market Salesperson, Shop Salesperson, Cashier, Ticket Clerk, Model, Sales Demonstrator, Door-to-door Salesperson, Contact Centre Salesperson, Service Station Attendant, Food Service Counter Attendant</t>
+          <t>An occupational role that operates and monitors industrial and agricultural machinery and equipment on the spot or by remote control, or drives and operates trains, motor vehicles and mobile machinery and equipment.</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>Stationary Plant and Machine Operator, Driver, Mobile Plant Operator</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:010083</t>
+          <t>BCIO:010077</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr">
         <is>
-          <t>researcher</t>
+          <t>skilled agricultural, forestry and fishery worker</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
@@ -4357,59 +4337,64 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>An occupational role that is a researcher but unclear what discipline.</t>
-        </is>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O123" t="inlineStr">
-        <is>
-          <t>researcher, research assistant, investigator</t>
+          <t>An occupational role that grows and harvests plants or animals to provide food, shelter and income for themselves and their households.</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>Market gardener, Crop grower, Animal Producer, Mixed Crop and Animal Producer, Forestry worker, Fishery worker, Hunter. Subsistence Crop Farmer, Subsistence Livestock Farmer</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BCIO:010094</t>
+          <t>BCIO:010081</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>relatedness between person source and the target population</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>elementary occupation</t>
+        </is>
+      </c>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>A personal role of source that is realised in some relationship to the characteristics of the intervention participants.</t>
-        </is>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>An occupational role that involves the performance of simple and routine tasks which may require the use of hand-held tools and considerable physical effort.</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>Cleaner, Labourer, Food Preparation Assistant, Street and Related Services Worker, Street Vendor (excluding Food), Refuse Worker</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BCIO:010104</t>
+          <t>BCIO:010005</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr">
         <is>
-          <t>peer</t>
+          <t>manager</t>
         </is>
       </c>
       <c r="E125" t="inlineStr"/>
@@ -4418,38 +4403,43 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is descried as matched to intervention recipients on the basis of ‘peerness’ – age, social status, gender, shared experience, shared health status etc.</t>
-        </is>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>An occupational role of source that manages, plans and coordinates the overall activities of enterprises, governments and other organisations.</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Chief Executive Officers; Administrative Managers;  Commercial Managers</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BCIO:010103</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr"/>
+          <t>OBI:0000245</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>organization</t>
+        </is>
+      </c>
       <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>employer</t>
-        </is>
-      </c>
+      <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a person which hires the services of the participant.</t>
-        </is>
-      </c>
-      <c r="K126" t="inlineStr">
+          <t>An entity that can bear roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4458,26 +4448,26 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BCIO:010102</t>
+          <t>BCIO:010139</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
-      <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>colleague</t>
-        </is>
-      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>organisation source</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a person with whom the participant works in a profession or business.</t>
-        </is>
-      </c>
-      <c r="K127" t="inlineStr">
+          <t>An organisation that is the bearer of a behaviour change intervention source role, such as voluntary, public or commercial organisations delivering a behaviour change intervention.</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4486,104 +4476,109 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BCIO:010105</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr"/>
+          <t>BCIO:010128</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>supervision of person source</t>
+        </is>
+      </c>
       <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>embedded in participants’ community</t>
-        </is>
-      </c>
+      <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a source who is known and working to deliver intervention in own community.</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A process in which a person source is formally provided, by an individual with appropriate expertise, with corrective and skill-enhancing feedback, regarding the person source’s performance in delivering the intervention.</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>supervised</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BCIO:010101</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr"/>
+          <t>BCIO:010129</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>volunteering of person source</t>
+        </is>
+      </c>
       <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>friend</t>
-        </is>
-      </c>
+      <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a person whom the participant knows, likes and trusts, typically exclusive of sexual or family relations.</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A process in which a person source delivers the intervention on a voluntary basis without formal compensation.</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>voluntary basis, volunteering</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BCIO:010100</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr"/>
+          <t>BCIO:010130</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>payment of person source</t>
+        </is>
+      </c>
       <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>carer</t>
-        </is>
-      </c>
+      <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is an individual who cares, unpaid, for a friend or family member who, due to illness or disability, requires support in their daily life activities.</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O130" t="inlineStr">
-        <is>
-          <t>carer</t>
+          <t>A process in which a person source is paid or compensated for delivering the intervention.</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BCIO:010126</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>amount of experience</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr"/>
+          <t>BCIO:010131</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>monetary payment</t>
+        </is>
+      </c>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
@@ -4591,32 +4586,32 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>A knowledge or skill that is the duration of experience in related domain held by person source.</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O131" t="inlineStr">
-        <is>
-          <t>full-day, 6 years</t>
+          <t>A payment of person source that is money, vouchers or valued objects given to the source for delivering the intervention.</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>paid in cash, vouchers</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BCIO:010106</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>number of people delivering intervention to each participant</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr"/>
+          <t>BCIO:010132</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>non-monetary payment</t>
+        </is>
+      </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
@@ -4624,24 +4619,29 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>A count data item that is the number of providers that an individual participant in the intervention encounters.</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A payment of person source that is non-monetary compensation given to the source for delivering the intervention.</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>course credit</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BCIO:010107</t>
+          <t>MF:0000016</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>total number of people able to deliver intervention</t>
+          <t>person</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -4652,10 +4652,10 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>A count data item that is the total number of providers that are available and able to deliver the intervention.</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr">
+          <t>An extended organism that is a member of the species Homo sapiens.</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4664,15 +4664,15 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BCIO:010128</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>supervision of person source</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr"/>
+          <t>BCIO:010002</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>person source</t>
+        </is>
+      </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
@@ -4680,32 +4680,27 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>A process in which a person source is formally provided, by an individual with appropriate expertise, with corrective and skill-enhancing feedback, regarding the person source’s performance in delivering the intervention.</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O134" t="inlineStr">
-        <is>
-          <t>supervised</t>
+          <t>A person who is the bearer of a behaviour change intervention source role.</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BCIO:010129</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>volunteering of person source</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr"/>
+          <t>BCIO:050842</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>role model for a person</t>
+        </is>
+      </c>
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
@@ -4713,32 +4708,32 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>A process in which a person source delivers the intervention on a voluntary basis without formal compensation.</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O135" t="inlineStr">
-        <is>
-          <t>voluntary basis, volunteering</t>
+          <t>A &lt;person&gt; that influences a recipient by being perceived to be similar or admired.</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>This class lies at the intersection between a person and their environment and is defined from the perspective of the person.</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BCIO:010130</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>payment of person source</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr"/>
+          <t>BCIO:010095</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>family member</t>
+        </is>
+      </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr"/>
@@ -4746,10 +4741,10 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>A process in which a person source is paid or compensated for delivering the intervention.</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr">
+          <t>A person who is a member of a group of persons united by blood, or by marriage or other legal arrangement, or by self-identity as belonging to the same family.</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4758,221 +4753,226 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BCIO:010132</t>
+          <t>BCIO:010099</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>non-monetary payment</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr"/>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>child relationship</t>
+        </is>
+      </c>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>A payment of person source that is non-monetary compensation given to the source for delivering the intervention.</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O137" t="inlineStr">
-        <is>
-          <t>course credit</t>
+          <t>A family member that is an offspring relationship from a person to their parent.</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>daughter, son, step-daughter, step-son</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BCIO:010131</t>
+          <t>BCIO:010098</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>monetary payment</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr"/>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>sibling relationship</t>
+        </is>
+      </c>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>A payment of person source that is money, vouchers or valued objects given to the source for delivering the intervention.</t>
-        </is>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O138" t="inlineStr">
-        <is>
-          <t>paid in cash, vouchers</t>
+          <t>A family member that is a family relationship between two persons with at least one shared parent.</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>brother, sister, step-brother, step-sister</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BCIO:010120</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>expertise of person source</t>
-        </is>
-      </c>
+          <t>BCIO:010097</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr"/>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>spouse or partner</t>
+        </is>
+      </c>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>A disposition that is an expert skill or knowledge held by the source delivering the behaviour change intervention.</t>
-        </is>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A family member that is an individual who is married or in a committed relationship with another individual.</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>boyfriend, girlfriend, partner, fiance, wife, husband</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BCIO:010121</t>
+          <t>BCIO:010096</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>knowledge or skill</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>parent or guardian</t>
+        </is>
+      </c>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>An expertise of person source that is knowledge or skills held in order to deliver the behaviour change intervention.</t>
-        </is>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O140" t="inlineStr">
-        <is>
-          <t>trained (if unclear whether pre-existing or acquired)</t>
+          <t>A family member that is a mother, father or legal carer of a child.</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>mother, father, step-mother, step-father, guardian</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BCIO:010122</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr"/>
+          <t>BCIO:015098</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>gender identity</t>
+        </is>
+      </c>
       <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>pre-existing knowledge or skill</t>
-        </is>
-      </c>
+      <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>A knowledge or skill that is already possessed by the source which allows them to deliver the behaviour change intervention, including educational level and qualifications.</t>
-        </is>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O141" t="inlineStr">
-        <is>
-          <t>Bachelor’s degree, certification, accredited, qualified</t>
+          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>Population</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BCIO:010127</t>
+          <t>BCIO:010112</t>
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
-      <c r="C142" t="inlineStr"/>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>male gender</t>
+        </is>
+      </c>
       <c r="D142" t="inlineStr"/>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>affiliation to a formal group or organisation</t>
-        </is>
-      </c>
+      <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>A pre-existing knowledge or skill that is recognised through affiliation to a formal group or organisation.</t>
-        </is>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="O142" t="inlineStr">
-        <is>
-          <t>member of British Psychological Society</t>
+          <t>A gender identity as being male.</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>male, man</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BCIO:010125</t>
+          <t>BCIO:010111</t>
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
-      <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>acquired knowledge or skill</t>
-        </is>
-      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>female gender</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>A knowledge or skill that is additional knowledge or skills supplied to the source to allow them to deliver the behaviour change intervention, including educational level and qualifications.</t>
-        </is>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A gender identity as being female.</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>female, woman</t>
         </is>
       </c>
     </row>

--- a/Source/BCIO-source-hierarchy.xlsx
+++ b/Source/BCIO-source-hierarchy.xlsx
@@ -4288,14 +4288,14 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BCIO:010079</t>
+          <t>BCIO:010077</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr">
         <is>
-          <t>plant and machine operator</t>
+          <t>skilled agricultural, forestry and fishery worker</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
@@ -4304,7 +4304,7 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>An occupational role that operates and monitors industrial and agricultural machinery and equipment on the spot or by remote control, or drives and operates trains, motor vehicles and mobile machinery and equipment.</t>
+          <t>An occupational role that grows and harvests plants or animals to provide food, shelter and income for themselves and their households.</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -4314,21 +4314,21 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Stationary Plant and Machine Operator, Driver, Mobile Plant Operator</t>
+          <t>Market gardener, Crop grower, Animal Producer, Mixed Crop and Animal Producer, Forestry worker, Fishery worker, Hunter. Subsistence Crop Farmer, Subsistence Livestock Farmer</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:010077</t>
+          <t>BCIO:010079</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr">
         <is>
-          <t>skilled agricultural, forestry and fishery worker</t>
+          <t>plant and machine operator</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
@@ -4337,7 +4337,7 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>An occupational role that grows and harvests plants or animals to provide food, shelter and income for themselves and their households.</t>
+          <t>An occupational role that operates and monitors industrial and agricultural machinery and equipment on the spot or by remote control, or drives and operates trains, motor vehicles and mobile machinery and equipment.</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -4347,7 +4347,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Market gardener, Crop grower, Animal Producer, Mixed Crop and Animal Producer, Forestry worker, Fishery worker, Hunter. Subsistence Crop Farmer, Subsistence Livestock Farmer</t>
+          <t>Stationary Plant and Machine Operator, Driver, Mobile Plant Operator</t>
         </is>
       </c>
     </row>

--- a/Source/BCIO-source-hierarchy.xlsx
+++ b/Source/BCIO-source-hierarchy.xlsx
@@ -445,44 +445,44 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
           <t>Sub-ontology</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Examples</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BCIO:010108</t>
+          <t>BCIO:015098</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>socio demographic attribute of person source</t>
+          <t>gender identity</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -493,25 +493,25 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>A social or demographic characteristic of a human being who is the bearer of a person source role.</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Population</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:010110</t>
+          <t>BCIO:010111</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>gender of person source</t>
+          <t>female gender</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -521,65 +521,65 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
+          <t>A gender identity as being female.</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>gender</t>
+          <t>female, woman</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:010113</t>
+          <t>BCIO:010112</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>other gender</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>male gender</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>A gender of person source that reports not belonging to the cultural gender role distinctions of either male or female.</t>
+          <t>A gender identity as being male.</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>non-binary, transexual</t>
+          <t>male, man</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:010118</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>target behaviour of person source</t>
-        </is>
-      </c>
+          <t>BCIO:010107</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>total number of people able to deliver intervention</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
@@ -587,32 +587,27 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is their amount or experience of the intervention’s target behaviour.</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>source is highly physically active</t>
+          <t>A count data item that is the total number of providers that are available and able to deliver the intervention.</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:010116</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>language proficiency of person source</t>
-        </is>
-      </c>
+          <t>BCIO:010106</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>number of people delivering intervention to each participant</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -620,32 +615,27 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is an individual’s ability to speak or perform in the intervention language.</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>fluent, native</t>
+          <t>A count data item that is the number of providers that an individual participant in the intervention encounters.</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:010119</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>psychological influence on intervention delivery of person source</t>
-        </is>
-      </c>
+          <t>BCIO:010126</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>amount of experience</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -653,10 +643,15 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is their existing psychological attributes related to or potentially affecting the target behaviour.</t>
+          <t>A knowledge or skill that is the duration of experience in related domain held by person source.</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
+        <is>
+          <t>full-day, 6 years</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -665,15 +660,15 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:010115</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>religious group membership of person source</t>
-        </is>
-      </c>
+          <t>BCIO:010120</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>expertise of person source</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
@@ -681,30 +676,25 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is a religious group to which an individual identifies as belonging, where a religious group is a group of people characterised by the practice of a common religion.</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Muslim, Christian, Hindu, Sikh, Buddhist, Judaism</t>
+          <t>A disposition that is an expert skill or knowledge held by the source delivering the behaviour change intervention.</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:010117</t>
+          <t>BCIO:010121</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>health status of person source</t>
+          <t>knowledge or skill</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -714,76 +704,81 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that represents their mental or physical condition.</t>
+          <t>An expertise of person source that is knowledge or skills held in order to deliver the behaviour change intervention.</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>diabetes, cancer, depression, obesity, overweight</t>
+          <t>trained (if unclear whether pre-existing or acquired)</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:010114</t>
+          <t>BCIO:010122</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ethnic group membership of person source</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>pre-existing knowledge or skill</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is the ethnic group to which an individual identifies as belonging, where an ethic group is a population whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
+          <t>A knowledge or skill that is already possessed by the source which allows them to deliver the behaviour change intervention, including educational level and qualifications.</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>black, white, Indian, Chinese, Somalian</t>
+          <t>Bachelor’s degree, certification, accredited, qualified</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:010109</t>
+          <t>BCIO:010127</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>age of person source</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>affiliation to a formal group or organisation</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
+          <t>A pre-existing knowledge or skill that is recognised through affiliation to a formal group or organisation.</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
+        <is>
+          <t>member of British Psychological Society</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -792,53 +787,43 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:010123</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>expertise discipline</t>
-        </is>
-      </c>
+          <t>BCIO:010125</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>acquired knowledge or skill</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>An attribute that is a field of knowledge or practice.</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>The division of expertise into different disciplines or fields is complex and depends on historical, social and structural factors.</t>
+          <t>A knowledge or skill that is additional knowledge or skills supplied to the source to allow them to deliver the behaviour change intervention, including educational level and qualifications.</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:010093</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>discipline of current programme of study or training</t>
-        </is>
-      </c>
+          <t>BCIO:010003</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>personal role of source</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
@@ -846,30 +831,25 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>An expertise discipline of the programme of study currently undertaken by the bearer of a student or trainee role.</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>psychology, medicine, hairdressing</t>
+          <t>A role that inheres in a person source.</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:010124</t>
+          <t>BCIO:010094</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>discipline of pre-existing knowledge or skill</t>
+          <t>relatedness between person source and the target population</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -879,43 +859,43 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>The expertise discipline in which the person source has acquired their pre-existing knowledge and skills.</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
+          <t>A personal role of source that is realised in some relationship to the characteristics of the intervention participants.</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:010120</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>expertise of person source</t>
-        </is>
-      </c>
+          <t>BCIO:010100</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>carer</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>A disposition that is an expert skill or knowledge held by the source delivering the behaviour change intervention.</t>
+          <t>A relatedness between person source and the target population that is an individual who cares, unpaid, for a friend or family member who, due to illness or disability, requires support in their daily life activities.</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
+        <is>
+          <t>carer</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -924,47 +904,42 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:010121</t>
+          <t>BCIO:010105</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>knowledge or skill</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>embedded in participants’ community</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>An expertise of person source that is knowledge or skills held in order to deliver the behaviour change intervention.</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>trained (if unclear whether pre-existing or acquired)</t>
+          <t>A relatedness between person source and the target population that is a source who is known and working to deliver intervention in own community.</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:010125</t>
+          <t>BCIO:010104</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>acquired knowledge or skill</t>
+          <t>peer</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -973,10 +948,10 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>A knowledge or skill that is additional knowledge or skills supplied to the source to allow them to deliver the behaviour change intervention, including educational level and qualifications.</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
+          <t>A relatedness between person source and the target population that is descried as matched to intervention recipients on the basis of ‘peerness’ – age, social status, gender, shared experience, shared health status etc.</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -985,14 +960,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:010122</t>
+          <t>BCIO:010103</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>pre-existing knowledge or skill</t>
+          <t>employer</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1001,98 +976,83 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>A knowledge or skill that is already possessed by the source which allows them to deliver the behaviour change intervention, including educational level and qualifications.</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Bachelor’s degree, certification, accredited, qualified</t>
+          <t>A relatedness between person source and the target population that is a person which hires the services of the participant.</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:010127</t>
+          <t>BCIO:010102</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>affiliation to a formal group or organisation</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>colleague</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>A pre-existing knowledge or skill that is recognised through affiliation to a formal group or organisation.</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>member of British Psychological Society</t>
+          <t>A relatedness between person source and the target population that is a person with whom the participant works in a profession or business.</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:010126</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>amount of experience</t>
-        </is>
-      </c>
+          <t>BCIO:010101</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>friend</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>A knowledge or skill that is the duration of experience in related domain held by person source.</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>full-day, 6 years</t>
+          <t>A relatedness between person source and the target population that is a person whom the participant knows, likes and trusts, typically exclusive of sexual or family relations.</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:010107</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>total number of people able to deliver intervention</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>BCIO:010004</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>occupational role of source</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
@@ -1100,10 +1060,15 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>A count data item that is the total number of providers that are available and able to deliver the intervention.</t>
+          <t>A personal role of source that is realised by doing a specified type of work or working in a specified way.</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
+        <is>
+          <t>Interventionist, facilitator, study staff</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1112,26 +1077,31 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:010106</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>number of people delivering intervention to each participant</t>
-        </is>
-      </c>
+          <t>BCIO:010081</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>elementary occupation</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>A count data item that is the number of providers that an individual participant in the intervention encounters.</t>
+          <t>An occupational role that involves the performance of simple and routine tasks which may require the use of hand-held tools and considerable physical effort.</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
+        <is>
+          <t>Cleaner, Labourer, Food Preparation Assistant, Street and Related Services Worker, Street Vendor (excluding Food), Refuse Worker</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1140,26 +1110,26 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:010000</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>behaviour change intervention source</t>
-        </is>
-      </c>
+          <t>BCIO:010068</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>services and sales worker</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>A role played by a person, population or organisation that provides a BCI.</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
+          <t>An occupational role that provides personal or protective services related to travel, house-keeping, catering, personal care, protection against fire and unlawful acts, or sells goods in retail or markets.</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1168,26 +1138,31 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:010138</t>
+          <t>BCIO:010070</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>organisational source role</t>
-        </is>
-      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>sales worker</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>A BCI source role that is borne by an organisation.</t>
+          <t>A services and sales worker that demonstrates goods in wholesale or retail shops, at stalls and markets, door to door, via telephone or customer contact centres. They may record and accept payment for goods and services purchased, and may operate small retail outlets.</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
+        <is>
+          <t>Street Salesperson, Market Salesperson, Shop Salesperson, Cashier, Ticket Clerk, Model, Sales Demonstrator, Door-to-door Salesperson, Contact Centre Salesperson, Service Station Attendant, Food Service Counter Attendant</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1196,26 +1171,31 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:010001</t>
+          <t>BCIO:010069</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>person source role</t>
-        </is>
-      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>personal services worker</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>A behaviour change intervention source role that inheres in a person.</t>
+          <t>A services and sales worker that provides personal services related to travel, housekeeping, catering and hospitality, hairdressing and beauty treatment, animal care grooming and training, companionship and other services of a personal nature.</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
+        <is>
+          <t>Travel Attendant, Conductor, Guide, Cook, Waiter, Bartender, Hairdresser, Beautician, Housekeeping Supervisor, Astrologer, Fortune-teller, Valet, Undertaker, Embalmer, Pet Groomer, Animal Care Worker</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1224,26 +1204,31 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:010134</t>
+          <t>BCIO:010076</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>source involved in development of intervention</t>
-        </is>
-      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>protective services worker</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>A BCI source that is involved in the development of intervention content.</t>
+          <t>A services and sales worker that protects individuals and property against fire and other hazards, maintain law and order and enforce laws and regulations.</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
+        <is>
+          <t>Firefighter, Police officer, Prison guard, Security guard, Offender manager</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1252,26 +1237,31 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:010135</t>
+          <t>BCIO:010071</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>source involved in co-production of intervention</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>personal care worker</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>A source involved in development of intervention that has developed the intervention content in collaboration with key stakeholders such as patients or community members.</t>
+          <t>A services and sales worker that provides care, supervision and assistance for children, patients and elderly, convalescent or disabled persons in institutional and residential settings.</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
+        <is>
+          <t>Personal carer</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1280,26 +1270,31 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:010133</t>
+          <t>BCIO:010073</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>source role related to intervention</t>
-        </is>
-      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>teachers’ aide</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>A BCI source whose occupational or voluntary role is focused on delivery of the behaviour change intervention.</t>
+          <t>A personal care worker that performs non-teaching duties to assist teaching staff, and provides care and supervision for children in schools and pre-schools.</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
+        <is>
+          <t>Pre-school assistant, Teacher’s assistant</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1308,26 +1303,31 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:010084</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>student or trainee role</t>
-        </is>
-      </c>
+          <t>BCIO:010075</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>home-based personal care worker</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
+          <t>A personal care worker that provide routine personal care and assistance with activities of daily living to persons who are in need of such care due to effects of ageing, illness, injury, or other physical or mental conditions, in private homes and other independent residential settings.</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
+        <is>
+          <t>Home birth assistant, Home care aide, Nursing aide (home), Personal care provider</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1336,26 +1336,31 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:010086</t>
+          <t>BCIO:010074</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>school student or trainee</t>
-        </is>
-      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>health care assistant</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning at a primary or secondary education level in an institutional, organised setting.</t>
+          <t>A personal care worker that provides direct personal care and assistance with activities of daily living to patients and residents in a variety of health care settings, working  in implementation of established care plans and practices, and under the direct supervision of medical, nursing or other health professionals or associate professionals.</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
+        <is>
+          <t>Nursing aide (clinic or hospital), Patient care assistant, Psychiatric aid</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1364,26 +1369,31 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:010087</t>
+          <t>BCIO:010072</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>vocational training student or trainee</t>
-        </is>
-      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>child care worker</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
+          <t>A personal care worker that provides care and supervision for children in non-domestic settings.</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
+        <is>
+          <t>Babysitter, Child care worker, Creche ayah, Family day care worker, Nanny, Out of school hours care worker</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1392,47 +1402,47 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:010088</t>
+          <t>BCIO:010079</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>higher education student or trainee</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>plant and machine operator</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning on an advanced educational programme in a university, college or professional school.</t>
+          <t>An occupational role that operates and monitors industrial and agricultural machinery and equipment on the spot or by remote control, or drives and operates trains, motor vehicles and mobile machinery and equipment.</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>completing a university bachelor's or master's course of study, medical school or other professional school.</t>
+          <t>Stationary Plant and Machine Operator, Driver, Mobile Plant Operator</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:010089</t>
+          <t>BCIO:010078</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>undergraduate student or trainee</t>
+          <t>craft and related trades worker</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -1441,31 +1451,31 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that is currently studying for an undergraduate degree.</t>
+          <t>An occupational role that applies specific technical and practical knowledge and skills to construct and maintain buildings, machinery, equipment or tools, carries out printing work, and produces or processes foodstuffs, textiles and wooden, metal and other articles, including handicraft goods.</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>undergraduate student</t>
+          <t>Building Trade Worker, Metal Workers, Machinery Worker, Handicraft Worker, Printing Worker, Electrical Equipment Installers and Repairer, Electronics and Telecommunications Installer and Repairer, Food Processing Worker, Woodworker, Tobacco Product Maker</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:010090</t>
+          <t>BCIO:010005</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>graduate student or trainee</t>
+          <t>manager</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -1474,31 +1484,31 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that has completed an undergraduate degree.</t>
+          <t>An occupational role of source that manages, plans and coordinates the overall activities of enterprises, governments and other organisations.</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>graduate student</t>
+          <t>Chief Executive Officers; Administrative Managers;  Commercial Managers</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:010091</t>
+          <t>BCIO:010067</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>masters student or trainee</t>
+          <t>clerical support worker</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -1507,31 +1517,31 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that is currently studying for a Masters degree.</t>
+          <t>An occupational role that records, organizes, stores, computes and retrieves information, and performs a number of clerical duties in connection with money-handling operations, travel arrangements, requests for information, and appointments.</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>MSc student, Masters student</t>
+          <t>General and Keyboard Clerk, customers Services Clerk, Numerical and Material Recording Clerk</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:010092</t>
+          <t>BCIO:010080</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>doctoral student or trainee</t>
+          <t>assembler</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -1540,43 +1550,43 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that is currently studying for a doctoral degree.</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>PhD student</t>
+          <t>An occupational role that assembles products from component parts according to strict specifications and procedures.</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:010085</t>
+          <t>BCIO:010077</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>informal education student or trainee</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>skilled agricultural, forestry and fishery worker</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning in a non-institutional setting.</t>
+          <t>An occupational role that grows and harvests plants or animals to provide food, shelter and income for themselves and their households.</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
+        <is>
+          <t>Market gardener, Crop grower, Animal Producer, Mixed Crop and Animal Producer, Forestry worker, Fishery worker, Hunter. Subsistence Crop Farmer, Subsistence Livestock Farmer</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1585,26 +1595,31 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:010003</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>personal role of source</t>
-        </is>
-      </c>
+          <t>BCIO:010082</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>armed forces occupation</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>A role that inheres in a person source.</t>
+          <t>An occupational role that includes all jobs held by members of the armed forces.</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
+        <is>
+          <t>Admiral, Air commodore, Air marshal, Airman, Brigadier (army), Bombardier, Captain (air force), Captain (army), Captain (navy), Colonel (army), Corporal,  Field marshal, Flight lieutenant (air force), Flying officer (military), General (army), Gunner, Group captain, (air force), Lieutenant (army), Major (army), Midshipman, Naval officer (military) , Navy commander, Officer cadet (armed forces), Paratrooper, Rifleman, Sergeant (army), Second lieutenant (army), Seaman, Squadron leader, Sublieutenant (navy), Wing commander</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1613,26 +1628,31 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:010094</t>
+          <t>BCIO:010083</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>relatedness between person source and the target population</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>researcher</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>A personal role of source that is realised in some relationship to the characteristics of the intervention participants.</t>
+          <t>An occupational role that is a researcher but unclear what discipline.</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
+        <is>
+          <t>researcher, research assistant, investigator</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1641,14 +1661,14 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:010104</t>
+          <t>BCIO:010006</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>peer</t>
+          <t>professional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -1657,10 +1677,10 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is descried as matched to intervention recipients on the basis of ‘peerness’ – age, social status, gender, shared experience, shared health status etc.</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
+          <t>An occupational role that works in knowledge building activities, applies scientific or artistic concepts and theories or teaches about the foregoing in a systematic manner.</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1669,26 +1689,31 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:010103</t>
+          <t>BCIO:010007</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>employer</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>science and engineering professional</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a person which hires the services of the participant.</t>
+          <t>A professional that conducts research, improves or develops concepts, theories and operational methods or applies scientific knowledge.</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
+        <is>
+          <t>Science Professional, Mathematician, Actuary, Statistician, Life Science Professional, Engineering Professional, Electrotechnology Engineer, Architect, Planner, Surveyor, Designer</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1697,26 +1722,26 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:010101</t>
+          <t>BCIO:010044</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>friend</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>technician and associate professional</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a person whom the participant knows, likes and trusts, typically exclusive of sexual or family relations.</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
+          <t>A professional that performs technical and related tasks connected with research and the application of scientific or artistic concepts and operational methods, and government or business regulations.</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1725,59 +1750,65 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:010100</t>
+          <t>BCIO:010045</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>carer</t>
-        </is>
-      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>health associate professional</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is an individual who cares, unpaid, for a friend or family member who, due to illness or disability, requires support in their daily life activities.</t>
+          <t>A technician and associate professional that performs technical and practical tasks to support diagnosis and treatment of illness, disease, injuries and impairments in humans or animals, and supports the implementation of health care usually established by medical, veterinary, nursing and other health professionals.</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>carer</t>
+          <t xml:space="preserve">Veterinary Technician </t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:010105</t>
+          <t>BCIO:010055</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>embedded in participants’ community</t>
-        </is>
-      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>environmental and occupational health inspector and associate</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a source who is known and working to deliver intervention in own community.</t>
+          <t>A health associate professional that investigates the implementation of rules and regulations relating to environmental factors that may affect human health, safety in the 
+workplace, and safety of processes for the production of goods and services. They may implement and evaluate programmes to restore or improve safety and sanitary conditions under the supervision of a health professional.</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
+        <is>
+          <t>Food sanitation and safety inspector, Health inspector, Occupational health and safety inspector, Pollution inspector, Product safety inspector, Sanitarian, Sanitary inspector</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1786,26 +1817,31 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:010102</t>
+          <t>BCIO:010052</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>colleague</t>
-        </is>
-      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>community health worker</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a person with whom the participant works in a profession or business.</t>
+          <t>A health associate professional that provides health education, referral and follow-up, case management, basic preventive health care and home visiting services to specific communities. They provide support and assistance to individuals and families in navigating the health and social services system.</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
+        <is>
+          <t>Community health aide, Community health promoter, Community health worker, Village health worker, outreach worker, health worker</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1814,92 +1850,97 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:010004</t>
+          <t>BCIO:010056</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>occupational role of source</t>
-        </is>
-      </c>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>ambulance worker</t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>A personal role of source that is realised by doing a specified type of work or working in a specified way.</t>
+          <t>A health associate professional that provides emergency health care to patients who are injured, sick, infirm or otherwise physically or mentally impaired prior to and during transport to medical facilities.</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>Interventionist, facilitator, study staff</t>
+          <t>Ambulance officer, Ambulance paramedic, Emergency medical technician, Emergency paramedic</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:010082</t>
+          <t>BCIO:010047</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>armed forces occupation</t>
-        </is>
-      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>nursing and midwifery associate professional</t>
+        </is>
+      </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>An occupational role that includes all jobs held by members of the armed forces.</t>
+          <t>A health associate professional that provides basic nursing and personal care for people who are physically or mentally ill, disabled or infirm, and for others in need of care due to potential risks to health including before, during and after childbirth. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing, midwifery and other health professionals.</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>Admiral, Air commodore, Air marshal, Airman, Brigadier (army), Bombardier, Captain (air force), Captain (army), Captain (navy), Colonel (army), Corporal,  Field marshal, Flight lieutenant (air force), Flying officer (military), General (army), Gunner, Group captain, (air force), Lieutenant (army), Major (army), Midshipman, Naval officer (military) , Navy commander, Officer cadet (armed forces), Paratrooper, Rifleman, Sergeant (army), Second lieutenant (army), Seaman, Squadron leader, Sublieutenant (navy), Wing commander</t>
+          <t>Practice assistant, Quit Smoking Counsellor, Health educator, Dispensing Optician, Information Technician</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:010068</t>
+          <t>BCIO:010048</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>services and sales worker</t>
-        </is>
-      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>nursing associate professional</t>
+        </is>
+      </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>An occupational role that provides personal or protective services related to travel, house-keeping, catering, personal care, protection against fire and unlawful acts, or sells goods in retail or markets.</t>
+          <t>A nursing and midwifery associate professional that provides basic nursing and personal care for people in need of such care due to effects of ageing, illness, injury, or other physical or mental impairment. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing and other health professionals.</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
+        <is>
+          <t>Assistant nurse, Associate professional nurse, Enrolled nurse, Practical nurse</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1908,205 +1949,205 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:010076</t>
+          <t>BCIO:010049</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>protective services worker</t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>midwifery associate professional</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>A services and sales worker that protects individuals and property against fire and other hazards, maintain law and order and enforce laws and regulations.</t>
+          <t>A nursing and midwifery associate professional that provides basic health care and advice before, during and after pregnancy and childbirth. They implement care, treatment and referral plans usually established by medical, midwifery and other health professionals.</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Firefighter, Police officer, Prison guard, Security guard, Offender manager</t>
+          <t>Assistant midwife, Traditional midwife</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:010069</t>
+          <t>BCIO:010046</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>personal services worker</t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>medical and pharmaceutical technician</t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>A services and sales worker that provides personal services related to travel, housekeeping, catering and hospitality, hairdressing and beauty treatment, animal care grooming and training, companionship and other services of a personal nature.</t>
+          <t>A health associate professional that performs technical tasks to assist in diagnosis and treatment of illness, disease, injuries and impairments.</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Travel Attendant, Conductor, Guide, Cook, Waiter, Bartender, Hairdresser, Beautician, Housekeeping Supervisor, Astrologer, Fortune-teller, Valet, Undertaker, Embalmer, Pet Groomer, Animal Care Worker</t>
+          <t>Medical imaging and therapeutic equipment technician, Medical and Pathology laboratory technician, Pharmaceutical technician, Medical and dental prosthetic technician</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:010071</t>
+          <t>BCIO:010053</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>personal care worker</t>
-        </is>
-      </c>
+      <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>physiotherapy technician and assistant</t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>A services and sales worker that provides care, supervision and assistance for children, patients and elderly, convalescent or disabled persons in institutional and residential settings.</t>
+          <t>A health associate professional that provides physical therapeutic treatments to patients in circumstances where functional movement is threatened by injury, disease or impairment. Therapies are usually provided according to rehabilitative plans established by a physiotherapist or other health professional.</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Personal carer</t>
+          <t>Acupressure therapist, Electrotherapist, Hydrotherapist, Massage therapist, Physical rehabilitation technician, Physiotherapy technician, Shiatsu therapist</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:010072</t>
+          <t>BCIO:010051</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>child care worker</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>dental assistant and therapist</t>
+        </is>
+      </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>A personal care worker that provides care and supervision for children in non-domestic settings.</t>
+          <t>A health associate professional that provides basic dental care services for the prevention and treatment of diseases and disorders of the teeth and mouth, according to care plans and procedures established by a dentist or other oral health professional.</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>Babysitter, Child care worker, Creche ayah, Family day care worker, Nanny, Out of school hours care worker</t>
+          <t>Dental assistant, Dental hygienist , Dental therapist</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:010075</t>
+          <t>BCIO:010054</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>home-based personal care worker</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>medical assistant</t>
+        </is>
+      </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>A personal care worker that provide routine personal care and assistance with activities of daily living to persons who are in need of such care due to effects of ageing, illness, injury, or other physical or mental conditions, in private homes and other independent residential settings.</t>
+          <t>A health associate professional that performs basic clinical and administrative tasks to support patient care under the direct supervision of a medical practitioner or other health professional.</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>Home birth assistant, Home care aide, Nursing aide (home), Personal care provider</t>
+          <t>Clinical assistant, Medical assistant, Ophthalmic assistant</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:010074</t>
+          <t>BCIO:010050</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>health care assistant</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>traditional and complementary medicine associate professional</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>A personal care worker that provides direct personal care and assistance with activities of daily living to patients and residents in a variety of health care settings, working  in implementation of established care plans and practices, and under the direct supervision of medical, nursing or other health professionals or associate professionals.</t>
+          <t>A health associate professional that prevents and treats human physical and mental illnesses, disorders and injuries using herbal and other therapies based on theories, beliefs and experiences originating in specific cultures. They administer treatments using traditional techniques and medicaments, either acting independently or according to therapeutic care plans established by a traditional medicine or other health professional.</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>Nursing aide (clinic or hospital), Patient care assistant, Psychiatric aid</t>
+          <t>Acupuncture technician, Ayurvedic technician, Bonesetter, Herbalist , Homeopathy technician, Scraping and cupping therapist, Village healer, Witch doctor</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:010073</t>
+          <t>BCIO:010059</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -2115,83 +2156,88 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>teachers’ aide</t>
+          <t>social work associate professional</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>A personal care worker that performs non-teaching duties to assist teaching staff, and provides care and supervision for children in schools and pre-schools.</t>
+          <t>A technician and associate professional that implements social assistance programmes and community services and assist clients to deal with personal and social problems.</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>Pre-school assistant, Teacher’s assistant</t>
+          <t>Community development worker, Community services worker, Crisis intervention worker, Disability services worker, Family services worker, Life skills instructor, Mental health support worker, Welfare support worker, Women’s shelter supervisor, Youth services worker</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:010070</t>
+          <t>BCIO:010060</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>sales worker</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>religious associate professional</t>
+        </is>
+      </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>A services and sales worker that demonstrates goods in wholesale or retail shops, at stalls and markets, door to door, via telephone or customer contact centres. They may record and accept payment for goods and services purchased, and may operate small retail outlets.</t>
+          <t>A technician and associate professional that provides support to ministers of religion or to a religious community, undertake religious works, preach and propagate the teachings of a particular religion and endeavour to improve well-being through the power of faith and spiritual advice.</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>Street Salesperson, Market Salesperson, Shop Salesperson, Cashier, Ticket Clerk, Model, Sales Demonstrator, Door-to-door Salesperson, Contact Centre Salesperson, Service Station Attendant, Food Service Counter Attendant</t>
+          <t>Faith healer, Lay preacher, Monk, Nun</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:010080</t>
+          <t>BCIO:010066</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>assembler</t>
-        </is>
-      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>information and communications technician</t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>An occupational role that assembles products from component parts according to strict specifications and procedures.</t>
+          <t>A technician and associate professional that provides support for the day to day running of computer systems, communication systems and networks, broadcast images and sound, telecommunication signals on land, sea or in aircraft.</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
+        <is>
+          <t>Information and Communications Technology Operations and User Support Technician, Telecommunications and Broadcasting Technician</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -2200,125 +2246,130 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:010067</t>
+          <t>BCIO:010065</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>clerical support worker</t>
-        </is>
-      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>artistic, cultural and culinary associate professional</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>An occupational role that records, organizes, stores, computes and retrieves information, and performs a number of clerical duties in connection with money-handling operations, travel arrangements, requests for information, and appointments.</t>
+          <t>A technician and associate professional that combines creative skills and technical and cultural knowledge in creative media or food.</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>General and Keyboard Clerk, customers Services Clerk, Numerical and Material Recording Clerk</t>
+          <t>Photographer, Interior designers and decorator, Gallery, museum and library technician, Chef</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:010083</t>
+          <t>BCIO:010057</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>researcher</t>
-        </is>
-      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>business and administration associate professional</t>
+        </is>
+      </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>An occupational role that is a researcher but unclear what discipline.</t>
+          <t>A technician and associate professional that performs mostly technical tasks connected with the practical application of knowledge relating to financial accounting and transaction matters, mathematical calculations, human resource development, selling and buying financial instruments, specialized secretarial tasks and enforcing or applying government rules.</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>researcher, research assistant, investigator</t>
+          <t>Financial and Mathematical associate professional, Sales and purchasing agent, Broker, Business Services Agent, Administrative and Specialized Secretary, Government regulatory associate professional, Medical secretary</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:010078</t>
+          <t>BCIO:010058</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>craft and related trades worker</t>
-        </is>
-      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>legal and related associate professional</t>
+        </is>
+      </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>An occupational role that applies specific technical and practical knowledge and skills to construct and maintain buildings, machinery, equipment or tools, carries out printing work, and produces or processes foodstuffs, textiles and wooden, metal and other articles, including handicraft goods.</t>
+          <t>A technician and associate professional that performs support functions in courts of law or in law offices, provide services related to such legal matters as insurance contracts, the transferring of property and the granting of loans and other financial transactions, or conduct investigations for clients.</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Building Trade Worker, Metal Workers, Machinery Worker, Handicraft Worker, Printing Worker, Electrical Equipment Installers and Repairer, Electronics and Telecommunications Installer and Repairer, Food Processing Worker, Woodworker, Tobacco Product Maker</t>
+          <t>Bailiff, Judge’s clerk, Conveyancing clerk, Court clerk, Justice of the peace, Law clerk, Legal assistant, Paralegal, Private detective, Title searcher</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:010006</t>
+          <t>BCIO:010061</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>professional</t>
-        </is>
-      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>sport and fitness worker</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>An occupational role that works in knowledge building activities, applies scientific or artistic concepts and theories or teaches about the foregoing in a systematic manner.</t>
+          <t>A technician and associate professional that prepares for and competes in sporting events for financial gain, trains amateur and professional sportsmen and women to enhance performance, promotes participation and standards in sport, organises and officiates sporting events, or provides instruction, training and supervision for various forms of exercise and other recreational activities.</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
+        <is>
+          <t>physical activity professional, exercise physiologist, exercise therapist, exercise specialist</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -2327,139 +2378,139 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:010008</t>
+          <t>BCIO:010064</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>health professional</t>
-        </is>
-      </c>
+      <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>fitness and recreation instructor and programme leader</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>A professional that improves or develops concepts, theories and operational method, and applied scientific knowledge relating to medicine, nursing, dentistry, veterinary medicine, pharmacy, and promotion of health.</t>
+          <t>A sport and fitness worker that leads, guides and instructs groups and individuals in recreational, fitness or outdoor adventure activities.</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Health professional; Arts therapist, Chiropractor, Dance and movement therapist, Occupational therapist, Osteopath, Podiatrist, Recreational therapist, Health staff, Clinic staff</t>
+          <t>Aerobics instructor, Fitness instructor, Horse riding instructor, Outdoor adventure guide, Personal trainer, Sailing instructor, Underwater diving instructor</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:010016</t>
+          <t>BCIO:010063</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>paramedical practitioner</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>sports coach, instructor and official</t>
+        </is>
+      </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>A health professional that provides advisory, diagnostic, curative and preventive medical services more limited in scope and complexity than those carried out by medical doctors. They work autonomously or with limited supervision of medical doctors, and apply advanced clinical procedures for treating and preventing diseases, injuries and other physical or mental impairments common to specific communities.</t>
+          <t>A sport and fitness worker that works with amateur and professional sportspersons to enhance performance and encourage greater participation in sport, and organizes and officiates in sporting events according to established rules.</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Advanced care paramedic, Clinical officer (paramedical), Feldscher, Primary care paramedic, Surgical technician</t>
+          <t>Referee, Ski instructor, Sports coach, Sports official, Swimming instructor</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:010020</t>
+          <t>BCIO:010062</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>environmental and occupational health and hygiene professional</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>athlete and sports player</t>
+        </is>
+      </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>A health professional that assesses, plans and implements programmes to recognize, monitor and control environmental factors that can potentially affect human health, to ensure safe and healthy working conditions and to prevent disease or injury caused by chemical, physical, radiological and biological agents or ergonomic factors.</t>
+          <t>A sport and fitness worker that participates in competitive sporting events. They train and compete, either individually or as part of a team, in their chosen sport.</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Environmental health officer, Occupational health and safety adviser, Occupational hygienist, Radiation protection expert</t>
+          <t>Athlete, Bicycle racer, Boxer, Chess player , Footballer, Golfer, Hockey player, Jockey, Poker player, Racing driver, Skier, Tennis player, Wrestler</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:010021</t>
+          <t>BCIO:010025</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>physiotherapist</t>
-        </is>
-      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>teaching professional</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>A health professional  that assesses, plans and implements rehabilitative programmes that improve or restore human motor functions, maximize movement ability, relieve pain syndromes, and treat or prevent physical challenges associated with injuries, diseases and other impairments.</t>
+          <t>A professional that teaches the theory and practice of one or more disciplines at different educational levels.</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>Geriatric physical therapist, Manipulative therapist, Orthopaedic physical therapist, Paediatric physical therapist, Physical therapist, Physiotherapist</t>
+          <t>Education Methods Specialist, Other Language Teacher, Information Technology Teacher, Private Tutor, School Counsellor, Student Advisor</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:010022</t>
+          <t>BCIO:010031</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
@@ -2468,31 +2519,31 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>dietician and nutritionist</t>
+          <t>special needs teacher</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>A health professional  that assesses, plans and implements programmes to enhance the impact of food and nutrition on human health.</t>
+          <t>A teaching professional that teaches children, young persons or adults with physical or intellectual special needs.</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>Clinical dietician, Food service dietician, Nutritionist, Public health nutritionist, Sports nutritionist</t>
+          <t>Learning disabilities special education teacher, Learning support teacher, Remedial teacher, Teacher of gifted children, Teacher of the hearing impaired, Teacher of the sight impaired</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:010018</t>
+          <t>BCIO:010032</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
@@ -2501,31 +2552,31 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>dentist</t>
+          <t>music teacher</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>A health professional that diagnoses treats and prevents diseases, injuries and abnormalities of the teeth, mouth, jaws and associated tissues by applying the principles and procedures of modern dentistry.</t>
+          <t>A teaching professional that teaches students in the practice, theory and performance of music in private or small group tuition or within mainstream educational institutions.</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>Dental practitioner, Dental surgeon, Dentist, Endodontist, Oral and maxillofacial surgeon, Oral pathologist, Orthodontist, Paedodontist, Periodontist, Prosthodontist, Stomatologist</t>
+          <t>Guitar teacher (private tuition), Piano teacher (private tuition), Singing teacher (private tuition), Violin teacher (private tuition)</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:010012</t>
+          <t>BCIO:010027</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
@@ -2534,17 +2585,22 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>nursing and midwifery professional</t>
+          <t>vocational education teacher</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>A health professional that provides treatment and care services for people who are physically or mentally ill, disabled or infirm, and those with potential risks to health including before, during and after childbirth. They assume responsibility for the planning, management and evaluation of the care of patients, including the supervision of other health care workers, working autonomously or in teams with medical doctors and others in the practical application of preventive and curative measures.</t>
+          <t>A teaching professional that teaches or instructs vocational or occupational subjects in adult and further education institutions and to senior students in secondary schools and colleges.</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
+        <is>
+          <t>Automotive technology instructor, Cosmetology instructor, Vocational education teacher</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -2553,7 +2609,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:010014</t>
+          <t>BCIO:010033</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -2562,31 +2618,31 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>midwifery professional</t>
+          <t>arts teacher</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>A health professional that plans, manages, provides and evaluates midwifery care services before, during and after pregnancy and childbirth. They provide delivery care for reducing health risks to women and newborn children, working autonomously or in teams with other health care providers.</t>
+          <t>A teaching professional  that teaches students in the practice, theory and performance of dance, drama, visual and other arts (excluding music) in private or small group tuition or within mainstream educational institutions.</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>Midwife</t>
+          <t>Dance teacher (private tuition), Drama teacher (private tuition), Painting teacher (private tuition), Sculpture teacher (private tuition)</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:010015</t>
+          <t>BCIO:010029</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
@@ -2595,31 +2651,26 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>traditional and complementary medicine professional</t>
+          <t>primary school teacher</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>A health professional that examines patients, prevents and treats illness, disease, injury and other physical and mental impairments and maintains general health in humans. They do this by applying knowledge, skills and practices acquired through extensive study of the theories, beliefs and experiences originating in specific cultures.</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>Acupuncturist, Ayurvedic practitioner,  Chinese herbal medicine practitioner, Homeopath, Naturopath, Unani practitioner</t>
+          <t>A teaching professional that teaches teach a range of subjects at the primary education level.</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:010009</t>
+          <t>BCIO:010028</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
@@ -2628,130 +2679,130 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>medical doctor</t>
+          <t>secondary education teacher</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>A health professional that studies, diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans through the application of modern medicine. They plan, supervise and evaluate the implementation of care and treatment plans by other health care providers, and conduct medical education and research activities.</t>
+          <t>A teaching professional that teaches one or more subjects at secondary education level.</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>District medical doctor-therapist, family medical practitioner, general practitioner, medical doctor (general), medical officer (general), physician (general), primary health care physician, resident medical officer specializing in general practice</t>
+          <t>Secondary school teacher, High school teacher</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:010010</t>
+          <t>BCIO:010030</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>generalist medical practitioner</t>
-        </is>
-      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>early childhood educator</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments and maintains general health in humans through application of modern medicine. They do not limit their practice to certain disease categories or methods of treatment, and may assume responsibility for the provision of continuing and comprehensive medical care to individuals, families and communities.</t>
+          <t>A teaching professional that promotes the social, physical, and intellectual development of children below primary school age through the provision of educational and play activities.</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>Primary care physician, family doctor, GP</t>
+          <t>Early childhood educator, Pre-school teacher</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:010011</t>
+          <t>BCIO:010026</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>specialist medical practitioner</t>
-        </is>
-      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>university and higher education teacher</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans, using specialized testing, diagnostic, medical, surgical, physical and psychiatric techniques through application of the principles and procedures of modern medicine. They specialize in certain disease categories, types of patient or methods of treatment and may conduct medical education and research in their chosen areas of specialization.</t>
+          <t>A teaching professional that prepares and delivers lectures and conduct tutorials in one or more subjects within a prescribed course of study at a university or other higher educational institution. They conduct research, and prepare scholarly papers and books.</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>Anaesthetist, Cardiologist, Emergency medicine specialist, Gynaecologist, Obstetrician, Ophthalmologist, Paediatrician, Pathologist, Preventive medicine specialist, Psychiatrist, Radiation oncologist, Radiologist, Resident medical officer in specialist training, Specialist medical practitioner (public health), Specialist physician (internal medicine), Specialist physician (nuclear medicine), Surgeon</t>
+          <t>Higher education lecturer, Professor, University lecturer, University tutor</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:010013</t>
+          <t>BCIO:010008</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>nursing professional</t>
-        </is>
-      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>health professional</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>A health professional that provides treatment, support and care services for people who are in need of nursing care due to the effects of ageing, injury, illness or other physical or mental impairment, or potential risks to health.</t>
+          <t>A professional that improves or develops concepts, theories and operational method, and applied scientific knowledge relating to medicine, nursing, dentistry, veterinary medicine, pharmacy, and promotion of health.</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>Clinical nurse consultant, District nurse, Nurse anaesthetist, Nurse educator, Nurse practitioner, Operating theatre nurse, Professional nurse, Public health nurse, Specialist nurse, Nursing Counsellor, Study Nurse</t>
+          <t>Health professional; Arts therapist, Chiropractor, Dance and movement therapist, Occupational therapist, Osteopath, Podiatrist, Recreational therapist, Health staff, Clinic staff</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:010017</t>
+          <t>BCIO:010018</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
@@ -2760,31 +2811,31 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>veterinarian</t>
+          <t>dentist</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>A health professional that diagnoses, prevents and treats diseases, injuries and dysfunctions of animals.</t>
+          <t>A health professional that diagnoses treats and prevents diseases, injuries and abnormalities of the teeth, mouth, jaws and associated tissues by applying the principles and procedures of modern dentistry.</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>Animal pathologist, Veterinarian, Veterinary epidemiologist, Veterinary intern, Veterinary surgeon</t>
+          <t>Dental practitioner, Dental surgeon, Dentist, Endodontist, Oral and maxillofacial surgeon, Oral pathologist, Orthodontist, Paedodontist, Periodontist, Prosthodontist, Stomatologist</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:010023</t>
+          <t>BCIO:010022</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
@@ -2793,31 +2844,31 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>audiologist and speech therapist</t>
+          <t>dietician and nutritionist</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>A health professional  that evaluates, manages and treats physical disorders affecting human hearing, speech, communication and swallowing.</t>
+          <t>A health professional  that assesses, plans and implements programmes to enhance the impact of food and nutrition on human health.</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>Audiologist, Language therapist, Speech pathologist, Speech therapist</t>
+          <t>Clinical dietician, Food service dietician, Nutritionist, Public health nutritionist, Sports nutritionist</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:010024</t>
+          <t>BCIO:010023</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
@@ -2826,31 +2877,31 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>optometrist and ophthalmic optician</t>
+          <t>audiologist and speech therapist</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>A health professional  that provides diagnosis, management and treatment services for disorders of the eyes and visual system.</t>
+          <t>A health professional  that evaluates, manages and treats physical disorders affecting human hearing, speech, communication and swallowing.</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Ophthalmic optician , Optometrist, Orthoptist</t>
+          <t>Audiologist, Language therapist, Speech pathologist, Speech therapist</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:010019</t>
+          <t>BCIO:010013</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
@@ -2859,97 +2910,97 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>pharmacist</t>
+          <t>nursing professional</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>A health professional that stores, preserves, compounds and dispenses medicinal products and counsel on the proper use and adverse effects of drugs and medicines following prescriptions issued by medical doctors and other health professionals.</t>
+          <t>A health professional that provides treatment, support and care services for people who are in need of nursing care due to the effects of ageing, injury, illness or other physical or mental impairment, or potential risks to health.</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Dispensing chemist, Hospital pharmacist, Industrial pharmacist, Retail pharmacist</t>
+          <t>Clinical nurse consultant, District nurse, Nurse anaesthetist, Nurse educator, Nurse practitioner, Operating theatre nurse, Professional nurse, Public health nurse, Specialist nurse, Nursing Counsellor, Study Nurse</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:010007</t>
+          <t>BCIO:010020</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>science and engineering professional</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>environmental and occupational health and hygiene professional</t>
+        </is>
+      </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>A professional that conducts research, improves or develops concepts, theories and operational methods or applies scientific knowledge.</t>
+          <t>A health professional that assesses, plans and implements programmes to recognize, monitor and control environmental factors that can potentially affect human health, to ensure safe and healthy working conditions and to prevent disease or injury caused by chemical, physical, radiological and biological agents or ergonomic factors.</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Science Professional, Mathematician, Actuary, Statistician, Life Science Professional, Engineering Professional, Electrotechnology Engineer, Architect, Planner, Surveyor, Designer</t>
+          <t>Environmental health officer, Occupational health and safety adviser, Occupational hygienist, Radiation protection expert</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:010025</t>
+          <t>BCIO:010024</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>teaching professional</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>optometrist and ophthalmic optician</t>
+        </is>
+      </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>A professional that teaches the theory and practice of one or more disciplines at different educational levels.</t>
+          <t>A health professional  that provides diagnosis, management and treatment services for disorders of the eyes and visual system.</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>Education Methods Specialist, Other Language Teacher, Information Technology Teacher, Private Tutor, School Counsellor, Student Advisor</t>
+          <t>Ophthalmic optician , Optometrist, Orthoptist</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:010026</t>
+          <t>BCIO:010016</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
@@ -2958,31 +3009,31 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>university and higher education teacher</t>
+          <t>paramedical practitioner</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>A teaching professional that prepares and delivers lectures and conduct tutorials in one or more subjects within a prescribed course of study at a university or other higher educational institution. They conduct research, and prepare scholarly papers and books.</t>
+          <t>A health professional that provides advisory, diagnostic, curative and preventive medical services more limited in scope and complexity than those carried out by medical doctors. They work autonomously or with limited supervision of medical doctors, and apply advanced clinical procedures for treating and preventing diseases, injuries and other physical or mental impairments common to specific communities.</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>Higher education lecturer, Professor, University lecturer, University tutor</t>
+          <t>Advanced care paramedic, Clinical officer (paramedical), Feldscher, Primary care paramedic, Surgical technician</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:010029</t>
+          <t>BCIO:010019</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
@@ -2991,17 +3042,22 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>primary school teacher</t>
+          <t>pharmacist</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches teach a range of subjects at the primary education level.</t>
+          <t>A health professional that stores, preserves, compounds and dispenses medicinal products and counsel on the proper use and adverse effects of drugs and medicines following prescriptions issued by medical doctors and other health professionals.</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
+        <is>
+          <t>Dispensing chemist, Hospital pharmacist, Industrial pharmacist, Retail pharmacist</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3010,7 +3066,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BCIO:010032</t>
+          <t>BCIO:010012</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
@@ -3019,31 +3075,26 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>music teacher</t>
+          <t>nursing and midwifery professional</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches students in the practice, theory and performance of music in private or small group tuition or within mainstream educational institutions.</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>Guitar teacher (private tuition), Piano teacher (private tuition), Singing teacher (private tuition), Violin teacher (private tuition)</t>
+          <t>A health professional that provides treatment and care services for people who are physically or mentally ill, disabled or infirm, and those with potential risks to health including before, during and after childbirth. They assume responsibility for the planning, management and evaluation of the care of patients, including the supervision of other health care workers, working autonomously or in teams with medical doctors and others in the practical application of preventive and curative measures.</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BCIO:010028</t>
+          <t>BCIO:010014</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -3052,31 +3103,31 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>secondary education teacher</t>
+          <t>midwifery professional</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches one or more subjects at secondary education level.</t>
+          <t>A health professional that plans, manages, provides and evaluates midwifery care services before, during and after pregnancy and childbirth. They provide delivery care for reducing health risks to women and newborn children, working autonomously or in teams with other health care providers.</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>Secondary school teacher, High school teacher</t>
+          <t>Midwife</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BCIO:010030</t>
+          <t>BCIO:010021</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
@@ -3085,31 +3136,31 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>early childhood educator</t>
+          <t>physiotherapist</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>A teaching professional that promotes the social, physical, and intellectual development of children below primary school age through the provision of educational and play activities.</t>
+          <t>A health professional  that assesses, plans and implements rehabilitative programmes that improve or restore human motor functions, maximize movement ability, relieve pain syndromes, and treat or prevent physical challenges associated with injuries, diseases and other impairments.</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>Early childhood educator, Pre-school teacher</t>
+          <t>Geriatric physical therapist, Manipulative therapist, Orthopaedic physical therapist, Paediatric physical therapist, Physical therapist, Physiotherapist</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:010033</t>
+          <t>BCIO:010017</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
@@ -3118,31 +3169,31 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
-          <t>arts teacher</t>
+          <t>veterinarian</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>A teaching professional  that teaches students in the practice, theory and performance of dance, drama, visual and other arts (excluding music) in private or small group tuition or within mainstream educational institutions.</t>
+          <t>A health professional that diagnoses, prevents and treats diseases, injuries and dysfunctions of animals.</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>Dance teacher (private tuition), Drama teacher (private tuition), Painting teacher (private tuition), Sculpture teacher (private tuition)</t>
+          <t>Animal pathologist, Veterinarian, Veterinary epidemiologist, Veterinary intern, Veterinary surgeon</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BCIO:010031</t>
+          <t>BCIO:010009</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
@@ -3151,83 +3202,88 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>special needs teacher</t>
+          <t>medical doctor</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches children, young persons or adults with physical or intellectual special needs.</t>
+          <t>A health professional that studies, diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans through the application of modern medicine. They plan, supervise and evaluate the implementation of care and treatment plans by other health care providers, and conduct medical education and research activities.</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>Learning disabilities special education teacher, Learning support teacher, Remedial teacher, Teacher of gifted children, Teacher of the hearing impaired, Teacher of the sight impaired</t>
+          <t>District medical doctor-therapist, family medical practitioner, general practitioner, medical doctor (general), medical officer (general), physician (general), primary health care physician, resident medical officer specializing in general practice</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:010027</t>
+          <t>BCIO:010011</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>vocational education teacher</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>specialist medical practitioner</t>
+        </is>
+      </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches or instructs vocational or occupational subjects in adult and further education institutions and to senior students in secondary schools and colleges.</t>
+          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans, using specialized testing, diagnostic, medical, surgical, physical and psychiatric techniques through application of the principles and procedures of modern medicine. They specialize in certain disease categories, types of patient or methods of treatment and may conduct medical education and research in their chosen areas of specialization.</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>Automotive technology instructor, Cosmetology instructor, Vocational education teacher</t>
+          <t>Anaesthetist, Cardiologist, Emergency medicine specialist, Gynaecologist, Obstetrician, Ophthalmologist, Paediatrician, Pathologist, Preventive medicine specialist, Psychiatrist, Radiation oncologist, Radiologist, Resident medical officer in specialist training, Specialist medical practitioner (public health), Specialist physician (internal medicine), Specialist physician (nuclear medicine), Surgeon</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:010044</t>
+          <t>BCIO:010010</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>technician and associate professional</t>
-        </is>
-      </c>
+      <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>generalist medical practitioner</t>
+        </is>
+      </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>A professional that performs technical and related tasks connected with research and the application of scientific or artistic concepts and operational methods, and government or business regulations.</t>
+          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments and maintains general health in humans through application of modern medicine. They do not limit their practice to certain disease categories or methods of treatment, and may assume responsibility for the provision of continuing and comprehensive medical care to individuals, families and communities.</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
+        <is>
+          <t>Primary care physician, family doctor, GP</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3236,7 +3292,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:010066</t>
+          <t>BCIO:010015</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
@@ -3245,64 +3301,59 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
         <is>
-          <t>information and communications technician</t>
+          <t>traditional and complementary medicine professional</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>A technician and associate professional that provides support for the day to day running of computer systems, communication systems and networks, broadcast images and sound, telecommunication signals on land, sea or in aircraft.</t>
+          <t>A health professional that examines patients, prevents and treats illness, disease, injury and other physical and mental impairments and maintains general health in humans. They do this by applying knowledge, skills and practices acquired through extensive study of the theories, beliefs and experiences originating in specific cultures.</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>Information and Communications Technology Operations and User Support Technician, Telecommunications and Broadcasting Technician</t>
+          <t>Acupuncturist, Ayurvedic practitioner,  Chinese herbal medicine practitioner, Homeopath, Naturopath, Unani practitioner</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:010057</t>
+          <t>BCIO:010034</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>business and administration associate professional</t>
-        </is>
-      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>legal, social and cultural professional</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>A technician and associate professional that performs mostly technical tasks connected with the practical application of knowledge relating to financial accounting and transaction matters, mathematical calculations, human resource development, selling and buying financial instruments, specialized secretarial tasks and enforcing or applying government rules.</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>Financial and Mathematical associate professional, Sales and purchasing agent, Broker, Business Services Agent, Administrative and Specialized Secretary, Government regulatory associate professional, Medical secretary</t>
+          <t>A professional that conducts research, improves or develops concepts, theories and operational methods, or applies knowledge relating to the law, social or cultural studies.</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BCIO:010065</t>
+          <t>BCIO:010040</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
@@ -3311,31 +3362,31 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
         <is>
-          <t>artistic, cultural and culinary associate professional</t>
+          <t>religious professional</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>A technician and associate professional that combines creative skills and technical and cultural knowledge in creative media or food.</t>
+          <t>A legal, social and cultural professional that functions  as a perpetuator of sacred traditions, practices and beliefs. They conduct religious services, celebrate or administer the rites of a religious faith or denomination, provide spiritual and moral guidance and perform other functions associated with the practice of a religion.</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>Photographer, Interior designers and decorator, Gallery, museum and library technician, Chef</t>
+          <t>Bonze, Imam, Minister of religion, Poojari, Priest, Rabbi</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BCIO:010061</t>
+          <t>BCIO:010037</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
@@ -3344,31 +3395,31 @@
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
         <is>
-          <t>sport and fitness worker</t>
+          <t>social professional</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>A technician and associate professional that prepares for and competes in sporting events for financial gain, trains amateur and professional sportsmen and women to enhance performance, promotes participation and standards in sport, organises and officiates sporting events, or provides instruction, training and supervision for various forms of exercise and other recreational activities.</t>
+          <t>A legal, social and cultural professional that conducts research, improves or develops concepts, theories and operational methods or applies knowledge relating to psychology, sociology, philosophy, politics, economics, sociology, anthropology, history and other social sciences, or provides social services to meet the needs of individuals and families in a community.</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>physical activity professional, exercise physiologist, exercise therapist, exercise specialist</t>
+          <t>Economist, Sociologist, Anthropologist, Philosopher, Historian, Political Scientist</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BCIO:010064</t>
+          <t>BCIO:010038</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -3378,30 +3429,30 @@
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>fitness and recreation instructor and programme leader</t>
+          <t>psychologist</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>A sport and fitness worker that leads, guides and instructs groups and individuals in recreational, fitness or outdoor adventure activities.</t>
+          <t>A social professional that studies the mental processes and behaviour of human beings as individuals or in groups, and applies this knowledge to promote personal, social, educational or occupational adjustment and development.</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>Aerobics instructor, Fitness instructor, Horse riding instructor, Outdoor adventure guide, Personal trainer, Sailing instructor, Underwater diving instructor</t>
+          <t>Clinical psychologist, Counselling psychologist, Educational psychologist, Forensic psychologist, Health psychologist, Neuropsychologist, Organizational psychologist, Psychotherapist, Sport and exercise psychologist</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BCIO:010063</t>
+          <t>BCIO:010039</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
@@ -3411,63 +3462,63 @@
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>sports coach, instructor and official</t>
+          <t>social work and counselling professional</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>A sport and fitness worker that works with amateur and professional sportspersons to enhance performance and encourage greater participation in sport, and organizes and officiates in sporting events according to established rules.</t>
+          <t>A social professional that provides advice and guidance to individuals, families, groups, communities and organizations in response to social and personal difficulties. They assist clients to develop skills and access resources and support services needed to respond to issues arising from unemployment, poverty, disability, addiction, criminal and delinquent behaviour, marital and other problems.</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>Referee, Ski instructor, Sports coach, Sports official, Swimming instructor</t>
+          <t>Counsellor, Addictions counsellor, Bereavement counsellor, Child and youth counsellor, District social welfare officer, Family counsellor, Marriage counsellor, Parole officer, Probation officer, Sexual assault counsellor, Social worker, Women’s welfare organizer</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:010062</t>
+          <t>BCIO:010043</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>athlete and sports player</t>
-        </is>
-      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>creative and performing artist</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>A sport and fitness worker that participates in competitive sporting events. They train and compete, either individually or as part of a team, in their chosen sport.</t>
+          <t>A legal, social and cultural professional that communicates ideas, impressions and facts in a wide range of media to achieve particular effects, interprets a composition such as a musical score or a script to perform or direct the performance, and hosts the presentation of such performance and other media events.</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>Athlete, Bicycle racer, Boxer, Chess player , Footballer, Golfer, Hockey player, Jockey, Poker player, Racing driver, Skier, Tennis player, Wrestler</t>
+          <t>Visual artist, Musician, Singer, Composer, Dancer, Choreographer, Director, Producer, Actor, Announcer on radio, television and other media</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCIO:010058</t>
+          <t>BCIO:010035</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
@@ -3476,31 +3527,31 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
-          <t>legal and related associate professional</t>
+          <t>legal professional</t>
         </is>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>A technician and associate professional that performs support functions in courts of law or in law offices, provide services related to such legal matters as insurance contracts, the transferring of property and the granting of loans and other financial transactions, or conduct investigations for clients.</t>
+          <t>A legal, social and cultural professional that conducts research on legal problems, advises clients on legal aspects of problems, pleads cases or conducts prosecutions in courts of law, presides over judicial proceedings in courts of law and draft laws and regulations.</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>Bailiff, Judge’s clerk, Conveyancing clerk, Court clerk, Justice of the peace, Law clerk, Legal assistant, Paralegal, Private detective, Title searcher</t>
+          <t>Lawyer, Judge, Coroner</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BCIO:010060</t>
+          <t>BCIO:010036</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
@@ -3509,31 +3560,31 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
         <is>
-          <t>religious associate professional</t>
+          <t>librarian, archivist and curator</t>
         </is>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>A technician and associate professional that provides support to ministers of religion or to a religious community, undertake religious works, preach and propagate the teachings of a particular religion and endeavour to improve well-being through the power of faith and spiritual advice.</t>
+          <t>A legal, social and cultural professional that develops and maintains collections of archives, libraries, museums, art galleries and similar establishments.</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>Faith healer, Lay preacher, Monk, Nun</t>
+          <t>Librarian, Archivist,  Curator</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BCIO:010045</t>
+          <t>BCIO:010042</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
@@ -3542,447 +3593,416 @@
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
         <is>
-          <t>health associate professional</t>
+          <t>linguist</t>
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>A technician and associate professional that performs technical and practical tasks to support diagnosis and treatment of illness, disease, injuries and impairments in humans or animals, and supports the implementation of health care usually established by medical, veterinary, nursing and other health professionals.</t>
+          <t>A legal, social and cultural professional that translates or interprets from one language into another.</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Veterinary Technician </t>
+          <t>Interpretator; other linguist</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BCIO:010056</t>
+          <t>BCIO:010041</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>ambulance worker</t>
-        </is>
-      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>author and journalist</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>A health associate professional that provides emergency health care to patients who are injured, sick, infirm or otherwise physically or mentally impaired prior to and during transport to medical facilities.</t>
+          <t>A legal, social and cultural professional that conceives and creates literary works, and interprets and communicates news and public affairs through the media.</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>Ambulance officer, Ambulance paramedic, Emergency medical technician, Emergency paramedic</t>
+          <t>Author, Writer, Journalist, Translator, News anchor</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BCIO:010051</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr"/>
+          <t>BCIO:010000</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>behaviour change intervention source</t>
+        </is>
+      </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>dental assistant and therapist</t>
-        </is>
-      </c>
+      <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>A health associate professional that provides basic dental care services for the prevention and treatment of diseases and disorders of the teeth and mouth, according to care plans and procedures established by a dentist or other oral health professional.</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>Dental assistant, Dental hygienist , Dental therapist</t>
+          <t>A role played by a person, population or organisation that provides a BCI.</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BCIO:010052</t>
+          <t>BCIO:010001</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr"/>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>person source role</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>community health worker</t>
-        </is>
-      </c>
+      <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>A health associate professional that provides health education, referral and follow-up, case management, basic preventive health care and home visiting services to specific communities. They provide support and assistance to individuals and families in navigating the health and social services system.</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>Community health aide, Community health promoter, Community health worker, Village health worker, outreach worker, health worker</t>
+          <t>A behaviour change intervention source role that inheres in a person.</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BCIO:010050</t>
+          <t>BCIO:010134</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr"/>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>source involved in development of intervention</t>
+        </is>
+      </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>traditional and complementary medicine associate professional</t>
-        </is>
-      </c>
+      <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>A health associate professional that prevents and treats human physical and mental illnesses, disorders and injuries using herbal and other therapies based on theories, beliefs and experiences originating in specific cultures. They administer treatments using traditional techniques and medicaments, either acting independently or according to therapeutic care plans established by a traditional medicine or other health professional.</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>Acupuncture technician, Ayurvedic technician, Bonesetter, Herbalist , Homeopathy technician, Scraping and cupping therapist, Village healer, Witch doctor</t>
+          <t>A BCI source that is involved in the development of intervention content.</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BCIO:010046</t>
+          <t>BCIO:010135</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>source involved in co-production of intervention</t>
+        </is>
+      </c>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>medical and pharmaceutical technician</t>
-        </is>
-      </c>
+      <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>A health associate professional that performs technical tasks to assist in diagnosis and treatment of illness, disease, injuries and impairments.</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>Medical imaging and therapeutic equipment technician, Medical and Pathology laboratory technician, Pharmaceutical technician, Medical and dental prosthetic technician</t>
+          <t>A source involved in development of intervention that has developed the intervention content in collaboration with key stakeholders such as patients or community members.</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BCIO:010055</t>
+          <t>BCIO:010133</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr"/>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>source role related to intervention</t>
+        </is>
+      </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>environmental and occupational health inspector and associate</t>
-        </is>
-      </c>
+      <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>A health associate professional that investigates the implementation of rules and regulations relating to environmental factors that may affect human health, safety in the 
-workplace, and safety of processes for the production of goods and services. They may implement and evaluate programmes to restore or improve safety and sanitary conditions under the supervision of a health professional.</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>Food sanitation and safety inspector, Health inspector, Occupational health and safety inspector, Pollution inspector, Product safety inspector, Sanitarian, Sanitary inspector</t>
+          <t>A BCI source whose occupational or voluntary role is focused on delivery of the behaviour change intervention.</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BCIO:010054</t>
+          <t>BCIO:010138</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr"/>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>organisational source role</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>medical assistant</t>
-        </is>
-      </c>
+      <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>A health associate professional that performs basic clinical and administrative tasks to support patient care under the direct supervision of a medical practitioner or other health professional.</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>Clinical assistant, Medical assistant, Ophthalmic assistant</t>
+          <t>A BCI source role that is borne by an organisation.</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BCIO:010047</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr"/>
+          <t>BCIO:010084</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>student or trainee role</t>
+        </is>
+      </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>nursing and midwifery associate professional</t>
-        </is>
-      </c>
+      <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>A health associate professional that provides basic nursing and personal care for people who are physically or mentally ill, disabled or infirm, and for others in need of care due to potential risks to health including before, during and after childbirth. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing, midwifery and other health professionals.</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>Practice assistant, Quit Smoking Counsellor, Health educator, Dispensing Optician, Information Technician</t>
+          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BCIO:010048</t>
+          <t>BCIO:010088</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr"/>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>higher education student or trainee</t>
+        </is>
+      </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>nursing associate professional</t>
-        </is>
-      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>A nursing and midwifery associate professional that provides basic nursing and personal care for people in need of such care due to effects of ageing, illness, injury, or other physical or mental impairment. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing and other health professionals.</t>
+          <t>A student or trainee that is currently learning on an advanced educational programme in a university, college or professional school.</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>Assistant nurse, Associate professional nurse, Enrolled nurse, Practical nurse</t>
+          <t>completing a university bachelor's or master's course of study, medical school or other professional school.</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BCIO:010049</t>
+          <t>BCIO:010091</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>masters student or trainee</t>
+        </is>
+      </c>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>midwifery associate professional</t>
-        </is>
-      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>A nursing and midwifery associate professional that provides basic health care and advice before, during and after pregnancy and childbirth. They implement care, treatment and referral plans usually established by medical, midwifery and other health professionals.</t>
+          <t>A higher education student or trainee that is currently studying for a Masters degree.</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>Assistant midwife, Traditional midwife</t>
+          <t>MSc student, Masters student</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BCIO:010053</t>
+          <t>BCIO:010090</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>graduate student or trainee</t>
+        </is>
+      </c>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>physiotherapy technician and assistant</t>
-        </is>
-      </c>
+      <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>A health associate professional that provides physical therapeutic treatments to patients in circumstances where functional movement is threatened by injury, disease or impairment. Therapies are usually provided according to rehabilitative plans established by a physiotherapist or other health professional.</t>
+          <t>A higher education student or trainee that has completed an undergraduate degree.</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>Acupressure therapist, Electrotherapist, Hydrotherapist, Massage therapist, Physical rehabilitation technician, Physiotherapy technician, Shiatsu therapist</t>
+          <t>graduate student</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BCIO:010059</t>
+          <t>BCIO:010089</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>undergraduate student or trainee</t>
+        </is>
+      </c>
       <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>social work associate professional</t>
-        </is>
-      </c>
+      <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>A technician and associate professional that implements social assistance programmes and community services and assist clients to deal with personal and social problems.</t>
+          <t>A higher education student or trainee that is currently studying for an undergraduate degree.</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>Community development worker, Community services worker, Crisis intervention worker, Disability services worker, Family services worker, Life skills instructor, Mental health support worker, Welfare support worker, Women’s shelter supervisor, Youth services worker</t>
+          <t>undergraduate student</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:010034</t>
+          <t>BCIO:010092</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>legal, social and cultural professional</t>
-        </is>
-      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>doctoral student or trainee</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>A professional that conducts research, improves or develops concepts, theories and operational methods, or applies knowledge relating to the law, social or cultural studies.</t>
+          <t>A higher education student or trainee that is currently studying for a doctoral degree.</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
+        <is>
+          <t>PhD student</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3991,441 +4011,401 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BCIO:010037</t>
+          <t>BCIO:010086</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr"/>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>school student or trainee</t>
+        </is>
+      </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>social professional</t>
-        </is>
-      </c>
+      <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that conducts research, improves or develops concepts, theories and operational methods or applies knowledge relating to psychology, sociology, philosophy, politics, economics, sociology, anthropology, history and other social sciences, or provides social services to meet the needs of individuals and families in a community.</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>Economist, Sociologist, Anthropologist, Philosopher, Historian, Political Scientist</t>
+          <t>A student or trainee that is currently learning at a primary or secondary education level in an institutional, organised setting.</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:010038</t>
+          <t>BCIO:010087</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr"/>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>vocational training student or trainee</t>
+        </is>
+      </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>psychologist</t>
-        </is>
-      </c>
+      <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>A social professional that studies the mental processes and behaviour of human beings as individuals or in groups, and applies this knowledge to promote personal, social, educational or occupational adjustment and development.</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>Clinical psychologist, Counselling psychologist, Educational psychologist, Forensic psychologist, Health psychologist, Neuropsychologist, Organizational psychologist, Psychotherapist, Sport and exercise psychologist</t>
+          <t>A student or trainee that is currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:010039</t>
+          <t>BCIO:010085</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr"/>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>informal education student or trainee</t>
+        </is>
+      </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>social work and counselling professional</t>
-        </is>
-      </c>
+      <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>A social professional that provides advice and guidance to individuals, families, groups, communities and organizations in response to social and personal difficulties. They assist clients to develop skills and access resources and support services needed to respond to issues arising from unemployment, poverty, disability, addiction, criminal and delinquent behaviour, marital and other problems.</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>Counsellor, Addictions counsellor, Bereavement counsellor, Child and youth counsellor, District social welfare officer, Family counsellor, Marriage counsellor, Parole officer, Probation officer, Sexual assault counsellor, Social worker, Women’s welfare organizer</t>
+          <t>A student or trainee that is currently learning in a non-institutional setting.</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BCIO:010036</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr"/>
+          <t>MF:0000016</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>librarian, archivist and curator</t>
-        </is>
-      </c>
+      <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that develops and maintains collections of archives, libraries, museums, art galleries and similar establishments.</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>Librarian, Archivist,  Curator</t>
+          <t>An extended organism that is a member of the species Homo sapiens.</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:010035</t>
+          <t>BCIO:010095</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>family member</t>
+        </is>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>legal professional</t>
-        </is>
-      </c>
+      <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that conducts research on legal problems, advises clients on legal aspects of problems, pleads cases or conducts prosecutions in courts of law, presides over judicial proceedings in courts of law and draft laws and regulations.</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>Lawyer, Judge, Coroner</t>
+          <t>A person who is a member of a group of persons united by blood, or by marriage or other legal arrangement, or by self-identity as belonging to the same family.</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:010043</t>
+          <t>BCIO:010096</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>parent or guardian</t>
+        </is>
+      </c>
       <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>creative and performing artist</t>
-        </is>
-      </c>
+      <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that communicates ideas, impressions and facts in a wide range of media to achieve particular effects, interprets a composition such as a musical score or a script to perform or direct the performance, and hosts the presentation of such performance and other media events.</t>
+          <t>A family member that is a mother, father or legal carer of a child.</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>Visual artist, Musician, Singer, Composer, Dancer, Choreographer, Director, Producer, Actor, Announcer on radio, television and other media</t>
+          <t>mother, father, step-mother, step-father, guardian</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BCIO:010040</t>
+          <t>BCIO:010099</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>child relationship</t>
+        </is>
+      </c>
       <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>religious professional</t>
-        </is>
-      </c>
+      <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that functions  as a perpetuator of sacred traditions, practices and beliefs. They conduct religious services, celebrate or administer the rites of a religious faith or denomination, provide spiritual and moral guidance and perform other functions associated with the practice of a religion.</t>
+          <t>A family member that is an offspring relationship from a person to their parent.</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>Bonze, Imam, Minister of religion, Poojari, Priest, Rabbi</t>
+          <t>daughter, son, step-daughter, step-son</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BCIO:010042</t>
+          <t>BCIO:010098</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>sibling relationship</t>
+        </is>
+      </c>
       <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>linguist</t>
-        </is>
-      </c>
+      <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that translates or interprets from one language into another.</t>
+          <t>A family member that is a family relationship between two persons with at least one shared parent.</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>Interpretator; other linguist</t>
+          <t>brother, sister, step-brother, step-sister</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BCIO:010041</t>
+          <t>BCIO:010097</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>spouse or partner</t>
+        </is>
+      </c>
       <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>author and journalist</t>
-        </is>
-      </c>
+      <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that conceives and creates literary works, and interprets and communicates news and public affairs through the media.</t>
+          <t>A family member that is an individual who is married or in a committed relationship with another individual.</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>Author, Writer, Journalist, Translator, News anchor</t>
+          <t>boyfriend, girlfriend, partner, fiance, wife, husband</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BCIO:010077</t>
+          <t>BCIO:010002</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
-      <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>skilled agricultural, forestry and fishery worker</t>
-        </is>
-      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>person source</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>An occupational role that grows and harvests plants or animals to provide food, shelter and income for themselves and their households.</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>Market gardener, Crop grower, Animal Producer, Mixed Crop and Animal Producer, Forestry worker, Fishery worker, Hunter. Subsistence Crop Farmer, Subsistence Livestock Farmer</t>
+          <t>A person who is the bearer of a behaviour change intervention source role.</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:010079</t>
+          <t>BCIO:050842</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>plant and machine operator</t>
-        </is>
-      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>role model for a person</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>An occupational role that operates and monitors industrial and agricultural machinery and equipment on the spot or by remote control, or drives and operates trains, motor vehicles and mobile machinery and equipment.</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>Stationary Plant and Machine Operator, Driver, Mobile Plant Operator</t>
+          <t>A &lt;person&gt; that influences a recipient by being perceived to be similar or admired.</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>This class lies at the intersection between a person and their environment and is defined from the perspective of the person.</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BCIO:010081</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr"/>
+          <t>OBI:0000245</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>organization</t>
+        </is>
+      </c>
       <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>elementary occupation</t>
-        </is>
-      </c>
+      <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>An occupational role that involves the performance of simple and routine tasks which may require the use of hand-held tools and considerable physical effort.</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>Cleaner, Labourer, Food Preparation Assistant, Street and Related Services Worker, Street Vendor (excluding Food), Refuse Worker</t>
+          <t>An entity that can bear roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
+        </is>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BCIO:010005</t>
+          <t>BCIO:010139</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
-      <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>manager</t>
-        </is>
-      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>organisation source</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>An occupational role of source that manages, plans and coordinates the overall activities of enterprises, governments and other organisations.</t>
-        </is>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>Chief Executive Officers; Administrative Managers;  Commercial Managers</t>
+          <t>An organisation that is the bearer of a behaviour change intervention source role, such as voluntary, public or commercial organisations delivering a behaviour change intervention.</t>
+        </is>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>OBI:0000245</t>
+          <t>BCIO:010123</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>organization</t>
+          <t>expertise discipline</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -4436,10 +4416,20 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>An entity that can bear roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
+          <t>An attribute that is a field of knowledge or practice.</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
+        <is>
+          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>The division of expertise into different disciplines or fields is complex and depends on historical, social and structural factors.</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4448,13 +4438,13 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BCIO:010139</t>
+          <t>BCIO:010124</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr">
         <is>
-          <t>organisation source</t>
+          <t>discipline of pre-existing knowledge or skill</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
@@ -4464,10 +4454,15 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>An organisation that is the bearer of a behaviour change intervention source role, such as voluntary, public or commercial organisations delivering a behaviour change intervention.</t>
+          <t>The expertise discipline in which the person source has acquired their pre-existing knowledge and skills.</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
+        <is>
+          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4476,15 +4471,15 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BCIO:010128</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>supervision of person source</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr"/>
+          <t>BCIO:010093</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>discipline of current programme of study or training</t>
+        </is>
+      </c>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
@@ -4492,29 +4487,29 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>A process in which a person source is formally provided, by an individual with appropriate expertise, with corrective and skill-enhancing feedback, regarding the person source’s performance in delivering the intervention.</t>
+          <t>An expertise discipline of the programme of study currently undertaken by the bearer of a student or trainee role.</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>supervised</t>
+          <t>psychology, medicine, hairdressing</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BCIO:010129</t>
+          <t>BCIO:010108</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>volunteering of person source</t>
+          <t>socio demographic attribute of person source</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -4525,32 +4520,27 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>A process in which a person source delivers the intervention on a voluntary basis without formal compensation.</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>voluntary basis, volunteering</t>
+          <t>A social or demographic characteristic of a human being who is the bearer of a person source role.</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BCIO:010130</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>payment of person source</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr"/>
+          <t>BCIO:010116</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>language proficiency of person source</t>
+        </is>
+      </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
@@ -4558,10 +4548,15 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>A process in which a person source is paid or compensated for delivering the intervention.</t>
+          <t>A socio-demographic attribute of person source that is an individual’s ability to speak or perform in the intervention language.</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
+        <is>
+          <t>fluent, native</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4570,13 +4565,13 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BCIO:010131</t>
+          <t>BCIO:010118</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr">
         <is>
-          <t>monetary payment</t>
+          <t>target behaviour of person source</t>
         </is>
       </c>
       <c r="D131" t="inlineStr"/>
@@ -4586,30 +4581,30 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>A payment of person source that is money, vouchers or valued objects given to the source for delivering the intervention.</t>
+          <t>A socio-demographic attribute of person source that is their amount or experience of the intervention’s target behaviour.</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>paid in cash, vouchers</t>
+          <t>source is highly physically active</t>
+        </is>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BCIO:010132</t>
+          <t>BCIO:010119</t>
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr">
         <is>
-          <t>non-monetary payment</t>
+          <t>psychological influence on intervention delivery of person source</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
@@ -4619,32 +4614,27 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>A payment of person source that is non-monetary compensation given to the source for delivering the intervention.</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>course credit</t>
+          <t>A socio-demographic attribute of person source that is their existing psychological attributes related to or potentially affecting the target behaviour.</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>MF:0000016</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr"/>
+          <t>BCIO:010115</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>religious group membership of person source</t>
+        </is>
+      </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
@@ -4652,10 +4642,15 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>An extended organism that is a member of the species Homo sapiens.</t>
+          <t>A socio-demographic attribute of person source that is a religious group to which an individual identifies as belonging, where a religious group is a group of people characterised by the practice of a common religion.</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
+        <is>
+          <t>Muslim, Christian, Hindu, Sikh, Buddhist, Judaism</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4664,13 +4659,13 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BCIO:010002</t>
+          <t>BCIO:010117</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr">
         <is>
-          <t>person source</t>
+          <t>health status of person source</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
@@ -4680,10 +4675,15 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>A person who is the bearer of a behaviour change intervention source role.</t>
+          <t>A socio-demographic attribute of person source that represents their mental or physical condition.</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
+        <is>
+          <t>diabetes, cancer, depression, obesity, overweight</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4692,13 +4692,13 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BCIO:050842</t>
+          <t>BCIO:010114</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr">
         <is>
-          <t>role model for a person</t>
+          <t>ethnic group membership of person source</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
@@ -4708,30 +4708,30 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>A &lt;person&gt; that influences a recipient by being perceived to be similar or admired.</t>
+          <t>A socio-demographic attribute of person source that is the ethnic group to which an individual identifies as belonging, where an ethic group is a population whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="N135" t="inlineStr">
-        <is>
-          <t>This class lies at the intersection between a person and their environment and is defined from the perspective of the person.</t>
+          <t>black, white, Indian, Chinese, Somalian</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BCIO:010095</t>
+          <t>BCIO:010109</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr">
         <is>
-          <t>family member</t>
+          <t>age of person source</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
@@ -4741,10 +4741,10 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>A person who is a member of a group of persons united by blood, or by marriage or other legal arrangement, or by self-identity as belonging to the same family.</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
+          <t>A socio-demographic attribute of person source that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
+        </is>
+      </c>
+      <c r="O136" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4753,47 +4753,47 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BCIO:010099</t>
+          <t>BCIO:010110</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
-      <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>child relationship</t>
-        </is>
-      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>gender of person source</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>A family member that is an offspring relationship from a person to their parent.</t>
+          <t>A socio-demographic attribute of person source that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>daughter, son, step-daughter, step-son</t>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BCIO:010098</t>
+          <t>BCIO:010113</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr">
         <is>
-          <t>sibling relationship</t>
+          <t>other gender</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
@@ -4802,98 +4802,93 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>A family member that is a family relationship between two persons with at least one shared parent.</t>
+          <t>A gender of person source that reports not belonging to the cultural gender role distinctions of either male or female.</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>brother, sister, step-brother, step-sister</t>
+          <t>non-binary, transexual</t>
+        </is>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BCIO:010097</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr"/>
+          <t>BCIO:010130</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>payment of person source</t>
+        </is>
+      </c>
       <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>spouse or partner</t>
-        </is>
-      </c>
+      <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>A family member that is an individual who is married or in a committed relationship with another individual.</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>boyfriend, girlfriend, partner, fiance, wife, husband</t>
+          <t>A process in which a person source is paid or compensated for delivering the intervention.</t>
+        </is>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BCIO:010096</t>
+          <t>BCIO:010132</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
-      <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>parent or guardian</t>
-        </is>
-      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>non-monetary payment</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>A family member that is a mother, father or legal carer of a child.</t>
+          <t>A payment of person source that is non-monetary compensation given to the source for delivering the intervention.</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>mother, father, step-mother, step-father, guardian</t>
+          <t>course credit</t>
+        </is>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BCIO:015098</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>gender identity</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr"/>
+          <t>BCIO:010131</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>monetary payment</t>
+        </is>
+      </c>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
@@ -4901,27 +4896,32 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
+          <t>A payment of person source that is money, vouchers or valued objects given to the source for delivering the intervention.</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Population</t>
+          <t>paid in cash, vouchers</t>
+        </is>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BCIO:010112</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr"/>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>male gender</t>
-        </is>
-      </c>
+          <t>BCIO:010128</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>supervision of person source</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
@@ -4929,32 +4929,32 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>A gender identity as being male.</t>
+          <t>A process in which a person source is formally provided, by an individual with appropriate expertise, with corrective and skill-enhancing feedback, regarding the person source’s performance in delivering the intervention.</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>male, man</t>
+          <t>supervised</t>
+        </is>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BCIO:010111</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr"/>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>female gender</t>
-        </is>
-      </c>
+          <t>BCIO:010129</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>volunteering of person source</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr"/>
@@ -4962,17 +4962,17 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>A gender identity as being female.</t>
+          <t>A process in which a person source delivers the intervention on a voluntary basis without formal compensation.</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>female, woman</t>
+          <t>voluntary basis, volunteering</t>
+        </is>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>

--- a/Source/BCIO-source-hierarchy.xlsx
+++ b/Source/BCIO-source-hierarchy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O143"/>
+  <dimension ref="A1:P151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,51 +438,52 @@
       <c r="F1" t="inlineStr"/>
       <c r="G1" t="inlineStr"/>
       <c r="H1" t="inlineStr"/>
-      <c r="I1" t="inlineStr">
+      <c r="I1" t="inlineStr"/>
+      <c r="J1" t="inlineStr">
         <is>
           <t>Definition</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
         <is>
           <t>Examples</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Sub-ontology</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
         <is>
           <t>Comment</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Sub-ontology</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BCIO:015098</t>
+          <t>BFO:0000023</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>gender identity</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000023</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -491,27 +492,18 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Population</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:010111</t>
+          <t>BCIO:010084</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>female gender</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -519,14 +511,10 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>A gender identity as being female.</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>female, woman</t>
+          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -538,28 +526,24 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:010112</t>
+          <t>BCIO:010086</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>male gender</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>school student or trainee</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>A gender identity as being male.</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>male, man</t>
+          <t>A student or trainee that is currently learning at a primary or secondary education level in an institutional, organised setting.</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -571,23 +555,24 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:010107</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>total number of people able to deliver intervention</t>
-        </is>
-      </c>
+          <t>BCIO:010087</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>vocational training student or trainee</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>A count data item that is the total number of providers that are available and able to deliver the intervention.</t>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>A student or trainee that is currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -599,23 +584,24 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:010106</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>number of people delivering intervention to each participant</t>
-        </is>
-      </c>
+          <t>BCIO:010085</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>informal education student or trainee</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>A count data item that is the number of providers that an individual participant in the intervention encounters.</t>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>A student or trainee that is currently learning in a non-institutional setting.</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -627,28 +613,29 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:010126</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>amount of experience</t>
-        </is>
-      </c>
+          <t>BCIO:010088</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>higher education student or trainee</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>A knowledge or skill that is the duration of experience in related domain held by person source.</t>
-        </is>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>full-day, 6 years</t>
+          <t>A student or trainee that is currently learning on an advanced educational programme in a university, college or professional school.</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>completing a university bachelor's or master's course of study, medical school or other professional school.</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -660,23 +647,29 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:010120</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>expertise of person source</t>
-        </is>
-      </c>
+          <t>BCIO:010090</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>graduate student or trainee</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>A disposition that is an expert skill or knowledge held by the source delivering the behaviour change intervention.</t>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>A higher education student or trainee that has completed an undergraduate degree.</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>graduate student</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -688,28 +681,29 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:010121</t>
+          <t>BCIO:010091</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>knowledge or skill</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>masters student or trainee</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>An expertise of person source that is knowledge or skills held in order to deliver the behaviour change intervention.</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>trained (if unclear whether pre-existing or acquired)</t>
+          <t>A higher education student or trainee that is currently studying for a Masters degree.</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>MSc student, Masters student</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -721,28 +715,29 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:010122</t>
+          <t>BCIO:010092</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>pre-existing knowledge or skill</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>doctoral student or trainee</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>A knowledge or skill that is already possessed by the source which allows them to deliver the behaviour change intervention, including educational level and qualifications.</t>
-        </is>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Bachelor’s degree, certification, accredited, qualified</t>
+          <t>A higher education student or trainee that is currently studying for a doctoral degree.</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>PhD student</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -754,7 +749,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:010127</t>
+          <t>BCIO:010089</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -762,20 +757,21 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>affiliation to a formal group or organisation</t>
+          <t>undergraduate student or trainee</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>A pre-existing knowledge or skill that is recognised through affiliation to a formal group or organisation.</t>
-        </is>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>member of British Psychological Society</t>
+          <t>A higher education student or trainee that is currently studying for an undergraduate degree.</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>undergraduate student</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -787,23 +783,24 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:010125</t>
+          <t>BCIO:010000</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>acquired knowledge or skill</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>behaviour change intervention source</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>A knowledge or skill that is additional knowledge or skills supplied to the source to allow them to deliver the behaviour change intervention, including educational level and qualifications.</t>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>A role played by a person, population or organisation that provides a BCI.</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -815,23 +812,24 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:010003</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>personal role of source</t>
-        </is>
-      </c>
+          <t>BCIO:010138</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>organisational source role</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>A role that inheres in a person source.</t>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>A BCI source role that is borne by an organisation.</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -843,23 +841,24 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:010094</t>
+          <t>BCIO:010001</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>relatedness between person source and the target population</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>person source role</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>A personal role of source that is realised in some relationship to the characteristics of the intervention participants.</t>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>A behaviour change intervention source role that inheres in a person.</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -871,28 +870,24 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:010100</t>
+          <t>BCIO:010134</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>carer</t>
+          <t>source involved in development of intervention</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>A relatedness between person source and the target population that is an individual who cares, unpaid, for a friend or family member who, due to illness or disability, requires support in their daily life activities.</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>carer</t>
+          <t>A BCI source that is involved in the development of intervention content.</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -904,23 +899,24 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:010105</t>
+          <t>BCIO:010135</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>embedded in participants’ community</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>source involved in co-production of intervention</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>A relatedness between person source and the target population that is a source who is known and working to deliver intervention in own community.</t>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>A source involved in development of intervention that has developed the intervention content in collaboration with key stakeholders such as patients or community members.</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -932,23 +928,24 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:010104</t>
+          <t>BCIO:010133</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>peer</t>
+          <t>source role related to intervention</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>A relatedness between person source and the target population that is descried as matched to intervention recipients on the basis of ‘peerness’ – age, social status, gender, shared experience, shared health status etc.</t>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>A BCI source whose occupational or voluntary role is focused on delivery of the behaviour change intervention.</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -960,23 +957,24 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:010103</t>
+          <t>BCIO:010003</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>employer</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>personal role of source</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>A relatedness between person source and the target population that is a person which hires the services of the participant.</t>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>A role that inheres in a person source.</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -988,23 +986,24 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:010102</t>
+          <t>BCIO:010094</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>colleague</t>
+          <t>relatedness between person source and the target population</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>A relatedness between person source and the target population that is a person with whom the participant works in a profession or business.</t>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>A personal role of source that is realised in some relationship to the characteristics of the intervention participants.</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1016,23 +1015,29 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:010101</t>
+          <t>BCIO:010100</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>friend</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>carer</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>A relatedness between person source and the target population that is a person whom the participant knows, likes and trusts, typically exclusive of sexual or family relations.</t>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>A relatedness between person source and the target population that is an individual who cares, unpaid, for a friend or family member who, due to illness or disability, requires support in their daily life activities.</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>carer</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1044,28 +1049,24 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:010004</t>
+          <t>BCIO:010105</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>occupational role of source</t>
-        </is>
-      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>embedded in participants’ community</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>A personal role of source that is realised by doing a specified type of work or working in a specified way.</t>
-        </is>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Interventionist, facilitator, study staff</t>
+          <t>A relatedness between person source and the target population that is a source who is known and working to deliver intervention in own community.</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1077,28 +1078,24 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:010081</t>
+          <t>BCIO:010101</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>elementary occupation</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>friend</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>An occupational role that involves the performance of simple and routine tasks which may require the use of hand-held tools and considerable physical effort.</t>
-        </is>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Cleaner, Labourer, Food Preparation Assistant, Street and Related Services Worker, Street Vendor (excluding Food), Refuse Worker</t>
+          <t>A relatedness between person source and the target population that is a person whom the participant knows, likes and trusts, typically exclusive of sexual or family relations.</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1110,23 +1107,24 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:010068</t>
+          <t>BCIO:010102</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>services and sales worker</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>colleague</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>An occupational role that provides personal or protective services related to travel, house-keeping, catering, personal care, protection against fire and unlawful acts, or sells goods in retail or markets.</t>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>A relatedness between person source and the target population that is a person with whom the participant works in a profession or business.</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -1138,7 +1136,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:010070</t>
+          <t>BCIO:010104</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -1146,20 +1144,16 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>sales worker</t>
+          <t>peer</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>A services and sales worker that demonstrates goods in wholesale or retail shops, at stalls and markets, door to door, via telephone or customer contact centres. They may record and accept payment for goods and services purchased, and may operate small retail outlets.</t>
-        </is>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Street Salesperson, Market Salesperson, Shop Salesperson, Cashier, Ticket Clerk, Model, Sales Demonstrator, Door-to-door Salesperson, Contact Centre Salesperson, Service Station Attendant, Food Service Counter Attendant</t>
+          <t>A relatedness between person source and the target population that is descried as matched to intervention recipients on the basis of ‘peerness’ – age, social status, gender, shared experience, shared health status etc.</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -1171,7 +1165,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:010069</t>
+          <t>BCIO:010103</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -1179,20 +1173,16 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>personal services worker</t>
+          <t>employer</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>A services and sales worker that provides personal services related to travel, housekeeping, catering and hospitality, hairdressing and beauty treatment, animal care grooming and training, companionship and other services of a personal nature.</t>
-        </is>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Travel Attendant, Conductor, Guide, Cook, Waiter, Bartender, Hairdresser, Beautician, Housekeeping Supervisor, Astrologer, Fortune-teller, Valet, Undertaker, Embalmer, Pet Groomer, Animal Care Worker</t>
+          <t>A relatedness between person source and the target population that is a person which hires the services of the participant.</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -1204,28 +1194,29 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:010076</t>
+          <t>BCIO:010004</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>protective services worker</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>occupational role of source</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>A services and sales worker that protects individuals and property against fire and other hazards, maintain law and order and enforce laws and regulations.</t>
-        </is>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Firefighter, Police officer, Prison guard, Security guard, Offender manager</t>
+          <t>A personal role of source that is realised by doing a specified type of work or working in a specified way.</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Interventionist, facilitator, study staff</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -1237,7 +1228,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:010071</t>
+          <t>BCIO:010078</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -1245,20 +1236,21 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>personal care worker</t>
+          <t>craft and related trades worker</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>A services and sales worker that provides care, supervision and assistance for children, patients and elderly, convalescent or disabled persons in institutional and residential settings.</t>
-        </is>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Personal carer</t>
+          <t>An occupational role that applies specific technical and practical knowledge and skills to construct and maintain buildings, machinery, equipment or tools, carries out printing work, and produces or processes foodstuffs, textiles and wooden, metal and other articles, including handicraft goods.</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Building Trade Worker, Metal Workers, Machinery Worker, Handicraft Worker, Printing Worker, Electrical Equipment Installers and Repairer, Electronics and Telecommunications Installer and Repairer, Food Processing Worker, Woodworker, Tobacco Product Maker</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -1270,28 +1262,29 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:010073</t>
+          <t>BCIO:010083</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>teachers’ aide</t>
-        </is>
-      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>researcher</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>A personal care worker that performs non-teaching duties to assist teaching staff, and provides care and supervision for children in schools and pre-schools.</t>
-        </is>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Pre-school assistant, Teacher’s assistant</t>
+          <t>An occupational role that is a researcher but unclear what discipline.</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>researcher, research assistant, investigator</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -1303,28 +1296,29 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:010075</t>
+          <t>BCIO:010077</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>home-based personal care worker</t>
-        </is>
-      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>skilled agricultural, forestry and fishery worker</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>A personal care worker that provide routine personal care and assistance with activities of daily living to persons who are in need of such care due to effects of ageing, illness, injury, or other physical or mental conditions, in private homes and other independent residential settings.</t>
-        </is>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Home birth assistant, Home care aide, Nursing aide (home), Personal care provider</t>
+          <t>An occupational role that grows and harvests plants or animals to provide food, shelter and income for themselves and their households.</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Market gardener, Crop grower, Animal Producer, Mixed Crop and Animal Producer, Forestry worker, Fishery worker, Hunter. Subsistence Crop Farmer, Subsistence Livestock Farmer</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -1336,28 +1330,29 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:010074</t>
+          <t>BCIO:010082</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>health care assistant</t>
-        </is>
-      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>armed forces occupation</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>A personal care worker that provides direct personal care and assistance with activities of daily living to patients and residents in a variety of health care settings, working  in implementation of established care plans and practices, and under the direct supervision of medical, nursing or other health professionals or associate professionals.</t>
-        </is>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Nursing aide (clinic or hospital), Patient care assistant, Psychiatric aid</t>
+          <t>An occupational role that includes all jobs held by members of the armed forces.</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Admiral, Air commodore, Air marshal, Airman, Brigadier (army), Bombardier, Captain (air force), Captain (army), Captain (navy), Colonel (army), Corporal,  Field marshal, Flight lieutenant (air force), Flying officer (military), General (army), Gunner, Group captain, (air force), Lieutenant (army), Major (army), Midshipman, Naval officer (military) , Navy commander, Officer cadet (armed forces), Paratrooper, Rifleman, Sergeant (army), Second lieutenant (army), Seaman, Squadron leader, Sublieutenant (navy), Wing commander</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -1369,28 +1364,24 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:010072</t>
+          <t>BCIO:010068</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>child care worker</t>
-        </is>
-      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>services and sales worker</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>A personal care worker that provides care and supervision for children in non-domestic settings.</t>
-        </is>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Babysitter, Child care worker, Creche ayah, Family day care worker, Nanny, Out of school hours care worker</t>
+          <t>An occupational role that provides personal or protective services related to travel, house-keeping, catering, personal care, protection against fire and unlawful acts, or sells goods in retail or markets.</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -1402,28 +1393,29 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:010079</t>
+          <t>BCIO:010071</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>plant and machine operator</t>
-        </is>
-      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>personal care worker</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>An occupational role that operates and monitors industrial and agricultural machinery and equipment on the spot or by remote control, or drives and operates trains, motor vehicles and mobile machinery and equipment.</t>
-        </is>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Stationary Plant and Machine Operator, Driver, Mobile Plant Operator</t>
+          <t>A services and sales worker that provides care, supervision and assistance for children, patients and elderly, convalescent or disabled persons in institutional and residential settings.</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Personal carer</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -1435,28 +1427,29 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:010078</t>
+          <t>BCIO:010074</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>craft and related trades worker</t>
-        </is>
-      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>health care assistant</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>An occupational role that applies specific technical and practical knowledge and skills to construct and maintain buildings, machinery, equipment or tools, carries out printing work, and produces or processes foodstuffs, textiles and wooden, metal and other articles, including handicraft goods.</t>
-        </is>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Building Trade Worker, Metal Workers, Machinery Worker, Handicraft Worker, Printing Worker, Electrical Equipment Installers and Repairer, Electronics and Telecommunications Installer and Repairer, Food Processing Worker, Woodworker, Tobacco Product Maker</t>
+          <t>A personal care worker that provides direct personal care and assistance with activities of daily living to patients and residents in a variety of health care settings, working  in implementation of established care plans and practices, and under the direct supervision of medical, nursing or other health professionals or associate professionals.</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Nursing aide (clinic or hospital), Patient care assistant, Psychiatric aid</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -1468,28 +1461,29 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:010005</t>
+          <t>BCIO:010075</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>manager</t>
-        </is>
-      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>home-based personal care worker</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>An occupational role of source that manages, plans and coordinates the overall activities of enterprises, governments and other organisations.</t>
-        </is>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Chief Executive Officers; Administrative Managers;  Commercial Managers</t>
+          <t>A personal care worker that provide routine personal care and assistance with activities of daily living to persons who are in need of such care due to effects of ageing, illness, injury, or other physical or mental conditions, in private homes and other independent residential settings.</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Home birth assistant, Home care aide, Nursing aide (home), Personal care provider</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -1501,28 +1495,29 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:010067</t>
+          <t>BCIO:010072</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>clerical support worker</t>
-        </is>
-      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>child care worker</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>An occupational role that records, organizes, stores, computes and retrieves information, and performs a number of clerical duties in connection with money-handling operations, travel arrangements, requests for information, and appointments.</t>
-        </is>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>General and Keyboard Clerk, customers Services Clerk, Numerical and Material Recording Clerk</t>
+          <t>A personal care worker that provides care and supervision for children in non-domestic settings.</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Babysitter, Child care worker, Creche ayah, Family day care worker, Nanny, Out of school hours care worker</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -1534,23 +1529,29 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:010080</t>
+          <t>BCIO:010073</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>assembler</t>
-        </is>
-      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>teachers’ aide</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>An occupational role that assembles products from component parts according to strict specifications and procedures.</t>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>A personal care worker that performs non-teaching duties to assist teaching staff, and provides care and supervision for children in schools and pre-schools.</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Pre-school assistant, Teacher’s assistant</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -1562,28 +1563,29 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:010077</t>
+          <t>BCIO:010069</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>skilled agricultural, forestry and fishery worker</t>
-        </is>
-      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>personal services worker</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>An occupational role that grows and harvests plants or animals to provide food, shelter and income for themselves and their households.</t>
-        </is>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Market gardener, Crop grower, Animal Producer, Mixed Crop and Animal Producer, Forestry worker, Fishery worker, Hunter. Subsistence Crop Farmer, Subsistence Livestock Farmer</t>
+          <t>A services and sales worker that provides personal services related to travel, housekeeping, catering and hospitality, hairdressing and beauty treatment, animal care grooming and training, companionship and other services of a personal nature.</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Travel Attendant, Conductor, Guide, Cook, Waiter, Bartender, Hairdresser, Beautician, Housekeeping Supervisor, Astrologer, Fortune-teller, Valet, Undertaker, Embalmer, Pet Groomer, Animal Care Worker</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -1595,28 +1597,29 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:010082</t>
+          <t>BCIO:010070</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>armed forces occupation</t>
-        </is>
-      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>sales worker</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>An occupational role that includes all jobs held by members of the armed forces.</t>
-        </is>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Admiral, Air commodore, Air marshal, Airman, Brigadier (army), Bombardier, Captain (air force), Captain (army), Captain (navy), Colonel (army), Corporal,  Field marshal, Flight lieutenant (air force), Flying officer (military), General (army), Gunner, Group captain, (air force), Lieutenant (army), Major (army), Midshipman, Naval officer (military) , Navy commander, Officer cadet (armed forces), Paratrooper, Rifleman, Sergeant (army), Second lieutenant (army), Seaman, Squadron leader, Sublieutenant (navy), Wing commander</t>
+          <t>A services and sales worker that demonstrates goods in wholesale or retail shops, at stalls and markets, door to door, via telephone or customer contact centres. They may record and accept payment for goods and services purchased, and may operate small retail outlets.</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Street Salesperson, Market Salesperson, Shop Salesperson, Cashier, Ticket Clerk, Model, Sales Demonstrator, Door-to-door Salesperson, Contact Centre Salesperson, Service Station Attendant, Food Service Counter Attendant</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -1628,28 +1631,29 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:010083</t>
+          <t>BCIO:010076</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>researcher</t>
-        </is>
-      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>protective services worker</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>An occupational role that is a researcher but unclear what discipline.</t>
-        </is>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>researcher, research assistant, investigator</t>
+          <t>A services and sales worker that protects individuals and property against fire and other hazards, maintain law and order and enforce laws and regulations.</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Firefighter, Police officer, Prison guard, Security guard, Offender manager</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -1661,23 +1665,29 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:010006</t>
+          <t>BCIO:010005</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>professional</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>manager</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>An occupational role that works in knowledge building activities, applies scientific or artistic concepts and theories or teaches about the foregoing in a systematic manner.</t>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>An occupational role of source that manages, plans and coordinates the overall activities of enterprises, governments and other organisations.</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Chief Executive Officers; Administrative Managers;  Commercial Managers</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -1689,7 +1699,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:010007</t>
+          <t>BCIO:010079</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -1697,20 +1707,21 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>science and engineering professional</t>
+          <t>plant and machine operator</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>A professional that conducts research, improves or develops concepts, theories and operational methods or applies scientific knowledge.</t>
-        </is>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Science Professional, Mathematician, Actuary, Statistician, Life Science Professional, Engineering Professional, Electrotechnology Engineer, Architect, Planner, Surveyor, Designer</t>
+          <t>An occupational role that operates and monitors industrial and agricultural machinery and equipment on the spot or by remote control, or drives and operates trains, motor vehicles and mobile machinery and equipment.</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Stationary Plant and Machine Operator, Driver, Mobile Plant Operator</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -1722,7 +1733,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:010044</t>
+          <t>BCIO:010081</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -1730,15 +1741,21 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>technician and associate professional</t>
+          <t>elementary occupation</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>A professional that performs technical and related tasks connected with research and the application of scientific or artistic concepts and operational methods, and government or business regulations.</t>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>An occupational role that involves the performance of simple and routine tasks which may require the use of hand-held tools and considerable physical effort.</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Cleaner, Labourer, Food Preparation Assistant, Street and Related Services Worker, Street Vendor (excluding Food), Refuse Worker</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -1750,28 +1767,29 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:010045</t>
+          <t>BCIO:010067</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>health associate professional</t>
-        </is>
-      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>clerical support worker</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>A technician and associate professional that performs technical and practical tasks to support diagnosis and treatment of illness, disease, injuries and impairments in humans or animals, and supports the implementation of health care usually established by medical, veterinary, nursing and other health professionals.</t>
-        </is>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Veterinary Technician </t>
+          <t>An occupational role that records, organizes, stores, computes and retrieves information, and performs a number of clerical duties in connection with money-handling operations, travel arrangements, requests for information, and appointments.</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>General and Keyboard Clerk, customers Services Clerk, Numerical and Material Recording Clerk</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -1783,29 +1801,24 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:010055</t>
+          <t>BCIO:010080</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>assembler</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>environmental and occupational health inspector and associate</t>
-        </is>
-      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>A health associate professional that investigates the implementation of rules and regulations relating to environmental factors that may affect human health, safety in the 
-workplace, and safety of processes for the production of goods and services. They may implement and evaluate programmes to restore or improve safety and sanitary conditions under the supervision of a health professional.</t>
-        </is>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Food sanitation and safety inspector, Health inspector, Occupational health and safety inspector, Pollution inspector, Product safety inspector, Sanitarian, Sanitary inspector</t>
+          <t>An occupational role that assembles products from component parts according to strict specifications and procedures.</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -1817,28 +1830,24 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:010052</t>
+          <t>BCIO:010006</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>professional</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>community health worker</t>
-        </is>
-      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>A health associate professional that provides health education, referral and follow-up, case management, basic preventive health care and home visiting services to specific communities. They provide support and assistance to individuals and families in navigating the health and social services system.</t>
-        </is>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Community health aide, Community health promoter, Community health worker, Village health worker, outreach worker, health worker</t>
+          <t>An occupational role that works in knowledge building activities, applies scientific or artistic concepts and theories or teaches about the foregoing in a systematic manner.</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -1850,28 +1859,24 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:010056</t>
+          <t>BCIO:010034</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>ambulance worker</t>
-        </is>
-      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>legal, social and cultural professional</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>A health associate professional that provides emergency health care to patients who are injured, sick, infirm or otherwise physically or mentally impaired prior to and during transport to medical facilities.</t>
-        </is>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Ambulance officer, Ambulance paramedic, Emergency medical technician, Emergency paramedic</t>
+          <t>A professional that conducts research, improves or develops concepts, theories and operational methods, or applies knowledge relating to the law, social or cultural studies.</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -1883,7 +1888,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:010047</t>
+          <t>BCIO:010037</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -1893,18 +1898,19 @@
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>nursing and midwifery associate professional</t>
+          <t>social professional</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>A health associate professional that provides basic nursing and personal care for people who are physically or mentally ill, disabled or infirm, and for others in need of care due to potential risks to health including before, during and after childbirth. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing, midwifery and other health professionals.</t>
-        </is>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Practice assistant, Quit Smoking Counsellor, Health educator, Dispensing Optician, Information Technician</t>
+          <t>A legal, social and cultural professional that conducts research, improves or develops concepts, theories and operational methods or applies knowledge relating to psychology, sociology, philosophy, politics, economics, sociology, anthropology, history and other social sciences, or provides social services to meet the needs of individuals and families in a community.</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Economist, Sociologist, Anthropologist, Philosopher, Historian, Political Scientist</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -1916,7 +1922,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:010048</t>
+          <t>BCIO:010038</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -1927,17 +1933,18 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>nursing associate professional</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>A nursing and midwifery associate professional that provides basic nursing and personal care for people in need of such care due to effects of ageing, illness, injury, or other physical or mental impairment. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing and other health professionals.</t>
-        </is>
-      </c>
+          <t>psychologist</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Assistant nurse, Associate professional nurse, Enrolled nurse, Practical nurse</t>
+          <t>A social professional that studies the mental processes and behaviour of human beings as individuals or in groups, and applies this knowledge to promote personal, social, educational or occupational adjustment and development.</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Clinical psychologist, Counselling psychologist, Educational psychologist, Forensic psychologist, Health psychologist, Neuropsychologist, Organizational psychologist, Psychotherapist, Sport and exercise psychologist</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -1949,7 +1956,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:010049</t>
+          <t>BCIO:010039</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1960,17 +1967,18 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>midwifery associate professional</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>A nursing and midwifery associate professional that provides basic health care and advice before, during and after pregnancy and childbirth. They implement care, treatment and referral plans usually established by medical, midwifery and other health professionals.</t>
-        </is>
-      </c>
+          <t>social work and counselling professional</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Assistant midwife, Traditional midwife</t>
+          <t>A social professional that provides advice and guidance to individuals, families, groups, communities and organizations in response to social and personal difficulties. They assist clients to develop skills and access resources and support services needed to respond to issues arising from unemployment, poverty, disability, addiction, criminal and delinquent behaviour, marital and other problems.</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Counsellor, Addictions counsellor, Bereavement counsellor, Child and youth counsellor, District social welfare officer, Family counsellor, Marriage counsellor, Parole officer, Probation officer, Sexual assault counsellor, Social worker, Women’s welfare organizer</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -1982,7 +1990,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:010046</t>
+          <t>BCIO:010040</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -1992,18 +2000,19 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>medical and pharmaceutical technician</t>
+          <t>religious professional</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>A health associate professional that performs technical tasks to assist in diagnosis and treatment of illness, disease, injuries and impairments.</t>
-        </is>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Medical imaging and therapeutic equipment technician, Medical and Pathology laboratory technician, Pharmaceutical technician, Medical and dental prosthetic technician</t>
+          <t>A legal, social and cultural professional that functions  as a perpetuator of sacred traditions, practices and beliefs. They conduct religious services, celebrate or administer the rites of a religious faith or denomination, provide spiritual and moral guidance and perform other functions associated with the practice of a religion.</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Bonze, Imam, Minister of religion, Poojari, Priest, Rabbi</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -2015,7 +2024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:010053</t>
+          <t>BCIO:010042</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -2025,18 +2034,19 @@
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>physiotherapy technician and assistant</t>
+          <t>linguist</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>A health associate professional that provides physical therapeutic treatments to patients in circumstances where functional movement is threatened by injury, disease or impairment. Therapies are usually provided according to rehabilitative plans established by a physiotherapist or other health professional.</t>
-        </is>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Acupressure therapist, Electrotherapist, Hydrotherapist, Massage therapist, Physical rehabilitation technician, Physiotherapy technician, Shiatsu therapist</t>
+          <t>A legal, social and cultural professional that translates or interprets from one language into another.</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Interpretator; other linguist</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -2048,7 +2058,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:010051</t>
+          <t>BCIO:010041</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -2058,18 +2068,19 @@
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>dental assistant and therapist</t>
+          <t>author and journalist</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>A health associate professional that provides basic dental care services for the prevention and treatment of diseases and disorders of the teeth and mouth, according to care plans and procedures established by a dentist or other oral health professional.</t>
-        </is>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Dental assistant, Dental hygienist , Dental therapist</t>
+          <t>A legal, social and cultural professional that conceives and creates literary works, and interprets and communicates news and public affairs through the media.</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Author, Writer, Journalist, Translator, News anchor</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -2081,7 +2092,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:010054</t>
+          <t>BCIO:010035</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -2091,18 +2102,19 @@
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>medical assistant</t>
+          <t>legal professional</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>A health associate professional that performs basic clinical and administrative tasks to support patient care under the direct supervision of a medical practitioner or other health professional.</t>
-        </is>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Clinical assistant, Medical assistant, Ophthalmic assistant</t>
+          <t>A legal, social and cultural professional that conducts research on legal problems, advises clients on legal aspects of problems, pleads cases or conducts prosecutions in courts of law, presides over judicial proceedings in courts of law and draft laws and regulations.</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Lawyer, Judge, Coroner</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -2114,7 +2126,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:010050</t>
+          <t>BCIO:010043</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -2124,18 +2136,19 @@
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>traditional and complementary medicine associate professional</t>
+          <t>creative and performing artist</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>A health associate professional that prevents and treats human physical and mental illnesses, disorders and injuries using herbal and other therapies based on theories, beliefs and experiences originating in specific cultures. They administer treatments using traditional techniques and medicaments, either acting independently or according to therapeutic care plans established by a traditional medicine or other health professional.</t>
-        </is>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Acupuncture technician, Ayurvedic technician, Bonesetter, Herbalist , Homeopathy technician, Scraping and cupping therapist, Village healer, Witch doctor</t>
+          <t>A legal, social and cultural professional that communicates ideas, impressions and facts in a wide range of media to achieve particular effects, interprets a composition such as a musical score or a script to perform or direct the performance, and hosts the presentation of such performance and other media events.</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Visual artist, Musician, Singer, Composer, Dancer, Choreographer, Director, Producer, Actor, Announcer on radio, television and other media</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -2147,28 +2160,29 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:010059</t>
+          <t>BCIO:010036</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>social work associate professional</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>librarian, archivist and curator</t>
+        </is>
+      </c>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>A technician and associate professional that implements social assistance programmes and community services and assist clients to deal with personal and social problems.</t>
-        </is>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Community development worker, Community services worker, Crisis intervention worker, Disability services worker, Family services worker, Life skills instructor, Mental health support worker, Welfare support worker, Women’s shelter supervisor, Youth services worker</t>
+          <t>A legal, social and cultural professional that develops and maintains collections of archives, libraries, museums, art galleries and similar establishments.</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Librarian, Archivist,  Curator</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -2180,7 +2194,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:010060</t>
+          <t>BCIO:010025</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -2189,19 +2203,20 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>religious associate professional</t>
+          <t>teaching professional</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>A technician and associate professional that provides support to ministers of religion or to a religious community, undertake religious works, preach and propagate the teachings of a particular religion and endeavour to improve well-being through the power of faith and spiritual advice.</t>
-        </is>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Faith healer, Lay preacher, Monk, Nun</t>
+          <t>A professional that teaches the theory and practice of one or more disciplines at different educational levels.</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Education Methods Specialist, Other Language Teacher, Information Technology Teacher, Private Tutor, School Counsellor, Student Advisor</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -2213,28 +2228,29 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:010066</t>
+          <t>BCIO:010032</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>information and communications technician</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>music teacher</t>
+        </is>
+      </c>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>A technician and associate professional that provides support for the day to day running of computer systems, communication systems and networks, broadcast images and sound, telecommunication signals on land, sea or in aircraft.</t>
-        </is>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Information and Communications Technology Operations and User Support Technician, Telecommunications and Broadcasting Technician</t>
+          <t>A teaching professional that teaches students in the practice, theory and performance of music in private or small group tuition or within mainstream educational institutions.</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Guitar teacher (private tuition), Piano teacher (private tuition), Singing teacher (private tuition), Violin teacher (private tuition)</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -2246,28 +2262,29 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:010065</t>
+          <t>BCIO:010033</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>artistic, cultural and culinary associate professional</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>arts teacher</t>
+        </is>
+      </c>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>A technician and associate professional that combines creative skills and technical and cultural knowledge in creative media or food.</t>
-        </is>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Photographer, Interior designers and decorator, Gallery, museum and library technician, Chef</t>
+          <t>A teaching professional  that teaches students in the practice, theory and performance of dance, drama, visual and other arts (excluding music) in private or small group tuition or within mainstream educational institutions.</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Dance teacher (private tuition), Drama teacher (private tuition), Painting teacher (private tuition), Sculpture teacher (private tuition)</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -2279,28 +2296,29 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:010057</t>
+          <t>BCIO:010028</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>business and administration associate professional</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>secondary education teacher</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>A technician and associate professional that performs mostly technical tasks connected with the practical application of knowledge relating to financial accounting and transaction matters, mathematical calculations, human resource development, selling and buying financial instruments, specialized secretarial tasks and enforcing or applying government rules.</t>
-        </is>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Financial and Mathematical associate professional, Sales and purchasing agent, Broker, Business Services Agent, Administrative and Specialized Secretary, Government regulatory associate professional, Medical secretary</t>
+          <t>A teaching professional that teaches one or more subjects at secondary education level.</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Secondary school teacher, High school teacher</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -2312,28 +2330,29 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:010058</t>
+          <t>BCIO:010030</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>legal and related associate professional</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>early childhood educator</t>
+        </is>
+      </c>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>A technician and associate professional that performs support functions in courts of law or in law offices, provide services related to such legal matters as insurance contracts, the transferring of property and the granting of loans and other financial transactions, or conduct investigations for clients.</t>
-        </is>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Bailiff, Judge’s clerk, Conveyancing clerk, Court clerk, Justice of the peace, Law clerk, Legal assistant, Paralegal, Private detective, Title searcher</t>
+          <t>A teaching professional that promotes the social, physical, and intellectual development of children below primary school age through the provision of educational and play activities.</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Early childhood educator, Pre-school teacher</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -2345,28 +2364,29 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:010061</t>
+          <t>BCIO:010026</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>sport and fitness worker</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>university and higher education teacher</t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>A technician and associate professional that prepares for and competes in sporting events for financial gain, trains amateur and professional sportsmen and women to enhance performance, promotes participation and standards in sport, organises and officiates sporting events, or provides instruction, training and supervision for various forms of exercise and other recreational activities.</t>
-        </is>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>physical activity professional, exercise physiologist, exercise therapist, exercise specialist</t>
+          <t>A teaching professional that prepares and delivers lectures and conduct tutorials in one or more subjects within a prescribed course of study at a university or other higher educational institution. They conduct research, and prepare scholarly papers and books.</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Higher education lecturer, Professor, University lecturer, University tutor</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -2378,7 +2398,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:010064</t>
+          <t>BCIO:010029</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -2388,18 +2408,14 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>fitness and recreation instructor and programme leader</t>
+          <t>primary school teacher</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>A sport and fitness worker that leads, guides and instructs groups and individuals in recreational, fitness or outdoor adventure activities.</t>
-        </is>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Aerobics instructor, Fitness instructor, Horse riding instructor, Outdoor adventure guide, Personal trainer, Sailing instructor, Underwater diving instructor</t>
+          <t>A teaching professional that teaches teach a range of subjects at the primary education level.</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -2411,7 +2427,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:010063</t>
+          <t>BCIO:010031</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
@@ -2421,18 +2437,19 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>sports coach, instructor and official</t>
+          <t>special needs teacher</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>A sport and fitness worker that works with amateur and professional sportspersons to enhance performance and encourage greater participation in sport, and organizes and officiates in sporting events according to established rules.</t>
-        </is>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Referee, Ski instructor, Sports coach, Sports official, Swimming instructor</t>
+          <t>A teaching professional that teaches children, young persons or adults with physical or intellectual special needs.</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Learning disabilities special education teacher, Learning support teacher, Remedial teacher, Teacher of gifted children, Teacher of the hearing impaired, Teacher of the sight impaired</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -2444,7 +2461,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:010062</t>
+          <t>BCIO:010027</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -2454,18 +2471,19 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>athlete and sports player</t>
+          <t>vocational education teacher</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>A sport and fitness worker that participates in competitive sporting events. They train and compete, either individually or as part of a team, in their chosen sport.</t>
-        </is>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Athlete, Bicycle racer, Boxer, Chess player , Footballer, Golfer, Hockey player, Jockey, Poker player, Racing driver, Skier, Tennis player, Wrestler</t>
+          <t>A teaching professional that teaches or instructs vocational or occupational subjects in adult and further education institutions and to senior students in secondary schools and colleges.</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Automotive technology instructor, Cosmetology instructor, Vocational education teacher</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -2477,28 +2495,29 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:010025</t>
+          <t>BCIO:010007</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>teaching professional</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>science and engineering professional</t>
+        </is>
+      </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>A professional that teaches the theory and practice of one or more disciplines at different educational levels.</t>
-        </is>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Education Methods Specialist, Other Language Teacher, Information Technology Teacher, Private Tutor, School Counsellor, Student Advisor</t>
+          <t>A professional that conducts research, improves or develops concepts, theories and operational methods or applies scientific knowledge.</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Science Professional, Mathematician, Actuary, Statistician, Life Science Professional, Engineering Professional, Electrotechnology Engineer, Architect, Planner, Surveyor, Designer</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -2510,7 +2529,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:010031</t>
+          <t>BCIO:010044</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
@@ -2519,19 +2538,15 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>special needs teacher</t>
+          <t>technician and associate professional</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>A teaching professional that teaches children, young persons or adults with physical or intellectual special needs.</t>
-        </is>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Learning disabilities special education teacher, Learning support teacher, Remedial teacher, Teacher of gifted children, Teacher of the hearing impaired, Teacher of the sight impaired</t>
+          <t>A professional that performs technical and related tasks connected with research and the application of scientific or artistic concepts and operational methods, and government or business regulations.</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -2543,28 +2558,29 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:010032</t>
+          <t>BCIO:010058</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>music teacher</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>legal and related associate professional</t>
+        </is>
+      </c>
       <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>A teaching professional that teaches students in the practice, theory and performance of music in private or small group tuition or within mainstream educational institutions.</t>
-        </is>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Guitar teacher (private tuition), Piano teacher (private tuition), Singing teacher (private tuition), Violin teacher (private tuition)</t>
+          <t>A technician and associate professional that performs support functions in courts of law or in law offices, provide services related to such legal matters as insurance contracts, the transferring of property and the granting of loans and other financial transactions, or conduct investigations for clients.</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Bailiff, Judge’s clerk, Conveyancing clerk, Court clerk, Justice of the peace, Law clerk, Legal assistant, Paralegal, Private detective, Title searcher</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -2576,28 +2592,29 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:010027</t>
+          <t>BCIO:010066</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>vocational education teacher</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>information and communications technician</t>
+        </is>
+      </c>
       <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>A teaching professional that teaches or instructs vocational or occupational subjects in adult and further education institutions and to senior students in secondary schools and colleges.</t>
-        </is>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Automotive technology instructor, Cosmetology instructor, Vocational education teacher</t>
+          <t>A technician and associate professional that provides support for the day to day running of computer systems, communication systems and networks, broadcast images and sound, telecommunication signals on land, sea or in aircraft.</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Information and Communications Technology Operations and User Support Technician, Telecommunications and Broadcasting Technician</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -2609,28 +2626,29 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:010033</t>
+          <t>BCIO:010059</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>arts teacher</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>social work associate professional</t>
+        </is>
+      </c>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>A teaching professional  that teaches students in the practice, theory and performance of dance, drama, visual and other arts (excluding music) in private or small group tuition or within mainstream educational institutions.</t>
-        </is>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Dance teacher (private tuition), Drama teacher (private tuition), Painting teacher (private tuition), Sculpture teacher (private tuition)</t>
+          <t>A technician and associate professional that implements social assistance programmes and community services and assist clients to deal with personal and social problems.</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Community development worker, Community services worker, Crisis intervention worker, Disability services worker, Family services worker, Life skills instructor, Mental health support worker, Welfare support worker, Women’s shelter supervisor, Youth services worker</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -2642,23 +2660,29 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:010029</t>
+          <t>BCIO:010057</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>primary school teacher</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>business and administration associate professional</t>
+        </is>
+      </c>
       <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>A teaching professional that teaches teach a range of subjects at the primary education level.</t>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>A technician and associate professional that performs mostly technical tasks connected with the practical application of knowledge relating to financial accounting and transaction matters, mathematical calculations, human resource development, selling and buying financial instruments, specialized secretarial tasks and enforcing or applying government rules.</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Financial and Mathematical associate professional, Sales and purchasing agent, Broker, Business Services Agent, Administrative and Specialized Secretary, Government regulatory associate professional, Medical secretary</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -2670,28 +2694,29 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:010028</t>
+          <t>BCIO:010045</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>secondary education teacher</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>health associate professional</t>
+        </is>
+      </c>
       <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>A teaching professional that teaches one or more subjects at secondary education level.</t>
-        </is>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Secondary school teacher, High school teacher</t>
+          <t>A technician and associate professional that performs technical and practical tasks to support diagnosis and treatment of illness, disease, injuries and impairments in humans or animals, and supports the implementation of health care usually established by medical, veterinary, nursing and other health professionals.</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Veterinary Technician </t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -2703,28 +2728,30 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:010030</t>
+          <t>BCIO:010055</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>early childhood educator</t>
-        </is>
-      </c>
+      <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>A teaching professional that promotes the social, physical, and intellectual development of children below primary school age through the provision of educational and play activities.</t>
-        </is>
-      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>environmental and occupational health inspector and associate</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Early childhood educator, Pre-school teacher</t>
+          <t>A health associate professional that investigates the implementation of rules and regulations relating to environmental factors that may affect human health, safety in the 
+workplace, and safety of processes for the production of goods and services. They may implement and evaluate programmes to restore or improve safety and sanitary conditions under the supervision of a health professional.</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Food sanitation and safety inspector, Health inspector, Occupational health and safety inspector, Pollution inspector, Product safety inspector, Sanitarian, Sanitary inspector</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -2736,28 +2763,29 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:010026</t>
+          <t>BCIO:010054</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>university and higher education teacher</t>
-        </is>
-      </c>
+      <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>A teaching professional that prepares and delivers lectures and conduct tutorials in one or more subjects within a prescribed course of study at a university or other higher educational institution. They conduct research, and prepare scholarly papers and books.</t>
-        </is>
-      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>medical assistant</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Higher education lecturer, Professor, University lecturer, University tutor</t>
+          <t>A health associate professional that performs basic clinical and administrative tasks to support patient care under the direct supervision of a medical practitioner or other health professional.</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Clinical assistant, Medical assistant, Ophthalmic assistant</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -2769,28 +2797,29 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:010008</t>
+          <t>BCIO:010050</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>health professional</t>
-        </is>
-      </c>
+      <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>A professional that improves or develops concepts, theories and operational method, and applied scientific knowledge relating to medicine, nursing, dentistry, veterinary medicine, pharmacy, and promotion of health.</t>
-        </is>
-      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>traditional and complementary medicine associate professional</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Health professional; Arts therapist, Chiropractor, Dance and movement therapist, Occupational therapist, Osteopath, Podiatrist, Recreational therapist, Health staff, Clinic staff</t>
+          <t>A health associate professional that prevents and treats human physical and mental illnesses, disorders and injuries using herbal and other therapies based on theories, beliefs and experiences originating in specific cultures. They administer treatments using traditional techniques and medicaments, either acting independently or according to therapeutic care plans established by a traditional medicine or other health professional.</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Acupuncture technician, Ayurvedic technician, Bonesetter, Herbalist , Homeopathy technician, Scraping and cupping therapist, Village healer, Witch doctor</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -2802,28 +2831,29 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:010018</t>
+          <t>BCIO:010047</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>dentist</t>
-        </is>
-      </c>
+      <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>A health professional that diagnoses treats and prevents diseases, injuries and abnormalities of the teeth, mouth, jaws and associated tissues by applying the principles and procedures of modern dentistry.</t>
-        </is>
-      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>nursing and midwifery associate professional</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Dental practitioner, Dental surgeon, Dentist, Endodontist, Oral and maxillofacial surgeon, Oral pathologist, Orthodontist, Paedodontist, Periodontist, Prosthodontist, Stomatologist</t>
+          <t>A health associate professional that provides basic nursing and personal care for people who are physically or mentally ill, disabled or infirm, and for others in need of care due to potential risks to health including before, during and after childbirth. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing, midwifery and other health professionals.</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Practice assistant, Quit Smoking Counsellor, Health educator, Dispensing Optician, Information Technician</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -2835,28 +2865,29 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:010022</t>
+          <t>BCIO:010049</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>dietician and nutritionist</t>
-        </is>
-      </c>
+      <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>A health professional  that assesses, plans and implements programmes to enhance the impact of food and nutrition on human health.</t>
+          <t>midwifery associate professional</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Clinical dietician, Food service dietician, Nutritionist, Public health nutritionist, Sports nutritionist</t>
+          <t>A nursing and midwifery associate professional that provides basic health care and advice before, during and after pregnancy and childbirth. They implement care, treatment and referral plans usually established by medical, midwifery and other health professionals.</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Assistant midwife, Traditional midwife</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -2868,28 +2899,29 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:010023</t>
+          <t>BCIO:010048</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>audiologist and speech therapist</t>
-        </is>
-      </c>
+      <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>A health professional  that evaluates, manages and treats physical disorders affecting human hearing, speech, communication and swallowing.</t>
+          <t>nursing associate professional</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Audiologist, Language therapist, Speech pathologist, Speech therapist</t>
+          <t>A nursing and midwifery associate professional that provides basic nursing and personal care for people in need of such care due to effects of ageing, illness, injury, or other physical or mental impairment. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing and other health professionals.</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Assistant nurse, Associate professional nurse, Enrolled nurse, Practical nurse</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -2901,28 +2933,29 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:010013</t>
+          <t>BCIO:010052</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>nursing professional</t>
-        </is>
-      </c>
+      <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>A health professional that provides treatment, support and care services for people who are in need of nursing care due to the effects of ageing, injury, illness or other physical or mental impairment, or potential risks to health.</t>
-        </is>
-      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>community health worker</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Clinical nurse consultant, District nurse, Nurse anaesthetist, Nurse educator, Nurse practitioner, Operating theatre nurse, Professional nurse, Public health nurse, Specialist nurse, Nursing Counsellor, Study Nurse</t>
+          <t>A health associate professional that provides health education, referral and follow-up, case management, basic preventive health care and home visiting services to specific communities. They provide support and assistance to individuals and families in navigating the health and social services system.</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Community health aide, Community health promoter, Community health worker, Village health worker, outreach worker, health worker</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -2934,28 +2967,29 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:010020</t>
+          <t>BCIO:010053</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>environmental and occupational health and hygiene professional</t>
-        </is>
-      </c>
+      <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>A health professional that assesses, plans and implements programmes to recognize, monitor and control environmental factors that can potentially affect human health, to ensure safe and healthy working conditions and to prevent disease or injury caused by chemical, physical, radiological and biological agents or ergonomic factors.</t>
-        </is>
-      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>physiotherapy technician and assistant</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Environmental health officer, Occupational health and safety adviser, Occupational hygienist, Radiation protection expert</t>
+          <t>A health associate professional that provides physical therapeutic treatments to patients in circumstances where functional movement is threatened by injury, disease or impairment. Therapies are usually provided according to rehabilitative plans established by a physiotherapist or other health professional.</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Acupressure therapist, Electrotherapist, Hydrotherapist, Massage therapist, Physical rehabilitation technician, Physiotherapy technician, Shiatsu therapist</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -2967,28 +3001,29 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:010024</t>
+          <t>BCIO:010056</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>optometrist and ophthalmic optician</t>
-        </is>
-      </c>
+      <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>A health professional  that provides diagnosis, management and treatment services for disorders of the eyes and visual system.</t>
-        </is>
-      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>ambulance worker</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Ophthalmic optician , Optometrist, Orthoptist</t>
+          <t>A health associate professional that provides emergency health care to patients who are injured, sick, infirm or otherwise physically or mentally impaired prior to and during transport to medical facilities.</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>Ambulance officer, Ambulance paramedic, Emergency medical technician, Emergency paramedic</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -3000,28 +3035,29 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:010016</t>
+          <t>BCIO:010046</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>paramedical practitioner</t>
-        </is>
-      </c>
+      <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>A health professional that provides advisory, diagnostic, curative and preventive medical services more limited in scope and complexity than those carried out by medical doctors. They work autonomously or with limited supervision of medical doctors, and apply advanced clinical procedures for treating and preventing diseases, injuries and other physical or mental impairments common to specific communities.</t>
-        </is>
-      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>medical and pharmaceutical technician</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Advanced care paramedic, Clinical officer (paramedical), Feldscher, Primary care paramedic, Surgical technician</t>
+          <t>A health associate professional that performs technical tasks to assist in diagnosis and treatment of illness, disease, injuries and impairments.</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Medical imaging and therapeutic equipment technician, Medical and Pathology laboratory technician, Pharmaceutical technician, Medical and dental prosthetic technician</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -3033,28 +3069,29 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:010019</t>
+          <t>BCIO:010051</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>pharmacist</t>
-        </is>
-      </c>
+      <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>A health professional that stores, preserves, compounds and dispenses medicinal products and counsel on the proper use and adverse effects of drugs and medicines following prescriptions issued by medical doctors and other health professionals.</t>
-        </is>
-      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>dental assistant and therapist</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Dispensing chemist, Hospital pharmacist, Industrial pharmacist, Retail pharmacist</t>
+          <t>A health associate professional that provides basic dental care services for the prevention and treatment of diseases and disorders of the teeth and mouth, according to care plans and procedures established by a dentist or other oral health professional.</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>Dental assistant, Dental hygienist , Dental therapist</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -3066,23 +3103,29 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BCIO:010012</t>
+          <t>BCIO:010061</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>nursing and midwifery professional</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>sport and fitness worker</t>
+        </is>
+      </c>
       <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>A health professional that provides treatment and care services for people who are physically or mentally ill, disabled or infirm, and those with potential risks to health including before, during and after childbirth. They assume responsibility for the planning, management and evaluation of the care of patients, including the supervision of other health care workers, working autonomously or in teams with medical doctors and others in the practical application of preventive and curative measures.</t>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>A technician and associate professional that prepares for and competes in sporting events for financial gain, trains amateur and professional sportsmen and women to enhance performance, promotes participation and standards in sport, organises and officiates sporting events, or provides instruction, training and supervision for various forms of exercise and other recreational activities.</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>physical activity professional, exercise physiologist, exercise therapist, exercise specialist</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -3094,28 +3137,29 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BCIO:010014</t>
+          <t>BCIO:010064</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>midwifery professional</t>
-        </is>
-      </c>
+      <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>A health professional that plans, manages, provides and evaluates midwifery care services before, during and after pregnancy and childbirth. They provide delivery care for reducing health risks to women and newborn children, working autonomously or in teams with other health care providers.</t>
-        </is>
-      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>fitness and recreation instructor and programme leader</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Midwife</t>
+          <t>A sport and fitness worker that leads, guides and instructs groups and individuals in recreational, fitness or outdoor adventure activities.</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>Aerobics instructor, Fitness instructor, Horse riding instructor, Outdoor adventure guide, Personal trainer, Sailing instructor, Underwater diving instructor</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -3127,28 +3171,29 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BCIO:010021</t>
+          <t>BCIO:010063</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>physiotherapist</t>
-        </is>
-      </c>
+      <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>A health professional  that assesses, plans and implements rehabilitative programmes that improve or restore human motor functions, maximize movement ability, relieve pain syndromes, and treat or prevent physical challenges associated with injuries, diseases and other impairments.</t>
-        </is>
-      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>sports coach, instructor and official</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Geriatric physical therapist, Manipulative therapist, Orthopaedic physical therapist, Paediatric physical therapist, Physical therapist, Physiotherapist</t>
+          <t>A sport and fitness worker that works with amateur and professional sportspersons to enhance performance and encourage greater participation in sport, and organizes and officiates in sporting events according to established rules.</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>Referee, Ski instructor, Sports coach, Sports official, Swimming instructor</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -3160,28 +3205,29 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:010017</t>
+          <t>BCIO:010062</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>veterinarian</t>
-        </is>
-      </c>
+      <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>A health professional that diagnoses, prevents and treats diseases, injuries and dysfunctions of animals.</t>
-        </is>
-      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>athlete and sports player</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Animal pathologist, Veterinarian, Veterinary epidemiologist, Veterinary intern, Veterinary surgeon</t>
+          <t>A sport and fitness worker that participates in competitive sporting events. They train and compete, either individually or as part of a team, in their chosen sport.</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>Athlete, Bicycle racer, Boxer, Chess player , Footballer, Golfer, Hockey player, Jockey, Poker player, Racing driver, Skier, Tennis player, Wrestler</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -3193,28 +3239,29 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BCIO:010009</t>
+          <t>BCIO:010060</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>medical doctor</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>religious associate professional</t>
+        </is>
+      </c>
       <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>A health professional that studies, diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans through the application of modern medicine. They plan, supervise and evaluate the implementation of care and treatment plans by other health care providers, and conduct medical education and research activities.</t>
-        </is>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>District medical doctor-therapist, family medical practitioner, general practitioner, medical doctor (general), medical officer (general), physician (general), primary health care physician, resident medical officer specializing in general practice</t>
+          <t>A technician and associate professional that provides support to ministers of religion or to a religious community, undertake religious works, preach and propagate the teachings of a particular religion and endeavour to improve well-being through the power of faith and spiritual advice.</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Faith healer, Lay preacher, Monk, Nun</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -3226,7 +3273,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:010011</t>
+          <t>BCIO:010065</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
@@ -3236,18 +3283,19 @@
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>specialist medical practitioner</t>
+          <t>artistic, cultural and culinary associate professional</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans, using specialized testing, diagnostic, medical, surgical, physical and psychiatric techniques through application of the principles and procedures of modern medicine. They specialize in certain disease categories, types of patient or methods of treatment and may conduct medical education and research in their chosen areas of specialization.</t>
-        </is>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Anaesthetist, Cardiologist, Emergency medicine specialist, Gynaecologist, Obstetrician, Ophthalmologist, Paediatrician, Pathologist, Preventive medicine specialist, Psychiatrist, Radiation oncologist, Radiologist, Resident medical officer in specialist training, Specialist medical practitioner (public health), Specialist physician (internal medicine), Specialist physician (nuclear medicine), Surgeon</t>
+          <t>A technician and associate professional that combines creative skills and technical and cultural knowledge in creative media or food.</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>Photographer, Interior designers and decorator, Gallery, museum and library technician, Chef</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -3259,28 +3307,29 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:010010</t>
+          <t>BCIO:010008</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>generalist medical practitioner</t>
-        </is>
-      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>health professional</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments and maintains general health in humans through application of modern medicine. They do not limit their practice to certain disease categories or methods of treatment, and may assume responsibility for the provision of continuing and comprehensive medical care to individuals, families and communities.</t>
-        </is>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Primary care physician, family doctor, GP</t>
+          <t>A professional that improves or develops concepts, theories and operational method, and applied scientific knowledge relating to medicine, nursing, dentistry, veterinary medicine, pharmacy, and promotion of health.</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Health professional; Arts therapist, Chiropractor, Dance and movement therapist, Occupational therapist, Osteopath, Podiatrist, Recreational therapist, Health staff, Clinic staff</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -3292,28 +3341,24 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:010015</t>
+          <t>BCIO:010012</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>traditional and complementary medicine professional</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>nursing and midwifery professional</t>
+        </is>
+      </c>
       <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>A health professional that examines patients, prevents and treats illness, disease, injury and other physical and mental impairments and maintains general health in humans. They do this by applying knowledge, skills and practices acquired through extensive study of the theories, beliefs and experiences originating in specific cultures.</t>
-        </is>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Acupuncturist, Ayurvedic practitioner,  Chinese herbal medicine practitioner, Homeopath, Naturopath, Unani practitioner</t>
+          <t>A health professional that provides treatment and care services for people who are physically or mentally ill, disabled or infirm, and those with potential risks to health including before, during and after childbirth. They assume responsibility for the planning, management and evaluation of the care of patients, including the supervision of other health care workers, working autonomously or in teams with medical doctors and others in the practical application of preventive and curative measures.</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -3325,23 +3370,29 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:010034</t>
+          <t>BCIO:010018</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>legal, social and cultural professional</t>
-        </is>
-      </c>
+      <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>dentist</t>
+        </is>
+      </c>
       <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>A professional that conducts research, improves or develops concepts, theories and operational methods, or applies knowledge relating to the law, social or cultural studies.</t>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>A health professional that diagnoses treats and prevents diseases, injuries and abnormalities of the teeth, mouth, jaws and associated tissues by applying the principles and procedures of modern dentistry.</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>Dental practitioner, Dental surgeon, Dentist, Endodontist, Oral and maxillofacial surgeon, Oral pathologist, Orthodontist, Paedodontist, Periodontist, Prosthodontist, Stomatologist</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -3353,28 +3404,29 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BCIO:010040</t>
+          <t>BCIO:010023</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>religious professional</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>audiologist and speech therapist</t>
+        </is>
+      </c>
       <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>A legal, social and cultural professional that functions  as a perpetuator of sacred traditions, practices and beliefs. They conduct religious services, celebrate or administer the rites of a religious faith or denomination, provide spiritual and moral guidance and perform other functions associated with the practice of a religion.</t>
-        </is>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Bonze, Imam, Minister of religion, Poojari, Priest, Rabbi</t>
+          <t>A health professional  that evaluates, manages and treats physical disorders affecting human hearing, speech, communication and swallowing.</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>Audiologist, Language therapist, Speech pathologist, Speech therapist</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -3386,28 +3438,29 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BCIO:010037</t>
+          <t>BCIO:010021</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>social professional</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>physiotherapist</t>
+        </is>
+      </c>
       <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>A legal, social and cultural professional that conducts research, improves or develops concepts, theories and operational methods or applies knowledge relating to psychology, sociology, philosophy, politics, economics, sociology, anthropology, history and other social sciences, or provides social services to meet the needs of individuals and families in a community.</t>
-        </is>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Economist, Sociologist, Anthropologist, Philosopher, Historian, Political Scientist</t>
+          <t>A health professional  that assesses, plans and implements rehabilitative programmes that improve or restore human motor functions, maximize movement ability, relieve pain syndromes, and treat or prevent physical challenges associated with injuries, diseases and other impairments.</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>Geriatric physical therapist, Manipulative therapist, Orthopaedic physical therapist, Paediatric physical therapist, Physical therapist, Physiotherapist</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -3419,7 +3472,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BCIO:010038</t>
+          <t>BCIO:010017</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -3429,18 +3482,19 @@
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>psychologist</t>
+          <t>veterinarian</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>A social professional that studies the mental processes and behaviour of human beings as individuals or in groups, and applies this knowledge to promote personal, social, educational or occupational adjustment and development.</t>
-        </is>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Clinical psychologist, Counselling psychologist, Educational psychologist, Forensic psychologist, Health psychologist, Neuropsychologist, Organizational psychologist, Psychotherapist, Sport and exercise psychologist</t>
+          <t>A health professional that diagnoses, prevents and treats diseases, injuries and dysfunctions of animals.</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Animal pathologist, Veterinarian, Veterinary epidemiologist, Veterinary intern, Veterinary surgeon</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -3452,7 +3506,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BCIO:010039</t>
+          <t>BCIO:010016</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
@@ -3462,18 +3516,19 @@
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>social work and counselling professional</t>
+          <t>paramedical practitioner</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>A social professional that provides advice and guidance to individuals, families, groups, communities and organizations in response to social and personal difficulties. They assist clients to develop skills and access resources and support services needed to respond to issues arising from unemployment, poverty, disability, addiction, criminal and delinquent behaviour, marital and other problems.</t>
-        </is>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Counsellor, Addictions counsellor, Bereavement counsellor, Child and youth counsellor, District social welfare officer, Family counsellor, Marriage counsellor, Parole officer, Probation officer, Sexual assault counsellor, Social worker, Women’s welfare organizer</t>
+          <t>A health professional that provides advisory, diagnostic, curative and preventive medical services more limited in scope and complexity than those carried out by medical doctors. They work autonomously or with limited supervision of medical doctors, and apply advanced clinical procedures for treating and preventing diseases, injuries and other physical or mental impairments common to specific communities.</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>Advanced care paramedic, Clinical officer (paramedical), Feldscher, Primary care paramedic, Surgical technician</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -3485,28 +3540,29 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:010043</t>
+          <t>BCIO:010014</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>creative and performing artist</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>midwifery professional</t>
+        </is>
+      </c>
       <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>A legal, social and cultural professional that communicates ideas, impressions and facts in a wide range of media to achieve particular effects, interprets a composition such as a musical score or a script to perform or direct the performance, and hosts the presentation of such performance and other media events.</t>
-        </is>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Visual artist, Musician, Singer, Composer, Dancer, Choreographer, Director, Producer, Actor, Announcer on radio, television and other media</t>
+          <t>A health professional that plans, manages, provides and evaluates midwifery care services before, during and after pregnancy and childbirth. They provide delivery care for reducing health risks to women and newborn children, working autonomously or in teams with other health care providers.</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>Midwife</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -3518,28 +3574,29 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCIO:010035</t>
+          <t>BCIO:010020</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>legal professional</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>environmental and occupational health and hygiene professional</t>
+        </is>
+      </c>
       <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>A legal, social and cultural professional that conducts research on legal problems, advises clients on legal aspects of problems, pleads cases or conducts prosecutions in courts of law, presides over judicial proceedings in courts of law and draft laws and regulations.</t>
-        </is>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Lawyer, Judge, Coroner</t>
+          <t>A health professional that assesses, plans and implements programmes to recognize, monitor and control environmental factors that can potentially affect human health, to ensure safe and healthy working conditions and to prevent disease or injury caused by chemical, physical, radiological and biological agents or ergonomic factors.</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>Environmental health officer, Occupational health and safety adviser, Occupational hygienist, Radiation protection expert</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -3551,28 +3608,29 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BCIO:010036</t>
+          <t>BCIO:010019</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>librarian, archivist and curator</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>pharmacist</t>
+        </is>
+      </c>
       <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>A legal, social and cultural professional that develops and maintains collections of archives, libraries, museums, art galleries and similar establishments.</t>
-        </is>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Librarian, Archivist,  Curator</t>
+          <t>A health professional that stores, preserves, compounds and dispenses medicinal products and counsel on the proper use and adverse effects of drugs and medicines following prescriptions issued by medical doctors and other health professionals.</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>Dispensing chemist, Hospital pharmacist, Industrial pharmacist, Retail pharmacist</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -3584,28 +3642,29 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BCIO:010042</t>
+          <t>BCIO:010015</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>linguist</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>traditional and complementary medicine professional</t>
+        </is>
+      </c>
       <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>A legal, social and cultural professional that translates or interprets from one language into another.</t>
-        </is>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Interpretator; other linguist</t>
+          <t>A health professional that examines patients, prevents and treats illness, disease, injury and other physical and mental impairments and maintains general health in humans. They do this by applying knowledge, skills and practices acquired through extensive study of the theories, beliefs and experiences originating in specific cultures.</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>Acupuncturist, Ayurvedic practitioner,  Chinese herbal medicine practitioner, Homeopath, Naturopath, Unani practitioner</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -3617,28 +3676,29 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BCIO:010041</t>
+          <t>BCIO:010022</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>author and journalist</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>dietician and nutritionist</t>
+        </is>
+      </c>
       <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>A legal, social and cultural professional that conceives and creates literary works, and interprets and communicates news and public affairs through the media.</t>
-        </is>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Author, Writer, Journalist, Translator, News anchor</t>
+          <t>A health professional  that assesses, plans and implements programmes to enhance the impact of food and nutrition on human health.</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>Clinical dietician, Food service dietician, Nutritionist, Public health nutritionist, Sports nutritionist</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -3650,23 +3710,29 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BCIO:010000</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>behaviour change intervention source</t>
-        </is>
-      </c>
+          <t>BCIO:010024</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>optometrist and ophthalmic optician</t>
+        </is>
+      </c>
       <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>A role played by a person, population or organisation that provides a BCI.</t>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>A health professional  that provides diagnosis, management and treatment services for disorders of the eyes and visual system.</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>Ophthalmic optician , Optometrist, Orthoptist</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -3678,23 +3744,29 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BCIO:010001</t>
+          <t>BCIO:010009</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>person source role</t>
-        </is>
-      </c>
+      <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>medical doctor</t>
+        </is>
+      </c>
       <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>A behaviour change intervention source role that inheres in a person.</t>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>A health professional that studies, diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans through the application of modern medicine. They plan, supervise and evaluate the implementation of care and treatment plans by other health care providers, and conduct medical education and research activities.</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>District medical doctor-therapist, family medical practitioner, general practitioner, medical doctor (general), medical officer (general), physician (general), primary health care physician, resident medical officer specializing in general practice</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -3706,23 +3778,29 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BCIO:010134</t>
+          <t>BCIO:010010</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>source involved in development of intervention</t>
-        </is>
-      </c>
+      <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>A BCI source that is involved in the development of intervention content.</t>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>generalist medical practitioner</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments and maintains general health in humans through application of modern medicine. They do not limit their practice to certain disease categories or methods of treatment, and may assume responsibility for the provision of continuing and comprehensive medical care to individuals, families and communities.</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>Primary care physician, family doctor, GP</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -3734,23 +3812,29 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BCIO:010135</t>
+          <t>BCIO:010011</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>source involved in co-production of intervention</t>
-        </is>
-      </c>
+      <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>A source involved in development of intervention that has developed the intervention content in collaboration with key stakeholders such as patients or community members.</t>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>specialist medical practitioner</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans, using specialized testing, diagnostic, medical, surgical, physical and psychiatric techniques through application of the principles and procedures of modern medicine. They specialize in certain disease categories, types of patient or methods of treatment and may conduct medical education and research in their chosen areas of specialization.</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>Anaesthetist, Cardiologist, Emergency medicine specialist, Gynaecologist, Obstetrician, Ophthalmologist, Paediatrician, Pathologist, Preventive medicine specialist, Psychiatrist, Radiation oncologist, Radiologist, Resident medical officer in specialist training, Specialist medical practitioner (public health), Specialist physician (internal medicine), Specialist physician (nuclear medicine), Surgeon</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -3762,23 +3846,29 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BCIO:010133</t>
+          <t>BCIO:010013</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>source role related to intervention</t>
-        </is>
-      </c>
+      <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>nursing professional</t>
+        </is>
+      </c>
       <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>A BCI source whose occupational or voluntary role is focused on delivery of the behaviour change intervention.</t>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>A health professional that provides treatment, support and care services for people who are in need of nursing care due to the effects of ageing, injury, illness or other physical or mental impairment, or potential risks to health.</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>Clinical nurse consultant, District nurse, Nurse anaesthetist, Nurse educator, Nurse practitioner, Operating theatre nurse, Professional nurse, Public health nurse, Specialist nurse, Nursing Counsellor, Study Nurse</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -3790,51 +3880,43 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BCIO:010138</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>organisational source role</t>
-        </is>
-      </c>
+          <t>BFO:0000016</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000016</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>A BCI source role that is borne by an organisation.</t>
-        </is>
-      </c>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
+      <c r="I106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BCIO:010084</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>student or trainee role</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr"/>
+          <t>BCIO:010120</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>expertise of person source</t>
+        </is>
+      </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>A disposition that is an expert skill or knowledge held by the source delivering the behaviour change intervention.</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -3846,28 +3928,29 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BCIO:010088</t>
+          <t>BCIO:010121</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>higher education student or trainee</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>knowledge or skill</t>
+        </is>
+      </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>A student or trainee that is currently learning on an advanced educational programme in a university, college or professional school.</t>
-        </is>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr">
         <is>
-          <t>completing a university bachelor's or master's course of study, medical school or other professional school.</t>
+          <t>An expertise of person source that is knowledge or skills held in order to deliver the behaviour change intervention.</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>trained (if unclear whether pre-existing or acquired)</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -3879,28 +3962,29 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BCIO:010091</t>
+          <t>BCIO:010122</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>masters student or trainee</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>pre-existing knowledge or skill</t>
+        </is>
+      </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>A higher education student or trainee that is currently studying for a Masters degree.</t>
-        </is>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr">
         <is>
-          <t>MSc student, Masters student</t>
+          <t>A knowledge or skill that is already possessed by the source which allows them to deliver the behaviour change intervention, including educational level and qualifications.</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>Bachelor’s degree, certification, accredited, qualified</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -3912,28 +3996,29 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BCIO:010090</t>
+          <t>BCIO:010127</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>graduate student or trainee</t>
-        </is>
-      </c>
+      <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>affiliation to a formal group or organisation</t>
+        </is>
+      </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>A higher education student or trainee that has completed an undergraduate degree.</t>
-        </is>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>graduate student</t>
+          <t>A pre-existing knowledge or skill that is recognised through affiliation to a formal group or organisation.</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>member of British Psychological Society</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -3945,28 +4030,24 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BCIO:010089</t>
+          <t>BCIO:010125</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>undergraduate student or trainee</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>acquired knowledge or skill</t>
+        </is>
+      </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>A higher education student or trainee that is currently studying for an undergraduate degree.</t>
-        </is>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>undergraduate student</t>
+          <t>A knowledge or skill that is additional knowledge or skills supplied to the source to allow them to deliver the behaviour change intervention, including educational level and qualifications.</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -3978,46 +4059,32 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:010092</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr"/>
+          <t>ADDICTO:0000399</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>http://addictovocab.org/ADDICTO_0000399</t>
+        </is>
+      </c>
       <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>doctoral student or trainee</t>
-        </is>
-      </c>
+      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>A higher education student or trainee that is currently studying for a doctoral degree.</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>PhD student</t>
-        </is>
-      </c>
-      <c r="O112" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
+      <c r="I112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BCIO:010086</t>
+          <t>BCIO:015098</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr">
         <is>
-          <t>school student or trainee</t>
+          <t>gender identity</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
@@ -4025,37 +4092,44 @@
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>A student or trainee that is currently learning at a primary or secondary education level in an institutional, organised setting.</t>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>Source</t>
+          <t>Population</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:010087</t>
+          <t>BCIO:010111</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>vocational training student or trainee</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>female gender</t>
+        </is>
+      </c>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>A student or trainee that is currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>A gender identity as being female.</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>female, woman</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -4067,23 +4141,29 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:010085</t>
+          <t>BCIO:010112</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>informal education student or trainee</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>male gender</t>
+        </is>
+      </c>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>A student or trainee that is currently learning in a non-institutional setting.</t>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>A gender identity as being male.</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>male, man</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -4095,12 +4175,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>MF:0000016</t>
+          <t>BFO:0000015</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000015</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -4109,27 +4189,18 @@
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>An extended organism that is a member of the species Homo sapiens.</t>
-        </is>
-      </c>
-      <c r="O116" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
+      <c r="I116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:010095</t>
+          <t>BCIO:010130</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr">
         <is>
-          <t>family member</t>
+          <t>payment of person source</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
@@ -4137,9 +4208,10 @@
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>A person who is a member of a group of persons united by blood, or by marriage or other legal arrangement, or by self-identity as belonging to the same family.</t>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>A process in which a person source is paid or compensated for delivering the intervention.</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -4151,28 +4223,29 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:010096</t>
+          <t>BCIO:010131</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr">
         <is>
-          <t>parent or guardian</t>
+          <t>monetary payment</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>A family member that is a mother, father or legal carer of a child.</t>
-        </is>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>mother, father, step-mother, step-father, guardian</t>
+          <t>A payment of person source that is money, vouchers or valued objects given to the source for delivering the intervention.</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>paid in cash, vouchers</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -4184,28 +4257,29 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BCIO:010099</t>
+          <t>BCIO:010132</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
         <is>
-          <t>child relationship</t>
+          <t>non-monetary payment</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>A family member that is an offspring relationship from a person to their parent.</t>
-        </is>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr">
         <is>
-          <t>daughter, son, step-daughter, step-son</t>
+          <t>A payment of person source that is non-monetary compensation given to the source for delivering the intervention.</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>course credit</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
@@ -4217,28 +4291,29 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BCIO:010098</t>
+          <t>BCIO:010129</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>sibling relationship</t>
-        </is>
-      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>volunteering of person source</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>A family member that is a family relationship between two persons with at least one shared parent.</t>
-        </is>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr">
         <is>
-          <t>brother, sister, step-brother, step-sister</t>
+          <t>A process in which a person source delivers the intervention on a voluntary basis without formal compensation.</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>voluntary basis, volunteering</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -4250,28 +4325,29 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BCIO:010097</t>
+          <t>BCIO:010128</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>spouse or partner</t>
-        </is>
-      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>supervision of person source</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>A family member that is an individual who is married or in a committed relationship with another individual.</t>
-        </is>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr">
         <is>
-          <t>boyfriend, girlfriend, partner, fiance, wife, husband</t>
+          <t>A process in which a person source is formally provided, by an individual with appropriate expertise, with corrective and skill-enhancing feedback, regarding the person source’s performance in delivering the intervention.</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>supervised</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
@@ -4283,41 +4359,32 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BCIO:010002</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr"/>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>person source</t>
-        </is>
-      </c>
+          <t>BFO:0000040</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>A person who is the bearer of a behaviour change intervention source role.</t>
-        </is>
-      </c>
-      <c r="O122" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
+      <c r="I122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:050842</t>
+          <t>BCIO:010139</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr">
         <is>
-          <t>role model for a person</t>
+          <t>organisation source</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
@@ -4325,14 +4392,10 @@
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>A &lt;person&gt; that influences a recipient by being perceived to be similar or admired.</t>
-        </is>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>This class lies at the intersection between a person and their environment and is defined from the perspective of the person.</t>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>An organisation that is the bearer of a behaviour change intervention source role, such as voluntary, public or commercial organisations delivering a behaviour change intervention.</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
@@ -4344,51 +4407,43 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>OBI:0000245</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>organization</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr"/>
+          <t>OGMS:0000087</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OGMS_0000087</t>
+        </is>
+      </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>An entity that can bear roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
-        </is>
-      </c>
-      <c r="O124" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
+      <c r="I124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BCIO:010139</t>
+          <t>MF:0000016</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>organisation source</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>An organisation that is the bearer of a behaviour change intervention source role, such as voluntary, public or commercial organisations delivering a behaviour change intervention.</t>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>An extended organism that is a member of the species Homo sapiens.</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -4400,33 +4455,24 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BCIO:010123</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>expertise discipline</t>
-        </is>
-      </c>
+          <t>BCIO:010095</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>family member</t>
+        </is>
+      </c>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>An attribute that is a field of knowledge or practice.</t>
-        </is>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
-        </is>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>The division of expertise into different disciplines or fields is complex and depends on historical, social and structural factors.</t>
+          <t>A person who is a member of a group of persons united by blood, or by marriage or other legal arrangement, or by self-identity as belonging to the same family.</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -4438,28 +4484,29 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BCIO:010124</t>
+          <t>BCIO:010099</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>discipline of pre-existing knowledge or skill</t>
-        </is>
-      </c>
+      <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>child relationship</t>
+        </is>
+      </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>The expertise discipline in which the person source has acquired their pre-existing knowledge and skills.</t>
-        </is>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr">
         <is>
-          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
+          <t>A family member that is an offspring relationship from a person to their parent.</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>daughter, son, step-daughter, step-son</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -4471,28 +4518,29 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BCIO:010093</t>
+          <t>BCIO:010097</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>discipline of current programme of study or training</t>
-        </is>
-      </c>
+      <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>spouse or partner</t>
+        </is>
+      </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>An expertise discipline of the programme of study currently undertaken by the bearer of a student or trainee role.</t>
-        </is>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr">
         <is>
-          <t>psychology, medicine, hairdressing</t>
+          <t>A family member that is an individual who is married or in a committed relationship with another individual.</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>boyfriend, girlfriend, partner, fiance, wife, husband</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -4504,23 +4552,29 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BCIO:010108</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>socio demographic attribute of person source</t>
-        </is>
-      </c>
+          <t>BCIO:010098</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>sibling relationship</t>
+        </is>
+      </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>A social or demographic characteristic of a human being who is the bearer of a person source role.</t>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>A family member that is a family relationship between two persons with at least one shared parent.</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>brother, sister, step-brother, step-sister</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
@@ -4532,28 +4586,29 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BCIO:010116</t>
+          <t>BCIO:010096</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>language proficiency of person source</t>
-        </is>
-      </c>
+      <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>parent or guardian</t>
+        </is>
+      </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>A socio-demographic attribute of person source that is an individual’s ability to speak or perform in the intervention language.</t>
-        </is>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr">
         <is>
-          <t>fluent, native</t>
+          <t>A family member that is a mother, father or legal carer of a child.</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>mother, father, step-mother, step-father, guardian</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -4565,28 +4620,24 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BCIO:010118</t>
+          <t>BCIO:010002</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>target behaviour of person source</t>
-        </is>
-      </c>
+      <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr"/>
-      <c r="E131" t="inlineStr"/>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>person source</t>
+        </is>
+      </c>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>A socio-demographic attribute of person source that is their amount or experience of the intervention’s target behaviour.</t>
-        </is>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr">
         <is>
-          <t>source is highly physically active</t>
+          <t>A person who is the bearer of a behaviour change intervention source role.</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -4598,41 +4649,47 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BCIO:010119</t>
+          <t>BCIO:050842</t>
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>psychological influence on intervention delivery of person source</t>
-        </is>
-      </c>
+      <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr"/>
-      <c r="E132" t="inlineStr"/>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>role model for a person</t>
+        </is>
+      </c>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>A socio-demographic attribute of person source that is their existing psychological attributes related to or potentially affecting the target behaviour.</t>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>A &lt;person&gt; that influences a recipient by being perceived to be similar or admired.</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>This class lies at the intersection between a person and their environment and is defined from the perspective of the person.</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BCIO:010115</t>
+          <t>OBI:0000245</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr">
         <is>
-          <t>religious group membership of person source</t>
+          <t>organization</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
@@ -4640,14 +4697,10 @@
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>A socio-demographic attribute of person source that is a religious group to which an individual identifies as belonging, where a religious group is a group of people characterised by the practice of a common religion.</t>
-        </is>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Muslim, Christian, Hindu, Sikh, Buddhist, Judaism</t>
+          <t>An entity that can bear roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -4659,46 +4712,32 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BCIO:010117</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr"/>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>health status of person source</t>
-        </is>
-      </c>
+          <t>IAO:0000027</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/IAO_0000027</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>A socio-demographic attribute of person source that represents their mental or physical condition.</t>
-        </is>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>diabetes, cancer, depression, obesity, overweight</t>
-        </is>
-      </c>
-      <c r="O134" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
+      <c r="I134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BCIO:010114</t>
+          <t>BCIO:010106</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr">
         <is>
-          <t>ethnic group membership of person source</t>
+          <t>number of people delivering intervention to each participant</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
@@ -4706,14 +4745,10 @@
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>A socio-demographic attribute of person source that is the ethnic group to which an individual identifies as belonging, where an ethic group is a population whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
-        </is>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr">
         <is>
-          <t>black, white, Indian, Chinese, Somalian</t>
+          <t>A count data item that is the number of providers that an individual participant in the intervention encounters.</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -4725,13 +4760,13 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BCIO:010109</t>
+          <t>BCIO:010126</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr">
         <is>
-          <t>age of person source</t>
+          <t>amount of experience</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
@@ -4739,9 +4774,15 @@
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>A socio-demographic attribute of person source that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>A knowledge or skill that is the duration of experience in related domain held by person source.</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>full-day, 6 years</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -4753,13 +4794,13 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BCIO:010110</t>
+          <t>BCIO:010107</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr">
         <is>
-          <t>gender of person source</t>
+          <t>total number of people able to deliver intervention</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
@@ -4767,14 +4808,10 @@
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>A socio-demographic attribute of person source that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
-        </is>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>A count data item that is the total number of providers that are available and able to deliver the intervention.</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -4786,89 +4823,87 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BCIO:010113</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr"/>
+          <t>BFO:0000020</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000020</t>
+        </is>
+      </c>
       <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>other gender</t>
-        </is>
-      </c>
+      <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>A gender of person source that reports not belonging to the cultural gender role distinctions of either male or female.</t>
-        </is>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>non-binary, transexual</t>
-        </is>
-      </c>
-      <c r="O138" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
+      <c r="I138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BCIO:010130</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>payment of person source</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr"/>
+          <t>BCIO:010123</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>expertise discipline</t>
+        </is>
+      </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>A process in which a person source is paid or compensated for delivering the intervention.</t>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>An attribute that is a field of knowledge or practice.</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
         <is>
           <t>Source</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>The division of expertise into different disciplines or fields is complex and depends on historical, social and structural factors.</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BCIO:010132</t>
+          <t>BCIO:010093</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>non-monetary payment</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>discipline of current programme of study or training</t>
+        </is>
+      </c>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>A payment of person source that is non-monetary compensation given to the source for delivering the intervention.</t>
-        </is>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr">
         <is>
-          <t>course credit</t>
+          <t>An expertise discipline of the programme of study currently undertaken by the bearer of a student or trainee role.</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>psychology, medicine, hairdressing</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -4880,28 +4915,29 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BCIO:010131</t>
+          <t>BCIO:010124</t>
         </is>
       </c>
       <c r="B141" t="inlineStr"/>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>monetary payment</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>discipline of pre-existing knowledge or skill</t>
+        </is>
+      </c>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>A payment of person source that is money, vouchers or valued objects given to the source for delivering the intervention.</t>
-        </is>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr">
         <is>
-          <t>paid in cash, vouchers</t>
+          <t>The expertise discipline in which the person source has acquired their pre-existing knowledge and skills.</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
@@ -4913,28 +4949,24 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BCIO:010128</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>supervision of person source</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr"/>
+          <t>BCIO:010108</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>socio demographic attribute of person source</t>
+        </is>
+      </c>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>A process in which a person source is formally provided, by an individual with appropriate expertise, with corrective and skill-enhancing feedback, regarding the person source’s performance in delivering the intervention.</t>
-        </is>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr">
         <is>
-          <t>supervised</t>
+          <t>A social or demographic characteristic of a human being who is the bearer of a person source role.</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -4946,31 +4978,294 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BCIO:010129</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>volunteering of person source</t>
-        </is>
-      </c>
+          <t>BCIO:010115</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr"/>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>religious group membership of person source</t>
+        </is>
+      </c>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>A process in which a person source delivers the intervention on a voluntary basis without formal compensation.</t>
-        </is>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr">
         <is>
-          <t>voluntary basis, volunteering</t>
+          <t>A socio-demographic attribute of person source that is a religious group to which an individual identifies as belonging, where a religious group is a group of people characterised by the practice of a common religion.</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>Muslim, Christian, Hindu, Sikh, Buddhist, Judaism</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>BCIO:010116</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>language proficiency of person source</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>A socio-demographic attribute of person source that is an individual’s ability to speak or perform in the intervention language.</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>fluent, native</t>
+        </is>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>BCIO:010110</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>gender of person source</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>A socio-demographic attribute of person source that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>BCIO:010113</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>other gender</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>A gender of person source that reports not belonging to the cultural gender role distinctions of either male or female.</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>non-binary, transexual</t>
+        </is>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>BCIO:010114</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>ethnic group membership of person source</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>A socio-demographic attribute of person source that is the ethnic group to which an individual identifies as belonging, where an ethic group is a population whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>black, white, Indian, Chinese, Somalian</t>
+        </is>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>BCIO:010119</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>psychological influence on intervention delivery of person source</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>A socio-demographic attribute of person source that is their existing psychological attributes related to or potentially affecting the target behaviour.</t>
+        </is>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>BCIO:010109</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>age of person source</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>A socio-demographic attribute of person source that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>BCIO:010117</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>health status of person source</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>A socio-demographic attribute of person source that represents their mental or physical condition.</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>diabetes, cancer, depression, obesity, overweight</t>
+        </is>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>BCIO:010118</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>target behaviour of person source</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>A socio-demographic attribute of person source that is their amount or experience of the intervention’s target behaviour.</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>source is highly physically active</t>
+        </is>
+      </c>
+      <c r="O151" t="inlineStr">
         <is>
           <t>Source</t>
         </is>

--- a/Source/BCIO-source-hierarchy.xlsx
+++ b/Source/BCIO-source-hierarchy.xlsx
@@ -446,44 +446,44 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
           <t>Informal definition</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
         <is>
           <t>Cross reference</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Examples</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Sub-ontology</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Comment</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BFO:0000023</t>
+          <t>IAO:0000027</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000023</t>
+          <t>http://purl.obolibrary.org/obo/IAO_0000027</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -497,13 +497,13 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:010084</t>
+          <t>BCIO:010106</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>number of people delivering intervention to each participant</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -514,10 +514,10 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+          <t>A count data item that is the number of providers that an individual participant in the intervention encounters.</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -526,16 +526,16 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:010086</t>
+          <t>BCIO:010107</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>school student or trainee</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>total number of people able to deliver intervention</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -543,10 +543,10 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning at a primary or secondary education level in an institutional, organised setting.</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+          <t>A count data item that is the total number of providers that are available and able to deliver the intervention.</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -555,16 +555,16 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:010087</t>
+          <t>BCIO:010126</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>vocational training student or trainee</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>amount of experience</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -572,10 +572,15 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+          <t>A knowledge or skill that is the duration of experience in related domain held by person source.</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>full-day, 6 years</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -584,45 +589,35 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:010085</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>BFO:0000016</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000016</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>informal education student or trainee</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>A student or trainee that is currently learning in a non-institutional setting.</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:010088</t>
+          <t>BCIO:010120</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>higher education student or trainee</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>expertise of person source</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -630,15 +625,10 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning on an advanced educational programme in a university, college or professional school.</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>completing a university bachelor's or master's course of study, medical school or other professional school.</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+          <t>A disposition that is an expert skill or knowledge held by the source delivering the behaviour change intervention.</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -647,32 +637,32 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:010090</t>
+          <t>BCIO:010121</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>graduate student or trainee</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>knowledge or skill</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that has completed an undergraduate degree.</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>graduate student</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
+          <t>An expertise of person source that is knowledge or skills held in order to deliver the behaviour change intervention.</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>trained (if unclear whether pre-existing or acquired)</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -681,7 +671,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:010091</t>
+          <t>BCIO:010122</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -689,7 +679,7 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>masters student or trainee</t>
+          <t>pre-existing knowledge or skill</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -698,15 +688,15 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that is currently studying for a Masters degree.</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>MSc student, Masters student</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+          <t>A knowledge or skill that is already possessed by the source which allows them to deliver the behaviour change intervention, including educational level and qualifications.</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Bachelor’s degree, certification, accredited, qualified</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -715,32 +705,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:010092</t>
+          <t>BCIO:010127</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>doctoral student or trainee</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>affiliation to a formal group or organisation</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that is currently studying for a doctoral degree.</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>PhD student</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+          <t>A pre-existing knowledge or skill that is recognised through affiliation to a formal group or organisation.</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>member of British Psychological Society</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -749,7 +739,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:010089</t>
+          <t>BCIO:010125</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -757,7 +747,7 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>undergraduate student or trainee</t>
+          <t>acquired knowledge or skill</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -766,15 +756,10 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that is currently studying for an undergraduate degree.</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>undergraduate student</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
+          <t>A knowledge or skill that is additional knowledge or skills supplied to the source to allow them to deliver the behaviour change intervention, including educational level and qualifications.</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -783,45 +768,35 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:010000</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>behaviour change intervention source</t>
-        </is>
-      </c>
+          <t>BFO:0000023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000023</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>A role played by a person, population or organisation that provides a BCI.</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:010138</t>
+          <t>BCIO:010003</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>organisational source role</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>personal role of source</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -829,10 +804,10 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>A BCI source role that is borne by an organisation.</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
+          <t>A role that inheres in a person source.</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -841,14 +816,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:010001</t>
+          <t>BCIO:010094</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>person source role</t>
+          <t>relatedness between person source and the target population</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -858,10 +833,10 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>A behaviour change intervention source role that inheres in a person.</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
+          <t>A personal role of source that is realised in some relationship to the characteristics of the intervention participants.</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -870,27 +845,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:010134</t>
+          <t>BCIO:010102</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>source involved in development of intervention</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>colleague</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>A BCI source that is involved in the development of intervention content.</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
+          <t>A relatedness between person source and the target population that is a person with whom the participant works in a profession or business.</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -899,7 +874,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:010135</t>
+          <t>BCIO:010104</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -907,7 +882,7 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>source involved in co-production of intervention</t>
+          <t>peer</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -916,10 +891,10 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>A source involved in development of intervention that has developed the intervention content in collaboration with key stakeholders such as patients or community members.</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
+          <t>A relatedness between person source and the target population that is descried as matched to intervention recipients on the basis of ‘peerness’ – age, social status, gender, shared experience, shared health status etc.</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -928,27 +903,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:010133</t>
+          <t>BCIO:010105</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>source role related to intervention</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>embedded in participants’ community</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>A BCI source whose occupational or voluntary role is focused on delivery of the behaviour change intervention.</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
+          <t>A relatedness between person source and the target population that is a source who is known and working to deliver intervention in own community.</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -957,27 +932,32 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:010003</t>
+          <t>BCIO:010100</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>personal role of source</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>carer</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>A role that inheres in a person source.</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
+          <t>A relatedness between person source and the target population that is an individual who cares, unpaid, for a friend or family member who, due to illness or disability, requires support in their daily life activities.</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>carer</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -986,27 +966,27 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:010094</t>
+          <t>BCIO:010103</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>relatedness between person source and the target population</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>employer</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>A personal role of source that is realised in some relationship to the characteristics of the intervention participants.</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
+          <t>A relatedness between person source and the target population that is a person which hires the services of the participant.</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1015,7 +995,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:010100</t>
+          <t>BCIO:010101</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -1023,7 +1003,7 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>carer</t>
+          <t>friend</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1032,15 +1012,10 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is an individual who cares, unpaid, for a friend or family member who, due to illness or disability, requires support in their daily life activities.</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>carer</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
+          <t>A relatedness between person source and the target population that is a person whom the participant knows, likes and trusts, typically exclusive of sexual or family relations.</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1049,27 +1024,32 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:010105</t>
+          <t>BCIO:010004</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>embedded in participants’ community</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>occupational role of source</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a source who is known and working to deliver intervention in own community.</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
+          <t>A personal role of source that is realised by doing a specified type of work or working in a specified way.</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Interventionist, facilitator, study staff</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1078,7 +1058,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:010101</t>
+          <t>BCIO:010005</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -1086,7 +1066,7 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>friend</t>
+          <t>manager</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1095,10 +1075,15 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a person whom the participant knows, likes and trusts, typically exclusive of sexual or family relations.</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
+          <t>An occupational role of source that manages, plans and coordinates the overall activities of enterprises, governments and other organisations.</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Chief Executive Officers; Administrative Managers;  Commercial Managers</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1107,7 +1092,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:010102</t>
+          <t>BCIO:010077</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -1115,7 +1100,7 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>colleague</t>
+          <t>skilled agricultural, forestry and fishery worker</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1124,10 +1109,15 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a person with whom the participant works in a profession or business.</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
+          <t>An occupational role that grows and harvests plants or animals to provide food, shelter and income for themselves and their households.</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Market gardener, Crop grower, Animal Producer, Mixed Crop and Animal Producer, Forestry worker, Fishery worker, Hunter. Subsistence Crop Farmer, Subsistence Livestock Farmer</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1136,7 +1126,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:010104</t>
+          <t>BCIO:010081</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -1144,7 +1134,7 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>peer</t>
+          <t>elementary occupation</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1153,10 +1143,15 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is descried as matched to intervention recipients on the basis of ‘peerness’ – age, social status, gender, shared experience, shared health status etc.</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
+          <t>An occupational role that involves the performance of simple and routine tasks which may require the use of hand-held tools and considerable physical effort.</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Cleaner, Labourer, Food Preparation Assistant, Street and Related Services Worker, Street Vendor (excluding Food), Refuse Worker</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1165,7 +1160,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:010103</t>
+          <t>BCIO:010080</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -1173,7 +1168,7 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>employer</t>
+          <t>assembler</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1182,10 +1177,10 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a person which hires the services of the participant.</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
+          <t>An occupational role that assembles products from component parts according to strict specifications and procedures.</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1194,32 +1189,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:010004</t>
+          <t>BCIO:010006</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>occupational role of source</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>professional</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>A personal role of source that is realised by doing a specified type of work or working in a specified way.</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>Interventionist, facilitator, study staff</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
+          <t>An occupational role that works in knowledge building activities, applies scientific or artistic concepts and theories or teaches about the foregoing in a systematic manner.</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1228,32 +1218,32 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:010078</t>
+          <t>BCIO:010025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>craft and related trades worker</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>teaching professional</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>An occupational role that applies specific technical and practical knowledge and skills to construct and maintain buildings, machinery, equipment or tools, carries out printing work, and produces or processes foodstuffs, textiles and wooden, metal and other articles, including handicraft goods.</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Building Trade Worker, Metal Workers, Machinery Worker, Handicraft Worker, Printing Worker, Electrical Equipment Installers and Repairer, Electronics and Telecommunications Installer and Repairer, Food Processing Worker, Woodworker, Tobacco Product Maker</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
+          <t>A professional that teaches the theory and practice of one or more disciplines at different educational levels.</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Education Methods Specialist, Other Language Teacher, Information Technology Teacher, Private Tutor, School Counsellor, Student Advisor</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1262,32 +1252,32 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:010083</t>
+          <t>BCIO:010026</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>researcher</t>
-        </is>
-      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>university and higher education teacher</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>An occupational role that is a researcher but unclear what discipline.</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>researcher, research assistant, investigator</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
+          <t>A teaching professional that prepares and delivers lectures and conduct tutorials in one or more subjects within a prescribed course of study at a university or other higher educational institution. They conduct research, and prepare scholarly papers and books.</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Higher education lecturer, Professor, University lecturer, University tutor</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1296,32 +1286,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:010077</t>
+          <t>BCIO:010029</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>skilled agricultural, forestry and fishery worker</t>
-        </is>
-      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>primary school teacher</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>An occupational role that grows and harvests plants or animals to provide food, shelter and income for themselves and their households.</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>Market gardener, Crop grower, Animal Producer, Mixed Crop and Animal Producer, Forestry worker, Fishery worker, Hunter. Subsistence Crop Farmer, Subsistence Livestock Farmer</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
+          <t>A teaching professional that teaches teach a range of subjects at the primary education level.</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1330,32 +1315,32 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:010082</t>
+          <t>BCIO:010028</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>armed forces occupation</t>
-        </is>
-      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>secondary education teacher</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>An occupational role that includes all jobs held by members of the armed forces.</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Admiral, Air commodore, Air marshal, Airman, Brigadier (army), Bombardier, Captain (air force), Captain (army), Captain (navy), Colonel (army), Corporal,  Field marshal, Flight lieutenant (air force), Flying officer (military), General (army), Gunner, Group captain, (air force), Lieutenant (army), Major (army), Midshipman, Naval officer (military) , Navy commander, Officer cadet (armed forces), Paratrooper, Rifleman, Sergeant (army), Second lieutenant (army), Seaman, Squadron leader, Sublieutenant (navy), Wing commander</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
+          <t>A teaching professional that teaches one or more subjects at secondary education level.</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Secondary school teacher, High school teacher</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1364,27 +1349,32 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:010068</t>
+          <t>BCIO:010031</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>services and sales worker</t>
-        </is>
-      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>special needs teacher</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>An occupational role that provides personal or protective services related to travel, house-keeping, catering, personal care, protection against fire and unlawful acts, or sells goods in retail or markets.</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
+          <t>A teaching professional that teaches children, young persons or adults with physical or intellectual special needs.</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Learning disabilities special education teacher, Learning support teacher, Remedial teacher, Teacher of gifted children, Teacher of the hearing impaired, Teacher of the sight impaired</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1393,32 +1383,32 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:010071</t>
+          <t>BCIO:010027</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>personal care worker</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>vocational education teacher</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>A services and sales worker that provides care, supervision and assistance for children, patients and elderly, convalescent or disabled persons in institutional and residential settings.</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Personal carer</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
+          <t>A teaching professional that teaches or instructs vocational or occupational subjects in adult and further education institutions and to senior students in secondary schools and colleges.</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Automotive technology instructor, Cosmetology instructor, Vocational education teacher</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1427,7 +1417,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:010074</t>
+          <t>BCIO:010032</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -1437,22 +1427,22 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>health care assistant</t>
+          <t>music teacher</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>A personal care worker that provides direct personal care and assistance with activities of daily living to patients and residents in a variety of health care settings, working  in implementation of established care plans and practices, and under the direct supervision of medical, nursing or other health professionals or associate professionals.</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>Nursing aide (clinic or hospital), Patient care assistant, Psychiatric aid</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
+          <t>A teaching professional that teaches students in the practice, theory and performance of music in private or small group tuition or within mainstream educational institutions.</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Guitar teacher (private tuition), Piano teacher (private tuition), Singing teacher (private tuition), Violin teacher (private tuition)</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1461,7 +1451,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:010075</t>
+          <t>BCIO:010030</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1471,22 +1461,22 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>home-based personal care worker</t>
+          <t>early childhood educator</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>A personal care worker that provide routine personal care and assistance with activities of daily living to persons who are in need of such care due to effects of ageing, illness, injury, or other physical or mental conditions, in private homes and other independent residential settings.</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>Home birth assistant, Home care aide, Nursing aide (home), Personal care provider</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
+          <t>A teaching professional that promotes the social, physical, and intellectual development of children below primary school age through the provision of educational and play activities.</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Early childhood educator, Pre-school teacher</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1495,7 +1485,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:010072</t>
+          <t>BCIO:010033</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -1505,22 +1495,22 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>child care worker</t>
+          <t>arts teacher</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>A personal care worker that provides care and supervision for children in non-domestic settings.</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>Babysitter, Child care worker, Creche ayah, Family day care worker, Nanny, Out of school hours care worker</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
+          <t>A teaching professional  that teaches students in the practice, theory and performance of dance, drama, visual and other arts (excluding music) in private or small group tuition or within mainstream educational institutions.</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Dance teacher (private tuition), Drama teacher (private tuition), Painting teacher (private tuition), Sculpture teacher (private tuition)</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1529,32 +1519,32 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:010073</t>
+          <t>BCIO:010008</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>teachers’ aide</t>
-        </is>
-      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>health professional</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>A personal care worker that performs non-teaching duties to assist teaching staff, and provides care and supervision for children in schools and pre-schools.</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>Pre-school assistant, Teacher’s assistant</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
+          <t>A professional that improves or develops concepts, theories and operational method, and applied scientific knowledge relating to medicine, nursing, dentistry, veterinary medicine, pharmacy, and promotion of health.</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Health professional; Arts therapist, Chiropractor, Dance and movement therapist, Occupational therapist, Osteopath, Podiatrist, Recreational therapist, Health staff, Clinic staff</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1563,32 +1553,32 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:010069</t>
+          <t>BCIO:010009</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>personal services worker</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>medical doctor</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>A services and sales worker that provides personal services related to travel, housekeeping, catering and hospitality, hairdressing and beauty treatment, animal care grooming and training, companionship and other services of a personal nature.</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>Travel Attendant, Conductor, Guide, Cook, Waiter, Bartender, Hairdresser, Beautician, Housekeeping Supervisor, Astrologer, Fortune-teller, Valet, Undertaker, Embalmer, Pet Groomer, Animal Care Worker</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
+          <t>A health professional that studies, diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans through the application of modern medicine. They plan, supervise and evaluate the implementation of care and treatment plans by other health care providers, and conduct medical education and research activities.</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>District medical doctor-therapist, family medical practitioner, general practitioner, medical doctor (general), medical officer (general), physician (general), primary health care physician, resident medical officer specializing in general practice</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1597,32 +1587,32 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:010070</t>
+          <t>BCIO:010010</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>sales worker</t>
-        </is>
-      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>generalist medical practitioner</t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>A services and sales worker that demonstrates goods in wholesale or retail shops, at stalls and markets, door to door, via telephone or customer contact centres. They may record and accept payment for goods and services purchased, and may operate small retail outlets.</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>Street Salesperson, Market Salesperson, Shop Salesperson, Cashier, Ticket Clerk, Model, Sales Demonstrator, Door-to-door Salesperson, Contact Centre Salesperson, Service Station Attendant, Food Service Counter Attendant</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
+          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments and maintains general health in humans through application of modern medicine. They do not limit their practice to certain disease categories or methods of treatment, and may assume responsibility for the provision of continuing and comprehensive medical care to individuals, families and communities.</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Primary care physician, family doctor, GP</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1631,32 +1621,32 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:010076</t>
+          <t>BCIO:010011</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>protective services worker</t>
-        </is>
-      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>specialist medical practitioner</t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>A services and sales worker that protects individuals and property against fire and other hazards, maintain law and order and enforce laws and regulations.</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>Firefighter, Police officer, Prison guard, Security guard, Offender manager</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
+          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans, using specialized testing, diagnostic, medical, surgical, physical and psychiatric techniques through application of the principles and procedures of modern medicine. They specialize in certain disease categories, types of patient or methods of treatment and may conduct medical education and research in their chosen areas of specialization.</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Anaesthetist, Cardiologist, Emergency medicine specialist, Gynaecologist, Obstetrician, Ophthalmologist, Paediatrician, Pathologist, Preventive medicine specialist, Psychiatrist, Radiation oncologist, Radiologist, Resident medical officer in specialist training, Specialist medical practitioner (public health), Specialist physician (internal medicine), Specialist physician (nuclear medicine), Surgeon</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1665,32 +1655,32 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:010005</t>
+          <t>BCIO:010020</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>manager</t>
-        </is>
-      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>environmental and occupational health and hygiene professional</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>An occupational role of source that manages, plans and coordinates the overall activities of enterprises, governments and other organisations.</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>Chief Executive Officers; Administrative Managers;  Commercial Managers</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
+          <t>A health professional that assesses, plans and implements programmes to recognize, monitor and control environmental factors that can potentially affect human health, to ensure safe and healthy working conditions and to prevent disease or injury caused by chemical, physical, radiological and biological agents or ergonomic factors.</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Environmental health officer, Occupational health and safety adviser, Occupational hygienist, Radiation protection expert</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1699,32 +1689,32 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:010079</t>
+          <t>BCIO:010021</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>plant and machine operator</t>
-        </is>
-      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>physiotherapist</t>
+        </is>
+      </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>An occupational role that operates and monitors industrial and agricultural machinery and equipment on the spot or by remote control, or drives and operates trains, motor vehicles and mobile machinery and equipment.</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>Stationary Plant and Machine Operator, Driver, Mobile Plant Operator</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
+          <t>A health professional  that assesses, plans and implements rehabilitative programmes that improve or restore human motor functions, maximize movement ability, relieve pain syndromes, and treat or prevent physical challenges associated with injuries, diseases and other impairments.</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Geriatric physical therapist, Manipulative therapist, Orthopaedic physical therapist, Paediatric physical therapist, Physical therapist, Physiotherapist</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1733,32 +1723,32 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:010081</t>
+          <t>BCIO:010018</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>elementary occupation</t>
-        </is>
-      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>dentist</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>An occupational role that involves the performance of simple and routine tasks which may require the use of hand-held tools and considerable physical effort.</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>Cleaner, Labourer, Food Preparation Assistant, Street and Related Services Worker, Street Vendor (excluding Food), Refuse Worker</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
+          <t>A health professional that diagnoses treats and prevents diseases, injuries and abnormalities of the teeth, mouth, jaws and associated tissues by applying the principles and procedures of modern dentistry.</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Dental practitioner, Dental surgeon, Dentist, Endodontist, Oral and maxillofacial surgeon, Oral pathologist, Orthodontist, Paedodontist, Periodontist, Prosthodontist, Stomatologist</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1767,32 +1757,32 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:010067</t>
+          <t>BCIO:010023</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>clerical support worker</t>
-        </is>
-      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>audiologist and speech therapist</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>An occupational role that records, organizes, stores, computes and retrieves information, and performs a number of clerical duties in connection with money-handling operations, travel arrangements, requests for information, and appointments.</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>General and Keyboard Clerk, customers Services Clerk, Numerical and Material Recording Clerk</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
+          <t>A health professional  that evaluates, manages and treats physical disorders affecting human hearing, speech, communication and swallowing.</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Audiologist, Language therapist, Speech pathologist, Speech therapist</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1801,27 +1791,32 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:010080</t>
+          <t>BCIO:010016</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>assembler</t>
-        </is>
-      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>paramedical practitioner</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>An occupational role that assembles products from component parts according to strict specifications and procedures.</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
+          <t>A health professional that provides advisory, diagnostic, curative and preventive medical services more limited in scope and complexity than those carried out by medical doctors. They work autonomously or with limited supervision of medical doctors, and apply advanced clinical procedures for treating and preventing diseases, injuries and other physical or mental impairments common to specific communities.</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Advanced care paramedic, Clinical officer (paramedical), Feldscher, Primary care paramedic, Surgical technician</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1830,27 +1825,32 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:010006</t>
+          <t>BCIO:010013</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>professional</t>
-        </is>
-      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>nursing professional</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>An occupational role that works in knowledge building activities, applies scientific or artistic concepts and theories or teaches about the foregoing in a systematic manner.</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
+          <t>A health professional that provides treatment, support and care services for people who are in need of nursing care due to the effects of ageing, injury, illness or other physical or mental impairment, or potential risks to health.</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Clinical nurse consultant, District nurse, Nurse anaesthetist, Nurse educator, Nurse practitioner, Operating theatre nurse, Professional nurse, Public health nurse, Specialist nurse, Nursing Counsellor, Study Nurse</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1859,27 +1859,32 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:010034</t>
+          <t>BCIO:010022</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>legal, social and cultural professional</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>dietician and nutritionist</t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>A professional that conducts research, improves or develops concepts, theories and operational methods, or applies knowledge relating to the law, social or cultural studies.</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
+          <t>A health professional  that assesses, plans and implements programmes to enhance the impact of food and nutrition on human health.</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Clinical dietician, Food service dietician, Nutritionist, Public health nutritionist, Sports nutritionist</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1888,7 +1893,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:010037</t>
+          <t>BCIO:010012</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -1898,22 +1903,17 @@
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>social professional</t>
+          <t>nursing and midwifery professional</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that conducts research, improves or develops concepts, theories and operational methods or applies knowledge relating to psychology, sociology, philosophy, politics, economics, sociology, anthropology, history and other social sciences, or provides social services to meet the needs of individuals and families in a community.</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>Economist, Sociologist, Anthropologist, Philosopher, Historian, Political Scientist</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
+          <t>A health professional that provides treatment and care services for people who are physically or mentally ill, disabled or infirm, and those with potential risks to health including before, during and after childbirth. They assume responsibility for the planning, management and evaluation of the care of patients, including the supervision of other health care workers, working autonomously or in teams with medical doctors and others in the practical application of preventive and curative measures.</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1922,7 +1922,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:010038</t>
+          <t>BCIO:010015</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -1930,24 +1930,24 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>psychologist</t>
-        </is>
-      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>traditional and complementary medicine professional</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>A social professional that studies the mental processes and behaviour of human beings as individuals or in groups, and applies this knowledge to promote personal, social, educational or occupational adjustment and development.</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Clinical psychologist, Counselling psychologist, Educational psychologist, Forensic psychologist, Health psychologist, Neuropsychologist, Organizational psychologist, Psychotherapist, Sport and exercise psychologist</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
+          <t>A health professional that examines patients, prevents and treats illness, disease, injury and other physical and mental impairments and maintains general health in humans. They do this by applying knowledge, skills and practices acquired through extensive study of the theories, beliefs and experiences originating in specific cultures.</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Acupuncturist, Ayurvedic practitioner,  Chinese herbal medicine practitioner, Homeopath, Naturopath, Unani practitioner</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1956,7 +1956,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:010039</t>
+          <t>BCIO:010019</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1964,24 +1964,24 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>social work and counselling professional</t>
-        </is>
-      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>pharmacist</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>A social professional that provides advice and guidance to individuals, families, groups, communities and organizations in response to social and personal difficulties. They assist clients to develop skills and access resources and support services needed to respond to issues arising from unemployment, poverty, disability, addiction, criminal and delinquent behaviour, marital and other problems.</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Counsellor, Addictions counsellor, Bereavement counsellor, Child and youth counsellor, District social welfare officer, Family counsellor, Marriage counsellor, Parole officer, Probation officer, Sexual assault counsellor, Social worker, Women’s welfare organizer</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
+          <t>A health professional that stores, preserves, compounds and dispenses medicinal products and counsel on the proper use and adverse effects of drugs and medicines following prescriptions issued by medical doctors and other health professionals.</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Dispensing chemist, Hospital pharmacist, Industrial pharmacist, Retail pharmacist</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -1990,7 +1990,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:010040</t>
+          <t>BCIO:010024</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -2000,22 +2000,22 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>religious professional</t>
+          <t>optometrist and ophthalmic optician</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that functions  as a perpetuator of sacred traditions, practices and beliefs. They conduct religious services, celebrate or administer the rites of a religious faith or denomination, provide spiritual and moral guidance and perform other functions associated with the practice of a religion.</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Bonze, Imam, Minister of religion, Poojari, Priest, Rabbi</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
+          <t>A health professional  that provides diagnosis, management and treatment services for disorders of the eyes and visual system.</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Ophthalmic optician , Optometrist, Orthoptist</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -2024,7 +2024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:010042</t>
+          <t>BCIO:010014</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -2034,22 +2034,22 @@
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>linguist</t>
+          <t>midwifery professional</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that translates or interprets from one language into another.</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Interpretator; other linguist</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
+          <t>A health professional that plans, manages, provides and evaluates midwifery care services before, during and after pregnancy and childbirth. They provide delivery care for reducing health risks to women and newborn children, working autonomously or in teams with other health care providers.</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Midwife</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -2058,7 +2058,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:010041</t>
+          <t>BCIO:010017</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -2068,22 +2068,22 @@
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>author and journalist</t>
+          <t>veterinarian</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that conceives and creates literary works, and interprets and communicates news and public affairs through the media.</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Author, Writer, Journalist, Translator, News anchor</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
+          <t>A health professional that diagnoses, prevents and treats diseases, injuries and dysfunctions of animals.</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Animal pathologist, Veterinarian, Veterinary epidemiologist, Veterinary intern, Veterinary surgeon</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -2092,32 +2092,27 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:010035</t>
+          <t>BCIO:010034</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>legal professional</t>
-        </is>
-      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>legal, social and cultural professional</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that conducts research on legal problems, advises clients on legal aspects of problems, pleads cases or conducts prosecutions in courts of law, presides over judicial proceedings in courts of law and draft laws and regulations.</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>Lawyer, Judge, Coroner</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
+          <t>A professional that conducts research, improves or develops concepts, theories and operational methods, or applies knowledge relating to the law, social or cultural studies.</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -2126,7 +2121,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:010043</t>
+          <t>BCIO:010040</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -2136,22 +2131,22 @@
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>creative and performing artist</t>
+          <t>religious professional</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that communicates ideas, impressions and facts in a wide range of media to achieve particular effects, interprets a composition such as a musical score or a script to perform or direct the performance, and hosts the presentation of such performance and other media events.</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Visual artist, Musician, Singer, Composer, Dancer, Choreographer, Director, Producer, Actor, Announcer on radio, television and other media</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
+          <t>A legal, social and cultural professional that functions  as a perpetuator of sacred traditions, practices and beliefs. They conduct religious services, celebrate or administer the rites of a religious faith or denomination, provide spiritual and moral guidance and perform other functions associated with the practice of a religion.</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Bonze, Imam, Minister of religion, Poojari, Priest, Rabbi</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -2160,7 +2155,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:010036</t>
+          <t>BCIO:010037</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -2170,22 +2165,22 @@
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>librarian, archivist and curator</t>
+          <t>social professional</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that develops and maintains collections of archives, libraries, museums, art galleries and similar establishments.</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>Librarian, Archivist,  Curator</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
+          <t>A legal, social and cultural professional that conducts research, improves or develops concepts, theories and operational methods or applies knowledge relating to psychology, sociology, philosophy, politics, economics, sociology, anthropology, history and other social sciences, or provides social services to meet the needs of individuals and families in a community.</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Economist, Sociologist, Anthropologist, Philosopher, Historian, Political Scientist</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -2194,32 +2189,32 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:010025</t>
+          <t>BCIO:010039</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>teaching professional</t>
-        </is>
-      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>social work and counselling professional</t>
+        </is>
+      </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>A professional that teaches the theory and practice of one or more disciplines at different educational levels.</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Education Methods Specialist, Other Language Teacher, Information Technology Teacher, Private Tutor, School Counsellor, Student Advisor</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
+          <t>A social professional that provides advice and guidance to individuals, families, groups, communities and organizations in response to social and personal difficulties. They assist clients to develop skills and access resources and support services needed to respond to issues arising from unemployment, poverty, disability, addiction, criminal and delinquent behaviour, marital and other problems.</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Counsellor, Addictions counsellor, Bereavement counsellor, Child and youth counsellor, District social welfare officer, Family counsellor, Marriage counsellor, Parole officer, Probation officer, Sexual assault counsellor, Social worker, Women’s welfare organizer</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -2228,7 +2223,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:010032</t>
+          <t>BCIO:010038</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -2236,24 +2231,24 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>music teacher</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>psychologist</t>
+        </is>
+      </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches students in the practice, theory and performance of music in private or small group tuition or within mainstream educational institutions.</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>Guitar teacher (private tuition), Piano teacher (private tuition), Singing teacher (private tuition), Violin teacher (private tuition)</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
+          <t>A social professional that studies the mental processes and behaviour of human beings as individuals or in groups, and applies this knowledge to promote personal, social, educational or occupational adjustment and development.</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Clinical psychologist, Counselling psychologist, Educational psychologist, Forensic psychologist, Health psychologist, Neuropsychologist, Organizational psychologist, Psychotherapist, Sport and exercise psychologist</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -2262,7 +2257,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:010033</t>
+          <t>BCIO:010041</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
@@ -2272,22 +2267,22 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>arts teacher</t>
+          <t>author and journalist</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>A teaching professional  that teaches students in the practice, theory and performance of dance, drama, visual and other arts (excluding music) in private or small group tuition or within mainstream educational institutions.</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>Dance teacher (private tuition), Drama teacher (private tuition), Painting teacher (private tuition), Sculpture teacher (private tuition)</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
+          <t>A legal, social and cultural professional that conceives and creates literary works, and interprets and communicates news and public affairs through the media.</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Author, Writer, Journalist, Translator, News anchor</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -2296,7 +2291,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:010028</t>
+          <t>BCIO:010036</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -2306,22 +2301,22 @@
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>secondary education teacher</t>
+          <t>librarian, archivist and curator</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches one or more subjects at secondary education level.</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>Secondary school teacher, High school teacher</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
+          <t>A legal, social and cultural professional that develops and maintains collections of archives, libraries, museums, art galleries and similar establishments.</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Librarian, Archivist,  Curator</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -2330,7 +2325,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:010030</t>
+          <t>BCIO:010035</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -2340,22 +2335,22 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>early childhood educator</t>
+          <t>legal professional</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>A teaching professional that promotes the social, physical, and intellectual development of children below primary school age through the provision of educational and play activities.</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>Early childhood educator, Pre-school teacher</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
+          <t>A legal, social and cultural professional that conducts research on legal problems, advises clients on legal aspects of problems, pleads cases or conducts prosecutions in courts of law, presides over judicial proceedings in courts of law and draft laws and regulations.</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Lawyer, Judge, Coroner</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -2364,7 +2359,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:010026</t>
+          <t>BCIO:010043</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -2374,22 +2369,22 @@
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>university and higher education teacher</t>
+          <t>creative and performing artist</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>A teaching professional that prepares and delivers lectures and conduct tutorials in one or more subjects within a prescribed course of study at a university or other higher educational institution. They conduct research, and prepare scholarly papers and books.</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>Higher education lecturer, Professor, University lecturer, University tutor</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
+          <t>A legal, social and cultural professional that communicates ideas, impressions and facts in a wide range of media to achieve particular effects, interprets a composition such as a musical score or a script to perform or direct the performance, and hosts the presentation of such performance and other media events.</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Visual artist, Musician, Singer, Composer, Dancer, Choreographer, Director, Producer, Actor, Announcer on radio, television and other media</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -2398,7 +2393,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:010029</t>
+          <t>BCIO:010042</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -2408,17 +2403,22 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>primary school teacher</t>
+          <t>linguist</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches teach a range of subjects at the primary education level.</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
+          <t>A legal, social and cultural professional that translates or interprets from one language into another.</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Interpretator; other linguist</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -2427,32 +2427,32 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:010031</t>
+          <t>BCIO:010007</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>special needs teacher</t>
-        </is>
-      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>science and engineering professional</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches children, young persons or adults with physical or intellectual special needs.</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>Learning disabilities special education teacher, Learning support teacher, Remedial teacher, Teacher of gifted children, Teacher of the hearing impaired, Teacher of the sight impaired</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
+          <t>A professional that conducts research, improves or develops concepts, theories and operational methods or applies scientific knowledge.</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Science Professional, Mathematician, Actuary, Statistician, Life Science Professional, Engineering Professional, Electrotechnology Engineer, Architect, Planner, Surveyor, Designer</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -2461,32 +2461,27 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:010027</t>
+          <t>BCIO:010044</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>vocational education teacher</t>
-        </is>
-      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>technician and associate professional</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches or instructs vocational or occupational subjects in adult and further education institutions and to senior students in secondary schools and colleges.</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>Automotive technology instructor, Cosmetology instructor, Vocational education teacher</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
+          <t>A professional that performs technical and related tasks connected with research and the application of scientific or artistic concepts and operational methods, and government or business regulations.</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -2495,32 +2490,32 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:010007</t>
+          <t>BCIO:010045</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>science and engineering professional</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>health associate professional</t>
+        </is>
+      </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>A professional that conducts research, improves or develops concepts, theories and operational methods or applies scientific knowledge.</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>Science Professional, Mathematician, Actuary, Statistician, Life Science Professional, Engineering Professional, Electrotechnology Engineer, Architect, Planner, Surveyor, Designer</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
+          <t>A technician and associate professional that performs technical and practical tasks to support diagnosis and treatment of illness, disease, injuries and impairments in humans or animals, and supports the implementation of health care usually established by medical, veterinary, nursing and other health professionals.</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Veterinary Technician </t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -2529,27 +2524,32 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:010044</t>
+          <t>BCIO:010046</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>technician and associate professional</t>
-        </is>
-      </c>
+      <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>medical and pharmaceutical technician</t>
+        </is>
+      </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>A professional that performs technical and related tasks connected with research and the application of scientific or artistic concepts and operational methods, and government or business regulations.</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
+          <t>A health associate professional that performs technical tasks to assist in diagnosis and treatment of illness, disease, injuries and impairments.</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Medical imaging and therapeutic equipment technician, Medical and Pathology laboratory technician, Pharmaceutical technician, Medical and dental prosthetic technician</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -2558,7 +2558,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:010058</t>
+          <t>BCIO:010051</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
@@ -2566,24 +2566,24 @@
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>legal and related associate professional</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>dental assistant and therapist</t>
+        </is>
+      </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>A technician and associate professional that performs support functions in courts of law or in law offices, provide services related to such legal matters as insurance contracts, the transferring of property and the granting of loans and other financial transactions, or conduct investigations for clients.</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>Bailiff, Judge’s clerk, Conveyancing clerk, Court clerk, Justice of the peace, Law clerk, Legal assistant, Paralegal, Private detective, Title searcher</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
+          <t>A health associate professional that provides basic dental care services for the prevention and treatment of diseases and disorders of the teeth and mouth, according to care plans and procedures established by a dentist or other oral health professional.</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Dental assistant, Dental hygienist , Dental therapist</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -2592,7 +2592,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:010066</t>
+          <t>BCIO:010047</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
@@ -2600,24 +2600,24 @@
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>information and communications technician</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>nursing and midwifery associate professional</t>
+        </is>
+      </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>A technician and associate professional that provides support for the day to day running of computer systems, communication systems and networks, broadcast images and sound, telecommunication signals on land, sea or in aircraft.</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>Information and Communications Technology Operations and User Support Technician, Telecommunications and Broadcasting Technician</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
+          <t>A health associate professional that provides basic nursing and personal care for people who are physically or mentally ill, disabled or infirm, and for others in need of care due to potential risks to health including before, during and after childbirth. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing, midwifery and other health professionals.</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Practice assistant, Quit Smoking Counsellor, Health educator, Dispensing Optician, Information Technician</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -2626,7 +2626,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:010059</t>
+          <t>BCIO:010049</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -2634,24 +2634,24 @@
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>social work associate professional</t>
-        </is>
-      </c>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>midwifery associate professional</t>
+        </is>
+      </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>A technician and associate professional that implements social assistance programmes and community services and assist clients to deal with personal and social problems.</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>Community development worker, Community services worker, Crisis intervention worker, Disability services worker, Family services worker, Life skills instructor, Mental health support worker, Welfare support worker, Women’s shelter supervisor, Youth services worker</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
+          <t>A nursing and midwifery associate professional that provides basic health care and advice before, during and after pregnancy and childbirth. They implement care, treatment and referral plans usually established by medical, midwifery and other health professionals.</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Assistant midwife, Traditional midwife</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -2660,7 +2660,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:010057</t>
+          <t>BCIO:010048</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
@@ -2668,24 +2668,24 @@
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>business and administration associate professional</t>
-        </is>
-      </c>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>nursing associate professional</t>
+        </is>
+      </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>A technician and associate professional that performs mostly technical tasks connected with the practical application of knowledge relating to financial accounting and transaction matters, mathematical calculations, human resource development, selling and buying financial instruments, specialized secretarial tasks and enforcing or applying government rules.</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>Financial and Mathematical associate professional, Sales and purchasing agent, Broker, Business Services Agent, Administrative and Specialized Secretary, Government regulatory associate professional, Medical secretary</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
+          <t>A nursing and midwifery associate professional that provides basic nursing and personal care for people in need of such care due to effects of ageing, illness, injury, or other physical or mental impairment. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing and other health professionals.</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Assistant nurse, Associate professional nurse, Enrolled nurse, Practical nurse</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -2694,7 +2694,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:010045</t>
+          <t>BCIO:010055</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
@@ -2702,24 +2702,25 @@
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>health associate professional</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>environmental and occupational health inspector and associate</t>
+        </is>
+      </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>A technician and associate professional that performs technical and practical tasks to support diagnosis and treatment of illness, disease, injuries and impairments in humans or animals, and supports the implementation of health care usually established by medical, veterinary, nursing and other health professionals.</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Veterinary Technician </t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
+          <t>A health associate professional that investigates the implementation of rules and regulations relating to environmental factors that may affect human health, safety in the 
+workplace, and safety of processes for the production of goods and services. They may implement and evaluate programmes to restore or improve safety and sanitary conditions under the supervision of a health professional.</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Food sanitation and safety inspector, Health inspector, Occupational health and safety inspector, Pollution inspector, Product safety inspector, Sanitarian, Sanitary inspector</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -2728,7 +2729,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:010055</t>
+          <t>BCIO:010056</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
@@ -2739,22 +2740,21 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>environmental and occupational health inspector and associate</t>
+          <t>ambulance worker</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>A health associate professional that investigates the implementation of rules and regulations relating to environmental factors that may affect human health, safety in the 
-workplace, and safety of processes for the production of goods and services. They may implement and evaluate programmes to restore or improve safety and sanitary conditions under the supervision of a health professional.</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>Food sanitation and safety inspector, Health inspector, Occupational health and safety inspector, Pollution inspector, Product safety inspector, Sanitarian, Sanitary inspector</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
+          <t>A health associate professional that provides emergency health care to patients who are injured, sick, infirm or otherwise physically or mentally impaired prior to and during transport to medical facilities.</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Ambulance officer, Ambulance paramedic, Emergency medical technician, Emergency paramedic</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -2763,7 +2763,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:010054</t>
+          <t>BCIO:010052</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
@@ -2774,21 +2774,21 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>medical assistant</t>
+          <t>community health worker</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>A health associate professional that performs basic clinical and administrative tasks to support patient care under the direct supervision of a medical practitioner or other health professional.</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>Clinical assistant, Medical assistant, Ophthalmic assistant</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
+          <t>A health associate professional that provides health education, referral and follow-up, case management, basic preventive health care and home visiting services to specific communities. They provide support and assistance to individuals and families in navigating the health and social services system.</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Community health aide, Community health promoter, Community health worker, Village health worker, outreach worker, health worker</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -2817,12 +2817,12 @@
           <t>A health associate professional that prevents and treats human physical and mental illnesses, disorders and injuries using herbal and other therapies based on theories, beliefs and experiences originating in specific cultures. They administer treatments using traditional techniques and medicaments, either acting independently or according to therapeutic care plans established by a traditional medicine or other health professional.</t>
         </is>
       </c>
-      <c r="N74" t="inlineStr">
+      <c r="K74" t="inlineStr">
         <is>
           <t>Acupuncture technician, Ayurvedic technician, Bonesetter, Herbalist , Homeopathy technician, Scraping and cupping therapist, Village healer, Witch doctor</t>
         </is>
       </c>
-      <c r="O74" t="inlineStr">
+      <c r="P74" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -2831,7 +2831,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:010047</t>
+          <t>BCIO:010053</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
@@ -2842,21 +2842,21 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>nursing and midwifery associate professional</t>
+          <t>physiotherapy technician and assistant</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>A health associate professional that provides basic nursing and personal care for people who are physically or mentally ill, disabled or infirm, and for others in need of care due to potential risks to health including before, during and after childbirth. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing, midwifery and other health professionals.</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>Practice assistant, Quit Smoking Counsellor, Health educator, Dispensing Optician, Information Technician</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
+          <t>A health associate professional that provides physical therapeutic treatments to patients in circumstances where functional movement is threatened by injury, disease or impairment. Therapies are usually provided according to rehabilitative plans established by a physiotherapist or other health professional.</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Acupressure therapist, Electrotherapist, Hydrotherapist, Massage therapist, Physical rehabilitation technician, Physiotherapy technician, Shiatsu therapist</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -2865,7 +2865,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:010049</t>
+          <t>BCIO:010054</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
@@ -2874,23 +2874,23 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>midwifery associate professional</t>
-        </is>
-      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>medical assistant</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>A nursing and midwifery associate professional that provides basic health care and advice before, during and after pregnancy and childbirth. They implement care, treatment and referral plans usually established by medical, midwifery and other health professionals.</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>Assistant midwife, Traditional midwife</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
+          <t>A health associate professional that performs basic clinical and administrative tasks to support patient care under the direct supervision of a medical practitioner or other health professional.</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Clinical assistant, Medical assistant, Ophthalmic assistant</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -2899,7 +2899,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:010048</t>
+          <t>BCIO:010066</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
@@ -2907,24 +2907,24 @@
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>information and communications technician</t>
+        </is>
+      </c>
       <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>nursing associate professional</t>
-        </is>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>A nursing and midwifery associate professional that provides basic nursing and personal care for people in need of such care due to effects of ageing, illness, injury, or other physical or mental impairment. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing and other health professionals.</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>Assistant nurse, Associate professional nurse, Enrolled nurse, Practical nurse</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr">
+          <t>A technician and associate professional that provides support for the day to day running of computer systems, communication systems and networks, broadcast images and sound, telecommunication signals on land, sea or in aircraft.</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Information and Communications Technology Operations and User Support Technician, Telecommunications and Broadcasting Technician</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -2933,7 +2933,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:010052</t>
+          <t>BCIO:010065</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
@@ -2941,24 +2941,24 @@
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>community health worker</t>
-        </is>
-      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>artistic, cultural and culinary associate professional</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>A health associate professional that provides health education, referral and follow-up, case management, basic preventive health care and home visiting services to specific communities. They provide support and assistance to individuals and families in navigating the health and social services system.</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>Community health aide, Community health promoter, Community health worker, Village health worker, outreach worker, health worker</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
+          <t>A technician and associate professional that combines creative skills and technical and cultural knowledge in creative media or food.</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Photographer, Interior designers and decorator, Gallery, museum and library technician, Chef</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -2967,7 +2967,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:010053</t>
+          <t>BCIO:010060</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -2975,24 +2975,24 @@
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>physiotherapy technician and assistant</t>
-        </is>
-      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>religious associate professional</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>A health associate professional that provides physical therapeutic treatments to patients in circumstances where functional movement is threatened by injury, disease or impairment. Therapies are usually provided according to rehabilitative plans established by a physiotherapist or other health professional.</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>Acupressure therapist, Electrotherapist, Hydrotherapist, Massage therapist, Physical rehabilitation technician, Physiotherapy technician, Shiatsu therapist</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
+          <t>A technician and associate professional that provides support to ministers of religion or to a religious community, undertake religious works, preach and propagate the teachings of a particular religion and endeavour to improve well-being through the power of faith and spiritual advice.</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Faith healer, Lay preacher, Monk, Nun</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3001,7 +3001,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:010056</t>
+          <t>BCIO:010061</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
@@ -3009,24 +3009,24 @@
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>ambulance worker</t>
-        </is>
-      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>sport and fitness worker</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>A health associate professional that provides emergency health care to patients who are injured, sick, infirm or otherwise physically or mentally impaired prior to and during transport to medical facilities.</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>Ambulance officer, Ambulance paramedic, Emergency medical technician, Emergency paramedic</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
+          <t>A technician and associate professional that prepares for and competes in sporting events for financial gain, trains amateur and professional sportsmen and women to enhance performance, promotes participation and standards in sport, organises and officiates sporting events, or provides instruction, training and supervision for various forms of exercise and other recreational activities.</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>physical activity professional, exercise physiologist, exercise therapist, exercise specialist</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3035,7 +3035,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:010046</t>
+          <t>BCIO:010063</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
@@ -3046,21 +3046,21 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>medical and pharmaceutical technician</t>
+          <t>sports coach, instructor and official</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>A health associate professional that performs technical tasks to assist in diagnosis and treatment of illness, disease, injuries and impairments.</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>Medical imaging and therapeutic equipment technician, Medical and Pathology laboratory technician, Pharmaceutical technician, Medical and dental prosthetic technician</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
+          <t>A sport and fitness worker that works with amateur and professional sportspersons to enhance performance and encourage greater participation in sport, and organizes and officiates in sporting events according to established rules.</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Referee, Ski instructor, Sports coach, Sports official, Swimming instructor</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3069,7 +3069,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:010051</t>
+          <t>BCIO:010064</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
@@ -3080,21 +3080,21 @@
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
-          <t>dental assistant and therapist</t>
+          <t>fitness and recreation instructor and programme leader</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>A health associate professional that provides basic dental care services for the prevention and treatment of diseases and disorders of the teeth and mouth, according to care plans and procedures established by a dentist or other oral health professional.</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>Dental assistant, Dental hygienist , Dental therapist</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
+          <t>A sport and fitness worker that leads, guides and instructs groups and individuals in recreational, fitness or outdoor adventure activities.</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Aerobics instructor, Fitness instructor, Horse riding instructor, Outdoor adventure guide, Personal trainer, Sailing instructor, Underwater diving instructor</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3103,7 +3103,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BCIO:010061</t>
+          <t>BCIO:010062</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
@@ -3111,24 +3111,24 @@
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>sport and fitness worker</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>athlete and sports player</t>
+        </is>
+      </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
-          <t>A technician and associate professional that prepares for and competes in sporting events for financial gain, trains amateur and professional sportsmen and women to enhance performance, promotes participation and standards in sport, organises and officiates sporting events, or provides instruction, training and supervision for various forms of exercise and other recreational activities.</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>physical activity professional, exercise physiologist, exercise therapist, exercise specialist</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr">
+          <t>A sport and fitness worker that participates in competitive sporting events. They train and compete, either individually or as part of a team, in their chosen sport.</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Athlete, Bicycle racer, Boxer, Chess player , Footballer, Golfer, Hockey player, Jockey, Poker player, Racing driver, Skier, Tennis player, Wrestler</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3137,7 +3137,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BCIO:010064</t>
+          <t>BCIO:010057</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -3145,24 +3145,24 @@
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>fitness and recreation instructor and programme leader</t>
-        </is>
-      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>business and administration associate professional</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>A sport and fitness worker that leads, guides and instructs groups and individuals in recreational, fitness or outdoor adventure activities.</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>Aerobics instructor, Fitness instructor, Horse riding instructor, Outdoor adventure guide, Personal trainer, Sailing instructor, Underwater diving instructor</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
+          <t>A technician and associate professional that performs mostly technical tasks connected with the practical application of knowledge relating to financial accounting and transaction matters, mathematical calculations, human resource development, selling and buying financial instruments, specialized secretarial tasks and enforcing or applying government rules.</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Financial and Mathematical associate professional, Sales and purchasing agent, Broker, Business Services Agent, Administrative and Specialized Secretary, Government regulatory associate professional, Medical secretary</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3171,7 +3171,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BCIO:010063</t>
+          <t>BCIO:010058</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
@@ -3179,24 +3179,24 @@
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>sports coach, instructor and official</t>
-        </is>
-      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>legal and related associate professional</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>A sport and fitness worker that works with amateur and professional sportspersons to enhance performance and encourage greater participation in sport, and organizes and officiates in sporting events according to established rules.</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>Referee, Ski instructor, Sports coach, Sports official, Swimming instructor</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
+          <t>A technician and associate professional that performs support functions in courts of law or in law offices, provide services related to such legal matters as insurance contracts, the transferring of property and the granting of loans and other financial transactions, or conduct investigations for clients.</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Bailiff, Judge’s clerk, Conveyancing clerk, Court clerk, Justice of the peace, Law clerk, Legal assistant, Paralegal, Private detective, Title searcher</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3205,7 +3205,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:010062</t>
+          <t>BCIO:010059</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
@@ -3213,24 +3213,24 @@
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>athlete and sports player</t>
-        </is>
-      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>social work associate professional</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>A sport and fitness worker that participates in competitive sporting events. They train and compete, either individually or as part of a team, in their chosen sport.</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>Athlete, Bicycle racer, Boxer, Chess player , Footballer, Golfer, Hockey player, Jockey, Poker player, Racing driver, Skier, Tennis player, Wrestler</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr">
+          <t>A technician and associate professional that implements social assistance programmes and community services and assist clients to deal with personal and social problems.</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Community development worker, Community services worker, Crisis intervention worker, Disability services worker, Family services worker, Life skills instructor, Mental health support worker, Welfare support worker, Women’s shelter supervisor, Youth services worker</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3239,32 +3239,27 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BCIO:010060</t>
+          <t>BCIO:010068</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>services and sales worker</t>
+        </is>
+      </c>
       <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>religious associate professional</t>
-        </is>
-      </c>
+      <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>A technician and associate professional that provides support to ministers of religion or to a religious community, undertake religious works, preach and propagate the teachings of a particular religion and endeavour to improve well-being through the power of faith and spiritual advice.</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>Faith healer, Lay preacher, Monk, Nun</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr">
+          <t>An occupational role that provides personal or protective services related to travel, house-keeping, catering, personal care, protection against fire and unlawful acts, or sells goods in retail or markets.</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3273,32 +3268,32 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:010065</t>
+          <t>BCIO:010071</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>artistic, cultural and culinary associate professional</t>
-        </is>
-      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>personal care worker</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
-          <t>A technician and associate professional that combines creative skills and technical and cultural knowledge in creative media or food.</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>Photographer, Interior designers and decorator, Gallery, museum and library technician, Chef</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr">
+          <t>A services and sales worker that provides care, supervision and assistance for children, patients and elderly, convalescent or disabled persons in institutional and residential settings.</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Personal carer</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3307,32 +3302,32 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:010008</t>
+          <t>BCIO:010074</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>health professional</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>health care assistant</t>
+        </is>
+      </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>A professional that improves or develops concepts, theories and operational method, and applied scientific knowledge relating to medicine, nursing, dentistry, veterinary medicine, pharmacy, and promotion of health.</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>Health professional; Arts therapist, Chiropractor, Dance and movement therapist, Occupational therapist, Osteopath, Podiatrist, Recreational therapist, Health staff, Clinic staff</t>
-        </is>
-      </c>
-      <c r="O89" t="inlineStr">
+          <t>A personal care worker that provides direct personal care and assistance with activities of daily living to patients and residents in a variety of health care settings, working  in implementation of established care plans and practices, and under the direct supervision of medical, nursing or other health professionals or associate professionals.</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Nursing aide (clinic or hospital), Patient care assistant, Psychiatric aid</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3341,7 +3336,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:010012</t>
+          <t>BCIO:010073</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
@@ -3351,17 +3346,22 @@
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>nursing and midwifery professional</t>
+          <t>teachers’ aide</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>A health professional that provides treatment and care services for people who are physically or mentally ill, disabled or infirm, and those with potential risks to health including before, during and after childbirth. They assume responsibility for the planning, management and evaluation of the care of patients, including the supervision of other health care workers, working autonomously or in teams with medical doctors and others in the practical application of preventive and curative measures.</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
+          <t>A personal care worker that performs non-teaching duties to assist teaching staff, and provides care and supervision for children in schools and pre-schools.</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Pre-school assistant, Teacher’s assistant</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3370,7 +3370,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:010018</t>
+          <t>BCIO:010072</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
@@ -3380,22 +3380,22 @@
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>dentist</t>
+          <t>child care worker</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr">
         <is>
-          <t>A health professional that diagnoses treats and prevents diseases, injuries and abnormalities of the teeth, mouth, jaws and associated tissues by applying the principles and procedures of modern dentistry.</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>Dental practitioner, Dental surgeon, Dentist, Endodontist, Oral and maxillofacial surgeon, Oral pathologist, Orthodontist, Paedodontist, Periodontist, Prosthodontist, Stomatologist</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
+          <t>A personal care worker that provides care and supervision for children in non-domestic settings.</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Babysitter, Child care worker, Creche ayah, Family day care worker, Nanny, Out of school hours care worker</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3404,7 +3404,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BCIO:010023</t>
+          <t>BCIO:010075</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
@@ -3414,22 +3414,22 @@
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>audiologist and speech therapist</t>
+          <t>home-based personal care worker</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>A health professional  that evaluates, manages and treats physical disorders affecting human hearing, speech, communication and swallowing.</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>Audiologist, Language therapist, Speech pathologist, Speech therapist</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr">
+          <t>A personal care worker that provide routine personal care and assistance with activities of daily living to persons who are in need of such care due to effects of ageing, illness, injury, or other physical or mental conditions, in private homes and other independent residential settings.</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Home birth assistant, Home care aide, Nursing aide (home), Personal care provider</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3438,32 +3438,32 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BCIO:010021</t>
+          <t>BCIO:010070</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>physiotherapist</t>
-        </is>
-      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>sales worker</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr">
         <is>
-          <t>A health professional  that assesses, plans and implements rehabilitative programmes that improve or restore human motor functions, maximize movement ability, relieve pain syndromes, and treat or prevent physical challenges associated with injuries, diseases and other impairments.</t>
-        </is>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>Geriatric physical therapist, Manipulative therapist, Orthopaedic physical therapist, Paediatric physical therapist, Physical therapist, Physiotherapist</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
+          <t>A services and sales worker that demonstrates goods in wholesale or retail shops, at stalls and markets, door to door, via telephone or customer contact centres. They may record and accept payment for goods and services purchased, and may operate small retail outlets.</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Street Salesperson, Market Salesperson, Shop Salesperson, Cashier, Ticket Clerk, Model, Sales Demonstrator, Door-to-door Salesperson, Contact Centre Salesperson, Service Station Attendant, Food Service Counter Attendant</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3472,32 +3472,32 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BCIO:010017</t>
+          <t>BCIO:010069</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>veterinarian</t>
-        </is>
-      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>personal services worker</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
-          <t>A health professional that diagnoses, prevents and treats diseases, injuries and dysfunctions of animals.</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>Animal pathologist, Veterinarian, Veterinary epidemiologist, Veterinary intern, Veterinary surgeon</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
+          <t>A services and sales worker that provides personal services related to travel, housekeeping, catering and hospitality, hairdressing and beauty treatment, animal care grooming and training, companionship and other services of a personal nature.</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Travel Attendant, Conductor, Guide, Cook, Waiter, Bartender, Hairdresser, Beautician, Housekeeping Supervisor, Astrologer, Fortune-teller, Valet, Undertaker, Embalmer, Pet Groomer, Animal Care Worker</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3506,32 +3506,32 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BCIO:010016</t>
+          <t>BCIO:010076</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>paramedical practitioner</t>
-        </is>
-      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>protective services worker</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr">
         <is>
-          <t>A health professional that provides advisory, diagnostic, curative and preventive medical services more limited in scope and complexity than those carried out by medical doctors. They work autonomously or with limited supervision of medical doctors, and apply advanced clinical procedures for treating and preventing diseases, injuries and other physical or mental impairments common to specific communities.</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>Advanced care paramedic, Clinical officer (paramedical), Feldscher, Primary care paramedic, Surgical technician</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr">
+          <t>A services and sales worker that protects individuals and property against fire and other hazards, maintain law and order and enforce laws and regulations.</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Firefighter, Police officer, Prison guard, Security guard, Offender manager</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3540,32 +3540,32 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:010014</t>
+          <t>BCIO:010079</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>plant and machine operator</t>
+        </is>
+      </c>
       <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>midwifery professional</t>
-        </is>
-      </c>
+      <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
-          <t>A health professional that plans, manages, provides and evaluates midwifery care services before, during and after pregnancy and childbirth. They provide delivery care for reducing health risks to women and newborn children, working autonomously or in teams with other health care providers.</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>Midwife</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr">
+          <t>An occupational role that operates and monitors industrial and agricultural machinery and equipment on the spot or by remote control, or drives and operates trains, motor vehicles and mobile machinery and equipment.</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Stationary Plant and Machine Operator, Driver, Mobile Plant Operator</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3574,32 +3574,32 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCIO:010020</t>
+          <t>BCIO:010083</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>researcher</t>
+        </is>
+      </c>
       <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>environmental and occupational health and hygiene professional</t>
-        </is>
-      </c>
+      <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr">
         <is>
-          <t>A health professional that assesses, plans and implements programmes to recognize, monitor and control environmental factors that can potentially affect human health, to ensure safe and healthy working conditions and to prevent disease or injury caused by chemical, physical, radiological and biological agents or ergonomic factors.</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>Environmental health officer, Occupational health and safety adviser, Occupational hygienist, Radiation protection expert</t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr">
+          <t>An occupational role that is a researcher but unclear what discipline.</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>researcher, research assistant, investigator</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3608,32 +3608,32 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BCIO:010019</t>
+          <t>BCIO:010078</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>craft and related trades worker</t>
+        </is>
+      </c>
       <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>pharmacist</t>
-        </is>
-      </c>
+      <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
-          <t>A health professional that stores, preserves, compounds and dispenses medicinal products and counsel on the proper use and adverse effects of drugs and medicines following prescriptions issued by medical doctors and other health professionals.</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>Dispensing chemist, Hospital pharmacist, Industrial pharmacist, Retail pharmacist</t>
-        </is>
-      </c>
-      <c r="O98" t="inlineStr">
+          <t>An occupational role that applies specific technical and practical knowledge and skills to construct and maintain buildings, machinery, equipment or tools, carries out printing work, and produces or processes foodstuffs, textiles and wooden, metal and other articles, including handicraft goods.</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Building Trade Worker, Metal Workers, Machinery Worker, Handicraft Worker, Printing Worker, Electrical Equipment Installers and Repairer, Electronics and Telecommunications Installer and Repairer, Food Processing Worker, Woodworker, Tobacco Product Maker</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3642,32 +3642,32 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BCIO:010015</t>
+          <t>BCIO:010067</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>clerical support worker</t>
+        </is>
+      </c>
       <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>traditional and complementary medicine professional</t>
-        </is>
-      </c>
+      <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t>A health professional that examines patients, prevents and treats illness, disease, injury and other physical and mental impairments and maintains general health in humans. They do this by applying knowledge, skills and practices acquired through extensive study of the theories, beliefs and experiences originating in specific cultures.</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>Acupuncturist, Ayurvedic practitioner,  Chinese herbal medicine practitioner, Homeopath, Naturopath, Unani practitioner</t>
-        </is>
-      </c>
-      <c r="O99" t="inlineStr">
+          <t>An occupational role that records, organizes, stores, computes and retrieves information, and performs a number of clerical duties in connection with money-handling operations, travel arrangements, requests for information, and appointments.</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>General and Keyboard Clerk, customers Services Clerk, Numerical and Material Recording Clerk</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3676,32 +3676,32 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BCIO:010022</t>
+          <t>BCIO:010082</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>armed forces occupation</t>
+        </is>
+      </c>
       <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>dietician and nutritionist</t>
-        </is>
-      </c>
+      <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t>A health professional  that assesses, plans and implements programmes to enhance the impact of food and nutrition on human health.</t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>Clinical dietician, Food service dietician, Nutritionist, Public health nutritionist, Sports nutritionist</t>
-        </is>
-      </c>
-      <c r="O100" t="inlineStr">
+          <t>An occupational role that includes all jobs held by members of the armed forces.</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Admiral, Air commodore, Air marshal, Airman, Brigadier (army), Bombardier, Captain (air force), Captain (army), Captain (navy), Colonel (army), Corporal,  Field marshal, Flight lieutenant (air force), Flying officer (military), General (army), Gunner, Group captain, (air force), Lieutenant (army), Major (army), Midshipman, Naval officer (military) , Navy commander, Officer cadet (armed forces), Paratrooper, Rifleman, Sergeant (army), Second lieutenant (army), Seaman, Squadron leader, Sublieutenant (navy), Wing commander</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3710,32 +3710,27 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BCIO:010024</t>
+          <t>BCIO:010000</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>behaviour change intervention source</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>optometrist and ophthalmic optician</t>
-        </is>
-      </c>
+      <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr">
         <is>
-          <t>A health professional  that provides diagnosis, management and treatment services for disorders of the eyes and visual system.</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>Ophthalmic optician , Optometrist, Orthoptist</t>
-        </is>
-      </c>
-      <c r="O101" t="inlineStr">
+          <t>A role played by a person, population or organisation that provides a BCI.</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3744,32 +3739,27 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BCIO:010009</t>
+          <t>BCIO:010001</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>person source role</t>
+        </is>
+      </c>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>medical doctor</t>
-        </is>
-      </c>
+      <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>A health professional that studies, diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans through the application of modern medicine. They plan, supervise and evaluate the implementation of care and treatment plans by other health care providers, and conduct medical education and research activities.</t>
-        </is>
-      </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>District medical doctor-therapist, family medical practitioner, general practitioner, medical doctor (general), medical officer (general), physician (general), primary health care physician, resident medical officer specializing in general practice</t>
-        </is>
-      </c>
-      <c r="O102" t="inlineStr">
+          <t>A behaviour change intervention source role that inheres in a person.</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3778,32 +3768,27 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BCIO:010010</t>
+          <t>BCIO:010134</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>source involved in development of intervention</t>
+        </is>
+      </c>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>generalist medical practitioner</t>
-        </is>
-      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr">
         <is>
-          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments and maintains general health in humans through application of modern medicine. They do not limit their practice to certain disease categories or methods of treatment, and may assume responsibility for the provision of continuing and comprehensive medical care to individuals, families and communities.</t>
-        </is>
-      </c>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>Primary care physician, family doctor, GP</t>
-        </is>
-      </c>
-      <c r="O103" t="inlineStr">
+          <t>A BCI source that is involved in the development of intervention content.</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3812,32 +3797,27 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BCIO:010011</t>
+          <t>BCIO:010135</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>source involved in co-production of intervention</t>
+        </is>
+      </c>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>specialist medical practitioner</t>
-        </is>
-      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr">
         <is>
-          <t>A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans, using specialized testing, diagnostic, medical, surgical, physical and psychiatric techniques through application of the principles and procedures of modern medicine. They specialize in certain disease categories, types of patient or methods of treatment and may conduct medical education and research in their chosen areas of specialization.</t>
-        </is>
-      </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>Anaesthetist, Cardiologist, Emergency medicine specialist, Gynaecologist, Obstetrician, Ophthalmologist, Paediatrician, Pathologist, Preventive medicine specialist, Psychiatrist, Radiation oncologist, Radiologist, Resident medical officer in specialist training, Specialist medical practitioner (public health), Specialist physician (internal medicine), Specialist physician (nuclear medicine), Surgeon</t>
-        </is>
-      </c>
-      <c r="O104" t="inlineStr">
+          <t>A source involved in development of intervention that has developed the intervention content in collaboration with key stakeholders such as patients or community members.</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3846,32 +3826,27 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BCIO:010013</t>
+          <t>BCIO:010138</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>organisational source role</t>
+        </is>
+      </c>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>nursing professional</t>
-        </is>
-      </c>
+      <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr">
         <is>
-          <t>A health professional that provides treatment, support and care services for people who are in need of nursing care due to the effects of ageing, injury, illness or other physical or mental impairment, or potential risks to health.</t>
-        </is>
-      </c>
-      <c r="N105" t="inlineStr">
-        <is>
-          <t>Clinical nurse consultant, District nurse, Nurse anaesthetist, Nurse educator, Nurse practitioner, Operating theatre nurse, Professional nurse, Public health nurse, Specialist nurse, Nursing Counsellor, Study Nurse</t>
-        </is>
-      </c>
-      <c r="O105" t="inlineStr">
+          <t>A BCI source role that is borne by an organisation.</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3880,32 +3855,42 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BFO:0000016</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000016</t>
-        </is>
-      </c>
+          <t>BCIO:010133</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>source role related to intervention</t>
+        </is>
+      </c>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>A BCI source whose occupational or voluntary role is focused on delivery of the behaviour change intervention.</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BCIO:010120</t>
+          <t>BCIO:010084</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr">
         <is>
-          <t>expertise of person source</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
@@ -3916,10 +3901,10 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>A disposition that is an expert skill or knowledge held by the source delivering the behaviour change intervention.</t>
-        </is>
-      </c>
-      <c r="O107" t="inlineStr">
+          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3928,14 +3913,14 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BCIO:010121</t>
+          <t>BCIO:010088</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
         <is>
-          <t>knowledge or skill</t>
+          <t>higher education student or trainee</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -3945,15 +3930,15 @@
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr">
         <is>
-          <t>An expertise of person source that is knowledge or skills held in order to deliver the behaviour change intervention.</t>
-        </is>
-      </c>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>trained (if unclear whether pre-existing or acquired)</t>
-        </is>
-      </c>
-      <c r="O108" t="inlineStr">
+          <t>A student or trainee that is currently learning on an advanced educational programme in a university, college or professional school.</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>completing a university bachelor's or master's course of study, medical school or other professional school.</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3962,7 +3947,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BCIO:010122</t>
+          <t>BCIO:010090</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
@@ -3970,7 +3955,7 @@
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>pre-existing knowledge or skill</t>
+          <t>graduate student or trainee</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
@@ -3979,15 +3964,15 @@
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr">
         <is>
-          <t>A knowledge or skill that is already possessed by the source which allows them to deliver the behaviour change intervention, including educational level and qualifications.</t>
-        </is>
-      </c>
-      <c r="N109" t="inlineStr">
-        <is>
-          <t>Bachelor’s degree, certification, accredited, qualified</t>
-        </is>
-      </c>
-      <c r="O109" t="inlineStr">
+          <t>A higher education student or trainee that has completed an undergraduate degree.</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>graduate student</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -3996,32 +3981,32 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BCIO:010127</t>
+          <t>BCIO:010091</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>affiliation to a formal group or organisation</t>
-        </is>
-      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>masters student or trainee</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>A pre-existing knowledge or skill that is recognised through affiliation to a formal group or organisation.</t>
-        </is>
-      </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>member of British Psychological Society</t>
-        </is>
-      </c>
-      <c r="O110" t="inlineStr">
+          <t>A higher education student or trainee that is currently studying for a Masters degree.</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>MSc student, Masters student</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4030,7 +4015,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BCIO:010125</t>
+          <t>BCIO:010092</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
@@ -4038,7 +4023,7 @@
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>acquired knowledge or skill</t>
+          <t>doctoral student or trainee</t>
         </is>
       </c>
       <c r="F111" t="inlineStr"/>
@@ -4047,10 +4032,15 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>A knowledge or skill that is additional knowledge or skills supplied to the source to allow them to deliver the behaviour change intervention, including educational level and qualifications.</t>
-        </is>
-      </c>
-      <c r="O111" t="inlineStr">
+          <t>A higher education student or trainee that is currently studying for a doctoral degree.</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>PhD student</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4059,35 +4049,50 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ADDICTO:0000399</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>http://addictovocab.org/ADDICTO_0000399</t>
-        </is>
-      </c>
+          <t>BCIO:010089</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>undergraduate student or trainee</t>
+        </is>
+      </c>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>A higher education student or trainee that is currently studying for an undergraduate degree.</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>undergraduate student</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BCIO:015098</t>
+          <t>BCIO:010086</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>gender identity</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>school student or trainee</t>
+        </is>
+      </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
@@ -4095,26 +4100,26 @@
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr">
         <is>
-          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
-        </is>
-      </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>Population</t>
+          <t>A student or trainee that is currently learning at a primary or secondary education level in an institutional, organised setting.</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:010111</t>
+          <t>BCIO:010087</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr">
         <is>
-          <t>female gender</t>
+          <t>vocational training student or trainee</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -4124,15 +4129,10 @@
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr">
         <is>
-          <t>A gender identity as being female.</t>
-        </is>
-      </c>
-      <c r="N114" t="inlineStr">
-        <is>
-          <t>female, woman</t>
-        </is>
-      </c>
-      <c r="O114" t="inlineStr">
+          <t>A student or trainee that is currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4141,14 +4141,14 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:010112</t>
+          <t>BCIO:010085</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr">
         <is>
-          <t>male gender</t>
+          <t>informal education student or trainee</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
@@ -4158,15 +4158,10 @@
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr">
         <is>
-          <t>A gender identity as being male.</t>
-        </is>
-      </c>
-      <c r="N115" t="inlineStr">
-        <is>
-          <t>male, man</t>
-        </is>
-      </c>
-      <c r="O115" t="inlineStr">
+          <t>A student or trainee that is currently learning in a non-institutional setting.</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4175,12 +4170,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BFO:0000015</t>
+          <t>BFO:0000020</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000015</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000020</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -4194,13 +4189,13 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:010130</t>
+          <t>BCIO:010108</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr">
         <is>
-          <t>payment of person source</t>
+          <t>socio demographic attribute of person source</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
@@ -4211,10 +4206,10 @@
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>A process in which a person source is paid or compensated for delivering the intervention.</t>
-        </is>
-      </c>
-      <c r="O117" t="inlineStr">
+          <t>A social or demographic characteristic of a human being who is the bearer of a person source role.</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4223,14 +4218,14 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:010131</t>
+          <t>BCIO:010114</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr">
         <is>
-          <t>monetary payment</t>
+          <t>ethnic group membership of person source</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -4240,15 +4235,15 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>A payment of person source that is money, vouchers or valued objects given to the source for delivering the intervention.</t>
-        </is>
-      </c>
-      <c r="N118" t="inlineStr">
-        <is>
-          <t>paid in cash, vouchers</t>
-        </is>
-      </c>
-      <c r="O118" t="inlineStr">
+          <t>A socio-demographic attribute of person source that is the ethnic group to which an individual identifies as belonging, where an ethic group is a population whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>black, white, Indian, Chinese, Somalian</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4257,14 +4252,14 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BCIO:010132</t>
+          <t>BCIO:010110</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
         <is>
-          <t>non-monetary payment</t>
+          <t>gender of person source</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
@@ -4274,15 +4269,15 @@
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr">
         <is>
-          <t>A payment of person source that is non-monetary compensation given to the source for delivering the intervention.</t>
-        </is>
-      </c>
-      <c r="N119" t="inlineStr">
-        <is>
-          <t>course credit</t>
-        </is>
-      </c>
-      <c r="O119" t="inlineStr">
+          <t>A socio-demographic attribute of person source that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4291,32 +4286,32 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BCIO:010129</t>
+          <t>BCIO:010113</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>volunteering of person source</t>
-        </is>
-      </c>
+      <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>other gender</t>
+        </is>
+      </c>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr">
         <is>
-          <t>A process in which a person source delivers the intervention on a voluntary basis without formal compensation.</t>
-        </is>
-      </c>
-      <c r="N120" t="inlineStr">
-        <is>
-          <t>voluntary basis, volunteering</t>
-        </is>
-      </c>
-      <c r="O120" t="inlineStr">
+          <t>A gender of person source that reports not belonging to the cultural gender role distinctions of either male or female.</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>non-binary, transexual</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4325,16 +4320,16 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BCIO:010128</t>
+          <t>BCIO:010116</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>supervision of person source</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>language proficiency of person source</t>
+        </is>
+      </c>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
@@ -4342,15 +4337,15 @@
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr">
         <is>
-          <t>A process in which a person source is formally provided, by an individual with appropriate expertise, with corrective and skill-enhancing feedback, regarding the person source’s performance in delivering the intervention.</t>
-        </is>
-      </c>
-      <c r="N121" t="inlineStr">
-        <is>
-          <t>supervised</t>
-        </is>
-      </c>
-      <c r="O121" t="inlineStr">
+          <t>A socio-demographic attribute of person source that is an individual’s ability to speak or perform in the intervention language.</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>fluent, native</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4359,35 +4354,45 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BFO:0000040</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
-        </is>
-      </c>
+          <t>BCIO:010119</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr"/>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>psychological influence on intervention delivery of person source</t>
+        </is>
+      </c>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>A socio-demographic attribute of person source that is their existing psychological attributes related to or potentially affecting the target behaviour.</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:010139</t>
+          <t>BCIO:010115</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>organisation source</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>religious group membership of person source</t>
+        </is>
+      </c>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
@@ -4395,10 +4400,15 @@
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr">
         <is>
-          <t>An organisation that is the bearer of a behaviour change intervention source role, such as voluntary, public or commercial organisations delivering a behaviour change intervention.</t>
-        </is>
-      </c>
-      <c r="O123" t="inlineStr">
+          <t>A socio-demographic attribute of person source that is a religious group to which an individual identifies as belonging, where a religious group is a group of people characterised by the practice of a common religion.</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>Muslim, Christian, Hindu, Sikh, Buddhist, Judaism</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4407,33 +4417,48 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>OGMS:0000087</t>
+          <t>BCIO:010118</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/OGMS_0000087</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>target behaviour of person source</t>
+        </is>
+      </c>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>A socio-demographic attribute of person source that is their amount or experience of the intervention’s target behaviour.</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>source is highly physically active</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>MF:0000016</t>
+          <t>BCIO:010109</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>age of person source</t>
         </is>
       </c>
       <c r="E125" t="inlineStr"/>
@@ -4443,10 +4468,10 @@
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr">
         <is>
-          <t>An extended organism that is a member of the species Homo sapiens.</t>
-        </is>
-      </c>
-      <c r="O125" t="inlineStr">
+          <t>A socio-demographic attribute of person source that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4455,27 +4480,32 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BCIO:010095</t>
+          <t>BCIO:010117</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>family member</t>
-        </is>
-      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>health status of person source</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>A person who is a member of a group of persons united by blood, or by marriage or other legal arrangement, or by self-identity as belonging to the same family.</t>
-        </is>
-      </c>
-      <c r="O126" t="inlineStr">
+          <t>A socio-demographic attribute of person source that represents their mental or physical condition.</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>diabetes, cancer, depression, obesity, overweight</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4484,32 +4514,37 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BCIO:010099</t>
+          <t>BCIO:010123</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
-      <c r="C127" t="inlineStr"/>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>expertise discipline</t>
+        </is>
+      </c>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>child relationship</t>
-        </is>
-      </c>
+      <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr">
         <is>
-          <t>A family member that is an offspring relationship from a person to their parent.</t>
+          <t>An attribute that is a field of knowledge or practice.</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>daughter, son, step-daughter, step-son</t>
-        </is>
-      </c>
-      <c r="O127" t="inlineStr">
+          <t>The division of expertise into different disciplines or fields is complex and depends on historical, social and structural factors.</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4518,32 +4553,32 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BCIO:010097</t>
+          <t>BCIO:010093</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr"/>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>discipline of current programme of study or training</t>
+        </is>
+      </c>
       <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>spouse or partner</t>
-        </is>
-      </c>
+      <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr">
         <is>
-          <t>A family member that is an individual who is married or in a committed relationship with another individual.</t>
-        </is>
-      </c>
-      <c r="N128" t="inlineStr">
-        <is>
-          <t>boyfriend, girlfriend, partner, fiance, wife, husband</t>
-        </is>
-      </c>
-      <c r="O128" t="inlineStr">
+          <t>An expertise discipline of the programme of study currently undertaken by the bearer of a student or trainee role.</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>psychology, medicine, hairdressing</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4552,32 +4587,32 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BCIO:010098</t>
+          <t>BCIO:010124</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr"/>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>discipline of pre-existing knowledge or skill</t>
+        </is>
+      </c>
       <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>sibling relationship</t>
-        </is>
-      </c>
+      <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr">
         <is>
-          <t>A family member that is a family relationship between two persons with at least one shared parent.</t>
-        </is>
-      </c>
-      <c r="N129" t="inlineStr">
-        <is>
-          <t>brother, sister, step-brother, step-sister</t>
-        </is>
-      </c>
-      <c r="O129" t="inlineStr">
+          <t>The expertise discipline in which the person source has acquired their pre-existing knowledge and skills.</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4586,113 +4621,98 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BCIO:010096</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr"/>
+          <t>ADDICTO:0000399</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>http://addictovocab.org/ADDICTO_0000399</t>
+        </is>
+      </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>parent or guardian</t>
-        </is>
-      </c>
+      <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>A family member that is a mother, father or legal carer of a child.</t>
-        </is>
-      </c>
-      <c r="N130" t="inlineStr">
-        <is>
-          <t>mother, father, step-mother, step-father, guardian</t>
-        </is>
-      </c>
-      <c r="O130" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BCIO:010002</t>
+          <t>BCIO:015098</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
-      <c r="C131" t="inlineStr"/>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>gender identity</t>
+        </is>
+      </c>
       <c r="D131" t="inlineStr"/>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>person source</t>
-        </is>
-      </c>
+      <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr">
         <is>
-          <t>A person who is the bearer of a behaviour change intervention source role.</t>
-        </is>
-      </c>
-      <c r="O131" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>Population</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BCIO:050842</t>
+          <t>BCIO:010112</t>
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr"/>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>role model for a person</t>
-        </is>
-      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>male gender</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr">
         <is>
-          <t>A &lt;person&gt; that influences a recipient by being perceived to be similar or admired.</t>
-        </is>
-      </c>
-      <c r="O132" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A gender identity as being male.</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>male, man</t>
         </is>
       </c>
       <c r="P132" t="inlineStr">
         <is>
-          <t>This class lies at the intersection between a person and their environment and is defined from the perspective of the person.</t>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>OBI:0000245</t>
+          <t>BCIO:010111</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>organization</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr"/>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>female gender</t>
+        </is>
+      </c>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
@@ -4700,10 +4720,15 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>An entity that can bear roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
-        </is>
-      </c>
-      <c r="O133" t="inlineStr">
+          <t>A gender identity as being female.</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>female, woman</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4712,12 +4737,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>IAO:0000027</t>
+          <t>BFO:0000040</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/IAO_0000027</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -4731,13 +4756,13 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BCIO:010106</t>
+          <t>OGMS:0000087</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr">
         <is>
-          <t>number of people delivering intervention to each participant</t>
+          <t>http://purl.obolibrary.org/obo/OGMS_0000087</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
@@ -4746,30 +4771,20 @@
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>A count data item that is the number of providers that an individual participant in the intervention encounters.</t>
-        </is>
-      </c>
-      <c r="O135" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BCIO:010126</t>
+          <t>MF:0000016</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>amount of experience</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr"/>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -4777,15 +4792,10 @@
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr">
         <is>
-          <t>A knowledge or skill that is the duration of experience in related domain held by person source.</t>
-        </is>
-      </c>
-      <c r="N136" t="inlineStr">
-        <is>
-          <t>full-day, 6 years</t>
-        </is>
-      </c>
-      <c r="O136" t="inlineStr">
+          <t>An extended organism that is a member of the species Homo sapiens.</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4794,27 +4804,27 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BCIO:010107</t>
+          <t>BCIO:010002</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>total number of people able to deliver intervention</t>
-        </is>
-      </c>
+      <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr"/>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>person source</t>
+        </is>
+      </c>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr">
         <is>
-          <t>A count data item that is the total number of providers that are available and able to deliver the intervention.</t>
-        </is>
-      </c>
-      <c r="O137" t="inlineStr">
+          <t>A person who is the bearer of a behaviour change intervention source role.</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4823,90 +4833,95 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BFO:0000020</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000020</t>
-        </is>
-      </c>
+          <t>BCIO:050842</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr"/>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr"/>
-      <c r="E138" t="inlineStr"/>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>role model for a person</t>
+        </is>
+      </c>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>A &lt;person&gt; that influences a recipient by being perceived to be similar or admired.</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>This class lies at the intersection between a person and their environment and is defined from the perspective of the person.</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BCIO:010123</t>
+          <t>BCIO:010095</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>expertise discipline</t>
-        </is>
-      </c>
+      <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr"/>
-      <c r="E139" t="inlineStr"/>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>family member</t>
+        </is>
+      </c>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr">
         <is>
-          <t>An attribute that is a field of knowledge or practice.</t>
-        </is>
-      </c>
-      <c r="N139" t="inlineStr">
-        <is>
-          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
-        </is>
-      </c>
-      <c r="O139" t="inlineStr">
-        <is>
-          <t>Source</t>
+          <t>A person who is a member of a group of persons united by blood, or by marriage or other legal arrangement, or by self-identity as belonging to the same family.</t>
         </is>
       </c>
       <c r="P139" t="inlineStr">
         <is>
-          <t>The division of expertise into different disciplines or fields is complex and depends on historical, social and structural factors.</t>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BCIO:010093</t>
+          <t>BCIO:010098</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>discipline of current programme of study or training</t>
-        </is>
-      </c>
+      <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>sibling relationship</t>
+        </is>
+      </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr">
         <is>
-          <t>An expertise discipline of the programme of study currently undertaken by the bearer of a student or trainee role.</t>
-        </is>
-      </c>
-      <c r="N140" t="inlineStr">
-        <is>
-          <t>psychology, medicine, hairdressing</t>
-        </is>
-      </c>
-      <c r="O140" t="inlineStr">
+          <t>A family member that is a family relationship between two persons with at least one shared parent.</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>brother, sister, step-brother, step-sister</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4915,32 +4930,32 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BCIO:010124</t>
+          <t>BCIO:010096</t>
         </is>
       </c>
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>discipline of pre-existing knowledge or skill</t>
-        </is>
-      </c>
+      <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>parent or guardian</t>
+        </is>
+      </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr">
         <is>
-          <t>The expertise discipline in which the person source has acquired their pre-existing knowledge and skills.</t>
-        </is>
-      </c>
-      <c r="N141" t="inlineStr">
-        <is>
-          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
-        </is>
-      </c>
-      <c r="O141" t="inlineStr">
+          <t>A family member that is a mother, father or legal carer of a child.</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>mother, father, step-mother, step-father, guardian</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4949,27 +4964,32 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BCIO:010108</t>
+          <t>BCIO:010099</t>
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>socio demographic attribute of person source</t>
-        </is>
-      </c>
+      <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>child relationship</t>
+        </is>
+      </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr">
         <is>
-          <t>A social or demographic characteristic of a human being who is the bearer of a person source role.</t>
-        </is>
-      </c>
-      <c r="O142" t="inlineStr">
+          <t>A family member that is an offspring relationship from a person to their parent.</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>daughter, son, step-daughter, step-son</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -4978,32 +4998,32 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BCIO:010115</t>
+          <t>BCIO:010097</t>
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>religious group membership of person source</t>
-        </is>
-      </c>
+      <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>spouse or partner</t>
+        </is>
+      </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is a religious group to which an individual identifies as belonging, where a religious group is a group of people characterised by the practice of a common religion.</t>
-        </is>
-      </c>
-      <c r="N143" t="inlineStr">
-        <is>
-          <t>Muslim, Christian, Hindu, Sikh, Buddhist, Judaism</t>
-        </is>
-      </c>
-      <c r="O143" t="inlineStr">
+          <t>A family member that is an individual who is married or in a committed relationship with another individual.</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>boyfriend, girlfriend, partner, fiance, wife, husband</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -5012,16 +5032,16 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>BCIO:010116</t>
+          <t>OBI:0000245</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
-      <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>language proficiency of person source</t>
-        </is>
-      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>organization</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
@@ -5029,15 +5049,10 @@
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is an individual’s ability to speak or perform in the intervention language.</t>
-        </is>
-      </c>
-      <c r="N144" t="inlineStr">
-        <is>
-          <t>fluent, native</t>
-        </is>
-      </c>
-      <c r="O144" t="inlineStr">
+          <t>An entity that can bear roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -5046,16 +5061,16 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>BCIO:010110</t>
+          <t>BCIO:010139</t>
         </is>
       </c>
       <c r="B145" t="inlineStr"/>
-      <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>gender of person source</t>
-        </is>
-      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>organisation source</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
@@ -5063,15 +5078,10 @@
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
-        </is>
-      </c>
-      <c r="N145" t="inlineStr">
-        <is>
-          <t>gender</t>
-        </is>
-      </c>
-      <c r="O145" t="inlineStr">
+          <t>An organisation that is the bearer of a behaviour change intervention source role, such as voluntary, public or commercial organisations delivering a behaviour change intervention.</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -5080,50 +5090,35 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>BCIO:010113</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr"/>
+          <t>BFO:0000015</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000015</t>
+        </is>
+      </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>other gender</t>
-        </is>
-      </c>
+      <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>A gender of person source that reports not belonging to the cultural gender role distinctions of either male or female.</t>
-        </is>
-      </c>
-      <c r="N146" t="inlineStr">
-        <is>
-          <t>non-binary, transexual</t>
-        </is>
-      </c>
-      <c r="O146" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>BCIO:010114</t>
+          <t>BCIO:010128</t>
         </is>
       </c>
       <c r="B147" t="inlineStr"/>
-      <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>ethnic group membership of person source</t>
-        </is>
-      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>supervision of person source</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
@@ -5131,15 +5126,15 @@
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is the ethnic group to which an individual identifies as belonging, where an ethic group is a population whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
-        </is>
-      </c>
-      <c r="N147" t="inlineStr">
-        <is>
-          <t>black, white, Indian, Chinese, Somalian</t>
-        </is>
-      </c>
-      <c r="O147" t="inlineStr">
+          <t>A process in which a person source is formally provided, by an individual with appropriate expertise, with corrective and skill-enhancing feedback, regarding the person source’s performance in delivering the intervention.</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>supervised</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -5148,16 +5143,16 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>BCIO:010119</t>
+          <t>BCIO:010130</t>
         </is>
       </c>
       <c r="B148" t="inlineStr"/>
-      <c r="C148" t="inlineStr"/>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>psychological influence on intervention delivery of person source</t>
-        </is>
-      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>payment of person source</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
@@ -5165,10 +5160,10 @@
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is their existing psychological attributes related to or potentially affecting the target behaviour.</t>
-        </is>
-      </c>
-      <c r="O148" t="inlineStr">
+          <t>A process in which a person source is paid or compensated for delivering the intervention.</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -5177,14 +5172,14 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>BCIO:010109</t>
+          <t>BCIO:010131</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr">
         <is>
-          <t>age of person source</t>
+          <t>monetary payment</t>
         </is>
       </c>
       <c r="E149" t="inlineStr"/>
@@ -5194,10 +5189,15 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
-        </is>
-      </c>
-      <c r="O149" t="inlineStr">
+          <t>A payment of person source that is money, vouchers or valued objects given to the source for delivering the intervention.</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>paid in cash, vouchers</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -5206,14 +5206,14 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>BCIO:010117</t>
+          <t>BCIO:010132</t>
         </is>
       </c>
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr">
         <is>
-          <t>health status of person source</t>
+          <t>non-monetary payment</t>
         </is>
       </c>
       <c r="E150" t="inlineStr"/>
@@ -5223,15 +5223,15 @@
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that represents their mental or physical condition.</t>
-        </is>
-      </c>
-      <c r="N150" t="inlineStr">
-        <is>
-          <t>diabetes, cancer, depression, obesity, overweight</t>
-        </is>
-      </c>
-      <c r="O150" t="inlineStr">
+          <t>A payment of person source that is non-monetary compensation given to the source for delivering the intervention.</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>course credit</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -5240,16 +5240,16 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>BCIO:010118</t>
+          <t>BCIO:010129</t>
         </is>
       </c>
       <c r="B151" t="inlineStr"/>
-      <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>target behaviour of person source</t>
-        </is>
-      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>volunteering of person source</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
@@ -5257,15 +5257,15 @@
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is their amount or experience of the intervention’s target behaviour.</t>
-        </is>
-      </c>
-      <c r="N151" t="inlineStr">
-        <is>
-          <t>source is highly physically active</t>
-        </is>
-      </c>
-      <c r="O151" t="inlineStr">
+          <t>A process in which a person source delivers the intervention on a voluntary basis without formal compensation.</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>voluntary basis, volunteering</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
         <is>
           <t>Source</t>
         </is>

--- a/Source/BCIO-source-hierarchy.xlsx
+++ b/Source/BCIO-source-hierarchy.xlsx
@@ -948,7 +948,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>A process in which at least one bodily component of an organsim participates.</t>
+          <t>A &lt;process&gt; in which at least one bodily component of an organism participates.</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>A bodily process that occurs in the brain, and that can of itself be conscious, or can give rise to a process that can of itself be conscious or can give rise to behaviour.</t>
+          <t>A &lt;bodily process&gt; that occurs in the brain, and that can of itself be conscious, or can give rise to a process that can of itself be conscious or can give rise to behaviour.</t>
         </is>
       </c>
     </row>
@@ -1645,7 +1645,7 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>enjoyment</t>
+          <t>Genuss</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -1968,7 +1968,7 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>subjective emotional feeling</t>
+          <t>subjective affective feeling</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -3968,7 +3968,7 @@
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr">
         <is>
-          <t>A continuant that is a bearer of quality and realizable entity entities, in which other entities inhere and which itself cannot inhere in anything.</t>
+          <t>b is an independent continuant = Def. b is a continuant which is such that there is no c and no t such that b s-depends_on c at t. (axiom label in BFO2 Reference: [017-002])</t>
         </is>
       </c>
     </row>
@@ -4142,7 +4142,7 @@
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr">
         <is>
-          <t>An independent continuant that is spatially extended whose identity is independent of that of other entities and can be maintained through time.</t>
+          <t>An &lt;independent continuant&gt; that is spatially extended whose identity is independent of that of other entities and can be maintained through time.</t>
         </is>
       </c>
     </row>
@@ -4604,7 +4604,7 @@
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr">
         <is>
-          <t>pharmacy facility</t>
+          <t>établissement de pharmacologie</t>
         </is>
       </c>
       <c r="I154" t="inlineStr"/>
@@ -5918,7 +5918,7 @@
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr">
         <is>
-          <t>fiat object</t>
+          <t>fiat object part</t>
         </is>
       </c>
       <c r="F200" t="inlineStr"/>
@@ -6876,7 +6876,7 @@
       <c r="B235" t="inlineStr"/>
       <c r="C235" t="inlineStr">
         <is>
-          <t>specifically dependent continuant</t>
+          <t>characteristic</t>
         </is>
       </c>
       <c r="D235" t="inlineStr"/>
@@ -7047,7 +7047,7 @@
       <c r="C240" t="inlineStr"/>
       <c r="D240" t="inlineStr">
         <is>
-          <t>realizable</t>
+          <t>realizable entity</t>
         </is>
       </c>
       <c r="E240" t="inlineStr"/>
@@ -11285,7 +11285,7 @@
       <c r="L362" t="inlineStr"/>
       <c r="M362" t="inlineStr">
         <is>
-          <t>A disposition that inheres in some extended organism.</t>
+          <t>A &lt;disposition&gt; that inheres in some extended organism.</t>
         </is>
       </c>
     </row>
@@ -11312,7 +11312,7 @@
       <c r="L363" t="inlineStr"/>
       <c r="M363" t="inlineStr">
         <is>
-          <t>A &lt;bodily disposition&gt; that is realized in a mental process.</t>
+          <t>A bodily disposition that is realized in a mental process.</t>
         </is>
       </c>
     </row>
